--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,33 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Greece Super League</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>['59', '90+1']</t>
+  </si>
+  <si>
+    <t>['55', '61']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +282,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +779,197 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6936997</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45156.625</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2">
+        <v>7</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>3.4</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>3.5</v>
+      </c>
+      <c r="W2">
+        <v>1.5</v>
+      </c>
+      <c r="X2">
+        <v>2.5</v>
+      </c>
+      <c r="Y2">
+        <v>3.4</v>
+      </c>
+      <c r="Z2">
+        <v>1.3</v>
+      </c>
+      <c r="AA2">
+        <v>10</v>
+      </c>
+      <c r="AB2">
+        <v>1.06</v>
+      </c>
+      <c r="AC2">
+        <v>2.55</v>
+      </c>
+      <c r="AD2">
+        <v>3.2</v>
+      </c>
+      <c r="AE2">
+        <v>2.75</v>
+      </c>
+      <c r="AF2">
+        <v>1.07</v>
+      </c>
+      <c r="AG2">
+        <v>7</v>
+      </c>
+      <c r="AH2">
+        <v>1.4</v>
+      </c>
+      <c r="AI2">
+        <v>2.7</v>
+      </c>
+      <c r="AJ2">
+        <v>2.2</v>
+      </c>
+      <c r="AK2">
+        <v>1.6</v>
+      </c>
+      <c r="AL2">
+        <v>1.95</v>
+      </c>
+      <c r="AM2">
+        <v>1.8</v>
+      </c>
+      <c r="AN2">
+        <v>1.36</v>
+      </c>
+      <c r="AO2">
+        <v>1.3</v>
+      </c>
+      <c r="AP2">
+        <v>1.53</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>1.93</v>
+      </c>
+      <c r="AY2">
+        <v>7.9</v>
+      </c>
+      <c r="AZ2">
+        <v>2.17</v>
+      </c>
+      <c r="BA2">
+        <v>1.44</v>
+      </c>
+      <c r="BB2">
+        <v>1.93</v>
+      </c>
+      <c r="BC2">
+        <v>2.4</v>
+      </c>
+      <c r="BD2">
+        <v>3.4</v>
+      </c>
+      <c r="BE2">
+        <v>5.6</v>
+      </c>
+      <c r="BF2">
+        <v>6</v>
+      </c>
+      <c r="BG2">
+        <v>9</v>
+      </c>
+      <c r="BH2">
+        <v>2</v>
+      </c>
+      <c r="BI2">
+        <v>4</v>
+      </c>
+      <c r="BJ2">
+        <v>8</v>
+      </c>
+      <c r="BK2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -214,13 +214,55 @@
     <t>Volos NFC</t>
   </si>
   <si>
+    <t>PAS Giannina</t>
+  </si>
+  <si>
+    <t>OFI</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Olympiakos Piraeus</t>
+  </si>
+  <si>
     <t>Lamia</t>
   </si>
   <si>
+    <t>Kifisia</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>Panserraikos</t>
+  </si>
+  <si>
     <t>['59', '90+1']</t>
   </si>
   <si>
+    <t>['31', '53', '90+8']</t>
+  </si>
+  <si>
+    <t>['17', '38', '90+1']</t>
+  </si>
+  <si>
+    <t>['22', '54', '59']</t>
+  </si>
+  <si>
+    <t>['63', '87']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['40', '64']</t>
   </si>
 </sst>
 </file>
@@ -582,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,7 +844,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -823,10 +865,10 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -968,6 +1010,770 @@
       </c>
       <c r="BK2">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6937002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45158.54166666666</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>9</v>
+      </c>
+      <c r="T3">
+        <v>2.88</v>
+      </c>
+      <c r="U3">
+        <v>1.95</v>
+      </c>
+      <c r="V3">
+        <v>4.5</v>
+      </c>
+      <c r="W3">
+        <v>1.53</v>
+      </c>
+      <c r="X3">
+        <v>2.38</v>
+      </c>
+      <c r="Y3">
+        <v>3.5</v>
+      </c>
+      <c r="Z3">
+        <v>1.29</v>
+      </c>
+      <c r="AA3">
+        <v>11</v>
+      </c>
+      <c r="AB3">
+        <v>1.05</v>
+      </c>
+      <c r="AC3">
+        <v>2.12</v>
+      </c>
+      <c r="AD3">
+        <v>2.85</v>
+      </c>
+      <c r="AE3">
+        <v>3.81</v>
+      </c>
+      <c r="AF3">
+        <v>1.06</v>
+      </c>
+      <c r="AG3">
+        <v>7.41</v>
+      </c>
+      <c r="AH3">
+        <v>1.43</v>
+      </c>
+      <c r="AI3">
+        <v>2.65</v>
+      </c>
+      <c r="AJ3">
+        <v>2.19</v>
+      </c>
+      <c r="AK3">
+        <v>1.6</v>
+      </c>
+      <c r="AL3">
+        <v>2.05</v>
+      </c>
+      <c r="AM3">
+        <v>1.7</v>
+      </c>
+      <c r="AN3">
+        <v>1.28</v>
+      </c>
+      <c r="AO3">
+        <v>1.28</v>
+      </c>
+      <c r="AP3">
+        <v>1.75</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1.69</v>
+      </c>
+      <c r="AY3">
+        <v>7.5</v>
+      </c>
+      <c r="AZ3">
+        <v>2.66</v>
+      </c>
+      <c r="BA3">
+        <v>1.58</v>
+      </c>
+      <c r="BB3">
+        <v>2.03</v>
+      </c>
+      <c r="BC3">
+        <v>2.75</v>
+      </c>
+      <c r="BD3">
+        <v>3.48</v>
+      </c>
+      <c r="BE3">
+        <v>5.1</v>
+      </c>
+      <c r="BF3">
+        <v>5</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>6</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6936999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45158.5625</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>3.5</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>3.4</v>
+      </c>
+      <c r="W4">
+        <v>1.5</v>
+      </c>
+      <c r="X4">
+        <v>2.5</v>
+      </c>
+      <c r="Y4">
+        <v>3.4</v>
+      </c>
+      <c r="Z4">
+        <v>1.3</v>
+      </c>
+      <c r="AA4">
+        <v>10</v>
+      </c>
+      <c r="AB4">
+        <v>1.06</v>
+      </c>
+      <c r="AC4">
+        <v>2.8</v>
+      </c>
+      <c r="AD4">
+        <v>3.2</v>
+      </c>
+      <c r="AE4">
+        <v>2.6</v>
+      </c>
+      <c r="AF4">
+        <v>1.07</v>
+      </c>
+      <c r="AG4">
+        <v>6.5</v>
+      </c>
+      <c r="AH4">
+        <v>1.3</v>
+      </c>
+      <c r="AI4">
+        <v>3.2</v>
+      </c>
+      <c r="AJ4">
+        <v>2.25</v>
+      </c>
+      <c r="AK4">
+        <v>1.62</v>
+      </c>
+      <c r="AL4">
+        <v>1.95</v>
+      </c>
+      <c r="AM4">
+        <v>1.8</v>
+      </c>
+      <c r="AN4">
+        <v>1.52</v>
+      </c>
+      <c r="AO4">
+        <v>1.35</v>
+      </c>
+      <c r="AP4">
+        <v>1.3</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>3</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>2.17</v>
+      </c>
+      <c r="AY4">
+        <v>7.9</v>
+      </c>
+      <c r="AZ4">
+        <v>1.93</v>
+      </c>
+      <c r="BA4">
+        <v>1.53</v>
+      </c>
+      <c r="BB4">
+        <v>1.95</v>
+      </c>
+      <c r="BC4">
+        <v>2.6</v>
+      </c>
+      <c r="BD4">
+        <v>3.65</v>
+      </c>
+      <c r="BE4">
+        <v>5.5</v>
+      </c>
+      <c r="BF4">
+        <v>6</v>
+      </c>
+      <c r="BG4">
+        <v>7</v>
+      </c>
+      <c r="BH4">
+        <v>7</v>
+      </c>
+      <c r="BI4">
+        <v>4</v>
+      </c>
+      <c r="BJ4">
+        <v>13</v>
+      </c>
+      <c r="BK4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6937001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45158.58333333334</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>1.8</v>
+      </c>
+      <c r="U5">
+        <v>2.38</v>
+      </c>
+      <c r="V5">
+        <v>9.5</v>
+      </c>
+      <c r="W5">
+        <v>1.4</v>
+      </c>
+      <c r="X5">
+        <v>2.75</v>
+      </c>
+      <c r="Y5">
+        <v>2.75</v>
+      </c>
+      <c r="Z5">
+        <v>1.4</v>
+      </c>
+      <c r="AA5">
+        <v>8</v>
+      </c>
+      <c r="AB5">
+        <v>1.08</v>
+      </c>
+      <c r="AC5">
+        <v>1.36</v>
+      </c>
+      <c r="AD5">
+        <v>3.56</v>
+      </c>
+      <c r="AE5">
+        <v>6.6</v>
+      </c>
+      <c r="AF5">
+        <v>1.04</v>
+      </c>
+      <c r="AG5">
+        <v>8.5</v>
+      </c>
+      <c r="AH5">
+        <v>1.25</v>
+      </c>
+      <c r="AI5">
+        <v>3.5</v>
+      </c>
+      <c r="AJ5">
+        <v>1.86</v>
+      </c>
+      <c r="AK5">
+        <v>1.69</v>
+      </c>
+      <c r="AL5">
+        <v>2.5</v>
+      </c>
+      <c r="AM5">
+        <v>1.5</v>
+      </c>
+      <c r="AN5">
+        <v>1.02</v>
+      </c>
+      <c r="AO5">
+        <v>1.15</v>
+      </c>
+      <c r="AP5">
+        <v>3.6</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>3</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1.11</v>
+      </c>
+      <c r="AY5">
+        <v>12.7</v>
+      </c>
+      <c r="AZ5">
+        <v>8.9</v>
+      </c>
+      <c r="BA5">
+        <v>1.51</v>
+      </c>
+      <c r="BB5">
+        <v>1.92</v>
+      </c>
+      <c r="BC5">
+        <v>2.51</v>
+      </c>
+      <c r="BD5">
+        <v>3.48</v>
+      </c>
+      <c r="BE5">
+        <v>4.9</v>
+      </c>
+      <c r="BF5">
+        <v>8</v>
+      </c>
+      <c r="BG5">
+        <v>2</v>
+      </c>
+      <c r="BH5">
+        <v>5</v>
+      </c>
+      <c r="BI5">
+        <v>6</v>
+      </c>
+      <c r="BJ5">
+        <v>13</v>
+      </c>
+      <c r="BK5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6936998</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45158.66666666666</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6">
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>11</v>
+      </c>
+      <c r="T6">
+        <v>1.57</v>
+      </c>
+      <c r="U6">
+        <v>2.75</v>
+      </c>
+      <c r="V6">
+        <v>12</v>
+      </c>
+      <c r="W6">
+        <v>1.29</v>
+      </c>
+      <c r="X6">
+        <v>3.5</v>
+      </c>
+      <c r="Y6">
+        <v>2.25</v>
+      </c>
+      <c r="Z6">
+        <v>1.57</v>
+      </c>
+      <c r="AA6">
+        <v>5.5</v>
+      </c>
+      <c r="AB6">
+        <v>1.14</v>
+      </c>
+      <c r="AC6">
+        <v>1.19</v>
+      </c>
+      <c r="AD6">
+        <v>6.1</v>
+      </c>
+      <c r="AE6">
+        <v>13</v>
+      </c>
+      <c r="AF6">
+        <v>1.02</v>
+      </c>
+      <c r="AG6">
+        <v>10</v>
+      </c>
+      <c r="AH6">
+        <v>1.14</v>
+      </c>
+      <c r="AI6">
+        <v>4.7</v>
+      </c>
+      <c r="AJ6">
+        <v>1.61</v>
+      </c>
+      <c r="AK6">
+        <v>2.23</v>
+      </c>
+      <c r="AL6">
+        <v>2.5</v>
+      </c>
+      <c r="AM6">
+        <v>1.5</v>
+      </c>
+      <c r="AN6">
+        <v>1.03</v>
+      </c>
+      <c r="AO6">
+        <v>1.05</v>
+      </c>
+      <c r="AP6">
+        <v>5</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>3</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>1.23</v>
+      </c>
+      <c r="AY6">
+        <v>10</v>
+      </c>
+      <c r="AZ6">
+        <v>5.57</v>
+      </c>
+      <c r="BA6">
+        <v>1.46</v>
+      </c>
+      <c r="BB6">
+        <v>1.88</v>
+      </c>
+      <c r="BC6">
+        <v>2.47</v>
+      </c>
+      <c r="BD6">
+        <v>3.7</v>
+      </c>
+      <c r="BE6">
+        <v>4.9</v>
+      </c>
+      <c r="BF6">
+        <v>3</v>
+      </c>
+      <c r="BG6">
+        <v>2</v>
+      </c>
+      <c r="BH6">
+        <v>20</v>
+      </c>
+      <c r="BI6">
+        <v>3</v>
+      </c>
+      <c r="BJ6">
+        <v>23</v>
+      </c>
+      <c r="BK6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -1185,22 +1185,22 @@
         <v>5.1</v>
       </c>
       <c r="BF3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG3">
         <v>0</v>
       </c>
       <c r="BH3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:63">

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -226,6 +226,18 @@
     <t>Olympiakos Piraeus</t>
   </si>
   <si>
+    <t>Panaitolikos</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>AEK Athens</t>
+  </si>
+  <si>
     <t>Lamia</t>
   </si>
   <si>
@@ -235,9 +247,6 @@
     <t>Aris</t>
   </si>
   <si>
-    <t>Asteras Tripolis</t>
-  </si>
-  <si>
     <t>Panserraikos</t>
   </si>
   <si>
@@ -256,13 +265,28 @@
     <t>['63', '87']</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['14', '21', '90+6']</t>
+  </si>
+  <si>
+    <t>['11', '37', '74']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>['40', '64']</t>
+  </si>
+  <si>
+    <t>['1']</t>
   </si>
 </sst>
 </file>
@@ -624,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK6"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -844,7 +868,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -865,10 +889,10 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1035,7 +1059,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1056,10 +1080,10 @@
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1226,7 +1250,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1247,10 +1271,10 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1417,7 +1441,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1438,10 +1462,10 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1608,7 +1632,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1629,10 +1653,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -1722,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1774,6 +1798,961 @@
       </c>
       <c r="BK6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6937007</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45163.625</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>3.13</v>
+      </c>
+      <c r="U7">
+        <v>1.92</v>
+      </c>
+      <c r="V7">
+        <v>3.78</v>
+      </c>
+      <c r="W7">
+        <v>1.53</v>
+      </c>
+      <c r="X7">
+        <v>2.4</v>
+      </c>
+      <c r="Y7">
+        <v>3.54</v>
+      </c>
+      <c r="Z7">
+        <v>1.27</v>
+      </c>
+      <c r="AA7">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB7">
+        <v>1.04</v>
+      </c>
+      <c r="AC7">
+        <v>2.34</v>
+      </c>
+      <c r="AD7">
+        <v>2.88</v>
+      </c>
+      <c r="AE7">
+        <v>3.15</v>
+      </c>
+      <c r="AF7">
+        <v>1.06</v>
+      </c>
+      <c r="AG7">
+        <v>6.6</v>
+      </c>
+      <c r="AH7">
+        <v>1.45</v>
+      </c>
+      <c r="AI7">
+        <v>2.48</v>
+      </c>
+      <c r="AJ7">
+        <v>2.41</v>
+      </c>
+      <c r="AK7">
+        <v>1.48</v>
+      </c>
+      <c r="AL7">
+        <v>2.03</v>
+      </c>
+      <c r="AM7">
+        <v>1.7</v>
+      </c>
+      <c r="AN7">
+        <v>1.38</v>
+      </c>
+      <c r="AO7">
+        <v>1.36</v>
+      </c>
+      <c r="AP7">
+        <v>1.53</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>1.76</v>
+      </c>
+      <c r="AY7">
+        <v>8.1</v>
+      </c>
+      <c r="AZ7">
+        <v>2.48</v>
+      </c>
+      <c r="BA7">
+        <v>1.49</v>
+      </c>
+      <c r="BB7">
+        <v>1.9</v>
+      </c>
+      <c r="BC7">
+        <v>2.55</v>
+      </c>
+      <c r="BD7">
+        <v>3.7</v>
+      </c>
+      <c r="BE7">
+        <v>4.8</v>
+      </c>
+      <c r="BF7">
+        <v>8</v>
+      </c>
+      <c r="BG7">
+        <v>3</v>
+      </c>
+      <c r="BH7">
+        <v>8</v>
+      </c>
+      <c r="BI7">
+        <v>5</v>
+      </c>
+      <c r="BJ7">
+        <v>16</v>
+      </c>
+      <c r="BK7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6937004</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45164.58333333334</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <v>1.5</v>
+      </c>
+      <c r="X8">
+        <v>2.5</v>
+      </c>
+      <c r="Y8">
+        <v>3.5</v>
+      </c>
+      <c r="Z8">
+        <v>1.29</v>
+      </c>
+      <c r="AA8">
+        <v>10</v>
+      </c>
+      <c r="AB8">
+        <v>1.06</v>
+      </c>
+      <c r="AC8">
+        <v>2.3</v>
+      </c>
+      <c r="AD8">
+        <v>3.2</v>
+      </c>
+      <c r="AE8">
+        <v>3.25</v>
+      </c>
+      <c r="AF8">
+        <v>1.08</v>
+      </c>
+      <c r="AG8">
+        <v>8.5</v>
+      </c>
+      <c r="AH8">
+        <v>1.44</v>
+      </c>
+      <c r="AI8">
+        <v>2.8</v>
+      </c>
+      <c r="AJ8">
+        <v>2.3</v>
+      </c>
+      <c r="AK8">
+        <v>1.5</v>
+      </c>
+      <c r="AL8">
+        <v>1.95</v>
+      </c>
+      <c r="AM8">
+        <v>1.8</v>
+      </c>
+      <c r="AN8">
+        <v>1.3</v>
+      </c>
+      <c r="AO8">
+        <v>1.33</v>
+      </c>
+      <c r="AP8">
+        <v>1.69</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>3</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1.82</v>
+      </c>
+      <c r="AY8">
+        <v>7.5</v>
+      </c>
+      <c r="AZ8">
+        <v>2.42</v>
+      </c>
+      <c r="BA8">
+        <v>1.55</v>
+      </c>
+      <c r="BB8">
+        <v>2</v>
+      </c>
+      <c r="BC8">
+        <v>2.75</v>
+      </c>
+      <c r="BD8">
+        <v>4</v>
+      </c>
+      <c r="BE8">
+        <v>6.5</v>
+      </c>
+      <c r="BF8">
+        <v>2</v>
+      </c>
+      <c r="BG8">
+        <v>9</v>
+      </c>
+      <c r="BH8">
+        <v>4</v>
+      </c>
+      <c r="BI8">
+        <v>9</v>
+      </c>
+      <c r="BJ8">
+        <v>6</v>
+      </c>
+      <c r="BK8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6937006</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45164.58333333334</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>1.75</v>
+      </c>
+      <c r="U9">
+        <v>2.5</v>
+      </c>
+      <c r="V9">
+        <v>9.5</v>
+      </c>
+      <c r="W9">
+        <v>1.34</v>
+      </c>
+      <c r="X9">
+        <v>3.04</v>
+      </c>
+      <c r="Y9">
+        <v>2.73</v>
+      </c>
+      <c r="Z9">
+        <v>1.41</v>
+      </c>
+      <c r="AA9">
+        <v>6.79</v>
+      </c>
+      <c r="AB9">
+        <v>1.08</v>
+      </c>
+      <c r="AC9">
+        <v>1.3</v>
+      </c>
+      <c r="AD9">
+        <v>5</v>
+      </c>
+      <c r="AE9">
+        <v>12</v>
+      </c>
+      <c r="AF9">
+        <v>1.03</v>
+      </c>
+      <c r="AG9">
+        <v>12</v>
+      </c>
+      <c r="AH9">
+        <v>1.28</v>
+      </c>
+      <c r="AI9">
+        <v>3.6</v>
+      </c>
+      <c r="AJ9">
+        <v>2</v>
+      </c>
+      <c r="AK9">
+        <v>1.67</v>
+      </c>
+      <c r="AL9">
+        <v>2.5</v>
+      </c>
+      <c r="AM9">
+        <v>1.52</v>
+      </c>
+      <c r="AN9">
+        <v>1.03</v>
+      </c>
+      <c r="AO9">
+        <v>1.11</v>
+      </c>
+      <c r="AP9">
+        <v>3.75</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>3</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>1.11</v>
+      </c>
+      <c r="AY9">
+        <v>12</v>
+      </c>
+      <c r="AZ9">
+        <v>8.25</v>
+      </c>
+      <c r="BA9">
+        <v>1.4</v>
+      </c>
+      <c r="BB9">
+        <v>1.93</v>
+      </c>
+      <c r="BC9">
+        <v>2.27</v>
+      </c>
+      <c r="BD9">
+        <v>3.05</v>
+      </c>
+      <c r="BE9">
+        <v>4.4</v>
+      </c>
+      <c r="BF9">
+        <v>7</v>
+      </c>
+      <c r="BG9">
+        <v>3</v>
+      </c>
+      <c r="BH9">
+        <v>4</v>
+      </c>
+      <c r="BI9">
+        <v>2</v>
+      </c>
+      <c r="BJ9">
+        <v>11</v>
+      </c>
+      <c r="BK9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6937003</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45164.64583333334</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>13</v>
+      </c>
+      <c r="T10">
+        <v>1.59</v>
+      </c>
+      <c r="U10">
+        <v>2.67</v>
+      </c>
+      <c r="V10">
+        <v>10.9</v>
+      </c>
+      <c r="W10">
+        <v>1.3</v>
+      </c>
+      <c r="X10">
+        <v>3.34</v>
+      </c>
+      <c r="Y10">
+        <v>2.43</v>
+      </c>
+      <c r="Z10">
+        <v>1.52</v>
+      </c>
+      <c r="AA10">
+        <v>5.7</v>
+      </c>
+      <c r="AB10">
+        <v>1.12</v>
+      </c>
+      <c r="AC10">
+        <v>1.23</v>
+      </c>
+      <c r="AD10">
+        <v>6.1</v>
+      </c>
+      <c r="AE10">
+        <v>12.5</v>
+      </c>
+      <c r="AF10">
+        <v>1.02</v>
+      </c>
+      <c r="AG10">
+        <v>15</v>
+      </c>
+      <c r="AH10">
+        <v>1.2</v>
+      </c>
+      <c r="AI10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ10">
+        <v>1.57</v>
+      </c>
+      <c r="AK10">
+        <v>2.15</v>
+      </c>
+      <c r="AL10">
+        <v>2.47</v>
+      </c>
+      <c r="AM10">
+        <v>1.52</v>
+      </c>
+      <c r="AN10">
+        <v>1.01</v>
+      </c>
+      <c r="AO10">
+        <v>1.1</v>
+      </c>
+      <c r="AP10">
+        <v>4.6</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>0.5</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0.58</v>
+      </c>
+      <c r="AW10">
+        <v>0.58</v>
+      </c>
+      <c r="AX10">
+        <v>1.13</v>
+      </c>
+      <c r="AY10">
+        <v>11</v>
+      </c>
+      <c r="AZ10">
+        <v>7.7</v>
+      </c>
+      <c r="BA10">
+        <v>1.49</v>
+      </c>
+      <c r="BB10">
+        <v>2</v>
+      </c>
+      <c r="BC10">
+        <v>2.55</v>
+      </c>
+      <c r="BD10">
+        <v>3.7</v>
+      </c>
+      <c r="BE10">
+        <v>4.7</v>
+      </c>
+      <c r="BF10">
+        <v>10</v>
+      </c>
+      <c r="BG10">
+        <v>5</v>
+      </c>
+      <c r="BH10">
+        <v>20</v>
+      </c>
+      <c r="BI10">
+        <v>3</v>
+      </c>
+      <c r="BJ10">
+        <v>30</v>
+      </c>
+      <c r="BK10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6937009</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45165.55208333334</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>2.05</v>
+      </c>
+      <c r="V11">
+        <v>2.88</v>
+      </c>
+      <c r="W11">
+        <v>1.44</v>
+      </c>
+      <c r="X11">
+        <v>2.63</v>
+      </c>
+      <c r="Y11">
+        <v>3.25</v>
+      </c>
+      <c r="Z11">
+        <v>1.33</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
+      </c>
+      <c r="AB11">
+        <v>1.06</v>
+      </c>
+      <c r="AC11">
+        <v>3.93</v>
+      </c>
+      <c r="AD11">
+        <v>3.38</v>
+      </c>
+      <c r="AE11">
+        <v>1.97</v>
+      </c>
+      <c r="AF11">
+        <v>1.07</v>
+      </c>
+      <c r="AG11">
+        <v>7.5</v>
+      </c>
+      <c r="AH11">
+        <v>1.4</v>
+      </c>
+      <c r="AI11">
+        <v>2.75</v>
+      </c>
+      <c r="AJ11">
+        <v>2.2</v>
+      </c>
+      <c r="AK11">
+        <v>1.57</v>
+      </c>
+      <c r="AL11">
+        <v>1.95</v>
+      </c>
+      <c r="AM11">
+        <v>1.8</v>
+      </c>
+      <c r="AN11">
+        <v>1.8</v>
+      </c>
+      <c r="AO11">
+        <v>1.33</v>
+      </c>
+      <c r="AP11">
+        <v>1.22</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>3</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>1.51</v>
+      </c>
+      <c r="AW11">
+        <v>1.51</v>
+      </c>
+      <c r="AX11">
+        <v>2.51</v>
+      </c>
+      <c r="AY11">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ11">
+        <v>1.74</v>
+      </c>
+      <c r="BA11">
+        <v>1.49</v>
+      </c>
+      <c r="BB11">
+        <v>1.98</v>
+      </c>
+      <c r="BC11">
+        <v>2.55</v>
+      </c>
+      <c r="BD11">
+        <v>3.7</v>
+      </c>
+      <c r="BE11">
+        <v>4.9</v>
+      </c>
+      <c r="BF11">
+        <v>3</v>
+      </c>
+      <c r="BG11">
+        <v>6</v>
+      </c>
+      <c r="BH11">
+        <v>3</v>
+      </c>
+      <c r="BI11">
+        <v>1</v>
+      </c>
+      <c r="BJ11">
+        <v>6</v>
+      </c>
+      <c r="BK11">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -250,6 +250,9 @@
     <t>Panserraikos</t>
   </si>
   <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
     <t>['59', '90+1']</t>
   </si>
   <si>
@@ -280,6 +283,12 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['45+2', '78']</t>
+  </si>
+  <si>
+    <t>['32', '45', '49', '77']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -287,6 +296,9 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['75']</t>
   </si>
 </sst>
 </file>
@@ -648,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,10 +901,10 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1080,10 +1092,10 @@
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1271,10 +1283,10 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1462,10 +1474,10 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1653,10 +1665,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -1844,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2035,10 +2047,10 @@
         <v>3</v>
       </c>
       <c r="O8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" t="s">
         <v>84</v>
-      </c>
-      <c r="P8" t="s">
-        <v>83</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2164,10 +2176,10 @@
         <v>6.5</v>
       </c>
       <c r="BF8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH8">
         <v>4</v>
@@ -2176,10 +2188,10 @@
         <v>9</v>
       </c>
       <c r="BJ8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK8">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:63">
@@ -2226,10 +2238,10 @@
         <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2355,13 +2367,13 @@
         <v>4.4</v>
       </c>
       <c r="BF9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BI9">
         <v>2</v>
@@ -2370,7 +2382,7 @@
         <v>11</v>
       </c>
       <c r="BK9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:63">
@@ -2417,10 +2429,10 @@
         <v>2</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -2546,22 +2558,22 @@
         <v>4.7</v>
       </c>
       <c r="BF10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BG10">
         <v>5</v>
       </c>
       <c r="BH10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BI10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ10">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BK10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:63">
@@ -2608,10 +2620,10 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -2737,13 +2749,13 @@
         <v>4.9</v>
       </c>
       <c r="BF11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI11">
         <v>1</v>
@@ -2752,7 +2764,389 @@
         <v>6</v>
       </c>
       <c r="BK11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6937008</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45165.625</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>13</v>
+      </c>
+      <c r="T12">
+        <v>1.62</v>
+      </c>
+      <c r="U12">
+        <v>2.63</v>
+      </c>
+      <c r="V12">
+        <v>11</v>
+      </c>
+      <c r="W12">
+        <v>1.3</v>
+      </c>
+      <c r="X12">
+        <v>3.4</v>
+      </c>
+      <c r="Y12">
+        <v>2.38</v>
+      </c>
+      <c r="Z12">
+        <v>1.53</v>
+      </c>
+      <c r="AA12">
+        <v>6</v>
+      </c>
+      <c r="AB12">
+        <v>1.13</v>
+      </c>
+      <c r="AC12">
+        <v>1.2</v>
+      </c>
+      <c r="AD12">
+        <v>4.5</v>
+      </c>
+      <c r="AE12">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="AF12">
+        <v>1.01</v>
+      </c>
+      <c r="AG12">
+        <v>17</v>
+      </c>
+      <c r="AH12">
+        <v>1.18</v>
+      </c>
+      <c r="AI12">
+        <v>4.75</v>
+      </c>
+      <c r="AJ12">
+        <v>1.66</v>
+      </c>
+      <c r="AK12">
+        <v>2.05</v>
+      </c>
+      <c r="AL12">
+        <v>2.38</v>
+      </c>
+      <c r="AM12">
+        <v>1.53</v>
+      </c>
+      <c r="AN12">
+        <v>1.01</v>
+      </c>
+      <c r="AO12">
+        <v>1.08</v>
+      </c>
+      <c r="AP12">
+        <v>4.33</v>
+      </c>
+      <c r="AQ12">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>3</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>1.83</v>
+      </c>
+      <c r="AV12">
+        <v>0.61</v>
+      </c>
+      <c r="AW12">
+        <v>2.44</v>
+      </c>
+      <c r="AX12">
+        <v>1.04</v>
+      </c>
+      <c r="AY12">
+        <v>15.5</v>
+      </c>
+      <c r="AZ12">
+        <v>13.9</v>
+      </c>
+      <c r="BA12">
+        <v>1.49</v>
+      </c>
+      <c r="BB12">
+        <v>2</v>
+      </c>
+      <c r="BC12">
+        <v>2.55</v>
+      </c>
+      <c r="BD12">
+        <v>3.7</v>
+      </c>
+      <c r="BE12">
+        <v>5</v>
+      </c>
+      <c r="BF12">
+        <v>9</v>
+      </c>
+      <c r="BG12">
+        <v>2</v>
+      </c>
+      <c r="BH12">
+        <v>6</v>
+      </c>
+      <c r="BI12">
+        <v>4</v>
+      </c>
+      <c r="BJ12">
+        <v>15</v>
+      </c>
+      <c r="BK12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6937097</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45165.64583333334</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
         <v>7</v>
+      </c>
+      <c r="T13">
+        <v>1.83</v>
+      </c>
+      <c r="U13">
+        <v>2.61</v>
+      </c>
+      <c r="V13">
+        <v>7.43</v>
+      </c>
+      <c r="W13">
+        <v>1.29</v>
+      </c>
+      <c r="X13">
+        <v>3.35</v>
+      </c>
+      <c r="Y13">
+        <v>2.53</v>
+      </c>
+      <c r="Z13">
+        <v>1.51</v>
+      </c>
+      <c r="AA13">
+        <v>5.51</v>
+      </c>
+      <c r="AB13">
+        <v>1.12</v>
+      </c>
+      <c r="AC13">
+        <v>1.31</v>
+      </c>
+      <c r="AD13">
+        <v>5.15</v>
+      </c>
+      <c r="AE13">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AF13">
+        <v>1.02</v>
+      </c>
+      <c r="AG13">
+        <v>15</v>
+      </c>
+      <c r="AH13">
+        <v>1.21</v>
+      </c>
+      <c r="AI13">
+        <v>4.31</v>
+      </c>
+      <c r="AJ13">
+        <v>1.66</v>
+      </c>
+      <c r="AK13">
+        <v>2.14</v>
+      </c>
+      <c r="AL13">
+        <v>2</v>
+      </c>
+      <c r="AM13">
+        <v>1.75</v>
+      </c>
+      <c r="AN13">
+        <v>1.05</v>
+      </c>
+      <c r="AO13">
+        <v>1.12</v>
+      </c>
+      <c r="AP13">
+        <v>3.3</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>3</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>2.47</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>2.47</v>
+      </c>
+      <c r="AX13">
+        <v>1.19</v>
+      </c>
+      <c r="AY13">
+        <v>10</v>
+      </c>
+      <c r="AZ13">
+        <v>5.73</v>
+      </c>
+      <c r="BA13">
+        <v>1.43</v>
+      </c>
+      <c r="BB13">
+        <v>1.83</v>
+      </c>
+      <c r="BC13">
+        <v>2.4</v>
+      </c>
+      <c r="BD13">
+        <v>3.4</v>
+      </c>
+      <c r="BE13">
+        <v>4.2</v>
+      </c>
+      <c r="BF13">
+        <v>10</v>
+      </c>
+      <c r="BG13">
+        <v>2</v>
+      </c>
+      <c r="BH13">
+        <v>9</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>19</v>
+      </c>
+      <c r="BK13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -244,12 +244,12 @@
     <t>Kifisia</t>
   </si>
   <si>
+    <t>Panserraikos</t>
+  </si>
+  <si>
     <t>Aris</t>
   </si>
   <si>
-    <t>Panserraikos</t>
-  </si>
-  <si>
     <t>Atromitos</t>
   </si>
   <si>
@@ -289,6 +289,12 @@
     <t>['32', '45', '49', '77']</t>
   </si>
   <si>
+    <t>['38', '69']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -299,6 +305,12 @@
   </si>
   <si>
     <t>['75']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
   </si>
 </sst>
 </file>
@@ -660,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK13"/>
+  <dimension ref="A1:BK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +916,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1262,7 +1274,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1286,7 +1298,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1644,7 +1656,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2408,7 +2420,7 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2432,7 +2444,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -2599,7 +2611,7 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2814,7 +2826,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3147,6 +3159,388 @@
       </c>
       <c r="BK13">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6937012</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45170.625</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>8</v>
+      </c>
+      <c r="S14">
+        <v>13</v>
+      </c>
+      <c r="T14">
+        <v>3.6</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>3.25</v>
+      </c>
+      <c r="W14">
+        <v>1.5</v>
+      </c>
+      <c r="X14">
+        <v>2.5</v>
+      </c>
+      <c r="Y14">
+        <v>3.5</v>
+      </c>
+      <c r="Z14">
+        <v>1.29</v>
+      </c>
+      <c r="AA14">
+        <v>11</v>
+      </c>
+      <c r="AB14">
+        <v>1.05</v>
+      </c>
+      <c r="AC14">
+        <v>2.74</v>
+      </c>
+      <c r="AD14">
+        <v>3.05</v>
+      </c>
+      <c r="AE14">
+        <v>2.39</v>
+      </c>
+      <c r="AF14">
+        <v>1.08</v>
+      </c>
+      <c r="AG14">
+        <v>8</v>
+      </c>
+      <c r="AH14">
+        <v>1.44</v>
+      </c>
+      <c r="AI14">
+        <v>2.75</v>
+      </c>
+      <c r="AJ14">
+        <v>2.24</v>
+      </c>
+      <c r="AK14">
+        <v>1.61</v>
+      </c>
+      <c r="AL14">
+        <v>1.95</v>
+      </c>
+      <c r="AM14">
+        <v>1.8</v>
+      </c>
+      <c r="AN14">
+        <v>1.53</v>
+      </c>
+      <c r="AO14">
+        <v>1.3</v>
+      </c>
+      <c r="AP14">
+        <v>1.42</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>3</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0.44</v>
+      </c>
+      <c r="AW14">
+        <v>0.44</v>
+      </c>
+      <c r="AX14">
+        <v>2</v>
+      </c>
+      <c r="AY14">
+        <v>7.5</v>
+      </c>
+      <c r="AZ14">
+        <v>2.05</v>
+      </c>
+      <c r="BA14">
+        <v>1.46</v>
+      </c>
+      <c r="BB14">
+        <v>1.88</v>
+      </c>
+      <c r="BC14">
+        <v>2.45</v>
+      </c>
+      <c r="BD14">
+        <v>3.5</v>
+      </c>
+      <c r="BE14">
+        <v>5.1</v>
+      </c>
+      <c r="BF14">
+        <v>6</v>
+      </c>
+      <c r="BG14">
+        <v>9</v>
+      </c>
+      <c r="BH14">
+        <v>3</v>
+      </c>
+      <c r="BI14">
+        <v>4</v>
+      </c>
+      <c r="BJ14">
+        <v>9</v>
+      </c>
+      <c r="BK14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6937015</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45171.625</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15">
+        <v>3.25</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>3.6</v>
+      </c>
+      <c r="W15">
+        <v>1.5</v>
+      </c>
+      <c r="X15">
+        <v>2.5</v>
+      </c>
+      <c r="Y15">
+        <v>3.4</v>
+      </c>
+      <c r="Z15">
+        <v>1.3</v>
+      </c>
+      <c r="AA15">
+        <v>10</v>
+      </c>
+      <c r="AB15">
+        <v>1.06</v>
+      </c>
+      <c r="AC15">
+        <v>2.5</v>
+      </c>
+      <c r="AD15">
+        <v>3</v>
+      </c>
+      <c r="AE15">
+        <v>2.7</v>
+      </c>
+      <c r="AF15">
+        <v>1.07</v>
+      </c>
+      <c r="AG15">
+        <v>8.5</v>
+      </c>
+      <c r="AH15">
+        <v>1.42</v>
+      </c>
+      <c r="AI15">
+        <v>2.85</v>
+      </c>
+      <c r="AJ15">
+        <v>2.3</v>
+      </c>
+      <c r="AK15">
+        <v>1.57</v>
+      </c>
+      <c r="AL15">
+        <v>1.95</v>
+      </c>
+      <c r="AM15">
+        <v>1.8</v>
+      </c>
+      <c r="AN15">
+        <v>1.47</v>
+      </c>
+      <c r="AO15">
+        <v>1.28</v>
+      </c>
+      <c r="AP15">
+        <v>1.5</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>1.91</v>
+      </c>
+      <c r="AY15">
+        <v>7.5</v>
+      </c>
+      <c r="AZ15">
+        <v>2.2</v>
+      </c>
+      <c r="BA15">
+        <v>1.49</v>
+      </c>
+      <c r="BB15">
+        <v>1.9</v>
+      </c>
+      <c r="BC15">
+        <v>2.52</v>
+      </c>
+      <c r="BD15">
+        <v>3.6</v>
+      </c>
+      <c r="BE15">
+        <v>3.2</v>
+      </c>
+      <c r="BF15">
+        <v>5</v>
+      </c>
+      <c r="BG15">
+        <v>5</v>
+      </c>
+      <c r="BH15">
+        <v>7</v>
+      </c>
+      <c r="BI15">
+        <v>3</v>
+      </c>
+      <c r="BJ15">
+        <v>12</v>
+      </c>
+      <c r="BK15">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="106">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -295,6 +295,18 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['16', '61', '82']</t>
+  </si>
+  <si>
+    <t>['17', '32', '62', '90+5']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['8', '72']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -311,6 +323,15 @@
   </si>
   <si>
     <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['28', '85']</t>
+  </si>
+  <si>
+    <t>['32', '37', '90+3']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -672,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK15"/>
+  <dimension ref="A1:BK20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,7 +937,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1003,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1194,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1298,7 +1319,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2444,7 +2465,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -2826,7 +2847,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3208,7 +3229,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3399,7 +3420,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3525,22 +3546,977 @@
         <v>3.2</v>
       </c>
       <c r="BF15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH15">
         <v>7</v>
       </c>
       <c r="BI15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ15">
+        <v>11</v>
+      </c>
+      <c r="BK15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6937010</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45172.58333333334</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>2.2</v>
+      </c>
+      <c r="U16">
+        <v>2.2</v>
+      </c>
+      <c r="V16">
+        <v>6</v>
+      </c>
+      <c r="W16">
+        <v>1.44</v>
+      </c>
+      <c r="X16">
+        <v>2.63</v>
+      </c>
+      <c r="Y16">
+        <v>3.25</v>
+      </c>
+      <c r="Z16">
+        <v>1.33</v>
+      </c>
+      <c r="AA16">
+        <v>9</v>
+      </c>
+      <c r="AB16">
+        <v>1.07</v>
+      </c>
+      <c r="AC16">
+        <v>1.45</v>
+      </c>
+      <c r="AD16">
+        <v>3.9</v>
+      </c>
+      <c r="AE16">
+        <v>6.75</v>
+      </c>
+      <c r="AF16">
+        <v>1.06</v>
+      </c>
+      <c r="AG16">
+        <v>10</v>
+      </c>
+      <c r="AH16">
+        <v>1.36</v>
+      </c>
+      <c r="AI16">
+        <v>3.2</v>
+      </c>
+      <c r="AJ16">
+        <v>2</v>
+      </c>
+      <c r="AK16">
+        <v>1.7</v>
+      </c>
+      <c r="AL16">
+        <v>2.05</v>
+      </c>
+      <c r="AM16">
+        <v>1.7</v>
+      </c>
+      <c r="AN16">
+        <v>1.12</v>
+      </c>
+      <c r="AO16">
+        <v>1.2</v>
+      </c>
+      <c r="AP16">
+        <v>2.35</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>3</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0.79</v>
+      </c>
+      <c r="AW16">
+        <v>0.79</v>
+      </c>
+      <c r="AX16">
+        <v>1.35</v>
+      </c>
+      <c r="AY16">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ16">
+        <v>4.05</v>
+      </c>
+      <c r="BA16">
+        <v>1.55</v>
+      </c>
+      <c r="BB16">
+        <v>1.99</v>
+      </c>
+      <c r="BC16">
+        <v>2.64</v>
+      </c>
+      <c r="BD16">
+        <v>3.65</v>
+      </c>
+      <c r="BE16">
+        <v>5.5</v>
+      </c>
+      <c r="BF16">
+        <v>7</v>
+      </c>
+      <c r="BG16">
+        <v>5</v>
+      </c>
+      <c r="BH16">
+        <v>3</v>
+      </c>
+      <c r="BI16">
+        <v>4</v>
+      </c>
+      <c r="BJ16">
+        <v>10</v>
+      </c>
+      <c r="BK16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6937013</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45172.58333333334</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>7</v>
+      </c>
+      <c r="T17">
+        <v>1.73</v>
+      </c>
+      <c r="U17">
+        <v>2.5</v>
+      </c>
+      <c r="V17">
+        <v>9</v>
+      </c>
+      <c r="W17">
+        <v>1.33</v>
+      </c>
+      <c r="X17">
+        <v>3.25</v>
+      </c>
+      <c r="Y17">
+        <v>2.63</v>
+      </c>
+      <c r="Z17">
+        <v>1.44</v>
+      </c>
+      <c r="AA17">
+        <v>6.5</v>
+      </c>
+      <c r="AB17">
+        <v>1.11</v>
+      </c>
+      <c r="AC17">
+        <v>1.25</v>
+      </c>
+      <c r="AD17">
+        <v>5.25</v>
+      </c>
+      <c r="AE17">
+        <v>10</v>
+      </c>
+      <c r="AF17">
+        <v>1.03</v>
+      </c>
+      <c r="AG17">
+        <v>13</v>
+      </c>
+      <c r="AH17">
+        <v>1.22</v>
+      </c>
+      <c r="AI17">
+        <v>4</v>
+      </c>
+      <c r="AJ17">
+        <v>1.7</v>
+      </c>
+      <c r="AK17">
+        <v>2</v>
+      </c>
+      <c r="AL17">
+        <v>2.2</v>
+      </c>
+      <c r="AM17">
+        <v>1.62</v>
+      </c>
+      <c r="AN17">
+        <v>1.03</v>
+      </c>
+      <c r="AO17">
+        <v>1.11</v>
+      </c>
+      <c r="AP17">
+        <v>3.6</v>
+      </c>
+      <c r="AQ17">
+        <v>3</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AS17">
+        <v>3</v>
+      </c>
+      <c r="AT17">
+        <v>0.5</v>
+      </c>
+      <c r="AU17">
+        <v>2.51</v>
+      </c>
+      <c r="AV17">
+        <v>1.71</v>
+      </c>
+      <c r="AW17">
+        <v>4.22</v>
+      </c>
+      <c r="AX17">
+        <v>1.11</v>
+      </c>
+      <c r="AY17">
+        <v>12.7</v>
+      </c>
+      <c r="AZ17">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="BA17">
+        <v>1.41</v>
+      </c>
+      <c r="BB17">
+        <v>1.76</v>
+      </c>
+      <c r="BC17">
+        <v>2.25</v>
+      </c>
+      <c r="BD17">
+        <v>3.04</v>
+      </c>
+      <c r="BE17">
+        <v>4.5</v>
+      </c>
+      <c r="BF17">
+        <v>9</v>
+      </c>
+      <c r="BG17">
+        <v>6</v>
+      </c>
+      <c r="BH17">
+        <v>8</v>
+      </c>
+      <c r="BI17">
+        <v>2</v>
+      </c>
+      <c r="BJ17">
+        <v>17</v>
+      </c>
+      <c r="BK17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6937014</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45172.58333333334</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>6</v>
+      </c>
+      <c r="T18">
+        <v>5.5</v>
+      </c>
+      <c r="U18">
+        <v>2.2</v>
+      </c>
+      <c r="V18">
+        <v>2.25</v>
+      </c>
+      <c r="W18">
+        <v>1.4</v>
+      </c>
+      <c r="X18">
+        <v>2.75</v>
+      </c>
+      <c r="Y18">
+        <v>2.75</v>
+      </c>
+      <c r="Z18">
+        <v>1.4</v>
+      </c>
+      <c r="AA18">
+        <v>8</v>
+      </c>
+      <c r="AB18">
+        <v>1.08</v>
+      </c>
+      <c r="AC18">
+        <v>5.5</v>
+      </c>
+      <c r="AD18">
+        <v>3.75</v>
+      </c>
+      <c r="AE18">
+        <v>1.67</v>
+      </c>
+      <c r="AF18">
+        <v>1.04</v>
+      </c>
+      <c r="AG18">
+        <v>11</v>
+      </c>
+      <c r="AH18">
+        <v>1.3</v>
+      </c>
+      <c r="AI18">
+        <v>3.5</v>
+      </c>
+      <c r="AJ18">
+        <v>1.95</v>
+      </c>
+      <c r="AK18">
+        <v>1.85</v>
+      </c>
+      <c r="AL18">
+        <v>1.91</v>
+      </c>
+      <c r="AM18">
+        <v>1.91</v>
+      </c>
+      <c r="AN18">
+        <v>2.25</v>
+      </c>
+      <c r="AO18">
+        <v>1.2</v>
+      </c>
+      <c r="AP18">
+        <v>1.17</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>3</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>1.52</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>1.52</v>
+      </c>
+      <c r="AX18">
+        <v>2.99</v>
+      </c>
+      <c r="AY18">
+        <v>8.6</v>
+      </c>
+      <c r="AZ18">
+        <v>1.55</v>
+      </c>
+      <c r="BA18">
+        <v>1.44</v>
+      </c>
+      <c r="BB18">
+        <v>1.81</v>
+      </c>
+      <c r="BC18">
+        <v>2.32</v>
+      </c>
+      <c r="BD18">
+        <v>3.2</v>
+      </c>
+      <c r="BE18">
+        <v>4.6</v>
+      </c>
+      <c r="BF18">
+        <v>3</v>
+      </c>
+      <c r="BG18">
+        <v>4</v>
+      </c>
+      <c r="BH18">
+        <v>5</v>
+      </c>
+      <c r="BI18">
+        <v>5</v>
+      </c>
+      <c r="BJ18">
+        <v>8</v>
+      </c>
+      <c r="BK18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6937011</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45172.64583333334</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>8</v>
+      </c>
+      <c r="S19">
+        <v>11</v>
+      </c>
+      <c r="T19">
+        <v>9</v>
+      </c>
+      <c r="U19">
+        <v>2.63</v>
+      </c>
+      <c r="V19">
+        <v>1.67</v>
+      </c>
+      <c r="W19">
+        <v>1.29</v>
+      </c>
+      <c r="X19">
+        <v>3.5</v>
+      </c>
+      <c r="Y19">
+        <v>2.25</v>
+      </c>
+      <c r="Z19">
+        <v>1.57</v>
+      </c>
+      <c r="AA19">
+        <v>5.5</v>
+      </c>
+      <c r="AB19">
+        <v>1.14</v>
+      </c>
+      <c r="AC19">
         <v>12</v>
       </c>
-      <c r="BK15">
+      <c r="AD19">
+        <v>6</v>
+      </c>
+      <c r="AE19">
+        <v>1.25</v>
+      </c>
+      <c r="AF19">
+        <v>1.01</v>
+      </c>
+      <c r="AG19">
+        <v>19</v>
+      </c>
+      <c r="AH19">
+        <v>1.18</v>
+      </c>
+      <c r="AI19">
+        <v>4.75</v>
+      </c>
+      <c r="AJ19">
+        <v>1.66</v>
+      </c>
+      <c r="AK19">
+        <v>2.06</v>
+      </c>
+      <c r="AL19">
+        <v>2.05</v>
+      </c>
+      <c r="AM19">
+        <v>1.7</v>
+      </c>
+      <c r="AN19">
+        <v>4</v>
+      </c>
+      <c r="AO19">
+        <v>1.09</v>
+      </c>
+      <c r="AP19">
+        <v>1.01</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0.5</v>
+      </c>
+      <c r="AT19">
+        <v>3</v>
+      </c>
+      <c r="AU19">
+        <v>1.21</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>1.21</v>
+      </c>
+      <c r="AX19">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AY19">
+        <v>12.2</v>
+      </c>
+      <c r="AZ19">
+        <v>1.12</v>
+      </c>
+      <c r="BA19">
+        <v>1.52</v>
+      </c>
+      <c r="BB19">
+        <v>1.94</v>
+      </c>
+      <c r="BC19">
+        <v>2.54</v>
+      </c>
+      <c r="BD19">
+        <v>3.56</v>
+      </c>
+      <c r="BE19">
+        <v>5.2</v>
+      </c>
+      <c r="BF19">
+        <v>6</v>
+      </c>
+      <c r="BG19">
+        <v>9</v>
+      </c>
+      <c r="BH19">
+        <v>2</v>
+      </c>
+      <c r="BI19">
+        <v>4</v>
+      </c>
+      <c r="BJ19">
         <v>8</v>
+      </c>
+      <c r="BK19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6937016</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45172.65625</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>8</v>
+      </c>
+      <c r="S20">
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <v>6.5</v>
+      </c>
+      <c r="U20">
+        <v>2.05</v>
+      </c>
+      <c r="V20">
+        <v>2.25</v>
+      </c>
+      <c r="W20">
+        <v>1.5</v>
+      </c>
+      <c r="X20">
+        <v>2.5</v>
+      </c>
+      <c r="Y20">
+        <v>3.5</v>
+      </c>
+      <c r="Z20">
+        <v>1.29</v>
+      </c>
+      <c r="AA20">
+        <v>11</v>
+      </c>
+      <c r="AB20">
+        <v>1.05</v>
+      </c>
+      <c r="AC20">
+        <v>6</v>
+      </c>
+      <c r="AD20">
+        <v>3.75</v>
+      </c>
+      <c r="AE20">
+        <v>1.6</v>
+      </c>
+      <c r="AF20">
+        <v>1.08</v>
+      </c>
+      <c r="AG20">
+        <v>8</v>
+      </c>
+      <c r="AH20">
+        <v>1.45</v>
+      </c>
+      <c r="AI20">
+        <v>2.75</v>
+      </c>
+      <c r="AJ20">
+        <v>2.3</v>
+      </c>
+      <c r="AK20">
+        <v>1.53</v>
+      </c>
+      <c r="AL20">
+        <v>2.25</v>
+      </c>
+      <c r="AM20">
+        <v>1.57</v>
+      </c>
+      <c r="AN20">
+        <v>2.3</v>
+      </c>
+      <c r="AO20">
+        <v>1.22</v>
+      </c>
+      <c r="AP20">
+        <v>1.12</v>
+      </c>
+      <c r="AQ20">
+        <v>3</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>1.5</v>
+      </c>
+      <c r="AT20">
+        <v>3</v>
+      </c>
+      <c r="AU20">
+        <v>1.39</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>1.39</v>
+      </c>
+      <c r="AX20">
+        <v>3.57</v>
+      </c>
+      <c r="AY20">
+        <v>9</v>
+      </c>
+      <c r="AZ20">
+        <v>1.42</v>
+      </c>
+      <c r="BA20">
+        <v>1.42</v>
+      </c>
+      <c r="BB20">
+        <v>1.78</v>
+      </c>
+      <c r="BC20">
+        <v>2.28</v>
+      </c>
+      <c r="BD20">
+        <v>3.14</v>
+      </c>
+      <c r="BE20">
+        <v>4.5</v>
+      </c>
+      <c r="BF20">
+        <v>4</v>
+      </c>
+      <c r="BG20">
+        <v>3</v>
+      </c>
+      <c r="BH20">
+        <v>6</v>
+      </c>
+      <c r="BI20">
+        <v>3</v>
+      </c>
+      <c r="BJ20">
+        <v>10</v>
+      </c>
+      <c r="BK20">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK21"/>
+  <dimension ref="A1:BK27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>0.5</v>
@@ -2324,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>0</v>
@@ -4799,18 +4799,1236 @@
         <v>2</v>
       </c>
       <c r="BG21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH21" t="n">
         <v>4</v>
       </c>
-      <c r="BH21" t="n">
-        <v>2</v>
-      </c>
       <c r="BI21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ21" t="n">
         <v>6</v>
       </c>
-      <c r="BJ21" t="n">
+      <c r="BK21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6937021</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45185.60416666666</v>
+      </c>
+      <c r="F22" t="n">
         <v>4</v>
       </c>
-      <c r="BK21" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>['13', '45+1', '64', '86', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6</v>
+      </c>
+      <c r="S22" t="n">
+        <v>9</v>
+      </c>
+      <c r="T22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6937018</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45186.375</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>['21', '45+3']</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>['16', '28']</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>8</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>9</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6937020</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45186.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>['56', '72', '90+6', '90+11']</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>['4', '12', '22', '77']</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6937022</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45186.60416666666</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>7</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>8</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>6</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6937017</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45186.64583333334</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6937019</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45187.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK27" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK27"/>
+  <dimension ref="A1:BK28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT4" t="n">
         <v>0.33</v>
@@ -3136,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU13" t="n">
         <v>2.47</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
@@ -6030,6 +6030,209 @@
       </c>
       <c r="BK27" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6937027</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45192.47916666666</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>8</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>12</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK28"/>
+  <dimension ref="A1:BK33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU17" t="n">
         <v>2.51</v>
@@ -4151,7 +4151,7 @@
         <v>2.33</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU18" t="n">
         <v>1.52</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>3</v>
@@ -6217,22 +6217,1037 @@
         <v>4.7</v>
       </c>
       <c r="BF28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG28" t="n">
         <v>5</v>
       </c>
       <c r="BH28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6937029</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['66', '70']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6937026</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45193.45833333334</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['21', '25', '64', '90+4']</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>7</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
         <v>8</v>
       </c>
-      <c r="BI28" t="n">
+      <c r="T30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V30" t="n">
+        <v>13</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6937024</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45193.47916666666</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>['22', '55', '85']</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
         <v>6</v>
       </c>
-      <c r="BJ28" t="n">
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
         <v>11</v>
       </c>
-      <c r="BK28" t="n">
+      <c r="T31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG31" t="n">
         <v>11</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6937025</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45193.58333333334</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['7', '22']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6937030</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45193.60416666666</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['4', '33', '77']</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>8</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6</v>
+      </c>
+      <c r="S33" t="n">
+        <v>14</v>
+      </c>
+      <c r="T33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK33"/>
+  <dimension ref="A1:BK34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>0.5</v>
@@ -7248,6 +7248,209 @@
       </c>
       <c r="BK33" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6937028</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45194.625</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>['36', '68']</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>6</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6</v>
+      </c>
+      <c r="S34" t="n">
+        <v>12</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>4</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ34"/>
+  <dimension ref="A1:AZ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,7 +839,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>1</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.67</v>
@@ -2369,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>3</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR13" t="n">
         <v>2.47</v>
@@ -2876,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.5</v>
@@ -3559,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR18" t="n">
         <v>2.51</v>
@@ -4069,7 +4069,7 @@
         <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR21" t="n">
         <v>0.89</v>
@@ -4236,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ22" t="n">
         <v>3</v>
@@ -4406,10 +4406,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR23" t="n">
         <v>1.17</v>
@@ -4576,7 +4576,7 @@
         <v>0.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.67</v>
@@ -4746,10 +4746,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR25" t="n">
         <v>1.95</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5089,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -5259,7 +5259,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR28" t="n">
         <v>1.24</v>
@@ -5426,10 +5426,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR29" t="n">
         <v>1.38</v>
@@ -6307,6 +6307,1196 @@
       </c>
       <c r="AZ34" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6937035</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45196.41666666666</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6937033</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45196.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6937034</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45196.60416666666</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['21', '62', '70', '83']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6937037</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45196.60416666666</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['39', '45+1', '55']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X38" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6937036</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45197.47916666666</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['9', '32', '90']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['11', '62']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X39" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6937032</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45197.60416666666</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['5', '31', '80', '87']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X40" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6937031</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45197.625</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['31', '90+5']</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S41" t="n">
+        <v>11</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -6801,19 +6801,19 @@
         <v>3.43</v>
       </c>
       <c r="AU37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV37" t="n">
         <v>2</v>
       </c>
       <c r="AW37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX37" t="n">
         <v>1</v>
       </c>
       <c r="AY37" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ37" t="n">
         <v>3</v>
@@ -6971,22 +6971,22 @@
         <v>2.57</v>
       </c>
       <c r="AU38" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AV38" t="n">
         <v>3</v>
       </c>
       <c r="AW38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY38" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -7141,22 +7141,22 @@
         <v>2.62</v>
       </c>
       <c r="AU39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ39" t="n">
         <v>6</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -7311,22 +7311,22 @@
         <v>3.18</v>
       </c>
       <c r="AU40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX40" t="n">
         <v>1</v>
       </c>
       <c r="AY40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ40" t="n">
         <v>6</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -7484,19 +7484,19 @@
         <v>8</v>
       </c>
       <c r="AV41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW41" t="n">
         <v>8</v>
       </c>
       <c r="AX41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY41" t="n">
         <v>16</v>
       </c>
       <c r="AZ41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -7314,19 +7314,19 @@
         <v>5</v>
       </c>
       <c r="AV40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AW40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ40" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -7481,22 +7481,22 @@
         <v>3.27</v>
       </c>
       <c r="AU41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX41" t="n">
         <v>1</v>
       </c>
       <c r="AY41" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ41"/>
+  <dimension ref="A1:AZ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.33</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.25</v>
@@ -2539,7 +2539,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR12" t="n">
         <v>1.83</v>
@@ -3049,7 +3049,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR16" t="n">
         <v>1.52</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.67</v>
@@ -4919,7 +4919,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR26" t="n">
         <v>3.13</v>
@@ -5599,7 +5599,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR30" t="n">
         <v>2.36</v>
@@ -5766,10 +5766,10 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR31" t="n">
         <v>1.44</v>
@@ -6106,10 +6106,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR33" t="n">
         <v>1.27</v>
@@ -6276,7 +6276,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34" t="n">
         <v>3</v>
@@ -7497,6 +7497,686 @@
       </c>
       <c r="AZ41" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6937044</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45200.375</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X42" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6937038</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45200.47916666666</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X43" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6937042</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45200.5625</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['32', '90+6']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['19', '58']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X44" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6937043</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45200.60416666666</v>
+      </c>
+      <c r="F45" t="n">
+        <v>7</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>['17', '23', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X45" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ45"/>
+  <dimension ref="A1:AZ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.25</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.33</v>
@@ -3729,7 +3729,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR19" t="n">
         <v>1.21</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.25</v>
@@ -6279,7 +6279,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR34" t="n">
         <v>1.73</v>
@@ -7821,22 +7821,22 @@
         <v>2.5</v>
       </c>
       <c r="AU43" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX43" t="n">
         <v>4</v>
       </c>
       <c r="AY43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -7991,22 +7991,22 @@
         <v>2.74</v>
       </c>
       <c r="AU44" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AV44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW44" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AX44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY44" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AZ44" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -8164,19 +8164,359 @@
         <v>0</v>
       </c>
       <c r="AV45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6937039</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45201.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X46" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ46" t="n">
         <v>9</v>
       </c>
-      <c r="AW45" t="n">
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6937041</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45201.58333333334</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['5', '83']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>6</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X47" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU47" t="n">
         <v>4</v>
       </c>
-      <c r="AX45" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY45" t="n">
+      <c r="AV47" t="n">
         <v>4</v>
       </c>
-      <c r="AZ45" t="n">
-        <v>16</v>
+      <c r="AW47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ47"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -868,6 +948,54 @@
       <c r="AZ2" t="n">
         <v>13</v>
       </c>
+      <c r="BA2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1038,6 +1166,54 @@
       <c r="AZ3" t="n">
         <v>3</v>
       </c>
+      <c r="BA3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1207,6 +1383,54 @@
       </c>
       <c r="AZ4" t="n">
         <v>11</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="5">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>8</v>
       </c>
+      <c r="BA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>5</v>
       </c>
+      <c r="BA6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>8</v>
       </c>
+      <c r="BA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>17</v>
       </c>
+      <c r="BA8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>4</v>
       </c>
+      <c r="BA9" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>9</v>
       </c>
+      <c r="BA10" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>6</v>
       </c>
+      <c r="BA11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>6</v>
       </c>
+      <c r="BA12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>2</v>
       </c>
+      <c r="BA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>13</v>
       </c>
+      <c r="BA14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>10</v>
       </c>
+      <c r="BA15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>9</v>
       </c>
+      <c r="BA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>9</v>
       </c>
+      <c r="BA17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>8</v>
       </c>
+      <c r="BA18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>13</v>
       </c>
+      <c r="BA19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>6</v>
       </c>
+      <c r="BA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4098,6 +5090,54 @@
       <c r="AZ21" t="n">
         <v>9</v>
       </c>
+      <c r="BA21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>15</v>
       </c>
+      <c r="BA22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>8</v>
       </c>
+      <c r="BA23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4608,6 +5744,54 @@
       <c r="AZ24" t="n">
         <v>9</v>
       </c>
+      <c r="BA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>8</v>
       </c>
+      <c r="BA25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>7</v>
       </c>
+      <c r="BA26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5118,6 +6398,54 @@
       <c r="AZ27" t="n">
         <v>10</v>
       </c>
+      <c r="BA27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5288,6 +6616,54 @@
       <c r="AZ28" t="n">
         <v>10</v>
       </c>
+      <c r="BA28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>4</v>
       </c>
+      <c r="BA29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>8</v>
       </c>
+      <c r="BA30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>9</v>
       </c>
+      <c r="BA31" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5968,6 +7488,54 @@
       <c r="AZ32" t="n">
         <v>15</v>
       </c>
+      <c r="BA32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>8</v>
       </c>
+      <c r="BA33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>14</v>
       </c>
+      <c r="BA34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>19</v>
       </c>
+      <c r="BA35" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>7</v>
       </c>
+      <c r="BA36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>3</v>
       </c>
+      <c r="BA37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>7</v>
       </c>
+      <c r="BA38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>6</v>
       </c>
+      <c r="BA39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>13</v>
       </c>
+      <c r="BA40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>6</v>
       </c>
+      <c r="BA41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7668,6 +9668,54 @@
       <c r="AZ42" t="n">
         <v>8</v>
       </c>
+      <c r="BA42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7838,6 +9886,54 @@
       <c r="AZ43" t="n">
         <v>8</v>
       </c>
+      <c r="BA43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8008,6 +10104,54 @@
       <c r="AZ44" t="n">
         <v>7</v>
       </c>
+      <c r="BA44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8178,6 +10322,54 @@
       <c r="AZ45" t="n">
         <v>21</v>
       </c>
+      <c r="BA45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8348,6 +10540,54 @@
       <c r="AZ46" t="n">
         <v>9</v>
       </c>
+      <c r="BA46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8501,22 +10741,70 @@
         <v>3.13</v>
       </c>
       <c r="AU47" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB47" t="n">
         <v>4</v>
       </c>
-      <c r="AV47" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX47" t="n">
+      <c r="BC47" t="n">
         <v>6</v>
       </c>
-      <c r="AY47" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>10</v>
+      <c r="BD47" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.33</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.67</v>
@@ -3317,7 +3317,7 @@
         <v>3</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR13" t="n">
         <v>2.47</v>
@@ -3535,7 +3535,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -6587,7 +6587,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR28" t="n">
         <v>1.24</v>
@@ -7241,7 +7241,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR31" t="n">
         <v>1.44</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34" t="n">
         <v>2</v>
@@ -9418,10 +9418,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR41" t="n">
         <v>2.13</v>
@@ -9639,7 +9639,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR42" t="n">
         <v>0.84</v>
@@ -10072,7 +10072,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.33</v>
@@ -10805,6 +10805,442 @@
       </c>
       <c r="BP47" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6936996</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45207.5625</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['34', '36', '89']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S48" t="n">
+        <v>12</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X48" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6937000</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45207.64583333334</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>5</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['3', '32', '45+1', '59', '90+2']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X49" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -10959,31 +10959,31 @@
         <v>3.4</v>
       </c>
       <c r="AU48" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA48" t="n">
         <v>9</v>
       </c>
-      <c r="AX48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA48" t="n">
+      <c r="BB48" t="n">
         <v>5</v>
       </c>
-      <c r="BB48" t="n">
-        <v>1</v>
-      </c>
       <c r="BC48" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD48" t="n">
         <v>1.06</v>
@@ -11177,22 +11177,22 @@
         <v>3.09</v>
       </c>
       <c r="AU49" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV49" t="n">
         <v>2</v>
       </c>
       <c r="AW49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ49" t="n">
         <v>5</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>4</v>
       </c>
       <c r="BA49" t="n">
         <v>2</v>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.25</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.67</v>
@@ -5497,7 +5497,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR23" t="n">
         <v>1.17</v>
@@ -8985,7 +8985,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR39" t="n">
         <v>1.59</v>
@@ -9636,7 +9636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.25</v>
@@ -11241,6 +11241,224 @@
       </c>
       <c r="BP49" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>6937051</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45219.60416666666</v>
+      </c>
+      <c r="F50" t="n">
+        <v>8</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['8', '37']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X50" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ5" t="n">
         <v>1</v>
@@ -1791,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.5</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.25</v>
@@ -3317,7 +3317,7 @@
         <v>3</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR13" t="n">
         <v>2.47</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR19" t="n">
         <v>1.21</v>
@@ -5061,7 +5061,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR21" t="n">
         <v>0.89</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22" t="n">
         <v>3</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.5</v>
@@ -5712,10 +5712,10 @@
         <v>0.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR24" t="n">
         <v>1.19</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.25</v>
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR28" t="n">
         <v>1.24</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.25</v>
@@ -7895,7 +7895,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR34" t="n">
         <v>1.73</v>
@@ -8110,10 +8110,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR35" t="n">
         <v>1.45</v>
@@ -8328,7 +8328,7 @@
         <v>0.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.5</v>
@@ -8764,10 +8764,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR38" t="n">
         <v>1.78</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ40" t="n">
         <v>3</v>
@@ -9421,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR41" t="n">
         <v>2.13</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.25</v>
@@ -10729,7 +10729,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR47" t="n">
         <v>1.42</v>
@@ -11165,7 +11165,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR49" t="n">
         <v>2.02</v>
@@ -11395,22 +11395,22 @@
         <v>1.91</v>
       </c>
       <c r="AU50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV50" t="n">
         <v>3</v>
       </c>
       <c r="AW50" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX50" t="n">
         <v>7</v>
       </c>
-      <c r="AX50" t="n">
-        <v>8</v>
-      </c>
       <c r="AY50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA50" t="n">
         <v>4</v>
@@ -11459,6 +11459,1096 @@
       </c>
       <c r="BP50" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6937048</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45220.47916666666</v>
+      </c>
+      <c r="F51" t="n">
+        <v>8</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['45+2', '80']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X51" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6937137</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X52" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>6937045</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45221.41666666666</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['45+3', '77', '86']</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X53" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6937046</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45221.41666666666</v>
+      </c>
+      <c r="F54" t="n">
+        <v>8</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X54" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6937050</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45221.52083333334</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['43', '51']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X55" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -11613,22 +11613,22 @@
         <v>2.42</v>
       </c>
       <c r="AU51" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV51" t="n">
         <v>0</v>
       </c>
       <c r="AW51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY51" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA51" t="n">
         <v>3</v>
@@ -11837,16 +11837,16 @@
         <v>2</v>
       </c>
       <c r="AW52" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ52" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA52" t="n">
         <v>8</v>
@@ -12052,19 +12052,19 @@
         <v>2</v>
       </c>
       <c r="AV53" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW53" t="n">
         <v>4</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>5</v>
       </c>
       <c r="AX53" t="n">
         <v>5</v>
       </c>
       <c r="AY53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ53" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA53" t="n">
         <v>2</v>
@@ -12270,28 +12270,28 @@
         <v>3</v>
       </c>
       <c r="AV54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA54" t="n">
         <v>5</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>3</v>
       </c>
       <c r="BB54" t="n">
         <v>4</v>
       </c>
       <c r="BC54" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD54" t="n">
         <v>2.33</v>
@@ -12485,22 +12485,22 @@
         <v>2.94</v>
       </c>
       <c r="AU55" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW55" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY55" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ55" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA55" t="n">
         <v>8</v>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.5</v>
@@ -1137,7 +1137,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR12" t="n">
         <v>1.83</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
         <v>2.25</v>
@@ -7023,7 +7023,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR30" t="n">
         <v>2.36</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -9857,7 +9857,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR43" t="n">
         <v>1.76</v>
@@ -12549,6 +12549,224 @@
       </c>
       <c r="BP55" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6937056</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45227.47916666666</v>
+      </c>
+      <c r="F56" t="n">
+        <v>9</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['21', '75']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V56" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X56" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.75</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.25</v>
@@ -2663,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.17</v>
@@ -3753,7 +3753,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
         <v>2.51</v>
@@ -4843,7 +4843,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR20" t="n">
         <v>1.39</v>
@@ -5279,7 +5279,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR23" t="n">
         <v>1.17</v>
@@ -5715,7 +5715,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR24" t="n">
         <v>1.19</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.25</v>
@@ -6805,7 +6805,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
         <v>1.38</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.2</v>
@@ -7238,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR31" t="n">
         <v>1.44</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ34" t="n">
         <v>2.25</v>
@@ -8331,7 +8331,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR36" t="n">
         <v>1.6</v>
@@ -8546,7 +8546,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.25</v>
@@ -8985,7 +8985,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR39" t="n">
         <v>1.59</v>
@@ -9200,10 +9200,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ40" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR40" t="n">
         <v>1.53</v>
@@ -9639,7 +9639,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR42" t="n">
         <v>0.84</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.2</v>
@@ -10072,7 +10072,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.33</v>
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46" t="n">
         <v>1</v>
@@ -10947,7 +10947,7 @@
         <v>2</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR48" t="n">
         <v>2.17</v>
@@ -11162,7 +11162,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.17</v>
@@ -11383,7 +11383,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR50" t="n">
         <v>0.91</v>
@@ -11816,10 +11816,10 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR52" t="n">
         <v>1.76</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.25</v>
@@ -12556,7 +12556,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>6937056</v>
+        <v>6937047</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -12569,203 +12569,1293 @@
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45227.47916666666</v>
+        <v>45221.5625</v>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['21', '75']</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>['82']</t>
+          <t>['28']</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="R56" t="n">
         <v>2.05</v>
       </c>
       <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X56" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6937056</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45227.47916666666</v>
+      </c>
+      <c r="F57" t="n">
+        <v>9</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['21', '75']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S57" t="n">
         <v>3.75</v>
       </c>
-      <c r="T56" t="n">
+      <c r="T57" t="n">
         <v>1.44</v>
       </c>
-      <c r="U56" t="n">
+      <c r="U57" t="n">
         <v>2.63</v>
       </c>
-      <c r="V56" t="n">
+      <c r="V57" t="n">
         <v>3.25</v>
       </c>
-      <c r="W56" t="n">
+      <c r="W57" t="n">
         <v>1.33</v>
       </c>
-      <c r="X56" t="n">
+      <c r="X57" t="n">
         <v>9</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="Y57" t="n">
         <v>1.07</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="Z57" t="n">
         <v>2.26</v>
       </c>
-      <c r="AA56" t="n">
+      <c r="AA57" t="n">
         <v>3.2</v>
       </c>
-      <c r="AB56" t="n">
+      <c r="AB57" t="n">
         <v>3.05</v>
       </c>
-      <c r="AC56" t="n">
+      <c r="AC57" t="n">
         <v>1.06</v>
       </c>
-      <c r="AD56" t="n">
+      <c r="AD57" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE56" t="n">
+      <c r="AE57" t="n">
         <v>1.38</v>
       </c>
-      <c r="AF56" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH56" t="n">
+      <c r="AF57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH57" t="n">
         <v>1.73</v>
       </c>
-      <c r="AI56" t="n">
+      <c r="AI57" t="n">
         <v>1.91</v>
       </c>
-      <c r="AJ56" t="n">
+      <c r="AJ57" t="n">
         <v>1.91</v>
       </c>
-      <c r="AK56" t="n">
+      <c r="AK57" t="n">
         <v>1.36</v>
       </c>
-      <c r="AL56" t="n">
+      <c r="AL57" t="n">
         <v>1.28</v>
       </c>
-      <c r="AM56" t="n">
+      <c r="AM57" t="n">
         <v>1.63</v>
       </c>
-      <c r="AN56" t="n">
+      <c r="AN57" t="n">
         <v>0.33</v>
       </c>
-      <c r="AO56" t="n">
+      <c r="AO57" t="n">
         <v>0.25</v>
       </c>
-      <c r="AP56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ56" t="n">
+      <c r="AP57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ57" t="n">
         <v>0.2</v>
       </c>
-      <c r="AR56" t="n">
+      <c r="AR57" t="n">
         <v>1.23</v>
       </c>
-      <c r="AS56" t="n">
+      <c r="AS57" t="n">
         <v>0.82</v>
       </c>
-      <c r="AT56" t="n">
+      <c r="AT57" t="n">
         <v>2.05</v>
       </c>
-      <c r="AU56" t="n">
+      <c r="AU57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6937055</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="n">
+        <v>5</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['49', '73', '90+1']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['21', '82']</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X58" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6937054</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45228.52083333334</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X59" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6937058</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45228.60416666666</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['1', '10', '42', '57', '77']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X60" t="n">
         <v>6</v>
       </c>
-      <c r="AV56" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW56" t="n">
+      <c r="Y60" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA60" t="n">
         <v>6</v>
       </c>
-      <c r="AX56" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY56" t="n">
+      <c r="AB60" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="BF60" t="n">
         <v>12</v>
       </c>
-      <c r="AZ56" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA56" t="n">
+      <c r="BG60" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6937053</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45228.64583333334</v>
+      </c>
+      <c r="F61" t="n">
+        <v>9</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['55', '75']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S61" t="n">
+        <v>7</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X61" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC61" t="n">
         <v>4</v>
       </c>
-      <c r="BB56" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC56" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD56" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BE56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BF56" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="BG56" t="n">
+      <c r="BD61" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BG61" t="n">
         <v>1.49</v>
       </c>
-      <c r="BH56" t="n">
+      <c r="BH61" t="n">
         <v>2.37</v>
       </c>
-      <c r="BI56" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ56" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BK56" t="n">
+      <c r="BI61" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK61" t="n">
         <v>2.55</v>
       </c>
-      <c r="BL56" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BM56" t="n">
+      <c r="BL61" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM61" t="n">
         <v>3.6</v>
       </c>
-      <c r="BN56" t="n">
+      <c r="BN61" t="n">
         <v>1.23</v>
       </c>
-      <c r="BO56" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BP56" t="n">
+      <c r="BO61" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP61" t="n">
         <v>1.17</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.25</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.4</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR16" t="n">
         <v>1.52</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR26" t="n">
         <v>3.13</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.17</v>
@@ -7677,7 +7677,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR33" t="n">
         <v>1.27</v>
@@ -9418,7 +9418,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.17</v>
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
         <v>1.54</v>
@@ -10293,7 +10293,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR45" t="n">
         <v>1.3</v>
@@ -10726,7 +10726,7 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ47" t="n">
         <v>2.25</v>
@@ -10944,7 +10944,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.2</v>
@@ -13139,22 +13139,22 @@
         <v>2.21</v>
       </c>
       <c r="AU58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX58" t="n">
         <v>3</v>
       </c>
-      <c r="AV58" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW58" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX58" t="n">
-        <v>1</v>
-      </c>
       <c r="AY58" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ58" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA58" t="n">
         <v>1</v>
@@ -13357,22 +13357,22 @@
         <v>2.39</v>
       </c>
       <c r="AU59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ59" t="n">
         <v>9</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY59" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ59" t="n">
-        <v>8</v>
       </c>
       <c r="BA59" t="n">
         <v>5</v>
@@ -13575,31 +13575,31 @@
         <v>2.89</v>
       </c>
       <c r="AU60" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV60" t="n">
         <v>2</v>
       </c>
       <c r="AW60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY60" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ60" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB60" t="n">
         <v>1</v>
       </c>
       <c r="BC60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD60" t="n">
         <v>1.05</v>
@@ -13793,31 +13793,31 @@
         <v>2.97</v>
       </c>
       <c r="AU61" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV61" t="n">
         <v>0</v>
       </c>
       <c r="AW61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC61" t="n">
         <v>7</v>
-      </c>
-      <c r="AX61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY61" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA61" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB61" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC61" t="n">
-        <v>4</v>
       </c>
       <c r="BD61" t="n">
         <v>1.23</v>
@@ -13857,6 +13857,442 @@
       </c>
       <c r="BP61" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6937052</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45229.60416666666</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['17', '54']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X62" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6937057</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45229.6875</v>
+      </c>
+      <c r="F63" t="n">
+        <v>9</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['10', '54']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X63" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2092,7 +2092,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6937004</v>
+        <v>6937006</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2112,12 +2112,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>Volos NFC</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['14', '21', '90+6']</t>
+          <t>['11', '37', '74']</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2149,160 +2149,160 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>4</v>
       </c>
-      <c r="T8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>17</v>
-      </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC8" t="n">
         <v>7</v>
       </c>
       <c r="BD8" t="n">
-        <v>1.82</v>
+        <v>1.11</v>
       </c>
       <c r="BE8" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="BF8" t="n">
-        <v>2.42</v>
+        <v>8.25</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="BH8" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="BI8" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="BJ8" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="BK8" t="n">
-        <v>2.75</v>
+        <v>2.27</v>
       </c>
       <c r="BL8" t="n">
-        <v>1.37</v>
+        <v>1.56</v>
       </c>
       <c r="BM8" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="BN8" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="BO8" t="n">
-        <v>6.5</v>
+        <v>4.4</v>
       </c>
       <c r="BP8" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9">
@@ -2310,7 +2310,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6937006</v>
+        <v>6937004</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2330,12 +2330,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['11', '37', '74']</t>
+          <t>['14', '21', '90+6']</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2367,160 +2367,160 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.5</v>
       </c>
-      <c r="S9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="U9" t="n">
-        <v>3.04</v>
-      </c>
       <c r="V9" t="n">
-        <v>2.73</v>
+        <v>3.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="X9" t="n">
-        <v>6.79</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC9" t="n">
         <v>1.08</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AD9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK9" t="n">
         <v>1.3</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AL9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
         <v>5</v>
       </c>
-      <c r="AB9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
+      <c r="AV9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX9" t="n">
         <v>9</v>
       </c>
-      <c r="AV9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>2</v>
-      </c>
       <c r="AY9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB9" t="n">
         <v>4</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>1</v>
       </c>
       <c r="BC9" t="n">
         <v>7</v>
       </c>
       <c r="BD9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BP9" t="n">
         <v>1.11</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>12</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>1.2</v>
       </c>
     </row>
     <row r="10">
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.25</v>
@@ -4054,7 +4054,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>6937010</v>
+        <v>6937013</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -4074,197 +4074,197 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Lamia</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>['17', '32', '62', '90+5']</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>9</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA17" t="n">
         <v>5</v>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>['16', '61', '82']</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>['28', '85']</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>6</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="n">
+      <c r="BB17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH17" t="n">
         <v>2.6</v>
       </c>
-      <c r="AQ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>2.23</v>
-      </c>
       <c r="BI17" t="n">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="BJ17" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="BK17" t="n">
-        <v>2.64</v>
+        <v>2.25</v>
       </c>
       <c r="BL17" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="BM17" t="n">
-        <v>3.65</v>
+        <v>3.04</v>
       </c>
       <c r="BN17" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="BO17" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="BP17" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="18">
@@ -4272,7 +4272,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>6937013</v>
+        <v>6937010</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -4292,197 +4292,197 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Olympiakos Piraeus</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Lamia</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
       </c>
       <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['16', '61', '82']</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>['28', '85']</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX18" t="n">
         <v>4</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>['17', '32', '62', '90+5']</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
+      <c r="AY18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BJ18" t="n">
         <v>1.73</v>
       </c>
-      <c r="R18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>9</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="BK18" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BN18" t="n">
         <v>1.22</v>
       </c>
-      <c r="AF18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>1.31</v>
-      </c>
       <c r="BO18" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="BP18" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="19">
@@ -4843,7 +4843,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR20" t="n">
         <v>1.39</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.75</v>
@@ -5279,7 +5279,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -9203,7 +9203,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR40" t="n">
         <v>1.53</v>
@@ -9636,7 +9636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.2</v>
@@ -11380,7 +11380,7 @@
         <v>0.67</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.4</v>
@@ -12691,7 +12691,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR56" t="n">
         <v>2.15</v>
@@ -14293,6 +14293,224 @@
       </c>
       <c r="BP63" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6937065</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45234.52083333334</v>
+      </c>
+      <c r="F64" t="n">
+        <v>10</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['31', '90']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X64" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.2</v>
@@ -1573,7 +1573,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.4</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.4</v>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR13" t="n">
         <v>2.47</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.2</v>
@@ -3971,7 +3971,7 @@
         <v>2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR16" t="n">
         <v>1.52</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR19" t="n">
         <v>1.21</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ20" t="n">
         <v>2.6</v>
@@ -5061,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR21" t="n">
         <v>0.89</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ22" t="n">
         <v>2.6</v>
@@ -5712,7 +5712,7 @@
         <v>0.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.4</v>
@@ -6369,7 +6369,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR28" t="n">
         <v>1.24</v>
@@ -6802,7 +6802,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.2</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.2</v>
@@ -7459,7 +7459,7 @@
         <v>1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR32" t="n">
         <v>1.17</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR33" t="n">
         <v>1.27</v>
@@ -7895,7 +7895,7 @@
         <v>2</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR34" t="n">
         <v>1.73</v>
@@ -8110,10 +8110,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR35" t="n">
         <v>1.45</v>
@@ -8328,7 +8328,7 @@
         <v>0.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -8546,7 +8546,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.25</v>
@@ -8767,7 +8767,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR38" t="n">
         <v>1.78</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.4</v>
@@ -9421,7 +9421,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR41" t="n">
         <v>2.13</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.2</v>
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR44" t="n">
         <v>1.54</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ45" t="n">
         <v>2.33</v>
@@ -10511,7 +10511,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR46" t="n">
         <v>1.33</v>
@@ -10729,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR47" t="n">
         <v>1.42</v>
@@ -11165,7 +11165,7 @@
         <v>2</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR49" t="n">
         <v>2.02</v>
@@ -11598,10 +11598,10 @@
         <v>0.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR51" t="n">
         <v>1.62</v>
@@ -11816,7 +11816,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.4</v>
@@ -12037,7 +12037,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR53" t="n">
         <v>1.41</v>
@@ -12252,10 +12252,10 @@
         <v>0.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR54" t="n">
         <v>1.73</v>
@@ -12473,7 +12473,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR55" t="n">
         <v>1.96</v>
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.6</v>
@@ -13778,7 +13778,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.4</v>
@@ -13999,7 +13999,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR62" t="n">
         <v>2.31</v>
@@ -14447,22 +14447,22 @@
         <v>2.58</v>
       </c>
       <c r="AU64" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV64" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW64" t="n">
         <v>5</v>
       </c>
       <c r="AX64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY64" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ64" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA64" t="n">
         <v>3</v>
@@ -14511,6 +14511,1314 @@
       </c>
       <c r="BP64" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6937060</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F65" t="n">
+        <v>10</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>11</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U65" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X65" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6937062</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F66" t="n">
+        <v>10</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X66" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6937064</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45235.52083333334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>10</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X67" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6937061</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45235.60416666666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>10</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="n">
+        <v>6</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['86', '90+8']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['38', '56', '65', '78']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X68" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6937059</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45235.63541666666</v>
+      </c>
+      <c r="F69" t="n">
+        <v>10</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="n">
+        <v>4</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['25', '55', '77']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X69" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6937063</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45236.54166666666</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['24', '88']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X70" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.4</v>
@@ -1791,7 +1791,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.6</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.2</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.57</v>
@@ -3753,7 +3753,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.4</v>
@@ -4189,7 +4189,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR17" t="n">
         <v>2.51</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ19" t="n">
         <v>2</v>
@@ -4843,7 +4843,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR20" t="n">
         <v>1.39</v>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR23" t="n">
         <v>1.17</v>
@@ -5712,10 +5712,10 @@
         <v>0.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR24" t="n">
         <v>1.19</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR25" t="n">
         <v>1.95</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR26" t="n">
         <v>3.13</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.4</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.57</v>
@@ -6805,7 +6805,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR29" t="n">
         <v>1.38</v>
@@ -7241,7 +7241,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR31" t="n">
         <v>1.44</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.4</v>
@@ -8328,10 +8328,10 @@
         <v>0.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR36" t="n">
         <v>1.6</v>
@@ -8549,7 +8549,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR37" t="n">
         <v>2.25</v>
@@ -8764,7 +8764,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.4</v>
@@ -8985,7 +8985,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR39" t="n">
         <v>1.59</v>
@@ -9200,10 +9200,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR40" t="n">
         <v>1.53</v>
@@ -9418,7 +9418,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.57</v>
@@ -9639,7 +9639,7 @@
         <v>2</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR42" t="n">
         <v>0.84</v>
@@ -10293,7 +10293,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR45" t="n">
         <v>1.3</v>
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.4</v>
@@ -10726,7 +10726,7 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ47" t="n">
         <v>2</v>
@@ -10944,10 +10944,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR48" t="n">
         <v>2.17</v>
@@ -11383,7 +11383,7 @@
         <v>2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR50" t="n">
         <v>0.91</v>
@@ -11819,7 +11819,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR52" t="n">
         <v>1.76</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ53" t="n">
         <v>2</v>
@@ -12252,7 +12252,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.6</v>
@@ -12470,7 +12470,7 @@
         <v>0.2</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.57</v>
@@ -12691,7 +12691,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR56" t="n">
         <v>2.15</v>
@@ -12906,7 +12906,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.2</v>
@@ -13124,10 +13124,10 @@
         <v>0.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR58" t="n">
         <v>0.99</v>
@@ -13342,10 +13342,10 @@
         <v>0.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR59" t="n">
         <v>1.24</v>
@@ -13563,7 +13563,7 @@
         <v>2</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR60" t="n">
         <v>2.04</v>
@@ -13781,7 +13781,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR61" t="n">
         <v>1.92</v>
@@ -13996,7 +13996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.4</v>
@@ -14214,10 +14214,10 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ63" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -14435,7 +14435,7 @@
         <v>2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR64" t="n">
         <v>1.04</v>
@@ -14650,7 +14650,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ65" t="n">
         <v>2</v>
@@ -15819,6 +15819,1532 @@
       </c>
       <c r="BP70" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6937070</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45241.52083333334</v>
+      </c>
+      <c r="F71" t="n">
+        <v>11</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X71" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6937068</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45241.60416666666</v>
+      </c>
+      <c r="F72" t="n">
+        <v>11</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X72" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6937069</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F73" t="n">
+        <v>11</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['60', '75']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X73" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6937072</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45242.52083333334</v>
+      </c>
+      <c r="F74" t="n">
+        <v>11</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['26', '36']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S74" t="n">
+        <v>10</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X74" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6937066</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45242.60416666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>11</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['11', '36', '90+4']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S75" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U75" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6937067</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45242.64583333334</v>
+      </c>
+      <c r="F76" t="n">
+        <v>11</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['69', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U76" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6937158</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45242.6875</v>
+      </c>
+      <c r="F77" t="n">
+        <v>11</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U77" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X77" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP77"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.8</v>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.4</v>
@@ -6369,7 +6369,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.57</v>
@@ -8767,7 +8767,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR38" t="n">
         <v>1.78</v>
@@ -10726,7 +10726,7 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ47" t="n">
         <v>2</v>
@@ -11601,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR51" t="n">
         <v>1.62</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ63" t="n">
         <v>2.5</v>
@@ -15089,7 +15089,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR67" t="n">
         <v>1.06</v>
@@ -15958,7 +15958,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.5</v>
@@ -17345,6 +17345,224 @@
       </c>
       <c r="BP77" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6937076</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45254.55208333334</v>
+      </c>
+      <c r="F78" t="n">
+        <v>12</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X78" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.4</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.2</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.57</v>
@@ -3753,7 +3753,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.83</v>
@@ -5715,7 +5715,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR24" t="n">
         <v>1.19</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.8</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.2</v>
@@ -7241,7 +7241,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR31" t="n">
         <v>1.44</v>
@@ -8546,7 +8546,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.8</v>
@@ -8764,7 +8764,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.5</v>
@@ -9639,7 +9639,7 @@
         <v>2</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR42" t="n">
         <v>0.84</v>
@@ -10947,7 +10947,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR48" t="n">
         <v>2.17</v>
@@ -11819,7 +11819,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR52" t="n">
         <v>1.76</v>
@@ -12470,7 +12470,7 @@
         <v>0.2</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.57</v>
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.67</v>
@@ -13127,7 +13127,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR58" t="n">
         <v>0.99</v>
@@ -13563,7 +13563,7 @@
         <v>2</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR60" t="n">
         <v>2.04</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.4</v>
@@ -16179,7 +16179,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR72" t="n">
         <v>1.13</v>
@@ -16612,10 +16612,10 @@
         <v>0.2</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR74" t="n">
         <v>1.97</v>
@@ -17499,10 +17499,10 @@
         <v>2.13</v>
       </c>
       <c r="AU78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW78" t="n">
         <v>7</v>
@@ -17511,10 +17511,10 @@
         <v>5</v>
       </c>
       <c r="AY78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA78" t="n">
         <v>6</v>
@@ -17563,6 +17563,442 @@
       </c>
       <c r="BP78" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6937075</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45255.52083333334</v>
+      </c>
+      <c r="F79" t="n">
+        <v>12</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>3</v>
+      </c>
+      <c r="L79" t="n">
+        <v>3</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>4</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['17', '40', '70']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>13</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X79" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6937170</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45255.60416666666</v>
+      </c>
+      <c r="F80" t="n">
+        <v>12</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2</v>
+      </c>
+      <c r="L80" t="n">
+        <v>5</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>5</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['21', '28', '71', '74', '80']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S80" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U80" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.2</v>
@@ -1573,7 +1573,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.8</v>
@@ -3317,7 +3317,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR13" t="n">
         <v>2.47</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR19" t="n">
         <v>1.21</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR20" t="n">
         <v>1.39</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.6</v>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -5712,7 +5712,7 @@
         <v>0.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.43</v>
@@ -6587,7 +6587,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR28" t="n">
         <v>1.24</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.14</v>
@@ -7459,7 +7459,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR32" t="n">
         <v>1.17</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.4</v>
@@ -7895,7 +7895,7 @@
         <v>2</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR34" t="n">
         <v>1.73</v>
@@ -8328,7 +8328,7 @@
         <v>0.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.83</v>
@@ -9203,7 +9203,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR40" t="n">
         <v>1.53</v>
@@ -9421,7 +9421,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR41" t="n">
         <v>2.13</v>
@@ -9636,7 +9636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.14</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.2</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ45" t="n">
         <v>2.5</v>
@@ -10511,7 +10511,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR46" t="n">
         <v>1.33</v>
@@ -10729,7 +10729,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR47" t="n">
         <v>1.42</v>
@@ -11165,7 +11165,7 @@
         <v>2</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR49" t="n">
         <v>2.02</v>
@@ -11380,7 +11380,7 @@
         <v>0.67</v>
       </c>
       <c r="AP50" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.5</v>
@@ -11816,7 +11816,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.43</v>
@@ -12037,7 +12037,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR53" t="n">
         <v>1.41</v>
@@ -12252,7 +12252,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.6</v>
@@ -12473,7 +12473,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR55" t="n">
         <v>1.96</v>
@@ -12691,7 +12691,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR56" t="n">
         <v>2.15</v>
@@ -13778,7 +13778,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.5</v>
@@ -14432,10 +14432,10 @@
         <v>2.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR64" t="n">
         <v>1.04</v>
@@ -14650,10 +14650,10 @@
         <v>2.25</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR65" t="n">
         <v>1.58</v>
@@ -14871,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR66" t="n">
         <v>1.65</v>
@@ -15086,7 +15086,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.5</v>
@@ -15522,10 +15522,10 @@
         <v>0.17</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR69" t="n">
         <v>1.94</v>
@@ -17266,10 +17266,10 @@
         <v>2.6</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR77" t="n">
         <v>1.42</v>
@@ -17499,10 +17499,10 @@
         <v>2.13</v>
       </c>
       <c r="AU78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW78" t="n">
         <v>7</v>
@@ -17511,10 +17511,10 @@
         <v>5</v>
       </c>
       <c r="AY78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA78" t="n">
         <v>6</v>
@@ -17717,31 +17717,31 @@
         <v>3.04</v>
       </c>
       <c r="AU79" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW79" t="n">
         <v>4</v>
       </c>
-      <c r="AV79" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>2</v>
-      </c>
       <c r="AX79" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY79" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ79" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA79" t="n">
         <v>3</v>
       </c>
       <c r="BB79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD79" t="n">
         <v>1.07</v>
@@ -17935,31 +17935,31 @@
         <v>2.65</v>
       </c>
       <c r="AU80" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX80" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY80" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ80" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA80" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC80" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD80" t="n">
         <v>1.07</v>
@@ -17998,6 +17998,878 @@
         <v>4.3</v>
       </c>
       <c r="BP80" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6937074</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45256.45833333334</v>
+      </c>
+      <c r="F81" t="n">
+        <v>12</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="n">
+        <v>4</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['13', '34', '73']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X81" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6937078</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45256.5</v>
+      </c>
+      <c r="F82" t="n">
+        <v>12</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>8</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X82" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6937079</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45256.60416666666</v>
+      </c>
+      <c r="F83" t="n">
+        <v>12</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2</v>
+      </c>
+      <c r="K83" t="n">
+        <v>4</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="n">
+        <v>6</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['13', '22', '55']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['4', '8', '65']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X83" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6937073</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45256.64583333334</v>
+      </c>
+      <c r="F84" t="n">
+        <v>12</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>2</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['43', '72']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X84" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP84" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -18153,22 +18153,22 @@
         <v>2.39</v>
       </c>
       <c r="AU81" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX81" t="n">
         <v>3</v>
       </c>
       <c r="AY81" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ81" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA81" t="n">
         <v>7</v>
@@ -18374,7 +18374,7 @@
         <v>4</v>
       </c>
       <c r="AV82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW82" t="n">
         <v>2</v>
@@ -18386,7 +18386,7 @@
         <v>6</v>
       </c>
       <c r="AZ82" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA82" t="n">
         <v>3</v>
@@ -18589,22 +18589,22 @@
         <v>2.13</v>
       </c>
       <c r="AU83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY83" t="n">
         <v>7</v>
       </c>
-      <c r="AV83" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW83" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX83" t="n">
+      <c r="AZ83" t="n">
         <v>8</v>
-      </c>
-      <c r="AY83" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ83" t="n">
-        <v>15</v>
       </c>
       <c r="BA83" t="n">
         <v>3</v>
@@ -18807,19 +18807,19 @@
         <v>3.42</v>
       </c>
       <c r="AU84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX84" t="n">
         <v>5</v>
       </c>
-      <c r="AV84" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW84" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX84" t="n">
-        <v>7</v>
-      </c>
       <c r="AY84" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AZ84" t="n">
         <v>15</v>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.83</v>
@@ -1791,7 +1791,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ19" t="n">
         <v>2.17</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR24" t="n">
         <v>1.19</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.67</v>
@@ -11819,7 +11819,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR52" t="n">
         <v>1.76</v>
@@ -12906,7 +12906,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.2</v>
@@ -13563,7 +13563,7 @@
         <v>2</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR60" t="n">
         <v>2.04</v>
@@ -16179,7 +16179,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR72" t="n">
         <v>1.13</v>
@@ -16394,7 +16394,7 @@
         <v>0.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.8</v>
@@ -17923,7 +17923,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR80" t="n">
         <v>1.82</v>
@@ -18153,22 +18153,22 @@
         <v>2.39</v>
       </c>
       <c r="AU81" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX81" t="n">
         <v>3</v>
       </c>
       <c r="AY81" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ81" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA81" t="n">
         <v>7</v>
@@ -18374,7 +18374,7 @@
         <v>4</v>
       </c>
       <c r="AV82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW82" t="n">
         <v>2</v>
@@ -18386,7 +18386,7 @@
         <v>6</v>
       </c>
       <c r="AZ82" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA82" t="n">
         <v>3</v>
@@ -18589,22 +18589,22 @@
         <v>2.13</v>
       </c>
       <c r="AU83" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV83" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX83" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY83" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ83" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA83" t="n">
         <v>3</v>
@@ -18807,22 +18807,22 @@
         <v>3.42</v>
       </c>
       <c r="AU84" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW84" t="n">
         <v>3</v>
       </c>
       <c r="AX84" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY84" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ84" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA84" t="n">
         <v>1</v>
@@ -18871,6 +18871,224 @@
       </c>
       <c r="BP84" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6937040</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45259.5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>7</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X85" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -19025,31 +19025,31 @@
         <v>2.17</v>
       </c>
       <c r="AU85" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV85" t="n">
         <v>4</v>
       </c>
       <c r="AW85" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX85" t="n">
         <v>3</v>
       </c>
       <c r="AY85" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ85" t="n">
         <v>7</v>
       </c>
       <c r="BA85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC85" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD85" t="n">
         <v>1.85</v>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.67</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.5</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR12" t="n">
         <v>1.83</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.63</v>
@@ -4186,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR17" t="n">
         <v>2.51</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ19" t="n">
         <v>2.17</v>
@@ -4843,7 +4843,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.29</v>
+        <v>2.57</v>
       </c>
       <c r="AR20" t="n">
         <v>1.39</v>
@@ -5061,7 +5061,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR21" t="n">
         <v>0.89</v>
@@ -5276,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.29</v>
+        <v>2.57</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR23" t="n">
         <v>1.17</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR24" t="n">
         <v>1.19</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.8</v>
@@ -6151,7 +6151,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR26" t="n">
         <v>3.13</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.5</v>
@@ -6805,7 +6805,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR29" t="n">
         <v>1.38</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR30" t="n">
         <v>2.36</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.67</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ34" t="n">
         <v>2.17</v>
@@ -8110,10 +8110,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR35" t="n">
         <v>1.45</v>
@@ -8331,7 +8331,7 @@
         <v>1</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR36" t="n">
         <v>1.6</v>
@@ -8546,7 +8546,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.8</v>
@@ -8764,7 +8764,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.5</v>
@@ -8985,7 +8985,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR39" t="n">
         <v>1.59</v>
@@ -9200,10 +9200,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.29</v>
+        <v>2.57</v>
       </c>
       <c r="AR40" t="n">
         <v>1.53</v>
@@ -9857,7 +9857,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR43" t="n">
         <v>1.76</v>
@@ -10072,7 +10072,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.4</v>
@@ -10293,7 +10293,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR45" t="n">
         <v>1.3</v>
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.67</v>
@@ -11162,7 +11162,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.63</v>
@@ -11383,7 +11383,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR50" t="n">
         <v>0.91</v>
@@ -11598,7 +11598,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.5</v>
@@ -11819,7 +11819,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR52" t="n">
         <v>1.76</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.17</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR54" t="n">
         <v>1.73</v>
@@ -12470,7 +12470,7 @@
         <v>0.2</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.63</v>
@@ -12588,28 +12588,28 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>['28']</t>
+          <t>['28', '-1', '-1']</t>
         </is>
       </c>
       <c r="Q56" t="n">
@@ -12688,10 +12688,10 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.29</v>
+        <v>2.57</v>
       </c>
       <c r="AR56" t="n">
         <v>2.15</v>
@@ -12906,10 +12906,10 @@
         <v>0.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR57" t="n">
         <v>1.23</v>
@@ -13124,7 +13124,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.14</v>
@@ -13342,10 +13342,10 @@
         <v>0.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR59" t="n">
         <v>1.24</v>
@@ -13560,10 +13560,10 @@
         <v>0.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR60" t="n">
         <v>2.04</v>
@@ -13781,7 +13781,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR61" t="n">
         <v>1.92</v>
@@ -14217,7 +14217,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ63" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -14429,13 +14429,13 @@
         <v>2.5</v>
       </c>
       <c r="AO64" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AP64" t="n">
         <v>1.83</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.29</v>
+        <v>2.57</v>
       </c>
       <c r="AR64" t="n">
         <v>1.04</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.67</v>
@@ -15298,13 +15298,13 @@
         <v>2.1</v>
       </c>
       <c r="AN68" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AO68" t="n">
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.4</v>
@@ -15743,7 +15743,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR70" t="n">
         <v>1.52</v>
@@ -15961,7 +15961,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR71" t="n">
         <v>1.17</v>
@@ -16176,10 +16176,10 @@
         <v>0.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR72" t="n">
         <v>1.13</v>
@@ -16394,7 +16394,7 @@
         <v>0.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.8</v>
@@ -16612,7 +16612,7 @@
         <v>0.2</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.14</v>
@@ -16833,7 +16833,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR75" t="n">
         <v>2.12</v>
@@ -17048,10 +17048,10 @@
         <v>2.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR76" t="n">
         <v>1.28</v>
@@ -17263,13 +17263,13 @@
         <v>1.4</v>
       </c>
       <c r="AO77" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP77" t="n">
         <v>1</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2.29</v>
+        <v>2.57</v>
       </c>
       <c r="AR77" t="n">
         <v>1.42</v>
@@ -17696,13 +17696,13 @@
         <v>5</v>
       </c>
       <c r="AN79" t="n">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="AO79" t="n">
         <v>0.17</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.14</v>
@@ -17920,10 +17920,10 @@
         <v>0.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR80" t="n">
         <v>1.82</v>
@@ -18789,13 +18789,13 @@
         <v>2.17</v>
       </c>
       <c r="AO84" t="n">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AP84" t="n">
         <v>2.29</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.29</v>
+        <v>2.57</v>
       </c>
       <c r="AR84" t="n">
         <v>1.9</v>
@@ -19010,10 +19010,10 @@
         <v>0.43</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR85" t="n">
         <v>1.35</v>
@@ -19089,6 +19089,1314 @@
       </c>
       <c r="BP85" t="n">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6937085</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45262.52083333334</v>
+      </c>
+      <c r="F86" t="n">
+        <v>13</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>3</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['45+1', '61', '78']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X86" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6937081</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F87" t="n">
+        <v>13</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V87" t="n">
+        <v>3</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X87" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6937083</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45263.47916666666</v>
+      </c>
+      <c r="F88" t="n">
+        <v>13</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="n">
+        <v>4</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['20', '51']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['44', '54']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>11</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X88" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6937082</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45263.52083333334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>13</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X89" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6937084</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45263.60416666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>13</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>4</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>4</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['34', '61', '69', '90+1']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S90" t="n">
+        <v>9</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6937086</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45264.54166666666</v>
+      </c>
+      <c r="F91" t="n">
+        <v>13</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2</v>
+      </c>
+      <c r="L91" t="n">
+        <v>3</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['21', '43', '57']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S91" t="n">
+        <v>11</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X91" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>16</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.33</v>
@@ -2881,7 +2881,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR25" t="n">
         <v>1.95</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ26" t="n">
         <v>2.2</v>
@@ -8549,7 +8549,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR37" t="n">
         <v>2.25</v>
@@ -9418,7 +9418,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.63</v>
@@ -10944,7 +10944,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.14</v>
@@ -13996,7 +13996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.4</v>
@@ -16397,7 +16397,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR73" t="n">
         <v>1.34</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.71</v>
@@ -19900,19 +19900,19 @@
         <v>6</v>
       </c>
       <c r="AV89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY89" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA89" t="n">
         <v>2</v>
@@ -20115,22 +20115,22 @@
         <v>3.62</v>
       </c>
       <c r="AU90" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV90" t="n">
         <v>4</v>
       </c>
       <c r="AW90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY90" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ90" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA90" t="n">
         <v>2</v>
@@ -20333,22 +20333,22 @@
         <v>2.83</v>
       </c>
       <c r="AU91" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV91" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW91" t="n">
         <v>7</v>
       </c>
       <c r="AX91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ91" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA91" t="n">
         <v>5</v>
@@ -20397,6 +20397,224 @@
       </c>
       <c r="BP91" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6937080</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45264.66666666666</v>
+      </c>
+      <c r="F92" t="n">
+        <v>13</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>7</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U92" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X92" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.63</v>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR23" t="n">
         <v>1.17</v>
@@ -5712,7 +5712,7 @@
         <v>0.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.33</v>
@@ -8328,7 +8328,7 @@
         <v>0.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.71</v>
@@ -8985,7 +8985,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR39" t="n">
         <v>1.59</v>
@@ -11383,7 +11383,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR50" t="n">
         <v>0.91</v>
@@ -12252,7 +12252,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.5</v>
@@ -13781,7 +13781,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR61" t="n">
         <v>1.92</v>
@@ -14650,7 +14650,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ65" t="n">
         <v>2.17</v>
@@ -15961,7 +15961,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR71" t="n">
         <v>1.17</v>
@@ -17266,7 +17266,7 @@
         <v>3</v>
       </c>
       <c r="AP77" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77" t="n">
         <v>2.57</v>
@@ -18138,7 +18138,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.67</v>
@@ -19885,7 +19885,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR89" t="n">
         <v>1.11</v>
@@ -20615,6 +20615,224 @@
       </c>
       <c r="BP92" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6937090</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45276.52083333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>14</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2</v>
+      </c>
+      <c r="K93" t="n">
+        <v>5</v>
+      </c>
+      <c r="L93" t="n">
+        <v>4</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="n">
+        <v>6</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['6', '11', '34', '90']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['10', '23']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X93" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.5</v>
@@ -2227,7 +2227,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.67</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.14</v>
@@ -3971,7 +3971,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR16" t="n">
         <v>1.52</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.67</v>
@@ -4625,7 +4625,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR19" t="n">
         <v>1.21</v>
@@ -4843,7 +4843,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR20" t="n">
         <v>1.39</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR21" t="n">
         <v>0.89</v>
@@ -5276,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.5</v>
@@ -6151,7 +6151,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR26" t="n">
         <v>3.13</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.71</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.14</v>
@@ -7677,7 +7677,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR33" t="n">
         <v>1.27</v>
@@ -7895,7 +7895,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR34" t="n">
         <v>1.73</v>
@@ -8110,10 +8110,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR35" t="n">
         <v>1.45</v>
@@ -8767,7 +8767,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR38" t="n">
         <v>1.78</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.5</v>
@@ -9200,10 +9200,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR40" t="n">
         <v>1.53</v>
@@ -9636,7 +9636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.14</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.17</v>
@@ -10075,7 +10075,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR44" t="n">
         <v>1.54</v>
@@ -10293,7 +10293,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR45" t="n">
         <v>1.3</v>
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.67</v>
@@ -10729,7 +10729,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR47" t="n">
         <v>1.42</v>
@@ -11380,7 +11380,7 @@
         <v>0.67</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.5</v>
@@ -11598,10 +11598,10 @@
         <v>0.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR51" t="n">
         <v>1.62</v>
@@ -11816,7 +11816,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.33</v>
@@ -12034,10 +12034,10 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR53" t="n">
         <v>1.41</v>
@@ -12255,7 +12255,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR54" t="n">
         <v>1.73</v>
@@ -12691,7 +12691,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR56" t="n">
         <v>2.15</v>
@@ -13124,7 +13124,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.14</v>
@@ -13342,7 +13342,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.71</v>
@@ -13778,7 +13778,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.5</v>
@@ -13999,7 +13999,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR62" t="n">
         <v>2.31</v>
@@ -14217,7 +14217,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ63" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -14432,10 +14432,10 @@
         <v>3</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR64" t="n">
         <v>1.04</v>
@@ -14653,7 +14653,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR65" t="n">
         <v>1.58</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.67</v>
@@ -15089,7 +15089,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR67" t="n">
         <v>1.06</v>
@@ -15307,7 +15307,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR68" t="n">
         <v>1.91</v>
@@ -15522,7 +15522,7 @@
         <v>0.17</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.63</v>
@@ -15740,10 +15740,10 @@
         <v>0.75</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR70" t="n">
         <v>1.52</v>
@@ -16176,7 +16176,7 @@
         <v>0.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.33</v>
@@ -17048,10 +17048,10 @@
         <v>2.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR76" t="n">
         <v>1.28</v>
@@ -17269,7 +17269,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR77" t="n">
         <v>1.42</v>
@@ -17487,7 +17487,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR78" t="n">
         <v>1.19</v>
@@ -18359,7 +18359,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ82" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR82" t="n">
         <v>1.08</v>
@@ -18574,7 +18574,7 @@
         <v>0.57</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.63</v>
@@ -18792,10 +18792,10 @@
         <v>3</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR84" t="n">
         <v>1.9</v>
@@ -19228,7 +19228,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.17</v>
@@ -19446,7 +19446,7 @@
         <v>0.38</v>
       </c>
       <c r="AP87" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.33</v>
@@ -19667,7 +19667,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ88" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR88" t="n">
         <v>1.32</v>
@@ -19882,7 +19882,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.5</v>
@@ -20103,7 +20103,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR90" t="n">
         <v>1.98</v>
@@ -20833,6 +20833,1314 @@
       </c>
       <c r="BP93" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6937087</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45277.41666666666</v>
+      </c>
+      <c r="F94" t="n">
+        <v>14</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V94" t="n">
+        <v>3</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X94" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6937088</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45277.52083333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>14</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="n">
+        <v>5</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['34', '59', '69', '90']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V95" t="n">
+        <v>3</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X95" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6937093</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45277.60416666666</v>
+      </c>
+      <c r="F96" t="n">
+        <v>14</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['56', '80']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X96" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6937089</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45277.64583333334</v>
+      </c>
+      <c r="F97" t="n">
+        <v>14</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="n">
+        <v>5</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['45+2', '49', '64']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['38', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>6</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X97" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6937091</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45278.5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>14</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2</v>
+      </c>
+      <c r="K98" t="n">
+        <v>3</v>
+      </c>
+      <c r="L98" t="n">
+        <v>2</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="n">
+        <v>4</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['37', '65']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['2', '14']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X98" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6937092</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45278.54166666666</v>
+      </c>
+      <c r="F99" t="n">
+        <v>14</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>8</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X99" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.17</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.67</v>
@@ -1573,7 +1573,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.63</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR16" t="n">
         <v>1.52</v>
@@ -4189,7 +4189,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR17" t="n">
         <v>2.51</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR19" t="n">
         <v>1.21</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR20" t="n">
         <v>1.39</v>
@@ -5279,7 +5279,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -5712,7 +5712,7 @@
         <v>0.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.33</v>
@@ -6151,7 +6151,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR26" t="n">
         <v>3.13</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.86</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.63</v>
@@ -6802,10 +6802,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR29" t="n">
         <v>1.38</v>
@@ -7238,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR31" t="n">
         <v>1.44</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR32" t="n">
         <v>1.17</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR33" t="n">
         <v>1.27</v>
@@ -7895,7 +7895,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR34" t="n">
         <v>1.73</v>
@@ -8328,10 +8328,10 @@
         <v>0.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR36" t="n">
         <v>1.6</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.5</v>
@@ -9203,7 +9203,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR40" t="n">
         <v>1.53</v>
@@ -9639,7 +9639,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR42" t="n">
         <v>0.84</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.17</v>
@@ -10075,7 +10075,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR44" t="n">
         <v>1.54</v>
@@ -10290,10 +10290,10 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR45" t="n">
         <v>1.3</v>
@@ -10508,10 +10508,10 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR46" t="n">
         <v>1.33</v>
@@ -10726,10 +10726,10 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR47" t="n">
         <v>1.42</v>
@@ -10947,7 +10947,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR48" t="n">
         <v>2.17</v>
@@ -11816,7 +11816,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.33</v>
@@ -12037,7 +12037,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR53" t="n">
         <v>1.41</v>
@@ -12252,7 +12252,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.43</v>
@@ -12691,7 +12691,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR56" t="n">
         <v>2.15</v>
@@ -12906,7 +12906,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.17</v>
@@ -13124,10 +13124,10 @@
         <v>0.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR58" t="n">
         <v>0.99</v>
@@ -13345,7 +13345,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR59" t="n">
         <v>1.24</v>
@@ -13778,7 +13778,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.5</v>
@@ -13999,7 +13999,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR62" t="n">
         <v>2.31</v>
@@ -14214,10 +14214,10 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -14435,7 +14435,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR64" t="n">
         <v>1.04</v>
@@ -14650,10 +14650,10 @@
         <v>2.25</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR65" t="n">
         <v>1.58</v>
@@ -14871,7 +14871,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR66" t="n">
         <v>1.65</v>
@@ -15086,7 +15086,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.86</v>
@@ -15307,7 +15307,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR68" t="n">
         <v>1.91</v>
@@ -15522,7 +15522,7 @@
         <v>0.17</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.63</v>
@@ -15740,7 +15740,7 @@
         <v>0.75</v>
       </c>
       <c r="AP70" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.43</v>
@@ -15958,7 +15958,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.5</v>
@@ -16176,7 +16176,7 @@
         <v>0.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.33</v>
@@ -16394,7 +16394,7 @@
         <v>0.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.67</v>
@@ -16615,7 +16615,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR74" t="n">
         <v>1.97</v>
@@ -16833,7 +16833,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR75" t="n">
         <v>2.12</v>
@@ -17051,7 +17051,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR76" t="n">
         <v>1.28</v>
@@ -17266,10 +17266,10 @@
         <v>3</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR77" t="n">
         <v>1.42</v>
@@ -17484,7 +17484,7 @@
         <v>0.4</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.86</v>
@@ -17705,7 +17705,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR79" t="n">
         <v>1.9</v>
@@ -18138,10 +18138,10 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR81" t="n">
         <v>1.25</v>
@@ -18356,10 +18356,10 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ82" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR82" t="n">
         <v>1.08</v>
@@ -18792,10 +18792,10 @@
         <v>3</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR84" t="n">
         <v>1.9</v>
@@ -19010,7 +19010,7 @@
         <v>0.43</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.33</v>
@@ -19664,10 +19664,10 @@
         <v>2.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ88" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR88" t="n">
         <v>1.32</v>
@@ -19882,7 +19882,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.5</v>
@@ -20321,7 +20321,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR91" t="n">
         <v>1.81</v>
@@ -20754,7 +20754,7 @@
         <v>0.57</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.5</v>
@@ -20972,7 +20972,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.43</v>
@@ -21193,7 +21193,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR95" t="n">
         <v>1.17</v>
@@ -21205,22 +21205,22 @@
         <v>2.24</v>
       </c>
       <c r="AU95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV95" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX95" t="n">
         <v>4</v>
       </c>
       <c r="AY95" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ95" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA95" t="n">
         <v>7</v>
@@ -21426,16 +21426,16 @@
         <v>4</v>
       </c>
       <c r="AV96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW96" t="n">
         <v>3</v>
       </c>
-      <c r="AW96" t="n">
-        <v>6</v>
-      </c>
       <c r="AX96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY96" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ96" t="n">
         <v>7</v>
@@ -21626,10 +21626,10 @@
         <v>2.57</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ97" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR97" t="n">
         <v>1.2</v>
@@ -21641,22 +21641,22 @@
         <v>2.82</v>
       </c>
       <c r="AU97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV97" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY97" t="n">
         <v>7</v>
       </c>
-      <c r="AW97" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX97" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY97" t="n">
-        <v>6</v>
-      </c>
       <c r="AZ97" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA97" t="n">
         <v>1</v>
@@ -21847,7 +21847,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR98" t="n">
         <v>1.71</v>
@@ -21859,31 +21859,31 @@
         <v>3.57</v>
       </c>
       <c r="AU98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV98" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX98" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ98" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BA98" t="n">
         <v>2</v>
       </c>
       <c r="BB98" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC98" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD98" t="n">
         <v>5.18</v>
@@ -22062,10 +22062,10 @@
         <v>2.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ99" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR99" t="n">
         <v>1.43</v>
@@ -22080,28 +22080,28 @@
         <v>3</v>
       </c>
       <c r="AV99" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA99" t="n">
         <v>3</v>
       </c>
-      <c r="AW99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX99" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY99" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ99" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA99" t="n">
-        <v>1</v>
-      </c>
       <c r="BB99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC99" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD99" t="n">
         <v>4.91</v>
@@ -22141,6 +22141,1532 @@
       </c>
       <c r="BP99" t="n">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6937094</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45280.5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>15</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="n">
+        <v>4</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['48', '74']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['56', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X100" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6937095</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45280.58333333334</v>
+      </c>
+      <c r="F101" t="n">
+        <v>15</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['64', '66', '72']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>8</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U101" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X101" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6937100</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45281.41666666666</v>
+      </c>
+      <c r="F102" t="n">
+        <v>15</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X102" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6937099</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45281.5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>15</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="n">
+        <v>4</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['39', '90+4']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['16', '45']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>9</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X103" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6937098</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45281.52083333334</v>
+      </c>
+      <c r="F104" t="n">
+        <v>15</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['37', '55']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X104" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6937096</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45281.625</v>
+      </c>
+      <c r="F105" t="n">
+        <v>15</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3</v>
+      </c>
+      <c r="K105" t="n">
+        <v>3</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>6</v>
+      </c>
+      <c r="N105" t="n">
+        <v>6</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['13', '28', '34', '52', '72', '80']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>8</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U105" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X105" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6937005</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45281.64583333334</v>
+      </c>
+      <c r="F106" t="n">
+        <v>15</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S106" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X106" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -22516,19 +22516,19 @@
         <v>0</v>
       </c>
       <c r="AV101" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW101" t="n">
         <v>3</v>
       </c>
-      <c r="AW101" t="n">
-        <v>4</v>
-      </c>
       <c r="AX101" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ101" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA101" t="n">
         <v>3</v>
@@ -22734,16 +22734,16 @@
         <v>4</v>
       </c>
       <c r="AV102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW102" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY102" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ102" t="n">
         <v>5</v>
@@ -22949,31 +22949,31 @@
         <v>3.18</v>
       </c>
       <c r="AU103" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW103" t="n">
         <v>3</v>
       </c>
-      <c r="AV103" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW103" t="n">
-        <v>2</v>
-      </c>
       <c r="AX103" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AY103" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA103" t="n">
         <v>5</v>
       </c>
-      <c r="AZ103" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA103" t="n">
-        <v>2</v>
-      </c>
       <c r="BB103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC103" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BD103" t="n">
         <v>5.65</v>
@@ -23170,19 +23170,19 @@
         <v>6</v>
       </c>
       <c r="AV104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW104" t="n">
         <v>9</v>
       </c>
       <c r="AX104" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY104" t="n">
         <v>15</v>
       </c>
       <c r="AZ104" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA104" t="n">
         <v>9</v>
@@ -23385,31 +23385,31 @@
         <v>2.58</v>
       </c>
       <c r="AU105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV105" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW105" t="n">
         <v>3</v>
       </c>
-      <c r="AW105" t="n">
-        <v>4</v>
-      </c>
       <c r="AX105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY105" t="n">
         <v>6</v>
       </c>
       <c r="AZ105" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB105" t="n">
         <v>4</v>
       </c>
-      <c r="BA105" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB105" t="n">
-        <v>3</v>
-      </c>
       <c r="BC105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD105" t="n">
         <v>4.84</v>
@@ -23606,28 +23606,28 @@
         <v>2</v>
       </c>
       <c r="AV106" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW106" t="n">
         <v>2</v>
       </c>
       <c r="AX106" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AY106" t="n">
         <v>4</v>
       </c>
       <c r="AZ106" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA106" t="n">
         <v>0</v>
       </c>
       <c r="BB106" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC106" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD106" t="n">
         <v>4.11</v>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.43</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.43</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.5</v>
@@ -5933,7 +5933,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR25" t="n">
         <v>1.95</v>
@@ -6151,7 +6151,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR26" t="n">
         <v>3.13</v>
@@ -8549,7 +8549,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR37" t="n">
         <v>2.25</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.33</v>
@@ -9636,7 +9636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.25</v>
@@ -10293,7 +10293,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR45" t="n">
         <v>1.3</v>
@@ -11380,7 +11380,7 @@
         <v>0.67</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.5</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.88</v>
@@ -13342,7 +13342,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.75</v>
@@ -14217,7 +14217,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -14432,7 +14432,7 @@
         <v>3</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ64" t="n">
         <v>2.33</v>
@@ -16397,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR73" t="n">
         <v>1.34</v>
@@ -17048,10 +17048,10 @@
         <v>2.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR76" t="n">
         <v>1.28</v>
@@ -18574,7 +18574,7 @@
         <v>0.57</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.63</v>
@@ -19446,7 +19446,7 @@
         <v>0.38</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.33</v>
@@ -19667,7 +19667,7 @@
         <v>1</v>
       </c>
       <c r="AQ88" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR88" t="n">
         <v>1.32</v>
@@ -20539,7 +20539,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR92" t="n">
         <v>2.03</v>
@@ -21190,7 +21190,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.86</v>
@@ -21408,7 +21408,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.86</v>
@@ -22065,7 +22065,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ99" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR99" t="n">
         <v>1.43</v>
@@ -23591,7 +23591,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR106" t="n">
         <v>1.18</v>
@@ -23667,6 +23667,442 @@
       </c>
       <c r="BP106" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6937102</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45294.45833333334</v>
+      </c>
+      <c r="F107" t="n">
+        <v>16</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2</v>
+      </c>
+      <c r="K107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" t="n">
+        <v>5</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['45+2', '50', '61']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['8', '14']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X107" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6937107</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45294.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>16</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>8</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U108" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V108" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X108" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP108"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.75</v>
@@ -1137,7 +1137,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.86</v>
@@ -1791,7 +1791,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AR12" t="n">
         <v>1.83</v>
@@ -3317,7 +3317,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR13" t="n">
         <v>2.47</v>
@@ -3535,7 +3535,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.25</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.88</v>
@@ -5061,7 +5061,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR21" t="n">
         <v>0.89</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22" t="n">
         <v>2.33</v>
@@ -5497,7 +5497,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR23" t="n">
         <v>1.17</v>
@@ -5715,7 +5715,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR24" t="n">
         <v>1.19</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.57</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.88</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR28" t="n">
         <v>1.24</v>
@@ -6802,7 +6802,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.75</v>
@@ -7023,7 +7023,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AR30" t="n">
         <v>2.36</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.86</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.88</v>
@@ -8110,10 +8110,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR35" t="n">
         <v>1.45</v>
@@ -8764,10 +8764,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR38" t="n">
         <v>1.78</v>
@@ -8982,10 +8982,10 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR39" t="n">
         <v>1.59</v>
@@ -9418,10 +9418,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR41" t="n">
         <v>2.13</v>
@@ -9857,7 +9857,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AR43" t="n">
         <v>1.76</v>
@@ -10072,7 +10072,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.86</v>
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.86</v>
@@ -10944,7 +10944,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.25</v>
@@ -11162,10 +11162,10 @@
         <v>0.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR49" t="n">
         <v>2.02</v>
@@ -11383,7 +11383,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR50" t="n">
         <v>0.91</v>
@@ -11598,10 +11598,10 @@
         <v>0.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR51" t="n">
         <v>1.62</v>
@@ -11819,7 +11819,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR52" t="n">
         <v>1.76</v>
@@ -12255,7 +12255,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR54" t="n">
         <v>1.73</v>
@@ -12470,10 +12470,10 @@
         <v>0.2</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR55" t="n">
         <v>1.96</v>
@@ -12906,10 +12906,10 @@
         <v>0.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AR57" t="n">
         <v>1.23</v>
@@ -13124,7 +13124,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.25</v>
@@ -13560,10 +13560,10 @@
         <v>0.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR60" t="n">
         <v>2.04</v>
@@ -13781,7 +13781,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR61" t="n">
         <v>1.92</v>
@@ -13996,7 +13996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.86</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.86</v>
@@ -15089,7 +15089,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR67" t="n">
         <v>1.06</v>
@@ -15525,7 +15525,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR69" t="n">
         <v>1.94</v>
@@ -15740,10 +15740,10 @@
         <v>0.75</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR70" t="n">
         <v>1.52</v>
@@ -15961,7 +15961,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR71" t="n">
         <v>1.17</v>
@@ -16176,10 +16176,10 @@
         <v>0.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR72" t="n">
         <v>1.13</v>
@@ -16394,7 +16394,7 @@
         <v>0.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.57</v>
@@ -16612,7 +16612,7 @@
         <v>0.2</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.25</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.75</v>
@@ -17487,7 +17487,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR78" t="n">
         <v>1.19</v>
@@ -17920,10 +17920,10 @@
         <v>0.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR80" t="n">
         <v>1.82</v>
@@ -18577,7 +18577,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR83" t="n">
         <v>1.12</v>
@@ -19010,10 +19010,10 @@
         <v>0.43</v>
       </c>
       <c r="AP85" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR85" t="n">
         <v>1.35</v>
@@ -19228,10 +19228,10 @@
         <v>0.2</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AR86" t="n">
         <v>1.67</v>
@@ -19449,7 +19449,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR87" t="n">
         <v>1.2</v>
@@ -19664,7 +19664,7 @@
         <v>2.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.88</v>
@@ -19882,10 +19882,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR89" t="n">
         <v>1.11</v>
@@ -20100,10 +20100,10 @@
         <v>0.6</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR90" t="n">
         <v>1.98</v>
@@ -20318,7 +20318,7 @@
         <v>0.83</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.75</v>
@@ -20536,7 +20536,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.57</v>
@@ -20757,7 +20757,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR93" t="n">
         <v>1.35</v>
@@ -20975,7 +20975,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR94" t="n">
         <v>1.8</v>
@@ -21411,7 +21411,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR96" t="n">
         <v>1.2</v>
@@ -21626,7 +21626,7 @@
         <v>2.57</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ97" t="n">
         <v>2.33</v>
@@ -21844,7 +21844,7 @@
         <v>2.17</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.88</v>
@@ -22062,7 +22062,7 @@
         <v>2.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.88</v>
@@ -22498,7 +22498,7 @@
         <v>2.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ101" t="n">
         <v>2.33</v>
@@ -22934,7 +22934,7 @@
         <v>2</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.88</v>
@@ -23588,7 +23588,7 @@
         <v>2.33</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.88</v>
@@ -23821,22 +23821,22 @@
         <v>2.18</v>
       </c>
       <c r="AU107" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV107" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW107" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX107" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY107" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ107" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA107" t="n">
         <v>5</v>
@@ -24039,31 +24039,31 @@
         <v>2.87</v>
       </c>
       <c r="AU108" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV108" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW108" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX108" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY108" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ108" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA108" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB108" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC108" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD108" t="n">
         <v>5.14</v>
@@ -24103,6 +24103,1532 @@
       </c>
       <c r="BP108" t="n">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6937101</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45294.58333333334</v>
+      </c>
+      <c r="F109" t="n">
+        <v>16</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>3</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['32', '51', '73']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>15</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U109" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6937106</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45294.625</v>
+      </c>
+      <c r="F110" t="n">
+        <v>16</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>4</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>4</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['39', '41', '89', '90+2']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S110" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U110" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X110" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6937104</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45294.66666666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>16</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['25', '48']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S111" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U111" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X111" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6937105</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45295.5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>16</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>2</v>
+      </c>
+      <c r="L112" t="n">
+        <v>3</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2</v>
+      </c>
+      <c r="N112" t="n">
+        <v>5</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['35', '64', '84']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['15', '71']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>3</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X112" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6937103</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45295.58333333334</v>
+      </c>
+      <c r="F113" t="n">
+        <v>16</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>3</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>3</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['8', '56', '78']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S113" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U113" t="n">
+        <v>3</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X113" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6937109</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45298.41666666666</v>
+      </c>
+      <c r="F114" t="n">
+        <v>17</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['25', '59']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V114" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X114" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6937113</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45298.41666666666</v>
+      </c>
+      <c r="F115" t="n">
+        <v>17</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>2</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V115" t="n">
+        <v>3</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X115" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.25</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.57</v>
@@ -1573,7 +1573,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.3</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.75</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.89</v>
@@ -3753,7 +3753,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR16" t="n">
         <v>1.52</v>
@@ -4186,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR17" t="n">
         <v>2.51</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR19" t="n">
         <v>1.21</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ20" t="n">
         <v>2.33</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.89</v>
@@ -6805,7 +6805,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR29" t="n">
         <v>1.38</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.25</v>
@@ -7238,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR31" t="n">
         <v>1.44</v>
@@ -7459,7 +7459,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR32" t="n">
         <v>1.17</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR33" t="n">
         <v>1.27</v>
@@ -7892,10 +7892,10 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR34" t="n">
         <v>1.73</v>
@@ -8331,7 +8331,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR36" t="n">
         <v>1.6</v>
@@ -8546,7 +8546,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.57</v>
@@ -9639,7 +9639,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR42" t="n">
         <v>0.84</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.25</v>
@@ -10072,10 +10072,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR44" t="n">
         <v>1.54</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.88</v>
@@ -10511,7 +10511,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR46" t="n">
         <v>1.33</v>
@@ -10726,10 +10726,10 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR47" t="n">
         <v>1.42</v>
@@ -10947,7 +10947,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR48" t="n">
         <v>2.17</v>
@@ -11162,7 +11162,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.89</v>
@@ -11816,7 +11816,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.3</v>
@@ -12037,7 +12037,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR53" t="n">
         <v>1.41</v>
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.33</v>
@@ -13127,7 +13127,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR58" t="n">
         <v>0.99</v>
@@ -13345,7 +13345,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR59" t="n">
         <v>1.24</v>
@@ -13560,7 +13560,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.3</v>
@@ -13778,7 +13778,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.44</v>
@@ -13999,7 +13999,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR62" t="n">
         <v>2.31</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.88</v>
@@ -14653,7 +14653,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR65" t="n">
         <v>1.58</v>
@@ -14871,7 +14871,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR66" t="n">
         <v>1.65</v>
@@ -15086,7 +15086,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.75</v>
@@ -15304,10 +15304,10 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR68" t="n">
         <v>1.91</v>
@@ -15522,7 +15522,7 @@
         <v>0.17</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.89</v>
@@ -15958,7 +15958,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.44</v>
@@ -16615,7 +16615,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR74" t="n">
         <v>1.97</v>
@@ -16833,7 +16833,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR75" t="n">
         <v>2.12</v>
@@ -17484,7 +17484,7 @@
         <v>0.4</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.75</v>
@@ -17702,10 +17702,10 @@
         <v>0.17</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR79" t="n">
         <v>1.9</v>
@@ -18141,7 +18141,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR81" t="n">
         <v>1.25</v>
@@ -18356,10 +18356,10 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR82" t="n">
         <v>1.08</v>
@@ -18792,7 +18792,7 @@
         <v>3</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.33</v>
@@ -20100,7 +20100,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.38</v>
@@ -20321,7 +20321,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR91" t="n">
         <v>1.81</v>
@@ -20972,7 +20972,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.38</v>
@@ -21193,7 +21193,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR95" t="n">
         <v>1.17</v>
@@ -21847,7 +21847,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR98" t="n">
         <v>1.71</v>
@@ -22280,10 +22280,10 @@
         <v>0.71</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR100" t="n">
         <v>1.78</v>
@@ -22716,10 +22716,10 @@
         <v>0.14</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR102" t="n">
         <v>1.05</v>
@@ -22937,7 +22937,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR103" t="n">
         <v>1.29</v>
@@ -23152,10 +23152,10 @@
         <v>1.67</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR104" t="n">
         <v>1.29</v>
@@ -23373,7 +23373,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR105" t="n">
         <v>1.39</v>
@@ -24678,7 +24678,7 @@
         <v>0.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.44</v>
@@ -25347,31 +25347,31 @@
         <v>2.28</v>
       </c>
       <c r="AU114" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV114" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW114" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX114" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY114" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ114" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA114" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB114" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC114" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD114" t="n">
         <v>1.98</v>
@@ -25565,31 +25565,31 @@
         <v>2.14</v>
       </c>
       <c r="AU115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV115" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW115" t="n">
         <v>4</v>
-      </c>
-      <c r="AW115" t="n">
-        <v>2</v>
       </c>
       <c r="AX115" t="n">
         <v>5</v>
       </c>
       <c r="AY115" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AZ115" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC115" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD115" t="n">
         <v>1.68</v>
@@ -25628,6 +25628,1096 @@
         <v>4.4</v>
       </c>
       <c r="BP115" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6937112</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45298.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>17</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="n">
+        <v>3</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['51', '89']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S116" t="n">
+        <v>12</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U116" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X116" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6937114</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45298.52083333334</v>
+      </c>
+      <c r="F117" t="n">
+        <v>17</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>3</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['32', '36']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S117" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V117" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X117" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6937108</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45298.60416666666</v>
+      </c>
+      <c r="F118" t="n">
+        <v>17</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>2</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>3</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['46', '59']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S118" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V118" t="n">
+        <v>3</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X118" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6937110</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45298.66666666666</v>
+      </c>
+      <c r="F119" t="n">
+        <v>17</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2</v>
+      </c>
+      <c r="K119" t="n">
+        <v>3</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
+        <v>2</v>
+      </c>
+      <c r="N119" t="n">
+        <v>3</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['32', '38']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S119" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V119" t="n">
+        <v>3</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X119" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6937111</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45299.625</v>
+      </c>
+      <c r="F120" t="n">
+        <v>17</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S120" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V120" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X120" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP120" t="n">
         <v>1.19</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -26655,22 +26655,22 @@
         <v>2.44</v>
       </c>
       <c r="AU120" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV120" t="n">
         <v>3</v>
       </c>
       <c r="AW120" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY120" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA120" t="n">
         <v>7</v>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.63</v>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.25</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.89</v>
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR20" t="n">
         <v>1.39</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR21" t="n">
         <v>0.89</v>
@@ -5276,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR23" t="n">
         <v>1.17</v>
@@ -5712,10 +5712,10 @@
         <v>0.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR24" t="n">
         <v>1.19</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR25" t="n">
         <v>1.95</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR26" t="n">
         <v>3.13</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR35" t="n">
         <v>1.45</v>
@@ -8328,7 +8328,7 @@
         <v>0.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.78</v>
@@ -8549,7 +8549,7 @@
         <v>2</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR37" t="n">
         <v>2.25</v>
@@ -8764,10 +8764,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR38" t="n">
         <v>1.78</v>
@@ -8985,7 +8985,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR39" t="n">
         <v>1.59</v>
@@ -9200,10 +9200,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR40" t="n">
         <v>1.53</v>
@@ -9418,7 +9418,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.89</v>
@@ -9636,7 +9636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.22</v>
@@ -10293,7 +10293,7 @@
         <v>1</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR45" t="n">
         <v>1.3</v>
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.63</v>
@@ -10944,7 +10944,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.22</v>
@@ -11380,10 +11380,10 @@
         <v>0.67</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR50" t="n">
         <v>0.91</v>
@@ -11598,10 +11598,10 @@
         <v>0.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR51" t="n">
         <v>1.62</v>
@@ -11819,7 +11819,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR52" t="n">
         <v>1.76</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ53" t="n">
         <v>2</v>
@@ -12252,10 +12252,10 @@
         <v>0.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR54" t="n">
         <v>1.73</v>
@@ -12470,7 +12470,7 @@
         <v>0.2</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.89</v>
@@ -12691,7 +12691,7 @@
         <v>2</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR56" t="n">
         <v>2.15</v>
@@ -13124,7 +13124,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.22</v>
@@ -13342,7 +13342,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.78</v>
@@ -13563,7 +13563,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR60" t="n">
         <v>2.04</v>
@@ -13781,7 +13781,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR61" t="n">
         <v>1.92</v>
@@ -13996,7 +13996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.63</v>
@@ -14217,7 +14217,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -14432,10 +14432,10 @@
         <v>3</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR64" t="n">
         <v>1.04</v>
@@ -14650,7 +14650,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ65" t="n">
         <v>2</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.63</v>
@@ -15089,7 +15089,7 @@
         <v>1</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR67" t="n">
         <v>1.06</v>
@@ -15743,7 +15743,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR70" t="n">
         <v>1.52</v>
@@ -15961,7 +15961,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR71" t="n">
         <v>1.17</v>
@@ -16176,10 +16176,10 @@
         <v>0.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR72" t="n">
         <v>1.13</v>
@@ -16397,7 +16397,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR73" t="n">
         <v>1.34</v>
@@ -16612,7 +16612,7 @@
         <v>0.2</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.22</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.78</v>
@@ -17048,10 +17048,10 @@
         <v>2.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR76" t="n">
         <v>1.28</v>
@@ -17266,10 +17266,10 @@
         <v>3</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR77" t="n">
         <v>1.42</v>
@@ -17487,7 +17487,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR78" t="n">
         <v>1.19</v>
@@ -17920,10 +17920,10 @@
         <v>0.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR80" t="n">
         <v>1.82</v>
@@ -18138,7 +18138,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.63</v>
@@ -18574,7 +18574,7 @@
         <v>0.57</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.89</v>
@@ -18795,7 +18795,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR84" t="n">
         <v>1.9</v>
@@ -19013,7 +19013,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR85" t="n">
         <v>1.35</v>
@@ -19228,7 +19228,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.25</v>
@@ -19446,10 +19446,10 @@
         <v>0.38</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR87" t="n">
         <v>1.2</v>
@@ -19667,7 +19667,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR88" t="n">
         <v>1.32</v>
@@ -19882,10 +19882,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR89" t="n">
         <v>1.11</v>
@@ -20103,7 +20103,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR90" t="n">
         <v>1.98</v>
@@ -20318,7 +20318,7 @@
         <v>0.83</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.78</v>
@@ -20536,10 +20536,10 @@
         <v>0.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR92" t="n">
         <v>2.03</v>
@@ -20754,10 +20754,10 @@
         <v>0.57</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR93" t="n">
         <v>1.35</v>
@@ -20975,7 +20975,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR94" t="n">
         <v>1.8</v>
@@ -21190,7 +21190,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.63</v>
@@ -21408,10 +21408,10 @@
         <v>0.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR96" t="n">
         <v>1.2</v>
@@ -21626,10 +21626,10 @@
         <v>2.57</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ97" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR97" t="n">
         <v>1.2</v>
@@ -21844,7 +21844,7 @@
         <v>2.17</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ98" t="n">
         <v>2</v>
@@ -22065,7 +22065,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR99" t="n">
         <v>1.43</v>
@@ -22501,7 +22501,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ101" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR101" t="n">
         <v>1.3</v>
@@ -23370,7 +23370,7 @@
         <v>1.67</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.63</v>
@@ -23588,10 +23588,10 @@
         <v>2.33</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR106" t="n">
         <v>1.18</v>
@@ -23806,10 +23806,10 @@
         <v>0.67</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR107" t="n">
         <v>1.2</v>
@@ -24024,10 +24024,10 @@
         <v>2.14</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR108" t="n">
         <v>1.21</v>
@@ -24242,10 +24242,10 @@
         <v>0.86</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR109" t="n">
         <v>1.99</v>
@@ -24460,10 +24460,10 @@
         <v>0.43</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR110" t="n">
         <v>1.87</v>
@@ -24681,7 +24681,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR111" t="n">
         <v>1.92</v>
@@ -24896,10 +24896,10 @@
         <v>0.33</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR112" t="n">
         <v>1.56</v>
@@ -25114,7 +25114,7 @@
         <v>0.17</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.25</v>
@@ -26719,6 +26719,1532 @@
       </c>
       <c r="BP120" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6937117</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45304.58333333334</v>
+      </c>
+      <c r="F121" t="n">
+        <v>18</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['90+8']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S121" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V121" t="n">
+        <v>3</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X121" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6937121</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45304.625</v>
+      </c>
+      <c r="F122" t="n">
+        <v>18</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>2</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['14', '85']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2</v>
+      </c>
+      <c r="S122" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V122" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X122" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6937119</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45305.41666666666</v>
+      </c>
+      <c r="F123" t="n">
+        <v>18</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>4</v>
+      </c>
+      <c r="N123" t="n">
+        <v>4</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['19', '78', '90', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2</v>
+      </c>
+      <c r="S123" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X123" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6937118</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45305.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>18</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2</v>
+      </c>
+      <c r="K124" t="n">
+        <v>3</v>
+      </c>
+      <c r="L124" t="n">
+        <v>2</v>
+      </c>
+      <c r="M124" t="n">
+        <v>3</v>
+      </c>
+      <c r="N124" t="n">
+        <v>5</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['45+2', '64']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['11', '39', '85']</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S124" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U124" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X124" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6937116</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45305.52083333334</v>
+      </c>
+      <c r="F125" t="n">
+        <v>18</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S125" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X125" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6937115</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45305.64583333334</v>
+      </c>
+      <c r="F126" t="n">
+        <v>18</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>2</v>
+      </c>
+      <c r="L126" t="n">
+        <v>2</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2</v>
+      </c>
+      <c r="N126" t="n">
+        <v>4</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['24', '90+6']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['31', '66']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S126" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V126" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X126" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6937120</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45305.64583333334</v>
+      </c>
+      <c r="F127" t="n">
+        <v>18</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>4</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>4</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['29', '49', '53', '66']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S127" t="n">
+        <v>11</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U127" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X127" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -27745,22 +27745,22 @@
         <v>2.18</v>
       </c>
       <c r="AU125" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV125" t="n">
         <v>3</v>
       </c>
       <c r="AW125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX125" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY125" t="n">
         <v>9</v>
       </c>
       <c r="AZ125" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA125" t="n">
         <v>6</v>
@@ -27963,22 +27963,22 @@
         <v>3.57</v>
       </c>
       <c r="AU126" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW126" t="n">
         <v>6</v>
       </c>
       <c r="AX126" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ126" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA126" t="n">
         <v>7</v>
@@ -28181,19 +28181,19 @@
         <v>2.93</v>
       </c>
       <c r="AU127" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX127" t="n">
         <v>5</v>
       </c>
-      <c r="AV127" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW127" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX127" t="n">
-        <v>3</v>
-      </c>
       <c r="AY127" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ127" t="n">
         <v>5</v>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.78</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.88</v>
@@ -1573,7 +1573,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.67</v>
@@ -2663,7 +2663,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.88</v>
@@ -3099,7 +3099,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR12" t="n">
         <v>1.83</v>
@@ -3753,7 +3753,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR16" t="n">
         <v>1.52</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR19" t="n">
         <v>1.21</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ20" t="n">
         <v>2.2</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.44</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR24" t="n">
         <v>1.19</v>
@@ -6151,7 +6151,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR26" t="n">
         <v>3.13</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.67</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.89</v>
@@ -7023,7 +7023,7 @@
         <v>2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR30" t="n">
         <v>2.36</v>
@@ -7238,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR31" t="n">
         <v>1.44</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR32" t="n">
         <v>1.17</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR33" t="n">
         <v>1.27</v>
@@ -7892,10 +7892,10 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR34" t="n">
         <v>1.73</v>
@@ -9636,10 +9636,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR42" t="n">
         <v>0.84</v>
@@ -9854,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR43" t="n">
         <v>1.76</v>
@@ -10072,10 +10072,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR44" t="n">
         <v>1.54</v>
@@ -10290,10 +10290,10 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR45" t="n">
         <v>1.3</v>
@@ -10508,10 +10508,10 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR46" t="n">
         <v>1.33</v>
@@ -10726,10 +10726,10 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR47" t="n">
         <v>1.42</v>
@@ -10947,7 +10947,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR48" t="n">
         <v>2.17</v>
@@ -11162,7 +11162,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.89</v>
@@ -11380,7 +11380,7 @@
         <v>0.67</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.4</v>
@@ -11816,10 +11816,10 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR52" t="n">
         <v>1.76</v>
@@ -12037,7 +12037,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR53" t="n">
         <v>1.41</v>
@@ -12906,10 +12906,10 @@
         <v>0.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR57" t="n">
         <v>1.23</v>
@@ -13124,10 +13124,10 @@
         <v>0.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR58" t="n">
         <v>0.99</v>
@@ -13560,10 +13560,10 @@
         <v>0.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR60" t="n">
         <v>2.04</v>
@@ -13778,7 +13778,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.4</v>
@@ -13999,7 +13999,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR62" t="n">
         <v>2.31</v>
@@ -14214,10 +14214,10 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ63" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -14432,7 +14432,7 @@
         <v>3</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ64" t="n">
         <v>2.2</v>
@@ -14653,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.58</v>
@@ -14871,7 +14871,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR66" t="n">
         <v>1.65</v>
@@ -15086,7 +15086,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.67</v>
@@ -15307,7 +15307,7 @@
         <v>2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR68" t="n">
         <v>1.91</v>
@@ -15522,7 +15522,7 @@
         <v>0.17</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.89</v>
@@ -15958,7 +15958,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.4</v>
@@ -16176,10 +16176,10 @@
         <v>0.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR72" t="n">
         <v>1.13</v>
@@ -16394,7 +16394,7 @@
         <v>0.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.88</v>
@@ -16615,7 +16615,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR74" t="n">
         <v>1.97</v>
@@ -17051,7 +17051,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR76" t="n">
         <v>1.28</v>
@@ -17484,7 +17484,7 @@
         <v>0.4</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.67</v>
@@ -17705,7 +17705,7 @@
         <v>2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR79" t="n">
         <v>1.9</v>
@@ -17923,7 +17923,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR80" t="n">
         <v>1.82</v>
@@ -18141,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR81" t="n">
         <v>1.25</v>
@@ -18356,10 +18356,10 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ82" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR82" t="n">
         <v>1.08</v>
@@ -18574,7 +18574,7 @@
         <v>0.57</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.89</v>
@@ -18792,7 +18792,7 @@
         <v>3</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.2</v>
@@ -19010,10 +19010,10 @@
         <v>0.43</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR85" t="n">
         <v>1.35</v>
@@ -19231,7 +19231,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR86" t="n">
         <v>1.67</v>
@@ -19449,7 +19449,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR87" t="n">
         <v>1.2</v>
@@ -19664,10 +19664,10 @@
         <v>2.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ88" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR88" t="n">
         <v>1.32</v>
@@ -19882,7 +19882,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.4</v>
@@ -20100,7 +20100,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.44</v>
@@ -20972,7 +20972,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.44</v>
@@ -21193,7 +21193,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR95" t="n">
         <v>1.17</v>
@@ -21408,7 +21408,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.67</v>
@@ -21626,7 +21626,7 @@
         <v>2.57</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97" t="n">
         <v>2.2</v>
@@ -21847,7 +21847,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR98" t="n">
         <v>1.71</v>
@@ -22065,7 +22065,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ99" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR99" t="n">
         <v>1.43</v>
@@ -22280,7 +22280,7 @@
         <v>0.71</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.78</v>
@@ -22498,7 +22498,7 @@
         <v>2.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ101" t="n">
         <v>2.2</v>
@@ -22716,10 +22716,10 @@
         <v>0.14</v>
       </c>
       <c r="AP102" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR102" t="n">
         <v>1.05</v>
@@ -22937,7 +22937,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR103" t="n">
         <v>1.29</v>
@@ -23152,10 +23152,10 @@
         <v>1.67</v>
       </c>
       <c r="AP104" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ104" t="n">
         <v>1.44</v>
-      </c>
-      <c r="AQ104" t="n">
-        <v>1.63</v>
       </c>
       <c r="AR104" t="n">
         <v>1.29</v>
@@ -23373,7 +23373,7 @@
         <v>1</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR105" t="n">
         <v>1.39</v>
@@ -23588,10 +23588,10 @@
         <v>2.33</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR106" t="n">
         <v>1.18</v>
@@ -24024,10 +24024,10 @@
         <v>2.14</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ108" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR108" t="n">
         <v>1.21</v>
@@ -24678,7 +24678,7 @@
         <v>0.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.4</v>
@@ -24899,7 +24899,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR112" t="n">
         <v>1.56</v>
@@ -25114,10 +25114,10 @@
         <v>0.17</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR113" t="n">
         <v>1.09</v>
@@ -25332,7 +25332,7 @@
         <v>0.63</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.89</v>
@@ -25553,7 +25553,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR115" t="n">
         <v>1.28</v>
@@ -25768,10 +25768,10 @@
         <v>0.25</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR116" t="n">
         <v>1.87</v>
@@ -25986,10 +25986,10 @@
         <v>1.86</v>
       </c>
       <c r="AP117" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR117" t="n">
         <v>1.07</v>
@@ -26204,10 +26204,10 @@
         <v>1.86</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR118" t="n">
         <v>1.89</v>
@@ -26425,7 +26425,7 @@
         <v>2</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR119" t="n">
         <v>1.84</v>
@@ -26640,7 +26640,7 @@
         <v>0.75</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.78</v>
@@ -26858,7 +26858,7 @@
         <v>0.38</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.44</v>
@@ -27076,10 +27076,10 @@
         <v>0.3</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR122" t="n">
         <v>1.26</v>
@@ -27515,7 +27515,7 @@
         <v>1</v>
       </c>
       <c r="AQ124" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR124" t="n">
         <v>1.32</v>
@@ -28245,6 +28245,1532 @@
       </c>
       <c r="BP127" t="n">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6937128</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45311.52083333334</v>
+      </c>
+      <c r="F128" t="n">
+        <v>19</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>2</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>3</v>
+      </c>
+      <c r="L128" t="n">
+        <v>4</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="n">
+        <v>5</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['23', '37', '56', '87']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R128" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S128" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V128" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X128" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6937127</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45311.58333333334</v>
+      </c>
+      <c r="F129" t="n">
+        <v>19</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2</v>
+      </c>
+      <c r="K129" t="n">
+        <v>2</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>2</v>
+      </c>
+      <c r="N129" t="n">
+        <v>2</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['11', '16']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R129" t="n">
+        <v>2</v>
+      </c>
+      <c r="S129" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V129" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X129" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP129" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6937125</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45311.625</v>
+      </c>
+      <c r="F130" t="n">
+        <v>19</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S130" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V130" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X130" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6937124</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45312.45833333334</v>
+      </c>
+      <c r="F131" t="n">
+        <v>19</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>5</v>
+      </c>
+      <c r="N131" t="n">
+        <v>6</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['22', '45+1', '51', '71', '89']</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>6</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U131" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V131" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X131" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6937123</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45312.52083333334</v>
+      </c>
+      <c r="F132" t="n">
+        <v>19</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3</v>
+      </c>
+      <c r="K132" t="n">
+        <v>3</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>5</v>
+      </c>
+      <c r="N132" t="n">
+        <v>5</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['2', '15', '35', '58', '66']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>7</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S132" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U132" t="n">
+        <v>3</v>
+      </c>
+      <c r="V132" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X132" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6937126</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45312.60416666666</v>
+      </c>
+      <c r="F133" t="n">
+        <v>19</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>2</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['50', '74']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S133" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X133" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6937122</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45312.64583333334</v>
+      </c>
+      <c r="F134" t="n">
+        <v>19</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="n">
+        <v>2</v>
+      </c>
+      <c r="N134" t="n">
+        <v>3</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['17', '21']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S134" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V134" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X134" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP134" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP134"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.44</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.75</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.75</v>
@@ -2881,7 +2881,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.22</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR13" t="n">
         <v>2.47</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.2</v>
@@ -4186,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>2.51</v>
@@ -4843,7 +4843,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR20" t="n">
         <v>1.39</v>
@@ -5061,7 +5061,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR21" t="n">
         <v>0.89</v>
@@ -5276,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR23" t="n">
         <v>1.17</v>
@@ -5712,7 +5712,7 @@
         <v>0.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.75</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR25" t="n">
         <v>1.95</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ26" t="n">
         <v>2.1</v>
@@ -6369,7 +6369,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR28" t="n">
         <v>1.24</v>
@@ -6802,10 +6802,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
         <v>1.38</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.22</v>
@@ -8110,10 +8110,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR35" t="n">
         <v>1.45</v>
@@ -8328,10 +8328,10 @@
         <v>0.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR36" t="n">
         <v>1.6</v>
@@ -8546,10 +8546,10 @@
         <v>0.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR37" t="n">
         <v>2.25</v>
@@ -8764,10 +8764,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR38" t="n">
         <v>1.78</v>
@@ -8982,10 +8982,10 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR39" t="n">
         <v>1.59</v>
@@ -9200,10 +9200,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR40" t="n">
         <v>1.53</v>
@@ -9418,10 +9418,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR41" t="n">
         <v>2.13</v>
@@ -10944,7 +10944,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.2</v>
@@ -11165,7 +11165,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR49" t="n">
         <v>2.02</v>
@@ -11383,7 +11383,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR50" t="n">
         <v>0.91</v>
@@ -11598,10 +11598,10 @@
         <v>0.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR51" t="n">
         <v>1.62</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.1</v>
@@ -12252,10 +12252,10 @@
         <v>0.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR54" t="n">
         <v>1.73</v>
@@ -12470,10 +12470,10 @@
         <v>0.2</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR55" t="n">
         <v>1.96</v>
@@ -12688,10 +12688,10 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR56" t="n">
         <v>2.15</v>
@@ -13342,10 +13342,10 @@
         <v>0.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR59" t="n">
         <v>1.24</v>
@@ -13781,7 +13781,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR61" t="n">
         <v>1.92</v>
@@ -13996,7 +13996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.78</v>
@@ -14435,7 +14435,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR64" t="n">
         <v>1.04</v>
@@ -14650,7 +14650,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ65" t="n">
         <v>2.1</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.44</v>
@@ -15089,7 +15089,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR67" t="n">
         <v>1.06</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.78</v>
@@ -15525,7 +15525,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR69" t="n">
         <v>1.94</v>
@@ -15740,10 +15740,10 @@
         <v>0.75</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR70" t="n">
         <v>1.52</v>
@@ -15961,7 +15961,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR71" t="n">
         <v>1.17</v>
@@ -16397,7 +16397,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR73" t="n">
         <v>1.34</v>
@@ -16612,7 +16612,7 @@
         <v>0.2</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.2</v>
@@ -16830,10 +16830,10 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR75" t="n">
         <v>2.12</v>
@@ -17048,7 +17048,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ76" t="n">
         <v>2.1</v>
@@ -17266,10 +17266,10 @@
         <v>3</v>
       </c>
       <c r="AP77" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR77" t="n">
         <v>1.42</v>
@@ -17487,7 +17487,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR78" t="n">
         <v>1.19</v>
@@ -17702,7 +17702,7 @@
         <v>0.17</v>
       </c>
       <c r="AP79" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.2</v>
@@ -17920,7 +17920,7 @@
         <v>0.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.75</v>
@@ -18138,7 +18138,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.44</v>
@@ -18577,7 +18577,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR83" t="n">
         <v>1.12</v>
@@ -18795,7 +18795,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR84" t="n">
         <v>1.9</v>
@@ -19228,7 +19228,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.22</v>
@@ -19446,7 +19446,7 @@
         <v>0.38</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.75</v>
@@ -19885,7 +19885,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR89" t="n">
         <v>1.11</v>
@@ -20103,7 +20103,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR90" t="n">
         <v>1.98</v>
@@ -20318,10 +20318,10 @@
         <v>0.83</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR91" t="n">
         <v>1.81</v>
@@ -20536,10 +20536,10 @@
         <v>0.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR92" t="n">
         <v>2.03</v>
@@ -20754,10 +20754,10 @@
         <v>0.57</v>
       </c>
       <c r="AP93" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR93" t="n">
         <v>1.35</v>
@@ -20975,7 +20975,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR94" t="n">
         <v>1.8</v>
@@ -21190,7 +21190,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.78</v>
@@ -21411,7 +21411,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR96" t="n">
         <v>1.2</v>
@@ -21629,7 +21629,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ97" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR97" t="n">
         <v>1.2</v>
@@ -21844,7 +21844,7 @@
         <v>2.17</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.1</v>
@@ -22062,7 +22062,7 @@
         <v>2.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ99" t="n">
         <v>2.1</v>
@@ -22283,7 +22283,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR100" t="n">
         <v>1.78</v>
@@ -22501,7 +22501,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ101" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR101" t="n">
         <v>1.3</v>
@@ -22934,7 +22934,7 @@
         <v>2</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ103" t="n">
         <v>2.1</v>
@@ -23370,7 +23370,7 @@
         <v>1.67</v>
       </c>
       <c r="AP105" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.78</v>
@@ -23806,10 +23806,10 @@
         <v>0.67</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR107" t="n">
         <v>1.2</v>
@@ -24242,10 +24242,10 @@
         <v>0.86</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR109" t="n">
         <v>1.99</v>
@@ -24460,10 +24460,10 @@
         <v>0.43</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR110" t="n">
         <v>1.87</v>
@@ -24681,7 +24681,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR111" t="n">
         <v>1.92</v>
@@ -24896,7 +24896,7 @@
         <v>0.33</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.75</v>
@@ -25335,7 +25335,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR114" t="n">
         <v>1.2</v>
@@ -25550,7 +25550,7 @@
         <v>0.14</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.22</v>
@@ -26422,7 +26422,7 @@
         <v>1.88</v>
       </c>
       <c r="AP119" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ119" t="n">
         <v>2.1</v>
@@ -26643,7 +26643,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR120" t="n">
         <v>1.37</v>
@@ -26861,7 +26861,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR121" t="n">
         <v>1.15</v>
@@ -27294,10 +27294,10 @@
         <v>0.57</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR123" t="n">
         <v>1.56</v>
@@ -27512,7 +27512,7 @@
         <v>1.88</v>
       </c>
       <c r="AP124" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ124" t="n">
         <v>2.1</v>
@@ -27730,10 +27730,10 @@
         <v>0.75</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR125" t="n">
         <v>1.21</v>
@@ -27948,10 +27948,10 @@
         <v>2.33</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR126" t="n">
         <v>1.94</v>
@@ -28166,10 +28166,10 @@
         <v>0.44</v>
       </c>
       <c r="AP127" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR127" t="n">
         <v>1.89</v>
@@ -29771,6 +29771,1532 @@
       </c>
       <c r="BP134" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6937133</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45318.52083333334</v>
+      </c>
+      <c r="F135" t="n">
+        <v>20</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>2</v>
+      </c>
+      <c r="N135" t="n">
+        <v>3</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['11', '82']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S135" t="n">
+        <v>4</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V135" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X135" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6937134</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45318.60416666666</v>
+      </c>
+      <c r="F136" t="n">
+        <v>20</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>2</v>
+      </c>
+      <c r="M136" t="n">
+        <v>2</v>
+      </c>
+      <c r="N136" t="n">
+        <v>4</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['50', '59']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['45+2', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2</v>
+      </c>
+      <c r="S136" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X136" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6937131</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45318.625</v>
+      </c>
+      <c r="F137" t="n">
+        <v>20</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R137" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U137" t="n">
+        <v>3</v>
+      </c>
+      <c r="V137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X137" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6937129</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45319.45833333334</v>
+      </c>
+      <c r="F138" t="n">
+        <v>20</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>3</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>3</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['28', '67', '90+6']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S138" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U138" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X138" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6937130</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45319.52083333334</v>
+      </c>
+      <c r="F139" t="n">
+        <v>20</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>3</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="n">
+        <v>4</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['19', '53', '77']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S139" t="n">
+        <v>4</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V139" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X139" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6937132</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45319.60416666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>20</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>3</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>4</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['57', '65', '90+3']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S140" t="n">
+        <v>10</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U140" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X140" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6937135</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45319.64583333334</v>
+      </c>
+      <c r="F141" t="n">
+        <v>20</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>2</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="n">
+        <v>3</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['43', '56']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>3</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S141" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X141" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -30797,7 +30797,7 @@
         <v>2.35</v>
       </c>
       <c r="AU139" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV139" t="n">
         <v>3</v>
@@ -30806,13 +30806,13 @@
         <v>3</v>
       </c>
       <c r="AX139" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY139" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ139" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA139" t="n">
         <v>5</v>
@@ -31015,19 +31015,19 @@
         <v>2.75</v>
       </c>
       <c r="AU140" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW140" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY140" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ140" t="n">
         <v>5</v>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.7</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.75</v>
@@ -2881,7 +2881,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR12" t="n">
         <v>1.83</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR16" t="n">
         <v>1.52</v>
@@ -4189,7 +4189,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR17" t="n">
         <v>2.51</v>
@@ -4407,7 +4407,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ19" t="n">
         <v>2.1</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ20" t="n">
         <v>2</v>
@@ -5933,7 +5933,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR25" t="n">
         <v>1.95</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR26" t="n">
         <v>3.13</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.7</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.8</v>
@@ -6802,10 +6802,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR29" t="n">
         <v>1.38</v>
@@ -7023,7 +7023,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR30" t="n">
         <v>2.36</v>
@@ -7241,7 +7241,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR31" t="n">
         <v>1.44</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR32" t="n">
         <v>1.17</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR33" t="n">
         <v>1.27</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ34" t="n">
         <v>2.1</v>
@@ -8331,7 +8331,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR36" t="n">
         <v>1.6</v>
@@ -8549,7 +8549,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR37" t="n">
         <v>2.25</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.36</v>
@@ -9418,7 +9418,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.8</v>
@@ -9639,7 +9639,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR42" t="n">
         <v>0.84</v>
@@ -9857,7 +9857,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR43" t="n">
         <v>1.76</v>
@@ -10072,10 +10072,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR44" t="n">
         <v>1.54</v>
@@ -10290,10 +10290,10 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR45" t="n">
         <v>1.3</v>
@@ -10508,10 +10508,10 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR46" t="n">
         <v>1.33</v>
@@ -10726,7 +10726,7 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ47" t="n">
         <v>2.1</v>
@@ -10944,10 +10944,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR48" t="n">
         <v>2.17</v>
@@ -11162,7 +11162,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.8</v>
@@ -12906,10 +12906,10 @@
         <v>0.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR57" t="n">
         <v>1.23</v>
@@ -13124,10 +13124,10 @@
         <v>0.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR58" t="n">
         <v>0.99</v>
@@ -13345,7 +13345,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR59" t="n">
         <v>1.24</v>
@@ -13560,7 +13560,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.75</v>
@@ -13996,10 +13996,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR62" t="n">
         <v>2.31</v>
@@ -14214,10 +14214,10 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ63" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -14871,7 +14871,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR66" t="n">
         <v>1.65</v>
@@ -15086,7 +15086,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.7</v>
@@ -15307,7 +15307,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR68" t="n">
         <v>1.91</v>
@@ -15740,7 +15740,7 @@
         <v>0.75</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.4</v>
@@ -15958,7 +15958,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.36</v>
@@ -16176,7 +16176,7 @@
         <v>0.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.75</v>
@@ -16394,10 +16394,10 @@
         <v>0.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR73" t="n">
         <v>1.34</v>
@@ -16615,7 +16615,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR74" t="n">
         <v>1.97</v>
@@ -16830,10 +16830,10 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR75" t="n">
         <v>2.12</v>
@@ -17051,7 +17051,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR76" t="n">
         <v>1.28</v>
@@ -17484,7 +17484,7 @@
         <v>0.4</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.7</v>
@@ -17705,7 +17705,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR79" t="n">
         <v>1.9</v>
@@ -18141,7 +18141,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR81" t="n">
         <v>1.25</v>
@@ -18356,7 +18356,7 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ82" t="n">
         <v>2.1</v>
@@ -19010,7 +19010,7 @@
         <v>0.43</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.75</v>
@@ -19231,7 +19231,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR86" t="n">
         <v>1.67</v>
@@ -19664,10 +19664,10 @@
         <v>2.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ88" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR88" t="n">
         <v>1.32</v>
@@ -19882,7 +19882,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.36</v>
@@ -20100,7 +20100,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.4</v>
@@ -20321,7 +20321,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR91" t="n">
         <v>1.81</v>
@@ -20536,10 +20536,10 @@
         <v>0.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR92" t="n">
         <v>2.03</v>
@@ -21193,7 +21193,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR95" t="n">
         <v>1.17</v>
@@ -21626,7 +21626,7 @@
         <v>2.57</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ97" t="n">
         <v>2</v>
@@ -22062,10 +22062,10 @@
         <v>2.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ99" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR99" t="n">
         <v>1.43</v>
@@ -22283,7 +22283,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR100" t="n">
         <v>1.78</v>
@@ -22498,7 +22498,7 @@
         <v>2.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ101" t="n">
         <v>2</v>
@@ -22716,10 +22716,10 @@
         <v>0.14</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR102" t="n">
         <v>1.05</v>
@@ -22934,7 +22934,7 @@
         <v>2</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ103" t="n">
         <v>2.1</v>
@@ -23152,10 +23152,10 @@
         <v>1.67</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR104" t="n">
         <v>1.29</v>
@@ -23373,7 +23373,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR105" t="n">
         <v>1.39</v>
@@ -23588,10 +23588,10 @@
         <v>2.33</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR106" t="n">
         <v>1.18</v>
@@ -23809,7 +23809,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR107" t="n">
         <v>1.2</v>
@@ -24027,7 +24027,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ108" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR108" t="n">
         <v>1.21</v>
@@ -24242,7 +24242,7 @@
         <v>0.86</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.7</v>
@@ -24678,7 +24678,7 @@
         <v>0.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.36</v>
@@ -25114,10 +25114,10 @@
         <v>0.17</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR113" t="n">
         <v>1.09</v>
@@ -25332,7 +25332,7 @@
         <v>0.63</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.8</v>
@@ -25550,10 +25550,10 @@
         <v>0.14</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR115" t="n">
         <v>1.28</v>
@@ -25768,10 +25768,10 @@
         <v>0.25</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR116" t="n">
         <v>1.87</v>
@@ -25986,10 +25986,10 @@
         <v>1.86</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR117" t="n">
         <v>1.07</v>
@@ -26207,7 +26207,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR118" t="n">
         <v>1.89</v>
@@ -26640,10 +26640,10 @@
         <v>0.75</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR120" t="n">
         <v>1.37</v>
@@ -26858,7 +26858,7 @@
         <v>0.38</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.4</v>
@@ -27297,7 +27297,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR123" t="n">
         <v>1.56</v>
@@ -27515,7 +27515,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ124" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR124" t="n">
         <v>1.32</v>
@@ -27948,7 +27948,7 @@
         <v>2.33</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ126" t="n">
         <v>2</v>
@@ -28387,7 +28387,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR128" t="n">
         <v>1.23</v>
@@ -28602,7 +28602,7 @@
         <v>0.55</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.75</v>
@@ -28820,10 +28820,10 @@
         <v>0.22</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR130" t="n">
         <v>1.43</v>
@@ -29038,10 +29038,10 @@
         <v>1.63</v>
       </c>
       <c r="AP131" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR131" t="n">
         <v>1.19</v>
@@ -29256,7 +29256,7 @@
         <v>2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ132" t="n">
         <v>2.1</v>
@@ -29474,10 +29474,10 @@
         <v>1.63</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR133" t="n">
         <v>1.85</v>
@@ -29695,7 +29695,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ134" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR134" t="n">
         <v>1.81</v>
@@ -29913,7 +29913,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR135" t="n">
         <v>1.53</v>
@@ -30128,7 +30128,7 @@
         <v>0.67</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.7</v>
@@ -30349,7 +30349,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR137" t="n">
         <v>1.27</v>
@@ -30564,7 +30564,7 @@
         <v>0.44</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.4</v>
@@ -31297,6 +31297,1532 @@
       </c>
       <c r="BP141" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6937139</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45325.52083333334</v>
+      </c>
+      <c r="F142" t="n">
+        <v>21</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>2</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>3</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S142" t="n">
+        <v>4</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X142" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6937049</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45325.60416666666</v>
+      </c>
+      <c r="F143" t="n">
+        <v>21</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>2</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>4</v>
+      </c>
+      <c r="R143" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S143" t="n">
+        <v>3</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X143" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6937140</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45326.45833333334</v>
+      </c>
+      <c r="F144" t="n">
+        <v>21</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="n">
+        <v>2</v>
+      </c>
+      <c r="N144" t="n">
+        <v>3</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['10', '64']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S144" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U144" t="n">
+        <v>3</v>
+      </c>
+      <c r="V144" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X144" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6937136</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45326.52083333334</v>
+      </c>
+      <c r="F145" t="n">
+        <v>21</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>3</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>4</v>
+      </c>
+      <c r="L145" t="n">
+        <v>4</v>
+      </c>
+      <c r="M145" t="n">
+        <v>2</v>
+      </c>
+      <c r="N145" t="n">
+        <v>6</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['25', '27', '43', '76']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['45+3', '90']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S145" t="n">
+        <v>11</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U145" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X145" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6937142</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45326.52083333334</v>
+      </c>
+      <c r="F146" t="n">
+        <v>21</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2</v>
+      </c>
+      <c r="K146" t="n">
+        <v>3</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>4</v>
+      </c>
+      <c r="N146" t="n">
+        <v>5</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['20', '22', '62', '81']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2</v>
+      </c>
+      <c r="S146" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X146" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BP146" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6937138</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45326.64583333334</v>
+      </c>
+      <c r="F147" t="n">
+        <v>21</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['89', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>6</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S147" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U147" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V147" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X147" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6937141</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45326.66666666666</v>
+      </c>
+      <c r="F148" t="n">
+        <v>21</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['25', '60']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S148" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V148" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X148" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31451,22 +31451,22 @@
         <v>2.29</v>
       </c>
       <c r="AU142" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV142" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW142" t="n">
         <v>3</v>
-      </c>
-      <c r="AW142" t="n">
-        <v>4</v>
       </c>
       <c r="AX142" t="n">
         <v>3</v>
       </c>
       <c r="AY142" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ142" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA142" t="n">
         <v>5</v>
@@ -31669,22 +31669,22 @@
         <v>2.32</v>
       </c>
       <c r="AU143" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV143" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW143" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX143" t="n">
         <v>3</v>
       </c>
       <c r="AY143" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ143" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA143" t="n">
         <v>4</v>
@@ -31887,31 +31887,31 @@
         <v>2.33</v>
       </c>
       <c r="AU144" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW144" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY144" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ144" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB144" t="n">
         <v>6</v>
       </c>
-      <c r="BA144" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB144" t="n">
-        <v>4</v>
-      </c>
       <c r="BC144" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD144" t="n">
         <v>1.58</v>
@@ -32105,31 +32105,31 @@
         <v>3.02</v>
       </c>
       <c r="AU145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX145" t="n">
         <v>4</v>
       </c>
-      <c r="AV145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW145" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX145" t="n">
+      <c r="AY145" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA145" t="n">
         <v>6</v>
-      </c>
-      <c r="AY145" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ145" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA145" t="n">
-        <v>5</v>
       </c>
       <c r="BB145" t="n">
         <v>5</v>
       </c>
       <c r="BC145" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD145" t="n">
         <v>1.06</v>
@@ -32323,31 +32323,31 @@
         <v>2.25</v>
       </c>
       <c r="AU146" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV146" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX146" t="n">
         <v>3</v>
       </c>
-      <c r="AW146" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX146" t="n">
-        <v>1</v>
-      </c>
       <c r="AY146" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AZ146" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB146" t="n">
         <v>4</v>
       </c>
-      <c r="BA146" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB146" t="n">
-        <v>3</v>
-      </c>
       <c r="BC146" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD146" t="n">
         <v>1.71</v>
@@ -32544,28 +32544,28 @@
         <v>0</v>
       </c>
       <c r="AV147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX147" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AY147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ147" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB147" t="n">
         <v>8</v>
       </c>
-      <c r="BA147" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB147" t="n">
-        <v>3</v>
-      </c>
       <c r="BC147" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD147" t="n">
         <v>4.19</v>
@@ -32759,31 +32759,31 @@
         <v>3.43</v>
       </c>
       <c r="AU148" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA148" t="n">
         <v>3</v>
       </c>
-      <c r="AV148" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW148" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX148" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY148" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ148" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA148" t="n">
-        <v>2</v>
-      </c>
       <c r="BB148" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BC148" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BD148" t="n">
         <v>1.7</v>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP148"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.5</v>
@@ -1355,7 +1355,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.75</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.36</v>
@@ -2227,7 +2227,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.5</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR13" t="n">
         <v>2.47</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.27</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.18</v>
@@ -4407,7 +4407,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR19" t="n">
         <v>1.21</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR20" t="n">
         <v>1.39</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR21" t="n">
         <v>0.89</v>
@@ -5276,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -5712,7 +5712,7 @@
         <v>0.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.75</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR25" t="n">
         <v>1.95</v>
@@ -6369,7 +6369,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR28" t="n">
         <v>1.24</v>
@@ -6802,7 +6802,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.18</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.5</v>
@@ -7459,7 +7459,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR32" t="n">
         <v>1.17</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.9</v>
@@ -7895,7 +7895,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR34" t="n">
         <v>1.73</v>
@@ -8110,10 +8110,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR35" t="n">
         <v>1.45</v>
@@ -8328,7 +8328,7 @@
         <v>0.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.18</v>
@@ -8546,10 +8546,10 @@
         <v>0.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR37" t="n">
         <v>2.25</v>
@@ -8764,10 +8764,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR38" t="n">
         <v>1.78</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.36</v>
@@ -9203,7 +9203,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR40" t="n">
         <v>1.53</v>
@@ -9421,7 +9421,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR41" t="n">
         <v>2.13</v>
@@ -9636,7 +9636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.27</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.91</v>
@@ -10511,7 +10511,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR46" t="n">
         <v>1.33</v>
@@ -10729,7 +10729,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR47" t="n">
         <v>1.42</v>
@@ -11165,7 +11165,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR49" t="n">
         <v>2.02</v>
@@ -11380,7 +11380,7 @@
         <v>0.67</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.36</v>
@@ -11598,10 +11598,10 @@
         <v>0.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR51" t="n">
         <v>1.62</v>
@@ -12037,7 +12037,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR53" t="n">
         <v>1.41</v>
@@ -12252,10 +12252,10 @@
         <v>0.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR54" t="n">
         <v>1.73</v>
@@ -12470,10 +12470,10 @@
         <v>0.2</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR55" t="n">
         <v>1.96</v>
@@ -12688,10 +12688,10 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR56" t="n">
         <v>2.15</v>
@@ -14432,10 +14432,10 @@
         <v>3</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR64" t="n">
         <v>1.04</v>
@@ -14650,10 +14650,10 @@
         <v>2.25</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR65" t="n">
         <v>1.58</v>
@@ -14868,10 +14868,10 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR66" t="n">
         <v>1.65</v>
@@ -15086,10 +15086,10 @@
         <v>0.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR67" t="n">
         <v>1.06</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.9</v>
@@ -15525,7 +15525,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR69" t="n">
         <v>1.94</v>
@@ -15740,10 +15740,10 @@
         <v>0.75</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR70" t="n">
         <v>1.52</v>
@@ -16397,7 +16397,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR73" t="n">
         <v>1.34</v>
@@ -16612,7 +16612,7 @@
         <v>0.2</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.27</v>
@@ -17266,10 +17266,10 @@
         <v>3</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR77" t="n">
         <v>1.42</v>
@@ -17487,7 +17487,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR78" t="n">
         <v>1.19</v>
@@ -17702,7 +17702,7 @@
         <v>0.17</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.27</v>
@@ -17920,7 +17920,7 @@
         <v>0.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.75</v>
@@ -18138,10 +18138,10 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR81" t="n">
         <v>1.25</v>
@@ -18356,10 +18356,10 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ82" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR82" t="n">
         <v>1.08</v>
@@ -18574,10 +18574,10 @@
         <v>0.57</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR83" t="n">
         <v>1.12</v>
@@ -18795,7 +18795,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR84" t="n">
         <v>1.9</v>
@@ -19228,7 +19228,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.5</v>
@@ -20103,7 +20103,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR90" t="n">
         <v>1.98</v>
@@ -20318,7 +20318,7 @@
         <v>0.83</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.18</v>
@@ -20539,7 +20539,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR92" t="n">
         <v>2.03</v>
@@ -20754,7 +20754,7 @@
         <v>0.57</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.36</v>
@@ -20975,7 +20975,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR94" t="n">
         <v>1.8</v>
@@ -21408,10 +21408,10 @@
         <v>0.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR96" t="n">
         <v>1.2</v>
@@ -21629,7 +21629,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ97" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR97" t="n">
         <v>1.2</v>
@@ -21844,10 +21844,10 @@
         <v>2.17</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR98" t="n">
         <v>1.71</v>
@@ -22062,7 +22062,7 @@
         <v>2.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.91</v>
@@ -22501,7 +22501,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ101" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR101" t="n">
         <v>1.3</v>
@@ -22716,7 +22716,7 @@
         <v>0.14</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.27</v>
@@ -22934,10 +22934,10 @@
         <v>2</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR103" t="n">
         <v>1.29</v>
@@ -23155,7 +23155,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR104" t="n">
         <v>1.29</v>
@@ -23370,7 +23370,7 @@
         <v>1.67</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.9</v>
@@ -23809,7 +23809,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR107" t="n">
         <v>1.2</v>
@@ -24024,7 +24024,7 @@
         <v>2.14</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.91</v>
@@ -24245,7 +24245,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR109" t="n">
         <v>1.99</v>
@@ -24460,10 +24460,10 @@
         <v>0.43</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR110" t="n">
         <v>1.87</v>
@@ -24896,7 +24896,7 @@
         <v>0.33</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.75</v>
@@ -25335,7 +25335,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR114" t="n">
         <v>1.2</v>
@@ -25550,7 +25550,7 @@
         <v>0.14</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.5</v>
@@ -25986,10 +25986,10 @@
         <v>1.86</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR117" t="n">
         <v>1.07</v>
@@ -26422,10 +26422,10 @@
         <v>1.88</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR119" t="n">
         <v>1.84</v>
@@ -26861,7 +26861,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR121" t="n">
         <v>1.15</v>
@@ -27076,7 +27076,7 @@
         <v>0.3</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.75</v>
@@ -27294,10 +27294,10 @@
         <v>0.57</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR123" t="n">
         <v>1.56</v>
@@ -27512,7 +27512,7 @@
         <v>1.88</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.91</v>
@@ -27733,7 +27733,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR125" t="n">
         <v>1.21</v>
@@ -27951,7 +27951,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR126" t="n">
         <v>1.94</v>
@@ -28166,7 +28166,7 @@
         <v>0.44</v>
       </c>
       <c r="AP127" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.36</v>
@@ -28384,7 +28384,7 @@
         <v>0.25</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.5</v>
@@ -28602,7 +28602,7 @@
         <v>0.55</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.75</v>
@@ -29259,7 +29259,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ132" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR132" t="n">
         <v>1.13</v>
@@ -29477,7 +29477,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR133" t="n">
         <v>1.85</v>
@@ -29910,7 +29910,7 @@
         <v>0.78</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.18</v>
@@ -30128,10 +30128,10 @@
         <v>0.67</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR136" t="n">
         <v>1.21</v>
@@ -30346,10 +30346,10 @@
         <v>0.88</v>
       </c>
       <c r="AP137" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR137" t="n">
         <v>1.27</v>
@@ -30567,7 +30567,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR138" t="n">
         <v>1.9</v>
@@ -30785,7 +30785,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR139" t="n">
         <v>1.21</v>
@@ -31000,7 +31000,7 @@
         <v>0.4</v>
       </c>
       <c r="AP140" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.36</v>
@@ -31218,10 +31218,10 @@
         <v>2.2</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AQ141" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR141" t="n">
         <v>1.95</v>
@@ -31654,10 +31654,10 @@
         <v>1.11</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR143" t="n">
         <v>1.23</v>
@@ -32093,7 +32093,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR145" t="n">
         <v>1.89</v>
@@ -32308,7 +32308,7 @@
         <v>1</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.18</v>
@@ -32823,6 +32823,1532 @@
       </c>
       <c r="BP148" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6937144</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45332.52083333334</v>
+      </c>
+      <c r="F149" t="n">
+        <v>22</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>3</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>3</v>
+      </c>
+      <c r="L149" t="n">
+        <v>4</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>4</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['6', '9', '34', '58']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S149" t="n">
+        <v>8</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U149" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X149" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6937148</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45332.58333333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>22</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V150" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X150" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP150" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6937145</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45332.60416666666</v>
+      </c>
+      <c r="F151" t="n">
+        <v>22</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>3</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S151" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X151" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6937143</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45333.45833333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>22</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S152" t="n">
+        <v>4</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X152" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BL152" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BP152" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6937146</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45333.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>22</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>3</v>
+      </c>
+      <c r="N153" t="n">
+        <v>3</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['8', '31', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S153" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X153" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL153" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN153" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO153" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BP153" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6937149</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45333.60416666666</v>
+      </c>
+      <c r="F154" t="n">
+        <v>22</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>3</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['68', '81']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2</v>
+      </c>
+      <c r="S154" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X154" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6937147</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45333.625</v>
+      </c>
+      <c r="F155" t="n">
+        <v>22</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>2</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>3</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U155" t="n">
+        <v>3</v>
+      </c>
+      <c r="V155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X155" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32977,22 +32977,22 @@
         <v>3.16</v>
       </c>
       <c r="AU149" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW149" t="n">
         <v>6</v>
       </c>
-      <c r="AV149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW149" t="n">
-        <v>7</v>
-      </c>
       <c r="AX149" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY149" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ149" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA149" t="n">
         <v>5</v>
@@ -33195,22 +33195,22 @@
         <v>2.39</v>
       </c>
       <c r="AU150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV150" t="n">
         <v>4</v>
       </c>
-      <c r="AV150" t="n">
-        <v>3</v>
-      </c>
       <c r="AW150" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ150" t="n">
         <v>7</v>
-      </c>
-      <c r="AX150" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY150" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ150" t="n">
-        <v>5</v>
       </c>
       <c r="BA150" t="n">
         <v>2</v>
@@ -33413,7 +33413,7 @@
         <v>2.66</v>
       </c>
       <c r="AU151" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV151" t="n">
         <v>6</v>
@@ -33425,7 +33425,7 @@
         <v>7</v>
       </c>
       <c r="AY151" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ151" t="n">
         <v>13</v>
@@ -33631,22 +33631,22 @@
         <v>2.25</v>
       </c>
       <c r="AU152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV152" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW152" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY152" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ152" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA152" t="n">
         <v>11</v>
@@ -33849,10 +33849,10 @@
         <v>2.84</v>
       </c>
       <c r="AU153" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV153" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW153" t="n">
         <v>5</v>
@@ -33861,10 +33861,10 @@
         <v>4</v>
       </c>
       <c r="AY153" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ153" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA153" t="n">
         <v>3</v>
@@ -34070,19 +34070,19 @@
         <v>4</v>
       </c>
       <c r="AV154" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX154" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY154" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ154" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA154" t="n">
         <v>4</v>
@@ -34285,31 +34285,31 @@
         <v>3.73</v>
       </c>
       <c r="AU155" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV155" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW155" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX155" t="n">
         <v>1</v>
       </c>
       <c r="AY155" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AZ155" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA155" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB155" t="n">
         <v>4</v>
       </c>
       <c r="BC155" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD155" t="n">
         <v>2.05</v>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.6899999999999999</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.6899999999999999</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="AR12" t="n">
         <v>1.83</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR13" t="n">
         <v>2.47</v>
@@ -3535,7 +3535,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.33</v>
@@ -3971,7 +3971,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AR16" t="n">
         <v>1.52</v>
@@ -4186,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR17" t="n">
         <v>2.51</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR19" t="n">
         <v>1.21</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ20" t="n">
         <v>2.08</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="AR21" t="n">
         <v>0.89</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AQ22" t="n">
         <v>2.08</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR23" t="n">
         <v>1.17</v>
@@ -5933,7 +5933,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR25" t="n">
         <v>1.95</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR26" t="n">
         <v>3.13</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR28" t="n">
         <v>1.24</v>
@@ -6802,10 +6802,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR29" t="n">
         <v>1.38</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="AR30" t="n">
         <v>2.36</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.33</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR32" t="n">
         <v>1.17</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AR33" t="n">
         <v>1.27</v>
@@ -7892,10 +7892,10 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR34" t="n">
         <v>1.73</v>
@@ -8110,10 +8110,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="AR35" t="n">
         <v>1.45</v>
@@ -8331,7 +8331,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR36" t="n">
         <v>1.6</v>
@@ -8546,10 +8546,10 @@
         <v>0.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR37" t="n">
         <v>2.25</v>
@@ -8767,7 +8767,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR38" t="n">
         <v>1.78</v>
@@ -8982,10 +8982,10 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR39" t="n">
         <v>1.59</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.08</v>
@@ -9418,10 +9418,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR41" t="n">
         <v>2.13</v>
@@ -9636,7 +9636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.33</v>
@@ -9854,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="AR43" t="n">
         <v>1.76</v>
@@ -10072,10 +10072,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AR44" t="n">
         <v>1.54</v>
@@ -10290,10 +10290,10 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR45" t="n">
         <v>1.3</v>
@@ -10508,10 +10508,10 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR46" t="n">
         <v>1.33</v>
@@ -10729,7 +10729,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR47" t="n">
         <v>1.42</v>
@@ -10944,7 +10944,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.33</v>
@@ -11162,10 +11162,10 @@
         <v>0.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR49" t="n">
         <v>2.02</v>
@@ -11380,10 +11380,10 @@
         <v>0.67</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR50" t="n">
         <v>0.91</v>
@@ -11598,10 +11598,10 @@
         <v>0.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR51" t="n">
         <v>1.62</v>
@@ -11816,7 +11816,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.6899999999999999</v>
@@ -12034,10 +12034,10 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR53" t="n">
         <v>1.41</v>
@@ -12255,7 +12255,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="AR54" t="n">
         <v>1.73</v>
@@ -12473,7 +12473,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR55" t="n">
         <v>1.96</v>
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.08</v>
@@ -12906,10 +12906,10 @@
         <v>0.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="AR57" t="n">
         <v>1.23</v>
@@ -13124,7 +13124,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.33</v>
@@ -13342,10 +13342,10 @@
         <v>0.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR59" t="n">
         <v>1.24</v>
@@ -13560,7 +13560,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.6899999999999999</v>
@@ -13778,10 +13778,10 @@
         <v>0.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR61" t="n">
         <v>1.92</v>
@@ -13996,10 +13996,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AR62" t="n">
         <v>2.31</v>
@@ -14217,7 +14217,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ63" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR63" t="n">
         <v>1.33</v>
@@ -14432,7 +14432,7 @@
         <v>3</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64" t="n">
         <v>2.08</v>
@@ -14653,7 +14653,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR65" t="n">
         <v>1.58</v>
@@ -14868,10 +14868,10 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR66" t="n">
         <v>1.65</v>
@@ -15086,10 +15086,10 @@
         <v>0.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR67" t="n">
         <v>1.06</v>
@@ -15304,10 +15304,10 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AR68" t="n">
         <v>1.91</v>
@@ -15522,10 +15522,10 @@
         <v>0.17</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR69" t="n">
         <v>1.94</v>
@@ -15740,10 +15740,10 @@
         <v>0.75</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="AR70" t="n">
         <v>1.52</v>
@@ -15961,7 +15961,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR71" t="n">
         <v>1.17</v>
@@ -16176,7 +16176,7 @@
         <v>0.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.6899999999999999</v>
@@ -16394,10 +16394,10 @@
         <v>0.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR73" t="n">
         <v>1.34</v>
@@ -16830,10 +16830,10 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR75" t="n">
         <v>2.12</v>
@@ -17048,10 +17048,10 @@
         <v>2.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR76" t="n">
         <v>1.28</v>
@@ -17487,7 +17487,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR78" t="n">
         <v>1.19</v>
@@ -17702,7 +17702,7 @@
         <v>0.17</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.33</v>
@@ -18141,7 +18141,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR81" t="n">
         <v>1.25</v>
@@ -18356,10 +18356,10 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ82" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR82" t="n">
         <v>1.08</v>
@@ -18574,10 +18574,10 @@
         <v>0.57</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR83" t="n">
         <v>1.12</v>
@@ -18792,7 +18792,7 @@
         <v>3</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.08</v>
@@ -19010,7 +19010,7 @@
         <v>0.43</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.6899999999999999</v>
@@ -19228,10 +19228,10 @@
         <v>0.2</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="AR86" t="n">
         <v>1.67</v>
@@ -19446,7 +19446,7 @@
         <v>0.38</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.6899999999999999</v>
@@ -19664,10 +19664,10 @@
         <v>2.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ88" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR88" t="n">
         <v>1.32</v>
@@ -19882,10 +19882,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR89" t="n">
         <v>1.11</v>
@@ -20100,10 +20100,10 @@
         <v>0.6</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="AR90" t="n">
         <v>1.98</v>
@@ -20321,7 +20321,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR91" t="n">
         <v>1.81</v>
@@ -20536,10 +20536,10 @@
         <v>0.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR92" t="n">
         <v>2.03</v>
@@ -20757,7 +20757,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR93" t="n">
         <v>1.35</v>
@@ -20972,10 +20972,10 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="AR94" t="n">
         <v>1.8</v>
@@ -21190,10 +21190,10 @@
         <v>1.4</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AR95" t="n">
         <v>1.17</v>
@@ -21408,10 +21408,10 @@
         <v>0.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR96" t="n">
         <v>1.2</v>
@@ -21626,7 +21626,7 @@
         <v>2.57</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ97" t="n">
         <v>2.08</v>
@@ -21844,10 +21844,10 @@
         <v>2.17</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR98" t="n">
         <v>1.71</v>
@@ -22062,10 +22062,10 @@
         <v>2.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AQ99" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR99" t="n">
         <v>1.43</v>
@@ -22280,10 +22280,10 @@
         <v>0.71</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR100" t="n">
         <v>1.78</v>
@@ -22498,7 +22498,7 @@
         <v>2.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ101" t="n">
         <v>2.08</v>
@@ -22716,7 +22716,7 @@
         <v>0.14</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.33</v>
@@ -22934,10 +22934,10 @@
         <v>2</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR103" t="n">
         <v>1.29</v>
@@ -23155,7 +23155,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR104" t="n">
         <v>1.29</v>
@@ -23373,7 +23373,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AR105" t="n">
         <v>1.39</v>
@@ -23588,10 +23588,10 @@
         <v>2.33</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR106" t="n">
         <v>1.18</v>
@@ -23806,10 +23806,10 @@
         <v>0.67</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR107" t="n">
         <v>1.2</v>
@@ -24024,10 +24024,10 @@
         <v>2.14</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ108" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR108" t="n">
         <v>1.21</v>
@@ -24242,10 +24242,10 @@
         <v>0.86</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR109" t="n">
         <v>1.99</v>
@@ -24463,7 +24463,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="AR110" t="n">
         <v>1.87</v>
@@ -24678,10 +24678,10 @@
         <v>0.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR111" t="n">
         <v>1.92</v>
@@ -24896,7 +24896,7 @@
         <v>0.33</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.6899999999999999</v>
@@ -25114,10 +25114,10 @@
         <v>0.17</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="AR113" t="n">
         <v>1.09</v>
@@ -25332,10 +25332,10 @@
         <v>0.63</v>
       </c>
       <c r="AP114" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AQ114" t="n">
         <v>0.75</v>
-      </c>
-      <c r="AQ114" t="n">
-        <v>0.73</v>
       </c>
       <c r="AR114" t="n">
         <v>1.2</v>
@@ -25550,10 +25550,10 @@
         <v>0.14</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="AR115" t="n">
         <v>1.28</v>
@@ -25768,7 +25768,7 @@
         <v>0.25</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.33</v>
@@ -25986,10 +25986,10 @@
         <v>1.86</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR117" t="n">
         <v>1.07</v>
@@ -26204,10 +26204,10 @@
         <v>1.86</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AR118" t="n">
         <v>1.89</v>
@@ -26422,10 +26422,10 @@
         <v>1.88</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR119" t="n">
         <v>1.84</v>
@@ -26643,7 +26643,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR120" t="n">
         <v>1.37</v>
@@ -26858,10 +26858,10 @@
         <v>0.38</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="AR121" t="n">
         <v>1.15</v>
@@ -27076,7 +27076,7 @@
         <v>0.3</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.6899999999999999</v>
@@ -27294,10 +27294,10 @@
         <v>0.57</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR123" t="n">
         <v>1.56</v>
@@ -27515,7 +27515,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ124" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR124" t="n">
         <v>1.32</v>
@@ -27730,10 +27730,10 @@
         <v>0.75</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR125" t="n">
         <v>1.21</v>
@@ -27948,7 +27948,7 @@
         <v>2.33</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ126" t="n">
         <v>2.08</v>
@@ -28169,7 +28169,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR127" t="n">
         <v>1.89</v>
@@ -28384,10 +28384,10 @@
         <v>0.25</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="AR128" t="n">
         <v>1.23</v>
@@ -28602,7 +28602,7 @@
         <v>0.55</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.6899999999999999</v>
@@ -29038,10 +29038,10 @@
         <v>1.63</v>
       </c>
       <c r="AP131" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AR131" t="n">
         <v>1.19</v>
@@ -29256,10 +29256,10 @@
         <v>2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ132" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR132" t="n">
         <v>1.13</v>
@@ -29474,10 +29474,10 @@
         <v>1.63</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR133" t="n">
         <v>1.85</v>
@@ -29692,10 +29692,10 @@
         <v>2</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ134" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR134" t="n">
         <v>1.81</v>
@@ -29910,10 +29910,10 @@
         <v>0.78</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR135" t="n">
         <v>1.53</v>
@@ -30128,10 +30128,10 @@
         <v>0.67</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR136" t="n">
         <v>1.21</v>
@@ -30349,7 +30349,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR137" t="n">
         <v>1.27</v>
@@ -30564,10 +30564,10 @@
         <v>0.44</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="AR138" t="n">
         <v>1.9</v>
@@ -30782,10 +30782,10 @@
         <v>0.89</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR139" t="n">
         <v>1.21</v>
@@ -31000,10 +31000,10 @@
         <v>0.4</v>
       </c>
       <c r="AP140" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR140" t="n">
         <v>1.76</v>
@@ -31436,7 +31436,7 @@
         <v>0.2</v>
       </c>
       <c r="AP142" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.33</v>
@@ -31654,10 +31654,10 @@
         <v>1.11</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR143" t="n">
         <v>1.23</v>
@@ -31875,7 +31875,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="AR144" t="n">
         <v>1.36</v>
@@ -32090,10 +32090,10 @@
         <v>1.44</v>
       </c>
       <c r="AP145" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR145" t="n">
         <v>1.89</v>
@@ -32308,10 +32308,10 @@
         <v>1</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR146" t="n">
         <v>1.16</v>
@@ -32526,10 +32526,10 @@
         <v>1.78</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AR147" t="n">
         <v>1.12</v>
@@ -32744,10 +32744,10 @@
         <v>2.1</v>
       </c>
       <c r="AP148" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="AQ148" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR148" t="n">
         <v>1.85</v>
@@ -32962,10 +32962,10 @@
         <v>0.4</v>
       </c>
       <c r="AP149" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="AR149" t="n">
         <v>1.8</v>
@@ -33180,10 +33180,10 @@
         <v>1.1</v>
       </c>
       <c r="AP150" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR150" t="n">
         <v>1.29</v>
@@ -33398,10 +33398,10 @@
         <v>0.8</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR151" t="n">
         <v>1.52</v>
@@ -33619,7 +33619,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR152" t="n">
         <v>1.25</v>
@@ -33834,7 +33834,7 @@
         <v>2</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AQ153" t="n">
         <v>2.08</v>
@@ -34052,10 +34052,10 @@
         <v>1.3</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR154" t="n">
         <v>1.27</v>
@@ -34273,7 +34273,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ155" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR155" t="n">
         <v>1.9</v>
@@ -34488,10 +34488,10 @@
         <v>1.09</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR156" t="n">
         <v>1.06</v>
@@ -34706,10 +34706,10 @@
         <v>1.18</v>
       </c>
       <c r="AP157" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR157" t="n">
         <v>1.83</v>
@@ -34924,10 +34924,10 @@
         <v>0.36</v>
       </c>
       <c r="AP158" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR158" t="n">
         <v>1.2</v>
@@ -35142,10 +35142,10 @@
         <v>0.5</v>
       </c>
       <c r="AP159" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="AR159" t="n">
         <v>1.94</v>
@@ -35363,7 +35363,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ160" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR160" t="n">
         <v>1.87</v>
@@ -35796,7 +35796,7 @@
         <v>0.27</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.33</v>
@@ -35875,6 +35875,3058 @@
       </c>
       <c r="BP162" t="n">
         <v>1.1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6937163</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F163" t="n">
+        <v>24</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2</v>
+      </c>
+      <c r="K163" t="n">
+        <v>2</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>3</v>
+      </c>
+      <c r="N163" t="n">
+        <v>4</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['17', '41', '63']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>7</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S163" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X163" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP163" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6937161</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45346.60416666666</v>
+      </c>
+      <c r="F164" t="n">
+        <v>24</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>3</v>
+      </c>
+      <c r="R164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S164" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X164" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6937162</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45347.47916666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>24</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2</v>
+      </c>
+      <c r="L165" t="n">
+        <v>2</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2</v>
+      </c>
+      <c r="N165" t="n">
+        <v>4</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['9', '19']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['68', '83']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S165" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X165" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL165" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP165" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6937160</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45347.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>24</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>3</v>
+      </c>
+      <c r="N166" t="n">
+        <v>4</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['72', '73', '90']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>7</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S166" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U166" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V166" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X166" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL166" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP166" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>6937159</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45347.54166666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>24</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>2</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>3</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['79', '87']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R167" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S167" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U167" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V167" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X167" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL167" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BP167" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6937157</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45347.60416666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>24</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>2</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>2</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['45+1', '88']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S168" t="n">
+        <v>6</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X168" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL168" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP168" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6937071</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45347.625</v>
+      </c>
+      <c r="F169" t="n">
+        <v>24</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="n">
+        <v>2</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S169" t="n">
+        <v>10</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U169" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X169" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BL169" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BN169" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO169" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP169" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6937165</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45350.41666666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>25</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>3</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2</v>
+      </c>
+      <c r="K170" t="n">
+        <v>5</v>
+      </c>
+      <c r="L170" t="n">
+        <v>3</v>
+      </c>
+      <c r="M170" t="n">
+        <v>3</v>
+      </c>
+      <c r="N170" t="n">
+        <v>6</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['32', '40', '45+2']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['14', '36', '73']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S170" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X170" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BL170" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP170" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6937167</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45350.41666666666</v>
+      </c>
+      <c r="F171" t="n">
+        <v>25</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>2</v>
+      </c>
+      <c r="L171" t="n">
+        <v>3</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>4</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['31', '61', '70']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X171" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BL171" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BN171" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO171" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP171" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6937166</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45350.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>25</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>2</v>
+      </c>
+      <c r="L172" t="n">
+        <v>3</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>4</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['2', '61', '81']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S172" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V172" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X172" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BL172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BN172" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO172" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP172" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6937169</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45350.5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>25</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>2</v>
+      </c>
+      <c r="N173" t="n">
+        <v>3</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['72', '79']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>7</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V173" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X173" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BL173" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO173" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP173" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6937164</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45350.58333333334</v>
+      </c>
+      <c r="F174" t="n">
+        <v>25</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2</v>
+      </c>
+      <c r="K174" t="n">
+        <v>3</v>
+      </c>
+      <c r="L174" t="n">
+        <v>4</v>
+      </c>
+      <c r="M174" t="n">
+        <v>2</v>
+      </c>
+      <c r="N174" t="n">
+        <v>6</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['15', '69', '74', '79']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['35', '44']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R174" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S174" t="n">
+        <v>12</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U174" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X174" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>17</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL174" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BN174" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO174" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP174" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6937077</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45350.625</v>
+      </c>
+      <c r="F175" t="n">
+        <v>25</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>2</v>
+      </c>
+      <c r="N175" t="n">
+        <v>2</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['45+2', '90']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R175" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S175" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U175" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="V175" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X175" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL175" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN175" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO175" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BP175" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>6937168</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45350.66666666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>25</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>2</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>2</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['3', '52']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S176" t="n">
+        <v>6</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U176" t="n">
+        <v>3</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X176" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL176" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BN176" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO176" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP176" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -244,10 +244,10 @@
     <t>Panaitolikos</t>
   </si>
   <si>
-    <t>Panathinaikos</t>
+    <t>Asteras Tripolis</t>
   </si>
   <si>
-    <t>Asteras Tripolis</t>
+    <t>Panathinaikos</t>
   </si>
   <si>
     <t>AEK Athens</t>
@@ -286,10 +286,10 @@
     <t>[]</t>
   </si>
   <si>
-    <t>['11', '37', '74']</t>
+    <t>['14', '21', '90+6']</t>
   </si>
   <si>
-    <t>['14', '21', '90+6']</t>
+    <t>['11', '37', '74']</t>
   </si>
   <si>
     <t>['78']</t>
@@ -541,10 +541,10 @@
     <t>['90']</t>
   </si>
   <si>
-    <t>['29', '49', '53', '66']</t>
+    <t>['24', '90+6']</t>
   </si>
   <si>
-    <t>['24', '90+6']</t>
+    <t>['29', '49', '53', '66']</t>
   </si>
   <si>
     <t>['23', '37', '56', '87']</t>
@@ -580,10 +580,10 @@
     <t>['15']</t>
   </si>
   <si>
-    <t>['25', '27', '43', '76']</t>
+    <t>['41']</t>
   </si>
   <si>
-    <t>['41']</t>
+    <t>['25', '27', '43', '76']</t>
   </si>
   <si>
     <t>['25', '60']</t>
@@ -646,19 +646,19 @@
     <t>['3', '52']</t>
   </si>
   <si>
-    <t>['45+4', '76']</t>
-  </si>
-  <si>
     <t>['21', '81']</t>
-  </si>
-  <si>
-    <t>['27', '45+6', '87']</t>
   </si>
   <si>
     <t>['23', '56']</t>
   </si>
   <si>
     <t>['43', '49', '90+7']</t>
+  </si>
+  <si>
+    <t>['27', '45+6', '87']</t>
+  </si>
+  <si>
+    <t>['45+4', '76']</t>
   </si>
   <si>
     <t>['55', '61']</t>
@@ -886,10 +886,10 @@
     <t>['10', '64']</t>
   </si>
   <si>
-    <t>['45+3', '90']</t>
+    <t>['20', '22', '62', '81']</t>
   </si>
   <si>
-    <t>['20', '22', '62', '81']</t>
+    <t>['45+3', '90']</t>
   </si>
   <si>
     <t>['89', '90+3']</t>
@@ -946,19 +946,19 @@
     <t>['45+2', '90']</t>
   </si>
   <si>
-    <t>['71', '90+2']</t>
+    <t>['35', '83']</t>
   </si>
   <si>
-    <t>['45+6']</t>
-  </si>
-  <si>
-    <t>['35', '83']</t>
+    <t>['71', '90+2']</t>
   </si>
   <si>
     <t>['54', '77']</t>
   </si>
   <si>
     <t>['15', '54', '67']</t>
+  </si>
+  <si>
+    <t>['45+6']</t>
   </si>
 </sst>
 </file>
@@ -2173,7 +2173,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2773,7 +2773,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6937006</v>
+        <v>6937004</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
@@ -2791,7 +2791,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -2818,160 +2818,160 @@
         <v>89</v>
       </c>
       <c r="Q8">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>1.5</v>
+      </c>
+      <c r="U8">
         <v>2.5</v>
       </c>
-      <c r="S8">
-        <v>9.5</v>
-      </c>
-      <c r="T8">
-        <v>1.34</v>
-      </c>
-      <c r="U8">
-        <v>3.04</v>
-      </c>
       <c r="V8">
-        <v>2.73</v>
+        <v>3.5</v>
       </c>
       <c r="W8">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="X8">
-        <v>6.79</v>
+        <v>10</v>
       </c>
       <c r="Y8">
+        <v>1.06</v>
+      </c>
+      <c r="Z8">
+        <v>2.3</v>
+      </c>
+      <c r="AA8">
+        <v>3.2</v>
+      </c>
+      <c r="AB8">
+        <v>3.25</v>
+      </c>
+      <c r="AC8">
         <v>1.08</v>
       </c>
-      <c r="Z8">
+      <c r="AD8">
+        <v>8.5</v>
+      </c>
+      <c r="AE8">
+        <v>1.44</v>
+      </c>
+      <c r="AF8">
+        <v>2.8</v>
+      </c>
+      <c r="AG8">
+        <v>2.3</v>
+      </c>
+      <c r="AH8">
+        <v>1.5</v>
+      </c>
+      <c r="AI8">
+        <v>1.95</v>
+      </c>
+      <c r="AJ8">
+        <v>1.8</v>
+      </c>
+      <c r="AK8">
         <v>1.3</v>
       </c>
-      <c r="AA8">
+      <c r="AL8">
+        <v>1.33</v>
+      </c>
+      <c r="AM8">
+        <v>1.69</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>1.38</v>
+      </c>
+      <c r="AQ8">
+        <v>0.38</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
         <v>5</v>
       </c>
-      <c r="AB8">
-        <v>12</v>
-      </c>
-      <c r="AC8">
-        <v>1.03</v>
-      </c>
-      <c r="AD8">
-        <v>12</v>
-      </c>
-      <c r="AE8">
-        <v>1.28</v>
-      </c>
-      <c r="AF8">
-        <v>3.6</v>
-      </c>
-      <c r="AG8">
-        <v>2</v>
-      </c>
-      <c r="AH8">
-        <v>1.67</v>
-      </c>
-      <c r="AI8">
-        <v>2.5</v>
-      </c>
-      <c r="AJ8">
-        <v>1.52</v>
-      </c>
-      <c r="AK8">
-        <v>1.03</v>
-      </c>
-      <c r="AL8">
-        <v>1.11</v>
-      </c>
-      <c r="AM8">
-        <v>3.75</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>2.31</v>
-      </c>
-      <c r="AQ8">
-        <v>0.62</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
+      <c r="AV8">
+        <v>8</v>
+      </c>
+      <c r="AW8">
+        <v>4</v>
+      </c>
+      <c r="AX8">
         <v>9</v>
       </c>
-      <c r="AV8">
-        <v>2</v>
-      </c>
-      <c r="AW8">
-        <v>2</v>
-      </c>
-      <c r="AX8">
-        <v>2</v>
-      </c>
       <c r="AY8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ8">
+        <v>17</v>
+      </c>
+      <c r="BA8">
+        <v>3</v>
+      </c>
+      <c r="BB8">
         <v>4</v>
-      </c>
-      <c r="BA8">
-        <v>6</v>
-      </c>
-      <c r="BB8">
-        <v>1</v>
       </c>
       <c r="BC8">
         <v>7</v>
       </c>
       <c r="BD8">
+        <v>1.82</v>
+      </c>
+      <c r="BE8">
+        <v>7.5</v>
+      </c>
+      <c r="BF8">
+        <v>2.42</v>
+      </c>
+      <c r="BG8">
+        <v>1.55</v>
+      </c>
+      <c r="BH8">
+        <v>2.2</v>
+      </c>
+      <c r="BI8">
+        <v>2</v>
+      </c>
+      <c r="BJ8">
+        <v>1.66</v>
+      </c>
+      <c r="BK8">
+        <v>2.75</v>
+      </c>
+      <c r="BL8">
+        <v>1.37</v>
+      </c>
+      <c r="BM8">
+        <v>4</v>
+      </c>
+      <c r="BN8">
+        <v>1.19</v>
+      </c>
+      <c r="BO8">
+        <v>6.5</v>
+      </c>
+      <c r="BP8">
         <v>1.11</v>
-      </c>
-      <c r="BE8">
-        <v>12</v>
-      </c>
-      <c r="BF8">
-        <v>8.25</v>
-      </c>
-      <c r="BG8">
-        <v>1.4</v>
-      </c>
-      <c r="BH8">
-        <v>2.75</v>
-      </c>
-      <c r="BI8">
-        <v>1.93</v>
-      </c>
-      <c r="BJ8">
-        <v>1.88</v>
-      </c>
-      <c r="BK8">
-        <v>2.27</v>
-      </c>
-      <c r="BL8">
-        <v>1.56</v>
-      </c>
-      <c r="BM8">
-        <v>3.05</v>
-      </c>
-      <c r="BN8">
-        <v>1.33</v>
-      </c>
-      <c r="BO8">
-        <v>4.4</v>
-      </c>
-      <c r="BP8">
-        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:68">
@@ -2979,7 +2979,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6937004</v>
+        <v>6937006</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -2997,7 +2997,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -3024,160 +3024,160 @@
         <v>89</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="S9">
+        <v>9.5</v>
+      </c>
+      <c r="T9">
+        <v>1.34</v>
+      </c>
+      <c r="U9">
+        <v>3.04</v>
+      </c>
+      <c r="V9">
+        <v>2.73</v>
+      </c>
+      <c r="W9">
+        <v>1.41</v>
+      </c>
+      <c r="X9">
+        <v>6.79</v>
+      </c>
+      <c r="Y9">
+        <v>1.08</v>
+      </c>
+      <c r="Z9">
+        <v>1.3</v>
+      </c>
+      <c r="AA9">
+        <v>5</v>
+      </c>
+      <c r="AB9">
+        <v>12</v>
+      </c>
+      <c r="AC9">
+        <v>1.03</v>
+      </c>
+      <c r="AD9">
+        <v>12</v>
+      </c>
+      <c r="AE9">
+        <v>1.28</v>
+      </c>
+      <c r="AF9">
+        <v>3.6</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>1.67</v>
+      </c>
+      <c r="AI9">
+        <v>2.5</v>
+      </c>
+      <c r="AJ9">
+        <v>1.52</v>
+      </c>
+      <c r="AK9">
+        <v>1.03</v>
+      </c>
+      <c r="AL9">
+        <v>1.11</v>
+      </c>
+      <c r="AM9">
+        <v>3.75</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>2.31</v>
+      </c>
+      <c r="AQ9">
+        <v>0.62</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>9</v>
+      </c>
+      <c r="AV9">
+        <v>2</v>
+      </c>
+      <c r="AW9">
+        <v>2</v>
+      </c>
+      <c r="AX9">
+        <v>2</v>
+      </c>
+      <c r="AY9">
+        <v>11</v>
+      </c>
+      <c r="AZ9">
         <v>4</v>
       </c>
-      <c r="T9">
-        <v>1.5</v>
-      </c>
-      <c r="U9">
-        <v>2.5</v>
-      </c>
-      <c r="V9">
-        <v>3.5</v>
-      </c>
-      <c r="W9">
-        <v>1.29</v>
-      </c>
-      <c r="X9">
-        <v>10</v>
-      </c>
-      <c r="Y9">
-        <v>1.06</v>
-      </c>
-      <c r="Z9">
-        <v>2.3</v>
-      </c>
-      <c r="AA9">
-        <v>3.2</v>
-      </c>
-      <c r="AB9">
-        <v>3.25</v>
-      </c>
-      <c r="AC9">
-        <v>1.08</v>
-      </c>
-      <c r="AD9">
-        <v>8.5</v>
-      </c>
-      <c r="AE9">
-        <v>1.44</v>
-      </c>
-      <c r="AF9">
-        <v>2.8</v>
-      </c>
-      <c r="AG9">
-        <v>2.3</v>
-      </c>
-      <c r="AH9">
-        <v>1.5</v>
-      </c>
-      <c r="AI9">
-        <v>1.95</v>
-      </c>
-      <c r="AJ9">
-        <v>1.8</v>
-      </c>
-      <c r="AK9">
-        <v>1.3</v>
-      </c>
-      <c r="AL9">
-        <v>1.33</v>
-      </c>
-      <c r="AM9">
-        <v>1.69</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>1.38</v>
-      </c>
-      <c r="AQ9">
-        <v>0.38</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>5</v>
-      </c>
-      <c r="AV9">
-        <v>8</v>
-      </c>
-      <c r="AW9">
-        <v>4</v>
-      </c>
-      <c r="AX9">
-        <v>9</v>
-      </c>
-      <c r="AY9">
-        <v>9</v>
-      </c>
-      <c r="AZ9">
-        <v>17</v>
-      </c>
       <c r="BA9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC9">
         <v>7</v>
       </c>
       <c r="BD9">
-        <v>1.82</v>
+        <v>1.11</v>
       </c>
       <c r="BE9">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="BF9">
-        <v>2.42</v>
+        <v>8.25</v>
       </c>
       <c r="BG9">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="BH9">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="BI9">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="BJ9">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="BK9">
-        <v>2.75</v>
+        <v>2.27</v>
       </c>
       <c r="BL9">
-        <v>1.37</v>
+        <v>1.56</v>
       </c>
       <c r="BM9">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="BN9">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="BO9">
-        <v>6.5</v>
+        <v>4.4</v>
       </c>
       <c r="BP9">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="10" spans="1:68">
@@ -4439,7 +4439,7 @@
         <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5263,7 +5263,7 @@
         <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>75</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -5878,7 +5878,7 @@
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
         <v>71</v>
@@ -7735,7 +7735,7 @@
         <v>70</v>
       </c>
       <c r="H32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -8144,7 +8144,7 @@
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s">
         <v>78</v>
@@ -9380,10 +9380,10 @@
         <v>6</v>
       </c>
       <c r="G40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" t="s">
         <v>77</v>
-      </c>
-      <c r="H40" t="s">
-        <v>76</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -10204,7 +10204,7 @@
         <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s">
         <v>73</v>
@@ -10619,7 +10619,7 @@
         <v>83</v>
       </c>
       <c r="H46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -11234,7 +11234,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s">
         <v>83</v>
@@ -12058,7 +12058,7 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s">
         <v>78</v>
@@ -12679,7 +12679,7 @@
         <v>74</v>
       </c>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -13294,7 +13294,7 @@
         <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s">
         <v>79</v>
@@ -13500,7 +13500,7 @@
         <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s">
         <v>81</v>
@@ -14327,7 +14327,7 @@
         <v>79</v>
       </c>
       <c r="H64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -14739,7 +14739,7 @@
         <v>75</v>
       </c>
       <c r="H66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -16796,7 +16796,7 @@
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H76" t="s">
         <v>74</v>
@@ -17005,7 +17005,7 @@
         <v>80</v>
       </c>
       <c r="H77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -17829,7 +17829,7 @@
         <v>80</v>
       </c>
       <c r="H81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -18447,7 +18447,7 @@
         <v>82</v>
       </c>
       <c r="H84" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -19062,7 +19062,7 @@
         <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H87" t="s">
         <v>81</v>
@@ -19680,7 +19680,7 @@
         <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H90" t="s">
         <v>72</v>
@@ -20710,7 +20710,7 @@
         <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H95" t="s">
         <v>73</v>
@@ -21125,7 +21125,7 @@
         <v>83</v>
       </c>
       <c r="H97" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -21949,7 +21949,7 @@
         <v>70</v>
       </c>
       <c r="H101" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>72</v>
       </c>
       <c r="H104" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -23182,7 +23182,7 @@
         <v>16</v>
       </c>
       <c r="G107" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H107" t="s">
         <v>82</v>
@@ -24006,7 +24006,7 @@
         <v>16</v>
       </c>
       <c r="G111" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H111" t="s">
         <v>71</v>
@@ -25036,7 +25036,7 @@
         <v>17</v>
       </c>
       <c r="G116" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H116" t="s">
         <v>75</v>
@@ -25245,7 +25245,7 @@
         <v>71</v>
       </c>
       <c r="H117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I117">
         <v>2</v>
@@ -26890,7 +26890,7 @@
         <v>18</v>
       </c>
       <c r="G125" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H125" t="s">
         <v>70</v>
@@ -27081,7 +27081,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>6937120</v>
+        <v>6937115</v>
       </c>
       <c r="C126" t="s">
         <v>68</v>
@@ -27096,25 +27096,25 @@
         <v>18</v>
       </c>
       <c r="G126" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H126" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N126">
         <v>4</v>
@@ -27123,163 +27123,163 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>89</v>
+        <v>279</v>
       </c>
       <c r="Q126">
-        <v>1.57</v>
+        <v>2.63</v>
       </c>
       <c r="R126">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="S126">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="T126">
+        <v>1.44</v>
+      </c>
+      <c r="U126">
+        <v>2.63</v>
+      </c>
+      <c r="V126">
+        <v>3.25</v>
+      </c>
+      <c r="W126">
+        <v>1.33</v>
+      </c>
+      <c r="X126">
+        <v>10</v>
+      </c>
+      <c r="Y126">
+        <v>1.06</v>
+      </c>
+      <c r="Z126">
+        <v>1.86</v>
+      </c>
+      <c r="AA126">
+        <v>3.54</v>
+      </c>
+      <c r="AB126">
+        <v>4.04</v>
+      </c>
+      <c r="AC126">
+        <v>1.04</v>
+      </c>
+      <c r="AD126">
+        <v>7.8</v>
+      </c>
+      <c r="AE126">
+        <v>1.33</v>
+      </c>
+      <c r="AF126">
+        <v>3</v>
+      </c>
+      <c r="AG126">
+        <v>2.2</v>
+      </c>
+      <c r="AH126">
+        <v>1.6</v>
+      </c>
+      <c r="AI126">
+        <v>2</v>
+      </c>
+      <c r="AJ126">
+        <v>1.75</v>
+      </c>
+      <c r="AK126">
+        <v>1.28</v>
+      </c>
+      <c r="AL126">
         <v>1.25</v>
       </c>
-      <c r="U126">
-        <v>3.75</v>
-      </c>
-      <c r="V126">
-        <v>2.2</v>
-      </c>
-      <c r="W126">
-        <v>1.62</v>
-      </c>
-      <c r="X126">
+      <c r="AM126">
+        <v>1.83</v>
+      </c>
+      <c r="AN126">
+        <v>2.5</v>
+      </c>
+      <c r="AO126">
+        <v>2.33</v>
+      </c>
+      <c r="AP126">
+        <v>2.54</v>
+      </c>
+      <c r="AQ126">
+        <v>2</v>
+      </c>
+      <c r="AR126">
+        <v>1.94</v>
+      </c>
+      <c r="AS126">
+        <v>1.63</v>
+      </c>
+      <c r="AT126">
+        <v>3.57</v>
+      </c>
+      <c r="AU126">
         <v>5</v>
       </c>
-      <c r="Y126">
-        <v>1.17</v>
-      </c>
-      <c r="Z126">
-        <v>1.1</v>
-      </c>
-      <c r="AA126">
-        <v>8.6</v>
-      </c>
-      <c r="AB126">
-        <v>24</v>
-      </c>
-      <c r="AC126">
-        <v>1.01</v>
-      </c>
-      <c r="AD126">
-        <v>11</v>
-      </c>
-      <c r="AE126">
-        <v>1.14</v>
-      </c>
-      <c r="AF126">
-        <v>4.65</v>
-      </c>
-      <c r="AG126">
-        <v>1.49</v>
-      </c>
-      <c r="AH126">
-        <v>2.44</v>
-      </c>
-      <c r="AI126">
-        <v>2.25</v>
-      </c>
-      <c r="AJ126">
-        <v>1.57</v>
-      </c>
-      <c r="AK126">
-        <v>1.02</v>
-      </c>
-      <c r="AL126">
-        <v>1.08</v>
-      </c>
-      <c r="AM126">
-        <v>4.85</v>
-      </c>
-      <c r="AN126">
-        <v>2.78</v>
-      </c>
-      <c r="AO126">
-        <v>0.44</v>
-      </c>
-      <c r="AP126">
-        <v>2.46</v>
-      </c>
-      <c r="AQ126">
-        <v>0.54</v>
-      </c>
-      <c r="AR126">
-        <v>1.89</v>
-      </c>
-      <c r="AS126">
-        <v>1.04</v>
-      </c>
-      <c r="AT126">
-        <v>2.93</v>
-      </c>
-      <c r="AU126">
-        <v>11</v>
-      </c>
       <c r="AV126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW126">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX126">
         <v>5</v>
       </c>
       <c r="AY126">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AZ126">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA126">
+        <v>7</v>
+      </c>
+      <c r="BB126">
+        <v>2</v>
+      </c>
+      <c r="BC126">
         <v>9</v>
       </c>
-      <c r="BB126">
-        <v>2</v>
-      </c>
-      <c r="BC126">
-        <v>11</v>
-      </c>
       <c r="BD126">
-        <v>1.1</v>
+        <v>1.61</v>
       </c>
       <c r="BE126">
-        <v>12.7</v>
+        <v>8.5</v>
       </c>
       <c r="BF126">
-        <v>8.9</v>
+        <v>2.81</v>
       </c>
       <c r="BG126">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="BH126">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="BI126">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BJ126">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="BK126">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="BL126">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="BM126">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="BN126">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="BO126">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="BP126">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="127" spans="1:68">
@@ -27287,7 +27287,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>6937115</v>
+        <v>6937120</v>
       </c>
       <c r="C127" t="s">
         <v>68</v>
@@ -27302,25 +27302,25 @@
         <v>18</v>
       </c>
       <c r="G127" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H127" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N127">
         <v>4</v>
@@ -27329,163 +27329,163 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>279</v>
+        <v>89</v>
       </c>
       <c r="Q127">
-        <v>2.63</v>
+        <v>1.57</v>
       </c>
       <c r="R127">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="S127">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="T127">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="U127">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="V127">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="W127">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="X127">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y127">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="Z127">
-        <v>1.86</v>
+        <v>1.1</v>
       </c>
       <c r="AA127">
-        <v>3.54</v>
+        <v>8.6</v>
       </c>
       <c r="AB127">
-        <v>4.04</v>
+        <v>24</v>
       </c>
       <c r="AC127">
+        <v>1.01</v>
+      </c>
+      <c r="AD127">
+        <v>11</v>
+      </c>
+      <c r="AE127">
+        <v>1.14</v>
+      </c>
+      <c r="AF127">
+        <v>4.65</v>
+      </c>
+      <c r="AG127">
+        <v>1.49</v>
+      </c>
+      <c r="AH127">
+        <v>2.44</v>
+      </c>
+      <c r="AI127">
+        <v>2.25</v>
+      </c>
+      <c r="AJ127">
+        <v>1.57</v>
+      </c>
+      <c r="AK127">
+        <v>1.02</v>
+      </c>
+      <c r="AL127">
+        <v>1.08</v>
+      </c>
+      <c r="AM127">
+        <v>4.85</v>
+      </c>
+      <c r="AN127">
+        <v>2.78</v>
+      </c>
+      <c r="AO127">
+        <v>0.44</v>
+      </c>
+      <c r="AP127">
+        <v>2.46</v>
+      </c>
+      <c r="AQ127">
+        <v>0.54</v>
+      </c>
+      <c r="AR127">
+        <v>1.89</v>
+      </c>
+      <c r="AS127">
         <v>1.04</v>
       </c>
-      <c r="AD127">
-        <v>7.8</v>
-      </c>
-      <c r="AE127">
-        <v>1.33</v>
-      </c>
-      <c r="AF127">
-        <v>3</v>
-      </c>
-      <c r="AG127">
-        <v>2.2</v>
-      </c>
-      <c r="AH127">
-        <v>1.6</v>
-      </c>
-      <c r="AI127">
-        <v>2</v>
-      </c>
-      <c r="AJ127">
-        <v>1.75</v>
-      </c>
-      <c r="AK127">
-        <v>1.28</v>
-      </c>
-      <c r="AL127">
-        <v>1.25</v>
-      </c>
-      <c r="AM127">
-        <v>1.83</v>
-      </c>
-      <c r="AN127">
-        <v>2.5</v>
-      </c>
-      <c r="AO127">
-        <v>2.33</v>
-      </c>
-      <c r="AP127">
-        <v>2.54</v>
-      </c>
-      <c r="AQ127">
-        <v>2</v>
-      </c>
-      <c r="AR127">
-        <v>1.94</v>
-      </c>
-      <c r="AS127">
-        <v>1.63</v>
-      </c>
       <c r="AT127">
-        <v>3.57</v>
+        <v>2.93</v>
       </c>
       <c r="AU127">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AV127">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW127">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX127">
         <v>5</v>
       </c>
       <c r="AY127">
+        <v>18</v>
+      </c>
+      <c r="AZ127">
+        <v>5</v>
+      </c>
+      <c r="BA127">
+        <v>9</v>
+      </c>
+      <c r="BB127">
+        <v>2</v>
+      </c>
+      <c r="BC127">
         <v>11</v>
       </c>
-      <c r="AZ127">
-        <v>8</v>
-      </c>
-      <c r="BA127">
-        <v>7</v>
-      </c>
-      <c r="BB127">
-        <v>2</v>
-      </c>
-      <c r="BC127">
-        <v>9</v>
-      </c>
       <c r="BD127">
-        <v>1.61</v>
+        <v>1.1</v>
       </c>
       <c r="BE127">
-        <v>8.5</v>
+        <v>12.7</v>
       </c>
       <c r="BF127">
-        <v>2.81</v>
+        <v>8.9</v>
       </c>
       <c r="BG127">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="BH127">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="BI127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BJ127">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="BK127">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="BL127">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="BM127">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="BN127">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="BO127">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="BP127">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="128" spans="1:68">
@@ -28538,10 +28538,10 @@
         <v>19</v>
       </c>
       <c r="G133" t="s">
+        <v>77</v>
+      </c>
+      <c r="H133" t="s">
         <v>76</v>
-      </c>
-      <c r="H133" t="s">
-        <v>77</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -29774,7 +29774,7 @@
         <v>20</v>
       </c>
       <c r="G139" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H139" t="s">
         <v>83</v>
@@ -30189,7 +30189,7 @@
         <v>73</v>
       </c>
       <c r="H141" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -30995,7 +30995,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>6937136</v>
+        <v>6937142</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -31010,28 +31010,28 @@
         <v>21</v>
       </c>
       <c r="G145" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H145" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K145">
+        <v>3</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
         <v>4</v>
       </c>
-      <c r="L145">
-        <v>4</v>
-      </c>
-      <c r="M145">
-        <v>2</v>
-      </c>
       <c r="N145">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O145" t="s">
         <v>188</v>
@@ -31040,160 +31040,160 @@
         <v>290</v>
       </c>
       <c r="Q145">
-        <v>1.62</v>
+        <v>3.2</v>
       </c>
       <c r="R145">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="S145">
+        <v>3.75</v>
+      </c>
+      <c r="T145">
+        <v>1.5</v>
+      </c>
+      <c r="U145">
+        <v>2.5</v>
+      </c>
+      <c r="V145">
+        <v>3.5</v>
+      </c>
+      <c r="W145">
+        <v>1.29</v>
+      </c>
+      <c r="X145">
+        <v>10</v>
+      </c>
+      <c r="Y145">
+        <v>1.06</v>
+      </c>
+      <c r="Z145">
+        <v>2.35</v>
+      </c>
+      <c r="AA145">
+        <v>3.2</v>
+      </c>
+      <c r="AB145">
+        <v>2.95</v>
+      </c>
+      <c r="AC145">
+        <v>1.08</v>
+      </c>
+      <c r="AD145">
+        <v>8</v>
+      </c>
+      <c r="AE145">
+        <v>1.42</v>
+      </c>
+      <c r="AF145">
+        <v>2.8</v>
+      </c>
+      <c r="AG145">
+        <v>2.23</v>
+      </c>
+      <c r="AH145">
+        <v>1.58</v>
+      </c>
+      <c r="AI145">
+        <v>1.95</v>
+      </c>
+      <c r="AJ145">
+        <v>1.8</v>
+      </c>
+      <c r="AK145">
+        <v>1.38</v>
+      </c>
+      <c r="AL145">
+        <v>1.3</v>
+      </c>
+      <c r="AM145">
+        <v>1.57</v>
+      </c>
+      <c r="AN145">
+        <v>0.89</v>
+      </c>
+      <c r="AO145">
+        <v>1</v>
+      </c>
+      <c r="AP145">
+        <v>0.85</v>
+      </c>
+      <c r="AQ145">
+        <v>1.08</v>
+      </c>
+      <c r="AR145">
+        <v>1.16</v>
+      </c>
+      <c r="AS145">
+        <v>1.09</v>
+      </c>
+      <c r="AT145">
+        <v>2.25</v>
+      </c>
+      <c r="AU145">
+        <v>9</v>
+      </c>
+      <c r="AV145">
         <v>11</v>
       </c>
-      <c r="T145">
-        <v>1.3</v>
-      </c>
-      <c r="U145">
-        <v>3.4</v>
-      </c>
-      <c r="V145">
-        <v>2.5</v>
-      </c>
-      <c r="W145">
-        <v>1.5</v>
-      </c>
-      <c r="X145">
-        <v>6</v>
-      </c>
-      <c r="Y145">
-        <v>1.13</v>
-      </c>
-      <c r="Z145">
-        <v>1.21</v>
-      </c>
-      <c r="AA145">
-        <v>6.25</v>
-      </c>
-      <c r="AB145">
-        <v>13</v>
-      </c>
-      <c r="AC145">
-        <v>1.02</v>
-      </c>
-      <c r="AD145">
-        <v>10</v>
-      </c>
-      <c r="AE145">
-        <v>1.15</v>
-      </c>
-      <c r="AF145">
-        <v>4.6</v>
-      </c>
-      <c r="AG145">
-        <v>1.62</v>
-      </c>
-      <c r="AH145">
-        <v>2.16</v>
-      </c>
-      <c r="AI145">
-        <v>2.38</v>
-      </c>
-      <c r="AJ145">
-        <v>1.53</v>
-      </c>
-      <c r="AK145">
-        <v>1.03</v>
-      </c>
-      <c r="AL145">
-        <v>1.09</v>
-      </c>
-      <c r="AM145">
-        <v>4.3</v>
-      </c>
-      <c r="AN145">
-        <v>2.4</v>
-      </c>
-      <c r="AO145">
-        <v>1.44</v>
-      </c>
-      <c r="AP145">
-        <v>2.54</v>
-      </c>
-      <c r="AQ145">
-        <v>1</v>
-      </c>
-      <c r="AR145">
-        <v>1.89</v>
-      </c>
-      <c r="AS145">
-        <v>1.13</v>
-      </c>
-      <c r="AT145">
-        <v>3.02</v>
-      </c>
-      <c r="AU145">
-        <v>8</v>
-      </c>
-      <c r="AV145">
-        <v>3</v>
-      </c>
       <c r="AW145">
+        <v>12</v>
+      </c>
+      <c r="AX145">
+        <v>3</v>
+      </c>
+      <c r="AY145">
+        <v>21</v>
+      </c>
+      <c r="AZ145">
+        <v>14</v>
+      </c>
+      <c r="BA145">
         <v>11</v>
       </c>
-      <c r="AX145">
+      <c r="BB145">
         <v>4</v>
       </c>
-      <c r="AY145">
-        <v>19</v>
-      </c>
-      <c r="AZ145">
-        <v>7</v>
-      </c>
-      <c r="BA145">
-        <v>6</v>
-      </c>
-      <c r="BB145">
-        <v>5</v>
-      </c>
       <c r="BC145">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD145">
-        <v>1.06</v>
+        <v>1.71</v>
       </c>
       <c r="BE145">
-        <v>16.5</v>
+        <v>8.4</v>
       </c>
       <c r="BF145">
-        <v>12.6</v>
+        <v>2.62</v>
       </c>
       <c r="BG145">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="BH145">
-        <v>2.98</v>
+        <v>2.55</v>
       </c>
       <c r="BI145">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="BJ145">
-        <v>2.19</v>
+        <v>1.91</v>
       </c>
       <c r="BK145">
-        <v>2.04</v>
+        <v>2.36</v>
       </c>
       <c r="BL145">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="BM145">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="BN145">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="BO145">
-        <v>3.65</v>
+        <v>4.33</v>
       </c>
       <c r="BP145">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="146" spans="1:68">
@@ -31201,7 +31201,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>6937142</v>
+        <v>6937136</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -31216,28 +31216,28 @@
         <v>21</v>
       </c>
       <c r="G146" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H146" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N146">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O146" t="s">
         <v>189</v>
@@ -31246,160 +31246,160 @@
         <v>291</v>
       </c>
       <c r="Q146">
-        <v>3.2</v>
+        <v>1.62</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="S146">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="T146">
+        <v>1.3</v>
+      </c>
+      <c r="U146">
+        <v>3.4</v>
+      </c>
+      <c r="V146">
+        <v>2.5</v>
+      </c>
+      <c r="W146">
         <v>1.5</v>
       </c>
-      <c r="U146">
-        <v>2.5</v>
-      </c>
-      <c r="V146">
-        <v>3.5</v>
-      </c>
-      <c r="W146">
-        <v>1.29</v>
-      </c>
       <c r="X146">
+        <v>6</v>
+      </c>
+      <c r="Y146">
+        <v>1.13</v>
+      </c>
+      <c r="Z146">
+        <v>1.21</v>
+      </c>
+      <c r="AA146">
+        <v>6.25</v>
+      </c>
+      <c r="AB146">
+        <v>13</v>
+      </c>
+      <c r="AC146">
+        <v>1.02</v>
+      </c>
+      <c r="AD146">
         <v>10</v>
       </c>
-      <c r="Y146">
+      <c r="AE146">
+        <v>1.15</v>
+      </c>
+      <c r="AF146">
+        <v>4.6</v>
+      </c>
+      <c r="AG146">
+        <v>1.62</v>
+      </c>
+      <c r="AH146">
+        <v>2.16</v>
+      </c>
+      <c r="AI146">
+        <v>2.38</v>
+      </c>
+      <c r="AJ146">
+        <v>1.53</v>
+      </c>
+      <c r="AK146">
+        <v>1.03</v>
+      </c>
+      <c r="AL146">
+        <v>1.09</v>
+      </c>
+      <c r="AM146">
+        <v>4.3</v>
+      </c>
+      <c r="AN146">
+        <v>2.4</v>
+      </c>
+      <c r="AO146">
+        <v>1.44</v>
+      </c>
+      <c r="AP146">
+        <v>2.54</v>
+      </c>
+      <c r="AQ146">
+        <v>1</v>
+      </c>
+      <c r="AR146">
+        <v>1.89</v>
+      </c>
+      <c r="AS146">
+        <v>1.13</v>
+      </c>
+      <c r="AT146">
+        <v>3.02</v>
+      </c>
+      <c r="AU146">
+        <v>8</v>
+      </c>
+      <c r="AV146">
+        <v>3</v>
+      </c>
+      <c r="AW146">
+        <v>11</v>
+      </c>
+      <c r="AX146">
+        <v>4</v>
+      </c>
+      <c r="AY146">
+        <v>19</v>
+      </c>
+      <c r="AZ146">
+        <v>7</v>
+      </c>
+      <c r="BA146">
+        <v>6</v>
+      </c>
+      <c r="BB146">
+        <v>5</v>
+      </c>
+      <c r="BC146">
+        <v>11</v>
+      </c>
+      <c r="BD146">
         <v>1.06</v>
       </c>
-      <c r="Z146">
-        <v>2.35</v>
-      </c>
-      <c r="AA146">
-        <v>3.2</v>
-      </c>
-      <c r="AB146">
-        <v>2.95</v>
-      </c>
-      <c r="AC146">
-        <v>1.08</v>
-      </c>
-      <c r="AD146">
-        <v>8</v>
-      </c>
-      <c r="AE146">
+      <c r="BE146">
+        <v>16.5</v>
+      </c>
+      <c r="BF146">
+        <v>12.6</v>
+      </c>
+      <c r="BG146">
+        <v>1.32</v>
+      </c>
+      <c r="BH146">
+        <v>2.98</v>
+      </c>
+      <c r="BI146">
+        <v>1.6</v>
+      </c>
+      <c r="BJ146">
+        <v>2.19</v>
+      </c>
+      <c r="BK146">
+        <v>2.04</v>
+      </c>
+      <c r="BL146">
+        <v>1.73</v>
+      </c>
+      <c r="BM146">
+        <v>2.65</v>
+      </c>
+      <c r="BN146">
         <v>1.42</v>
       </c>
-      <c r="AF146">
-        <v>2.8</v>
-      </c>
-      <c r="AG146">
-        <v>2.23</v>
-      </c>
-      <c r="AH146">
-        <v>1.58</v>
-      </c>
-      <c r="AI146">
-        <v>1.95</v>
-      </c>
-      <c r="AJ146">
-        <v>1.8</v>
-      </c>
-      <c r="AK146">
-        <v>1.38</v>
-      </c>
-      <c r="AL146">
-        <v>1.3</v>
-      </c>
-      <c r="AM146">
-        <v>1.57</v>
-      </c>
-      <c r="AN146">
-        <v>0.89</v>
-      </c>
-      <c r="AO146">
-        <v>1</v>
-      </c>
-      <c r="AP146">
-        <v>0.85</v>
-      </c>
-      <c r="AQ146">
-        <v>1.08</v>
-      </c>
-      <c r="AR146">
-        <v>1.16</v>
-      </c>
-      <c r="AS146">
-        <v>1.09</v>
-      </c>
-      <c r="AT146">
-        <v>2.25</v>
-      </c>
-      <c r="AU146">
-        <v>9</v>
-      </c>
-      <c r="AV146">
-        <v>11</v>
-      </c>
-      <c r="AW146">
-        <v>12</v>
-      </c>
-      <c r="AX146">
-        <v>3</v>
-      </c>
-      <c r="AY146">
-        <v>21</v>
-      </c>
-      <c r="AZ146">
-        <v>14</v>
-      </c>
-      <c r="BA146">
-        <v>11</v>
-      </c>
-      <c r="BB146">
-        <v>4</v>
-      </c>
-      <c r="BC146">
-        <v>15</v>
-      </c>
-      <c r="BD146">
-        <v>1.71</v>
-      </c>
-      <c r="BE146">
-        <v>8.4</v>
-      </c>
-      <c r="BF146">
-        <v>2.62</v>
-      </c>
-      <c r="BG146">
-        <v>1.45</v>
-      </c>
-      <c r="BH146">
-        <v>2.55</v>
-      </c>
-      <c r="BI146">
-        <v>1.83</v>
-      </c>
-      <c r="BJ146">
-        <v>1.91</v>
-      </c>
-      <c r="BK146">
-        <v>2.36</v>
-      </c>
-      <c r="BL146">
-        <v>1.52</v>
-      </c>
-      <c r="BM146">
-        <v>3.2</v>
-      </c>
-      <c r="BN146">
-        <v>1.28</v>
-      </c>
       <c r="BO146">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="BP146">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="147" spans="1:68">
@@ -31628,7 +31628,7 @@
         <v>21</v>
       </c>
       <c r="G148" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H148" t="s">
         <v>74</v>
@@ -32661,7 +32661,7 @@
         <v>81</v>
       </c>
       <c r="H153" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -32867,7 +32867,7 @@
         <v>79</v>
       </c>
       <c r="H154" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -33482,7 +33482,7 @@
         <v>23</v>
       </c>
       <c r="G157" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H157" t="s">
         <v>79</v>
@@ -34512,7 +34512,7 @@
         <v>23</v>
       </c>
       <c r="G162" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H162" t="s">
         <v>75</v>
@@ -35545,7 +35545,7 @@
         <v>74</v>
       </c>
       <c r="H167" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -35954,7 +35954,7 @@
         <v>24</v>
       </c>
       <c r="G169" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H169" t="s">
         <v>80</v>
@@ -36160,7 +36160,7 @@
         <v>25</v>
       </c>
       <c r="G170" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H170" t="s">
         <v>80</v>
@@ -37396,7 +37396,7 @@
         <v>25</v>
       </c>
       <c r="G176" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H176" t="s">
         <v>82</v>
@@ -37587,7 +37587,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>6937177</v>
+        <v>6937176</v>
       </c>
       <c r="C177" t="s">
         <v>68</v>
@@ -37602,190 +37602,190 @@
         <v>26</v>
       </c>
       <c r="G177" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H177" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="K177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N177">
         <v>2</v>
       </c>
       <c r="O177" t="s">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>310</v>
+        <v>179</v>
       </c>
       <c r="Q177">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>3.75</v>
+      </c>
+      <c r="T177">
+        <v>1.5</v>
+      </c>
+      <c r="U177">
         <v>2.5</v>
       </c>
-      <c r="S177">
-        <v>1.91</v>
-      </c>
-      <c r="T177">
-        <v>1.29</v>
-      </c>
-      <c r="U177">
-        <v>3.5</v>
-      </c>
       <c r="V177">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="W177">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="X177">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="Y177">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="Z177">
+        <v>2.05</v>
+      </c>
+      <c r="AA177">
+        <v>3.25</v>
+      </c>
+      <c r="AB177">
+        <v>3.9</v>
+      </c>
+      <c r="AC177">
+        <v>1.08</v>
+      </c>
+      <c r="AD177">
         <v>8.5</v>
       </c>
-      <c r="AA177">
-        <v>4.6</v>
-      </c>
-      <c r="AB177">
+      <c r="AE177">
         <v>1.4</v>
       </c>
-      <c r="AC177">
-        <v>1.03</v>
-      </c>
-      <c r="AD177">
-        <v>15</v>
-      </c>
-      <c r="AE177">
-        <v>1.19</v>
-      </c>
       <c r="AF177">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="AG177">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="AH177">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="AI177">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ177">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK177">
-        <v>2.9</v>
+        <v>1.36</v>
       </c>
       <c r="AL177">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AM177">
-        <v>1.07</v>
+        <v>1.6</v>
       </c>
       <c r="AN177">
-        <v>1.67</v>
+        <v>0.83</v>
       </c>
       <c r="AO177">
-        <v>2.08</v>
+        <v>0.75</v>
       </c>
       <c r="AP177">
-        <v>1.54</v>
+        <v>0.85</v>
       </c>
       <c r="AQ177">
-        <v>2.15</v>
+        <v>0.77</v>
       </c>
       <c r="AR177">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AS177">
-        <v>1.49</v>
+        <v>1.16</v>
       </c>
       <c r="AT177">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="AU177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV177">
+        <v>4</v>
+      </c>
+      <c r="AW177">
+        <v>10</v>
+      </c>
+      <c r="AX177">
+        <v>3</v>
+      </c>
+      <c r="AY177">
+        <v>14</v>
+      </c>
+      <c r="AZ177">
+        <v>7</v>
+      </c>
+      <c r="BA177">
         <v>8</v>
       </c>
-      <c r="AW177">
-        <v>1</v>
-      </c>
-      <c r="AX177">
-        <v>8</v>
-      </c>
-      <c r="AY177">
-        <v>4</v>
-      </c>
-      <c r="AZ177">
-        <v>16</v>
-      </c>
-      <c r="BA177">
-        <v>1</v>
-      </c>
       <c r="BB177">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC177">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD177">
-        <v>5.2</v>
+        <v>1.61</v>
       </c>
       <c r="BE177">
-        <v>10.5</v>
+        <v>8.9</v>
       </c>
       <c r="BF177">
-        <v>1.24</v>
+        <v>2.78</v>
       </c>
       <c r="BG177">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="BH177">
-        <v>2.44</v>
+        <v>2.93</v>
       </c>
       <c r="BI177">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="BJ177">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="BK177">
-        <v>2.46</v>
+        <v>2.09</v>
       </c>
       <c r="BL177">
-        <v>1.48</v>
+        <v>1.69</v>
       </c>
       <c r="BM177">
-        <v>3.34</v>
+        <v>2.76</v>
       </c>
       <c r="BN177">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="BO177">
-        <v>4.9</v>
+        <v>3.74</v>
       </c>
       <c r="BP177">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="178" spans="1:68">
@@ -37793,7 +37793,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>6937176</v>
+        <v>6937174</v>
       </c>
       <c r="C178" t="s">
         <v>68</v>
@@ -37808,88 +37808,88 @@
         <v>26</v>
       </c>
       <c r="G178" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H178" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O178" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="Q178">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="S178">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="T178">
+        <v>1.33</v>
+      </c>
+      <c r="U178">
+        <v>3.25</v>
+      </c>
+      <c r="V178">
+        <v>2.63</v>
+      </c>
+      <c r="W178">
+        <v>1.44</v>
+      </c>
+      <c r="X178">
+        <v>6.5</v>
+      </c>
+      <c r="Y178">
+        <v>1.11</v>
+      </c>
+      <c r="Z178">
+        <v>6</v>
+      </c>
+      <c r="AA178">
+        <v>4.6</v>
+      </c>
+      <c r="AB178">
         <v>1.5</v>
       </c>
-      <c r="U178">
-        <v>2.5</v>
-      </c>
-      <c r="V178">
-        <v>3.4</v>
-      </c>
-      <c r="W178">
-        <v>1.3</v>
-      </c>
-      <c r="X178">
-        <v>10</v>
-      </c>
-      <c r="Y178">
-        <v>1.06</v>
-      </c>
-      <c r="Z178">
-        <v>2.05</v>
-      </c>
-      <c r="AA178">
-        <v>3.25</v>
-      </c>
-      <c r="AB178">
-        <v>3.9</v>
-      </c>
       <c r="AC178">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="AD178">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AE178">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="AF178">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="AG178">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AH178">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AI178">
         <v>1.95</v>
@@ -37898,100 +37898,100 @@
         <v>1.8</v>
       </c>
       <c r="AK178">
+        <v>2.75</v>
+      </c>
+      <c r="AL178">
+        <v>1.16</v>
+      </c>
+      <c r="AM178">
+        <v>1.1</v>
+      </c>
+      <c r="AN178">
+        <v>1.58</v>
+      </c>
+      <c r="AO178">
+        <v>2.08</v>
+      </c>
+      <c r="AP178">
+        <v>1.54</v>
+      </c>
+      <c r="AQ178">
+        <v>2</v>
+      </c>
+      <c r="AR178">
         <v>1.36</v>
       </c>
-      <c r="AL178">
-        <v>1.3</v>
-      </c>
-      <c r="AM178">
-        <v>1.6</v>
-      </c>
-      <c r="AN178">
-        <v>0.83</v>
-      </c>
-      <c r="AO178">
-        <v>0.75</v>
-      </c>
-      <c r="AP178">
-        <v>0.85</v>
-      </c>
-      <c r="AQ178">
-        <v>0.77</v>
-      </c>
-      <c r="AR178">
+      <c r="AS178">
+        <v>1.54</v>
+      </c>
+      <c r="AT178">
+        <v>2.9</v>
+      </c>
+      <c r="AU178">
+        <v>5</v>
+      </c>
+      <c r="AV178">
+        <v>6</v>
+      </c>
+      <c r="AW178">
+        <v>4</v>
+      </c>
+      <c r="AX178">
+        <v>5</v>
+      </c>
+      <c r="AY178">
+        <v>9</v>
+      </c>
+      <c r="AZ178">
+        <v>11</v>
+      </c>
+      <c r="BA178">
+        <v>1</v>
+      </c>
+      <c r="BB178">
+        <v>4</v>
+      </c>
+      <c r="BC178">
+        <v>5</v>
+      </c>
+      <c r="BD178">
+        <v>3.64</v>
+      </c>
+      <c r="BE178">
+        <v>9.1</v>
+      </c>
+      <c r="BF178">
+        <v>1.41</v>
+      </c>
+      <c r="BG178">
+        <v>1.49</v>
+      </c>
+      <c r="BH178">
+        <v>2.44</v>
+      </c>
+      <c r="BI178">
+        <v>1.92</v>
+      </c>
+      <c r="BJ178">
+        <v>1.88</v>
+      </c>
+      <c r="BK178">
+        <v>2.46</v>
+      </c>
+      <c r="BL178">
+        <v>1.48</v>
+      </c>
+      <c r="BM178">
+        <v>3.34</v>
+      </c>
+      <c r="BN178">
         <v>1.26</v>
       </c>
-      <c r="AS178">
-        <v>1.16</v>
-      </c>
-      <c r="AT178">
-        <v>2.42</v>
-      </c>
-      <c r="AU178">
-        <v>4</v>
-      </c>
-      <c r="AV178">
-        <v>4</v>
-      </c>
-      <c r="AW178">
-        <v>10</v>
-      </c>
-      <c r="AX178">
-        <v>3</v>
-      </c>
-      <c r="AY178">
-        <v>14</v>
-      </c>
-      <c r="AZ178">
-        <v>7</v>
-      </c>
-      <c r="BA178">
-        <v>8</v>
-      </c>
-      <c r="BB178">
-        <v>2</v>
-      </c>
-      <c r="BC178">
-        <v>10</v>
-      </c>
-      <c r="BD178">
-        <v>1.61</v>
-      </c>
-      <c r="BE178">
-        <v>8.9</v>
-      </c>
-      <c r="BF178">
-        <v>2.78</v>
-      </c>
-      <c r="BG178">
-        <v>1.33</v>
-      </c>
-      <c r="BH178">
-        <v>2.93</v>
-      </c>
-      <c r="BI178">
-        <v>1.63</v>
-      </c>
-      <c r="BJ178">
-        <v>2.14</v>
-      </c>
-      <c r="BK178">
-        <v>2.09</v>
-      </c>
-      <c r="BL178">
-        <v>1.69</v>
-      </c>
-      <c r="BM178">
-        <v>2.76</v>
-      </c>
-      <c r="BN178">
-        <v>1.39</v>
-      </c>
       <c r="BO178">
-        <v>3.74</v>
+        <v>4.6</v>
       </c>
       <c r="BP178">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="179" spans="1:68">
@@ -37999,7 +37999,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>6937175</v>
+        <v>6937177</v>
       </c>
       <c r="C179" t="s">
         <v>68</v>
@@ -38014,190 +38014,190 @@
         <v>26</v>
       </c>
       <c r="G179" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H179" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O179" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="P179" t="s">
         <v>311</v>
       </c>
       <c r="Q179">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="R179">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="S179">
+        <v>1.91</v>
+      </c>
+      <c r="T179">
+        <v>1.29</v>
+      </c>
+      <c r="U179">
+        <v>3.5</v>
+      </c>
+      <c r="V179">
+        <v>2.25</v>
+      </c>
+      <c r="W179">
+        <v>1.57</v>
+      </c>
+      <c r="X179">
+        <v>5.5</v>
+      </c>
+      <c r="Y179">
+        <v>1.14</v>
+      </c>
+      <c r="Z179">
+        <v>8.5</v>
+      </c>
+      <c r="AA179">
+        <v>4.6</v>
+      </c>
+      <c r="AB179">
+        <v>1.4</v>
+      </c>
+      <c r="AC179">
+        <v>1.03</v>
+      </c>
+      <c r="AD179">
+        <v>15</v>
+      </c>
+      <c r="AE179">
+        <v>1.19</v>
+      </c>
+      <c r="AF179">
+        <v>4.75</v>
+      </c>
+      <c r="AG179">
+        <v>1.62</v>
+      </c>
+      <c r="AH179">
+        <v>2.15</v>
+      </c>
+      <c r="AI179">
+        <v>1.75</v>
+      </c>
+      <c r="AJ179">
+        <v>2</v>
+      </c>
+      <c r="AK179">
+        <v>2.9</v>
+      </c>
+      <c r="AL179">
+        <v>1.17</v>
+      </c>
+      <c r="AM179">
+        <v>1.07</v>
+      </c>
+      <c r="AN179">
+        <v>1.67</v>
+      </c>
+      <c r="AO179">
+        <v>2.08</v>
+      </c>
+      <c r="AP179">
+        <v>1.54</v>
+      </c>
+      <c r="AQ179">
+        <v>2.15</v>
+      </c>
+      <c r="AR179">
+        <v>1.23</v>
+      </c>
+      <c r="AS179">
+        <v>1.49</v>
+      </c>
+      <c r="AT179">
+        <v>2.72</v>
+      </c>
+      <c r="AU179">
+        <v>3</v>
+      </c>
+      <c r="AV179">
+        <v>8</v>
+      </c>
+      <c r="AW179">
+        <v>1</v>
+      </c>
+      <c r="AX179">
+        <v>8</v>
+      </c>
+      <c r="AY179">
         <v>4</v>
       </c>
-      <c r="T179">
-        <v>1.5</v>
-      </c>
-      <c r="U179">
-        <v>2.5</v>
-      </c>
-      <c r="V179">
-        <v>3.4</v>
-      </c>
-      <c r="W179">
-        <v>1.3</v>
-      </c>
-      <c r="X179">
-        <v>10</v>
-      </c>
-      <c r="Y179">
-        <v>1.06</v>
-      </c>
-      <c r="Z179">
-        <v>2.2</v>
-      </c>
-      <c r="AA179">
-        <v>3.3</v>
-      </c>
-      <c r="AB179">
-        <v>3.3</v>
-      </c>
-      <c r="AC179">
-        <v>1.08</v>
-      </c>
-      <c r="AD179">
+      <c r="AZ179">
+        <v>16</v>
+      </c>
+      <c r="BA179">
+        <v>1</v>
+      </c>
+      <c r="BB179">
+        <v>8</v>
+      </c>
+      <c r="BC179">
         <v>9</v>
       </c>
-      <c r="AE179">
-        <v>1.4</v>
-      </c>
-      <c r="AF179">
-        <v>3</v>
-      </c>
-      <c r="AG179">
-        <v>2.1</v>
-      </c>
-      <c r="AH179">
-        <v>1.65</v>
-      </c>
-      <c r="AI179">
-        <v>1.95</v>
-      </c>
-      <c r="AJ179">
-        <v>1.8</v>
-      </c>
-      <c r="AK179">
-        <v>1.32</v>
-      </c>
-      <c r="AL179">
-        <v>1.3</v>
-      </c>
-      <c r="AM179">
-        <v>1.7</v>
-      </c>
-      <c r="AN179">
-        <v>1.25</v>
-      </c>
-      <c r="AO179">
-        <v>1.08</v>
-      </c>
-      <c r="AP179">
-        <v>1.38</v>
-      </c>
-      <c r="AQ179">
-        <v>1</v>
-      </c>
-      <c r="AR179">
-        <v>1.25</v>
-      </c>
-      <c r="AS179">
-        <v>1.14</v>
-      </c>
-      <c r="AT179">
-        <v>2.39</v>
-      </c>
-      <c r="AU179">
-        <v>7</v>
-      </c>
-      <c r="AV179">
-        <v>3</v>
-      </c>
-      <c r="AW179">
-        <v>5</v>
-      </c>
-      <c r="AX179">
-        <v>4</v>
-      </c>
-      <c r="AY179">
-        <v>12</v>
-      </c>
-      <c r="AZ179">
-        <v>7</v>
-      </c>
-      <c r="BA179">
-        <v>5</v>
-      </c>
-      <c r="BB179">
-        <v>5</v>
-      </c>
-      <c r="BC179">
-        <v>10</v>
-      </c>
       <c r="BD179">
-        <v>1.82</v>
+        <v>5.2</v>
       </c>
       <c r="BE179">
-        <v>8.1</v>
+        <v>10.5</v>
       </c>
       <c r="BF179">
-        <v>2.38</v>
+        <v>1.24</v>
       </c>
       <c r="BG179">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="BH179">
-        <v>2.17</v>
+        <v>2.44</v>
       </c>
       <c r="BI179">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="BJ179">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="BK179">
-        <v>2.8</v>
+        <v>2.46</v>
       </c>
       <c r="BL179">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="BM179">
-        <v>3.96</v>
+        <v>3.34</v>
       </c>
       <c r="BN179">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="BO179">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="BP179">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="180" spans="1:68">
@@ -38205,7 +38205,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>6937174</v>
+        <v>6937172</v>
       </c>
       <c r="C180" t="s">
         <v>68</v>
@@ -38220,19 +38220,19 @@
         <v>26</v>
       </c>
       <c r="G180" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H180" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L180">
         <v>2</v>
@@ -38250,97 +38250,97 @@
         <v>312</v>
       </c>
       <c r="Q180">
-        <v>6</v>
+        <v>2.95</v>
       </c>
       <c r="R180">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="T180">
+        <v>1.42</v>
+      </c>
+      <c r="U180">
+        <v>2.71</v>
+      </c>
+      <c r="V180">
+        <v>2.94</v>
+      </c>
+      <c r="W180">
+        <v>1.36</v>
+      </c>
+      <c r="X180">
+        <v>7.25</v>
+      </c>
+      <c r="Y180">
+        <v>1.07</v>
+      </c>
+      <c r="Z180">
+        <v>2.3</v>
+      </c>
+      <c r="AA180">
+        <v>3.25</v>
+      </c>
+      <c r="AB180">
+        <v>3.2</v>
+      </c>
+      <c r="AC180">
+        <v>1.07</v>
+      </c>
+      <c r="AD180">
+        <v>9.5</v>
+      </c>
+      <c r="AE180">
         <v>1.33</v>
       </c>
-      <c r="U180">
-        <v>3.25</v>
-      </c>
-      <c r="V180">
-        <v>2.63</v>
-      </c>
-      <c r="W180">
-        <v>1.44</v>
-      </c>
-      <c r="X180">
-        <v>6.5</v>
-      </c>
-      <c r="Y180">
-        <v>1.11</v>
-      </c>
-      <c r="Z180">
-        <v>6</v>
-      </c>
-      <c r="AA180">
-        <v>4.6</v>
-      </c>
-      <c r="AB180">
-        <v>1.5</v>
-      </c>
-      <c r="AC180">
-        <v>1.03</v>
-      </c>
-      <c r="AD180">
-        <v>15</v>
-      </c>
-      <c r="AE180">
-        <v>1.24</v>
-      </c>
       <c r="AF180">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="AG180">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="AH180">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="AI180">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AJ180">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK180">
-        <v>2.75</v>
+        <v>1.33</v>
       </c>
       <c r="AL180">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AM180">
-        <v>1.1</v>
+        <v>1.68</v>
       </c>
       <c r="AN180">
-        <v>1.58</v>
+        <v>0.92</v>
       </c>
       <c r="AO180">
-        <v>2.08</v>
+        <v>0.33</v>
       </c>
       <c r="AP180">
-        <v>1.54</v>
+        <v>0.92</v>
       </c>
       <c r="AQ180">
-        <v>2</v>
+        <v>0.38</v>
       </c>
       <c r="AR180">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AS180">
-        <v>1.54</v>
+        <v>1.13</v>
       </c>
       <c r="AT180">
-        <v>2.9</v>
+        <v>2.38</v>
       </c>
       <c r="AU180">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV180">
         <v>6</v>
@@ -38352,58 +38352,58 @@
         <v>5</v>
       </c>
       <c r="AY180">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ180">
         <v>11</v>
       </c>
       <c r="BA180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB180">
         <v>4</v>
       </c>
       <c r="BC180">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD180">
-        <v>3.64</v>
+        <v>1.77</v>
       </c>
       <c r="BE180">
-        <v>9.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF180">
-        <v>1.41</v>
+        <v>2.45</v>
       </c>
       <c r="BG180">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="BH180">
-        <v>2.44</v>
+        <v>2.49</v>
       </c>
       <c r="BI180">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="BJ180">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="BK180">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="BL180">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BM180">
-        <v>3.34</v>
+        <v>3.28</v>
       </c>
       <c r="BN180">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="BO180">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="BP180">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="181" spans="1:68">
@@ -38411,7 +38411,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>6937173</v>
+        <v>6937171</v>
       </c>
       <c r="C181" t="s">
         <v>68</v>
@@ -38426,16 +38426,16 @@
         <v>26</v>
       </c>
       <c r="G181" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H181" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181">
         <v>2</v>
@@ -38444,172 +38444,172 @@
         <v>3</v>
       </c>
       <c r="M181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N181">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O181" t="s">
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="Q181">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="R181">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="S181">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="T181">
+        <v>1.4</v>
+      </c>
+      <c r="U181">
+        <v>2.75</v>
+      </c>
+      <c r="V181">
+        <v>2.75</v>
+      </c>
+      <c r="W181">
+        <v>1.4</v>
+      </c>
+      <c r="X181">
+        <v>8</v>
+      </c>
+      <c r="Y181">
+        <v>1.08</v>
+      </c>
+      <c r="Z181">
+        <v>7.5</v>
+      </c>
+      <c r="AA181">
+        <v>4.1</v>
+      </c>
+      <c r="AB181">
+        <v>1.47</v>
+      </c>
+      <c r="AC181">
+        <v>1.06</v>
+      </c>
+      <c r="AD181">
+        <v>10</v>
+      </c>
+      <c r="AE181">
+        <v>1.3</v>
+      </c>
+      <c r="AF181">
+        <v>3.5</v>
+      </c>
+      <c r="AG181">
+        <v>1.95</v>
+      </c>
+      <c r="AH181">
+        <v>1.75</v>
+      </c>
+      <c r="AI181">
+        <v>1.95</v>
+      </c>
+      <c r="AJ181">
+        <v>1.8</v>
+      </c>
+      <c r="AK181">
+        <v>2.35</v>
+      </c>
+      <c r="AL181">
         <v>1.22</v>
       </c>
-      <c r="U181">
-        <v>4</v>
-      </c>
-      <c r="V181">
-        <v>2.1</v>
-      </c>
-      <c r="W181">
-        <v>1.67</v>
-      </c>
-      <c r="X181">
-        <v>4.5</v>
-      </c>
-      <c r="Y181">
-        <v>1.18</v>
-      </c>
-      <c r="Z181">
-        <v>1.1</v>
-      </c>
-      <c r="AA181">
-        <v>9</v>
-      </c>
-      <c r="AB181">
-        <v>23</v>
-      </c>
-      <c r="AC181">
-        <v>1.01</v>
-      </c>
-      <c r="AD181">
-        <v>26</v>
-      </c>
-      <c r="AE181">
+      <c r="AM181">
         <v>1.13</v>
       </c>
-      <c r="AF181">
+      <c r="AN181">
+        <v>2.17</v>
+      </c>
+      <c r="AO181">
+        <v>2.08</v>
+      </c>
+      <c r="AP181">
+        <v>2.08</v>
+      </c>
+      <c r="AQ181">
+        <v>2</v>
+      </c>
+      <c r="AR181">
+        <v>1.75</v>
+      </c>
+      <c r="AS181">
+        <v>1.77</v>
+      </c>
+      <c r="AT181">
+        <v>3.52</v>
+      </c>
+      <c r="AU181">
         <v>6</v>
       </c>
-      <c r="AG181">
-        <v>1.5</v>
-      </c>
-      <c r="AH181">
-        <v>2.4</v>
-      </c>
-      <c r="AI181">
-        <v>2.38</v>
-      </c>
-      <c r="AJ181">
-        <v>1.53</v>
-      </c>
-      <c r="AK181">
-        <v>1.02</v>
-      </c>
-      <c r="AL181">
-        <v>1.04</v>
-      </c>
-      <c r="AM181">
+      <c r="AV181">
+        <v>10</v>
+      </c>
+      <c r="AW181">
+        <v>2</v>
+      </c>
+      <c r="AX181">
         <v>5</v>
       </c>
-      <c r="AN181">
-        <v>2.25</v>
-      </c>
-      <c r="AO181">
-        <v>0.67</v>
-      </c>
-      <c r="AP181">
-        <v>2.31</v>
-      </c>
-      <c r="AQ181">
-        <v>0.62</v>
-      </c>
-      <c r="AR181">
-        <v>1.96</v>
-      </c>
-      <c r="AS181">
-        <v>0.97</v>
-      </c>
-      <c r="AT181">
-        <v>2.93</v>
-      </c>
-      <c r="AU181">
-        <v>16</v>
-      </c>
-      <c r="AV181">
-        <v>0</v>
-      </c>
-      <c r="AW181">
-        <v>11</v>
-      </c>
-      <c r="AX181">
-        <v>4</v>
-      </c>
       <c r="AY181">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="AZ181">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BA181">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BB181">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BC181">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD181">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BE181">
-        <v>21</v>
+        <v>10.25</v>
       </c>
       <c r="BF181">
-        <v>16.5</v>
+        <v>1.32</v>
       </c>
       <c r="BG181">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BH181">
-        <v>3.34</v>
+        <v>3.18</v>
       </c>
       <c r="BI181">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="BJ181">
-        <v>1.88</v>
+        <v>2.29</v>
       </c>
       <c r="BK181">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="BL181">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BM181">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="BN181">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="BO181">
-        <v>3.18</v>
+        <v>3.42</v>
       </c>
       <c r="BP181">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="182" spans="1:68">
@@ -38617,7 +38617,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>6937172</v>
+        <v>6937173</v>
       </c>
       <c r="C182" t="s">
         <v>68</v>
@@ -38632,190 +38632,190 @@
         <v>26</v>
       </c>
       <c r="G182" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H182" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182">
         <v>0</v>
       </c>
       <c r="K182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O182" t="s">
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>313</v>
+        <v>89</v>
       </c>
       <c r="Q182">
-        <v>2.95</v>
+        <v>1.5</v>
       </c>
       <c r="R182">
+        <v>3</v>
+      </c>
+      <c r="S182">
+        <v>13</v>
+      </c>
+      <c r="T182">
+        <v>1.22</v>
+      </c>
+      <c r="U182">
+        <v>4</v>
+      </c>
+      <c r="V182">
         <v>2.1</v>
       </c>
-      <c r="S182">
-        <v>3.75</v>
-      </c>
-      <c r="T182">
-        <v>1.42</v>
-      </c>
-      <c r="U182">
-        <v>2.71</v>
-      </c>
-      <c r="V182">
-        <v>2.94</v>
-      </c>
       <c r="W182">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="X182">
-        <v>7.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y182">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="Z182">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="AA182">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="AB182">
-        <v>3.2</v>
+        <v>23</v>
       </c>
       <c r="AC182">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AD182">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="AE182">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AF182">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="AG182">
-        <v>2.09</v>
+        <v>1.5</v>
       </c>
       <c r="AH182">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="AI182">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="AJ182">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="AK182">
-        <v>1.33</v>
+        <v>1.02</v>
       </c>
       <c r="AL182">
-        <v>1.3</v>
+        <v>1.04</v>
       </c>
       <c r="AM182">
-        <v>1.68</v>
+        <v>5</v>
       </c>
       <c r="AN182">
-        <v>0.92</v>
+        <v>2.25</v>
       </c>
       <c r="AO182">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP182">
-        <v>0.92</v>
+        <v>2.31</v>
       </c>
       <c r="AQ182">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
       <c r="AR182">
-        <v>1.25</v>
+        <v>1.96</v>
       </c>
       <c r="AS182">
-        <v>1.13</v>
+        <v>0.97</v>
       </c>
       <c r="AT182">
-        <v>2.38</v>
+        <v>2.93</v>
       </c>
       <c r="AU182">
+        <v>16</v>
+      </c>
+      <c r="AV182">
+        <v>0</v>
+      </c>
+      <c r="AW182">
+        <v>11</v>
+      </c>
+      <c r="AX182">
+        <v>4</v>
+      </c>
+      <c r="AY182">
+        <v>27</v>
+      </c>
+      <c r="AZ182">
+        <v>4</v>
+      </c>
+      <c r="BA182">
         <v>9</v>
       </c>
-      <c r="AV182">
-        <v>6</v>
-      </c>
-      <c r="AW182">
-        <v>4</v>
-      </c>
-      <c r="AX182">
-        <v>5</v>
-      </c>
-      <c r="AY182">
-        <v>13</v>
-      </c>
-      <c r="AZ182">
-        <v>11</v>
-      </c>
-      <c r="BA182">
-        <v>5</v>
-      </c>
       <c r="BB182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC182">
         <v>9</v>
       </c>
       <c r="BD182">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="BE182">
-        <v>8.300000000000001</v>
+        <v>21</v>
       </c>
       <c r="BF182">
-        <v>2.45</v>
+        <v>16.5</v>
       </c>
       <c r="BG182">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="BH182">
-        <v>2.49</v>
+        <v>3.34</v>
       </c>
       <c r="BI182">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="BJ182">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="BK182">
-        <v>2.41</v>
+        <v>1.86</v>
       </c>
       <c r="BL182">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="BM182">
-        <v>3.28</v>
+        <v>2.36</v>
       </c>
       <c r="BN182">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="BO182">
-        <v>4.5</v>
+        <v>3.18</v>
       </c>
       <c r="BP182">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -38823,7 +38823,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>6937171</v>
+        <v>6937175</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
@@ -38838,10 +38838,10 @@
         <v>26</v>
       </c>
       <c r="G183" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H183" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I183">
         <v>1</v>
@@ -38853,13 +38853,13 @@
         <v>2</v>
       </c>
       <c r="L183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N183">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O183" t="s">
         <v>214</v>
@@ -38868,58 +38868,58 @@
         <v>314</v>
       </c>
       <c r="Q183">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R183">
+        <v>2.05</v>
+      </c>
+      <c r="S183">
+        <v>4</v>
+      </c>
+      <c r="T183">
+        <v>1.5</v>
+      </c>
+      <c r="U183">
+        <v>2.5</v>
+      </c>
+      <c r="V183">
+        <v>3.4</v>
+      </c>
+      <c r="W183">
+        <v>1.3</v>
+      </c>
+      <c r="X183">
+        <v>10</v>
+      </c>
+      <c r="Y183">
+        <v>1.06</v>
+      </c>
+      <c r="Z183">
         <v>2.2</v>
       </c>
-      <c r="S183">
-        <v>2.2</v>
-      </c>
-      <c r="T183">
+      <c r="AA183">
+        <v>3.3</v>
+      </c>
+      <c r="AB183">
+        <v>3.3</v>
+      </c>
+      <c r="AC183">
+        <v>1.08</v>
+      </c>
+      <c r="AD183">
+        <v>9</v>
+      </c>
+      <c r="AE183">
         <v>1.4</v>
       </c>
-      <c r="U183">
-        <v>2.75</v>
-      </c>
-      <c r="V183">
-        <v>2.75</v>
-      </c>
-      <c r="W183">
-        <v>1.4</v>
-      </c>
-      <c r="X183">
-        <v>8</v>
-      </c>
-      <c r="Y183">
-        <v>1.08</v>
-      </c>
-      <c r="Z183">
-        <v>7.5</v>
-      </c>
-      <c r="AA183">
-        <v>4.1</v>
-      </c>
-      <c r="AB183">
-        <v>1.47</v>
-      </c>
-      <c r="AC183">
-        <v>1.06</v>
-      </c>
-      <c r="AD183">
-        <v>10</v>
-      </c>
-      <c r="AE183">
-        <v>1.3</v>
-      </c>
       <c r="AF183">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AG183">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AH183">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AI183">
         <v>1.95</v>
@@ -38928,100 +38928,100 @@
         <v>1.8</v>
       </c>
       <c r="AK183">
-        <v>2.35</v>
+        <v>1.32</v>
       </c>
       <c r="AL183">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AM183">
+        <v>1.7</v>
+      </c>
+      <c r="AN183">
+        <v>1.25</v>
+      </c>
+      <c r="AO183">
+        <v>1.08</v>
+      </c>
+      <c r="AP183">
+        <v>1.38</v>
+      </c>
+      <c r="AQ183">
+        <v>1</v>
+      </c>
+      <c r="AR183">
+        <v>1.25</v>
+      </c>
+      <c r="AS183">
+        <v>1.14</v>
+      </c>
+      <c r="AT183">
+        <v>2.39</v>
+      </c>
+      <c r="AU183">
+        <v>7</v>
+      </c>
+      <c r="AV183">
+        <v>3</v>
+      </c>
+      <c r="AW183">
+        <v>5</v>
+      </c>
+      <c r="AX183">
+        <v>4</v>
+      </c>
+      <c r="AY183">
+        <v>12</v>
+      </c>
+      <c r="AZ183">
+        <v>7</v>
+      </c>
+      <c r="BA183">
+        <v>5</v>
+      </c>
+      <c r="BB183">
+        <v>5</v>
+      </c>
+      <c r="BC183">
+        <v>10</v>
+      </c>
+      <c r="BD183">
+        <v>1.82</v>
+      </c>
+      <c r="BE183">
+        <v>8.1</v>
+      </c>
+      <c r="BF183">
+        <v>2.38</v>
+      </c>
+      <c r="BG183">
+        <v>1.61</v>
+      </c>
+      <c r="BH183">
+        <v>2.17</v>
+      </c>
+      <c r="BI183">
+        <v>2.08</v>
+      </c>
+      <c r="BJ183">
+        <v>1.7</v>
+      </c>
+      <c r="BK183">
+        <v>2.8</v>
+      </c>
+      <c r="BL183">
+        <v>1.38</v>
+      </c>
+      <c r="BM183">
+        <v>3.96</v>
+      </c>
+      <c r="BN183">
+        <v>1.19</v>
+      </c>
+      <c r="BO183">
+        <v>5.4</v>
+      </c>
+      <c r="BP183">
         <v>1.13</v>
-      </c>
-      <c r="AN183">
-        <v>2.17</v>
-      </c>
-      <c r="AO183">
-        <v>2.08</v>
-      </c>
-      <c r="AP183">
-        <v>2.08</v>
-      </c>
-      <c r="AQ183">
-        <v>2</v>
-      </c>
-      <c r="AR183">
-        <v>1.75</v>
-      </c>
-      <c r="AS183">
-        <v>1.77</v>
-      </c>
-      <c r="AT183">
-        <v>3.52</v>
-      </c>
-      <c r="AU183">
-        <v>6</v>
-      </c>
-      <c r="AV183">
-        <v>10</v>
-      </c>
-      <c r="AW183">
-        <v>2</v>
-      </c>
-      <c r="AX183">
-        <v>5</v>
-      </c>
-      <c r="AY183">
-        <v>8</v>
-      </c>
-      <c r="AZ183">
-        <v>15</v>
-      </c>
-      <c r="BA183">
-        <v>0</v>
-      </c>
-      <c r="BB183">
-        <v>8</v>
-      </c>
-      <c r="BC183">
-        <v>8</v>
-      </c>
-      <c r="BD183">
-        <v>4.2</v>
-      </c>
-      <c r="BE183">
-        <v>10.25</v>
-      </c>
-      <c r="BF183">
-        <v>1.32</v>
-      </c>
-      <c r="BG183">
-        <v>1.28</v>
-      </c>
-      <c r="BH183">
-        <v>3.18</v>
-      </c>
-      <c r="BI183">
-        <v>1.55</v>
-      </c>
-      <c r="BJ183">
-        <v>2.29</v>
-      </c>
-      <c r="BK183">
-        <v>1.95</v>
-      </c>
-      <c r="BL183">
-        <v>1.8</v>
-      </c>
-      <c r="BM183">
-        <v>2.52</v>
-      </c>
-      <c r="BN183">
-        <v>1.46</v>
-      </c>
-      <c r="BO183">
-        <v>3.42</v>
-      </c>
-      <c r="BP183">
-        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -960,6 +960,15 @@
   <si>
     <t>['45+6']</t>
   </si>
+  <si>
+    <t>['45+2', '68', '88', '90+3']</t>
+  </si>
+  <si>
+    <t>['41', '45+4', '70']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
 </sst>
 </file>
 
@@ -1320,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP183"/>
+  <dimension ref="A1:BP186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2072,7 +2081,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ4">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2275,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2481,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ6">
         <v>0.6899999999999999</v>
@@ -3511,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ11">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3717,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ12">
         <v>0.54</v>
@@ -3923,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ13">
         <v>0.77</v>
@@ -4747,7 +4756,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ17">
         <v>1.08</v>
@@ -5162,7 +5171,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR19">
         <v>1.21</v>
@@ -5368,7 +5377,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR20">
         <v>1.39</v>
@@ -5571,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ21">
         <v>0.38</v>
@@ -5780,7 +5789,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR22">
         <v>1.75</v>
@@ -6395,10 +6404,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ25">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -7425,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ30">
         <v>0.54</v>
@@ -8252,7 +8261,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR34">
         <v>1.73</v>
@@ -8867,10 +8876,10 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ37">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR37">
         <v>2.25</v>
@@ -9073,7 +9082,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ38">
         <v>0.62</v>
@@ -9488,7 +9497,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR40">
         <v>1.53</v>
@@ -9897,7 +9906,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ42">
         <v>0.38</v>
@@ -10930,7 +10939,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR47">
         <v>1.42</v>
@@ -11545,7 +11554,7 @@
         <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ50">
         <v>0.54</v>
@@ -12166,7 +12175,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR53">
         <v>1.41</v>
@@ -12575,7 +12584,7 @@
         <v>0.2</v>
       </c>
       <c r="AP55">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ55">
         <v>0.77</v>
@@ -12781,10 +12790,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR56">
         <v>2.15</v>
@@ -14429,10 +14438,10 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR64">
         <v>1.04</v>
@@ -14638,7 +14647,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR65">
         <v>1.58</v>
@@ -15253,7 +15262,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ68">
         <v>2.15</v>
@@ -16286,7 +16295,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ73">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR73">
         <v>1.34</v>
@@ -16489,7 +16498,7 @@
         <v>0.2</v>
       </c>
       <c r="AP74">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ74">
         <v>0.38</v>
@@ -17110,7 +17119,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR77">
         <v>1.42</v>
@@ -17519,7 +17528,7 @@
         <v>0.17</v>
       </c>
       <c r="AP79">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ79">
         <v>0.38</v>
@@ -17725,7 +17734,7 @@
         <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ80">
         <v>0.6899999999999999</v>
@@ -18140,7 +18149,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR82">
         <v>1.08</v>
@@ -18343,7 +18352,7 @@
         <v>0.57</v>
       </c>
       <c r="AP83">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ83">
         <v>0.77</v>
@@ -18552,7 +18561,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR84">
         <v>1.9</v>
@@ -19991,7 +20000,7 @@
         <v>0.83</v>
       </c>
       <c r="AP91">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ91">
         <v>1.08</v>
@@ -20200,7 +20209,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ92">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR92">
         <v>2.03</v>
@@ -21021,7 +21030,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ96">
         <v>0.62</v>
@@ -21230,7 +21239,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ97">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21436,7 +21445,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ98">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR98">
         <v>1.71</v>
@@ -22054,7 +22063,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ101">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR101">
         <v>1.3</v>
@@ -22466,7 +22475,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR103">
         <v>1.29</v>
@@ -23290,7 +23299,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ107">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR107">
         <v>1.2</v>
@@ -23493,7 +23502,7 @@
         <v>2.14</v>
       </c>
       <c r="AP108">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ108">
         <v>2.08</v>
@@ -23905,7 +23914,7 @@
         <v>0.43</v>
       </c>
       <c r="AP110">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ110">
         <v>0.38</v>
@@ -25759,10 +25768,10 @@
         <v>1.88</v>
       </c>
       <c r="AP119">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ119">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR119">
         <v>1.84</v>
@@ -26377,7 +26386,7 @@
         <v>0.3</v>
       </c>
       <c r="AP122">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ122">
         <v>0.6899999999999999</v>
@@ -26586,7 +26595,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ123">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR123">
         <v>1.56</v>
@@ -27204,7 +27213,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ126">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR126">
         <v>1.94</v>
@@ -27407,7 +27416,7 @@
         <v>0.44</v>
       </c>
       <c r="AP127">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ127">
         <v>0.54</v>
@@ -27613,7 +27622,7 @@
         <v>0.25</v>
       </c>
       <c r="AP128">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ128">
         <v>0.54</v>
@@ -28440,7 +28449,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ132">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR132">
         <v>1.13</v>
@@ -29470,7 +29479,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ137">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR137">
         <v>1.27</v>
@@ -30085,7 +30094,7 @@
         <v>0.4</v>
       </c>
       <c r="AP140">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ140">
         <v>0.54</v>
@@ -30291,10 +30300,10 @@
         <v>2.2</v>
       </c>
       <c r="AP141">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ141">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR141">
         <v>1.95</v>
@@ -30706,7 +30715,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ143">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR143">
         <v>1.23</v>
@@ -31939,7 +31948,7 @@
         <v>0.4</v>
       </c>
       <c r="AP149">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ149">
         <v>0.38</v>
@@ -32148,7 +32157,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ150">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR150">
         <v>1.29</v>
@@ -32766,7 +32775,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ153">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR153">
         <v>1.31</v>
@@ -32969,7 +32978,7 @@
         <v>1.3</v>
       </c>
       <c r="AP154">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ154">
         <v>1</v>
@@ -33175,10 +33184,10 @@
         <v>2.1</v>
       </c>
       <c r="AP155">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ155">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR155">
         <v>1.9</v>
@@ -33384,7 +33393,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ156">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR156">
         <v>1.06</v>
@@ -34205,7 +34214,7 @@
         <v>1.91</v>
       </c>
       <c r="AP160">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ160">
         <v>2.08</v>
@@ -34823,10 +34832,10 @@
         <v>2</v>
       </c>
       <c r="AP163">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ163">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR163">
         <v>1.24</v>
@@ -35647,7 +35656,7 @@
         <v>1.18</v>
       </c>
       <c r="AP167">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ167">
         <v>1</v>
@@ -37504,7 +37513,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ176">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR176">
         <v>1.88</v>
@@ -37916,7 +37925,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ178">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR178">
         <v>1.36</v>
@@ -38119,7 +38128,7 @@
         <v>2.08</v>
       </c>
       <c r="AP179">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ179">
         <v>2.15</v>
@@ -38534,7 +38543,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ181">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR181">
         <v>1.75</v>
@@ -38737,7 +38746,7 @@
         <v>0.67</v>
       </c>
       <c r="AP182">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ182">
         <v>0.62</v>
@@ -39022,6 +39031,624 @@
       </c>
       <c r="BP183">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7373999</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45361.5</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184" t="s">
+        <v>79</v>
+      </c>
+      <c r="H184" t="s">
+        <v>78</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>4</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>89</v>
+      </c>
+      <c r="P184" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q184">
+        <v>8.5</v>
+      </c>
+      <c r="R184">
+        <v>2.63</v>
+      </c>
+      <c r="S184">
+        <v>1.73</v>
+      </c>
+      <c r="T184">
+        <v>1.29</v>
+      </c>
+      <c r="U184">
+        <v>3.5</v>
+      </c>
+      <c r="V184">
+        <v>2.38</v>
+      </c>
+      <c r="W184">
+        <v>1.53</v>
+      </c>
+      <c r="X184">
+        <v>5.5</v>
+      </c>
+      <c r="Y184">
+        <v>1.14</v>
+      </c>
+      <c r="Z184">
+        <v>6.76</v>
+      </c>
+      <c r="AA184">
+        <v>4.57</v>
+      </c>
+      <c r="AB184">
+        <v>1.29</v>
+      </c>
+      <c r="AC184">
+        <v>1.03</v>
+      </c>
+      <c r="AD184">
+        <v>15</v>
+      </c>
+      <c r="AE184">
+        <v>1.19</v>
+      </c>
+      <c r="AF184">
+        <v>4.75</v>
+      </c>
+      <c r="AG184">
+        <v>1.58</v>
+      </c>
+      <c r="AH184">
+        <v>2.28</v>
+      </c>
+      <c r="AI184">
+        <v>2.05</v>
+      </c>
+      <c r="AJ184">
+        <v>1.7</v>
+      </c>
+      <c r="AK184">
+        <v>3.44</v>
+      </c>
+      <c r="AL184">
+        <v>1.15</v>
+      </c>
+      <c r="AM184">
+        <v>1.06</v>
+      </c>
+      <c r="AN184">
+        <v>1.54</v>
+      </c>
+      <c r="AO184">
+        <v>2</v>
+      </c>
+      <c r="AP184">
+        <v>1.43</v>
+      </c>
+      <c r="AQ184">
+        <v>2.07</v>
+      </c>
+      <c r="AR184">
+        <v>1.18</v>
+      </c>
+      <c r="AS184">
+        <v>1.79</v>
+      </c>
+      <c r="AT184">
+        <v>2.97</v>
+      </c>
+      <c r="AU184">
+        <v>0</v>
+      </c>
+      <c r="AV184">
+        <v>8</v>
+      </c>
+      <c r="AW184">
+        <v>3</v>
+      </c>
+      <c r="AX184">
+        <v>7</v>
+      </c>
+      <c r="AY184">
+        <v>3</v>
+      </c>
+      <c r="AZ184">
+        <v>15</v>
+      </c>
+      <c r="BA184">
+        <v>1</v>
+      </c>
+      <c r="BB184">
+        <v>12</v>
+      </c>
+      <c r="BC184">
+        <v>13</v>
+      </c>
+      <c r="BD184">
+        <v>7.6</v>
+      </c>
+      <c r="BE184">
+        <v>13</v>
+      </c>
+      <c r="BF184">
+        <v>1.13</v>
+      </c>
+      <c r="BG184">
+        <v>1.39</v>
+      </c>
+      <c r="BH184">
+        <v>2.76</v>
+      </c>
+      <c r="BI184">
+        <v>1.8</v>
+      </c>
+      <c r="BJ184">
+        <v>2</v>
+      </c>
+      <c r="BK184">
+        <v>2.19</v>
+      </c>
+      <c r="BL184">
+        <v>1.6</v>
+      </c>
+      <c r="BM184">
+        <v>2.91</v>
+      </c>
+      <c r="BN184">
+        <v>1.33</v>
+      </c>
+      <c r="BO184">
+        <v>3.7</v>
+      </c>
+      <c r="BP184">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7373997</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45361.64583333334</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185" t="s">
+        <v>74</v>
+      </c>
+      <c r="H185" t="s">
+        <v>77</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>2</v>
+      </c>
+      <c r="K185">
+        <v>3</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>3</v>
+      </c>
+      <c r="N185">
+        <v>4</v>
+      </c>
+      <c r="O185" t="s">
+        <v>119</v>
+      </c>
+      <c r="P185" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q185">
+        <v>2.6</v>
+      </c>
+      <c r="R185">
+        <v>2.05</v>
+      </c>
+      <c r="S185">
+        <v>5</v>
+      </c>
+      <c r="T185">
+        <v>1.5</v>
+      </c>
+      <c r="U185">
+        <v>2.5</v>
+      </c>
+      <c r="V185">
+        <v>3.4</v>
+      </c>
+      <c r="W185">
+        <v>1.3</v>
+      </c>
+      <c r="X185">
+        <v>10</v>
+      </c>
+      <c r="Y185">
+        <v>1.06</v>
+      </c>
+      <c r="Z185">
+        <v>2.02</v>
+      </c>
+      <c r="AA185">
+        <v>3.15</v>
+      </c>
+      <c r="AB185">
+        <v>3.67</v>
+      </c>
+      <c r="AC185">
+        <v>1.04</v>
+      </c>
+      <c r="AD185">
+        <v>7.7</v>
+      </c>
+      <c r="AE185">
+        <v>1.36</v>
+      </c>
+      <c r="AF185">
+        <v>2.8</v>
+      </c>
+      <c r="AG185">
+        <v>2.09</v>
+      </c>
+      <c r="AH185">
+        <v>1.66</v>
+      </c>
+      <c r="AI185">
+        <v>2</v>
+      </c>
+      <c r="AJ185">
+        <v>1.75</v>
+      </c>
+      <c r="AK185">
+        <v>1.26</v>
+      </c>
+      <c r="AL185">
+        <v>1.32</v>
+      </c>
+      <c r="AM185">
+        <v>1.82</v>
+      </c>
+      <c r="AN185">
+        <v>2.31</v>
+      </c>
+      <c r="AO185">
+        <v>2</v>
+      </c>
+      <c r="AP185">
+        <v>2.14</v>
+      </c>
+      <c r="AQ185">
+        <v>2.07</v>
+      </c>
+      <c r="AR185">
+        <v>2.06</v>
+      </c>
+      <c r="AS185">
+        <v>1.55</v>
+      </c>
+      <c r="AT185">
+        <v>3.61</v>
+      </c>
+      <c r="AU185">
+        <v>5</v>
+      </c>
+      <c r="AV185">
+        <v>8</v>
+      </c>
+      <c r="AW185">
+        <v>6</v>
+      </c>
+      <c r="AX185">
+        <v>2</v>
+      </c>
+      <c r="AY185">
+        <v>11</v>
+      </c>
+      <c r="AZ185">
+        <v>10</v>
+      </c>
+      <c r="BA185">
+        <v>8</v>
+      </c>
+      <c r="BB185">
+        <v>5</v>
+      </c>
+      <c r="BC185">
+        <v>13</v>
+      </c>
+      <c r="BD185">
+        <v>1.66</v>
+      </c>
+      <c r="BE185">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF185">
+        <v>2.65</v>
+      </c>
+      <c r="BG185">
+        <v>1.35</v>
+      </c>
+      <c r="BH185">
+        <v>2.84</v>
+      </c>
+      <c r="BI185">
+        <v>1.9</v>
+      </c>
+      <c r="BJ185">
+        <v>1.9</v>
+      </c>
+      <c r="BK185">
+        <v>2.13</v>
+      </c>
+      <c r="BL185">
+        <v>1.67</v>
+      </c>
+      <c r="BM185">
+        <v>2.8</v>
+      </c>
+      <c r="BN185">
+        <v>1.38</v>
+      </c>
+      <c r="BO185">
+        <v>3.92</v>
+      </c>
+      <c r="BP185">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7373998</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45361.66666666666</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186" t="s">
+        <v>73</v>
+      </c>
+      <c r="H186" t="s">
+        <v>82</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
+        <v>89</v>
+      </c>
+      <c r="P186" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q186">
+        <v>2.1</v>
+      </c>
+      <c r="R186">
+        <v>2.25</v>
+      </c>
+      <c r="S186">
+        <v>6</v>
+      </c>
+      <c r="T186">
+        <v>1.36</v>
+      </c>
+      <c r="U186">
+        <v>3</v>
+      </c>
+      <c r="V186">
+        <v>2.75</v>
+      </c>
+      <c r="W186">
+        <v>1.4</v>
+      </c>
+      <c r="X186">
+        <v>8</v>
+      </c>
+      <c r="Y186">
+        <v>1.08</v>
+      </c>
+      <c r="Z186">
+        <v>1.53</v>
+      </c>
+      <c r="AA186">
+        <v>4.2</v>
+      </c>
+      <c r="AB186">
+        <v>6</v>
+      </c>
+      <c r="AC186">
+        <v>1.03</v>
+      </c>
+      <c r="AD186">
+        <v>15</v>
+      </c>
+      <c r="AE186">
+        <v>1.26</v>
+      </c>
+      <c r="AF186">
+        <v>4</v>
+      </c>
+      <c r="AG186">
+        <v>1.9</v>
+      </c>
+      <c r="AH186">
+        <v>1.9</v>
+      </c>
+      <c r="AI186">
+        <v>2</v>
+      </c>
+      <c r="AJ186">
+        <v>1.75</v>
+      </c>
+      <c r="AK186">
+        <v>1.11</v>
+      </c>
+      <c r="AL186">
+        <v>1.21</v>
+      </c>
+      <c r="AM186">
+        <v>2.68</v>
+      </c>
+      <c r="AN186">
+        <v>2.46</v>
+      </c>
+      <c r="AO186">
+        <v>1.15</v>
+      </c>
+      <c r="AP186">
+        <v>2.29</v>
+      </c>
+      <c r="AQ186">
+        <v>1.29</v>
+      </c>
+      <c r="AR186">
+        <v>1.83</v>
+      </c>
+      <c r="AS186">
+        <v>1.09</v>
+      </c>
+      <c r="AT186">
+        <v>2.92</v>
+      </c>
+      <c r="AU186">
+        <v>4</v>
+      </c>
+      <c r="AV186">
+        <v>4</v>
+      </c>
+      <c r="AW186">
+        <v>6</v>
+      </c>
+      <c r="AX186">
+        <v>1</v>
+      </c>
+      <c r="AY186">
+        <v>10</v>
+      </c>
+      <c r="AZ186">
+        <v>5</v>
+      </c>
+      <c r="BA186">
+        <v>7</v>
+      </c>
+      <c r="BB186">
+        <v>1</v>
+      </c>
+      <c r="BC186">
+        <v>8</v>
+      </c>
+      <c r="BD186">
+        <v>1.25</v>
+      </c>
+      <c r="BE186">
+        <v>10.5</v>
+      </c>
+      <c r="BF186">
+        <v>5.05</v>
+      </c>
+      <c r="BG186">
+        <v>1.46</v>
+      </c>
+      <c r="BH186">
+        <v>2.52</v>
+      </c>
+      <c r="BI186">
+        <v>1.9</v>
+      </c>
+      <c r="BJ186">
+        <v>1.9</v>
+      </c>
+      <c r="BK186">
+        <v>2.39</v>
+      </c>
+      <c r="BL186">
+        <v>1.51</v>
+      </c>
+      <c r="BM186">
+        <v>3.2</v>
+      </c>
+      <c r="BN186">
+        <v>1.28</v>
+      </c>
+      <c r="BO186">
+        <v>4.5</v>
+      </c>
+      <c r="BP186">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="322">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,12 @@
     <t>['45+4', '76']</t>
   </si>
   <si>
+    <t>['37', '61', '90+5']</t>
+  </si>
+  <si>
+    <t>['26', '34', '90+3']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -968,6 +974,12 @@
   </si>
   <si>
     <t>['31']</t>
+  </si>
+  <si>
+    <t>['63', '68']</t>
+  </si>
+  <si>
+    <t>['49', '85']</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP186"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1588,7 +1600,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -2000,7 +2012,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2493,7 +2505,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ6">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2696,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2902,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ8">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3111,7 +3123,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ9">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3317,7 +3329,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ10">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3648,7 +3660,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -4138,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ14">
         <v>0.77</v>
@@ -4266,7 +4278,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4472,7 +4484,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -5090,7 +5102,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5296,7 +5308,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5502,7 +5514,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5583,7 +5595,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ21">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR21">
         <v>0.89</v>
@@ -5708,7 +5720,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -5786,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22">
         <v>2.07</v>
@@ -5914,7 +5926,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5992,10 +6004,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ23">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR23">
         <v>1.17</v>
@@ -6120,7 +6132,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6198,10 +6210,10 @@
         <v>0.5</v>
       </c>
       <c r="AP24">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ24">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR24">
         <v>1.19</v>
@@ -6816,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6944,7 +6956,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7768,7 +7780,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7974,7 +7986,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8180,7 +8192,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8386,7 +8398,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8464,10 +8476,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR35">
         <v>1.45</v>
@@ -8592,7 +8604,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8670,7 +8682,7 @@
         <v>0.33</v>
       </c>
       <c r="AP36">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ36">
         <v>1.08</v>
@@ -9085,7 +9097,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ38">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR38">
         <v>1.78</v>
@@ -9210,7 +9222,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9291,7 +9303,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ39">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9416,7 +9428,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -9494,7 +9506,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ40">
         <v>2.07</v>
@@ -10034,7 +10046,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10240,7 +10252,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10446,7 +10458,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -10730,7 +10742,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -11476,7 +11488,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11557,7 +11569,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ50">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR50">
         <v>0.91</v>
@@ -11760,10 +11772,10 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR51">
         <v>1.62</v>
@@ -11969,7 +11981,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ52">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR52">
         <v>1.76</v>
@@ -12094,7 +12106,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12172,7 +12184,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ53">
         <v>2.07</v>
@@ -12378,10 +12390,10 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ54">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR54">
         <v>1.73</v>
@@ -12712,7 +12724,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12918,7 +12930,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13124,7 +13136,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13202,7 +13214,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>0.38</v>
@@ -13408,7 +13420,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ59">
         <v>1.08</v>
@@ -13617,7 +13629,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ60">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR60">
         <v>2.04</v>
@@ -13823,7 +13835,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ61">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>1.92</v>
@@ -14154,7 +14166,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14360,7 +14372,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14644,7 +14656,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ65">
         <v>2.07</v>
@@ -14772,7 +14784,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14850,7 +14862,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14978,7 +14990,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15059,7 +15071,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ67">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -15184,7 +15196,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15390,7 +15402,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15596,7 +15608,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15677,7 +15689,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ70">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR70">
         <v>1.52</v>
@@ -15802,7 +15814,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15883,7 +15895,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ71">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR71">
         <v>1.17</v>
@@ -16008,7 +16020,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16086,10 +16098,10 @@
         <v>0.4</v>
       </c>
       <c r="AP72">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR72">
         <v>1.13</v>
@@ -16214,7 +16226,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16420,7 +16432,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16832,7 +16844,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -16910,7 +16922,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ76">
         <v>2.08</v>
@@ -17116,7 +17128,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ77">
         <v>2.07</v>
@@ -17244,7 +17256,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17325,7 +17337,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ78">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR78">
         <v>1.19</v>
@@ -17450,7 +17462,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -17737,7 +17749,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ80">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR80">
         <v>1.82</v>
@@ -17862,7 +17874,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17940,7 +17952,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18274,7 +18286,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -18767,7 +18779,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ85">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR85">
         <v>1.35</v>
@@ -18970,7 +18982,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ86">
         <v>0.54</v>
@@ -19176,10 +19188,10 @@
         <v>0.38</v>
       </c>
       <c r="AP87">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ87">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR87">
         <v>1.2</v>
@@ -19304,7 +19316,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19510,7 +19522,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19588,10 +19600,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.11</v>
@@ -19797,7 +19809,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ90">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR90">
         <v>1.98</v>
@@ -20334,7 +20346,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20412,10 +20424,10 @@
         <v>0.57</v>
       </c>
       <c r="AP93">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ93">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR93">
         <v>1.35</v>
@@ -20621,7 +20633,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ94">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR94">
         <v>1.8</v>
@@ -20746,7 +20758,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20824,7 +20836,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ95">
         <v>2.15</v>
@@ -20952,7 +20964,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21033,7 +21045,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ96">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR96">
         <v>1.2</v>
@@ -21158,7 +21170,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21236,7 +21248,7 @@
         <v>2.57</v>
       </c>
       <c r="AP97">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>2.07</v>
@@ -21364,7 +21376,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21442,7 +21454,7 @@
         <v>2.17</v>
       </c>
       <c r="AP98">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ98">
         <v>2.07</v>
@@ -21570,7 +21582,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -21776,7 +21788,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -21982,7 +21994,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22394,7 +22406,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22600,7 +22612,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22806,7 +22818,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -22884,7 +22896,7 @@
         <v>1.67</v>
       </c>
       <c r="AP105">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ105">
         <v>2.15</v>
@@ -23090,7 +23102,7 @@
         <v>2.33</v>
       </c>
       <c r="AP106">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
         <v>2.08</v>
@@ -23218,7 +23230,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23296,7 +23308,7 @@
         <v>0.67</v>
       </c>
       <c r="AP107">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ107">
         <v>1.29</v>
@@ -23711,7 +23723,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ109">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR109">
         <v>1.99</v>
@@ -23917,7 +23929,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ110">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR110">
         <v>1.87</v>
@@ -24123,7 +24135,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ111">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR111">
         <v>1.92</v>
@@ -24248,7 +24260,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24326,10 +24338,10 @@
         <v>0.33</v>
       </c>
       <c r="AP112">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ112">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR112">
         <v>1.56</v>
@@ -24532,7 +24544,7 @@
         <v>0.17</v>
       </c>
       <c r="AP113">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
         <v>0.54</v>
@@ -24660,7 +24672,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24866,7 +24878,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -25072,7 +25084,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25484,7 +25496,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25690,7 +25702,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25896,7 +25908,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26102,7 +26114,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26180,10 +26192,10 @@
         <v>0.38</v>
       </c>
       <c r="AP121">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ121">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR121">
         <v>1.15</v>
@@ -26308,7 +26320,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26389,7 +26401,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ122">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR122">
         <v>1.26</v>
@@ -26514,7 +26526,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26592,7 +26604,7 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ123">
         <v>1.29</v>
@@ -26720,7 +26732,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -26798,7 +26810,7 @@
         <v>1.88</v>
       </c>
       <c r="AP124">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ124">
         <v>2.08</v>
@@ -27004,10 +27016,10 @@
         <v>0.75</v>
       </c>
       <c r="AP125">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ125">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR125">
         <v>1.21</v>
@@ -27132,7 +27144,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27419,7 +27431,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ127">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR127">
         <v>1.89</v>
@@ -27544,7 +27556,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27750,7 +27762,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27831,7 +27843,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ129">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR129">
         <v>1.13</v>
@@ -28162,7 +28174,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28368,7 +28380,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28446,7 +28458,7 @@
         <v>2</v>
       </c>
       <c r="AP132">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132">
         <v>2.07</v>
@@ -28780,7 +28792,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28986,7 +28998,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29064,7 +29076,7 @@
         <v>0.78</v>
       </c>
       <c r="AP135">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ135">
         <v>1.08</v>
@@ -29192,7 +29204,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29273,7 +29285,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ136">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR136">
         <v>1.21</v>
@@ -29398,7 +29410,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29476,7 +29488,7 @@
         <v>0.88</v>
       </c>
       <c r="AP137">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ137">
         <v>1.29</v>
@@ -29685,7 +29697,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ138">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR138">
         <v>1.9</v>
@@ -29888,7 +29900,7 @@
         <v>0.89</v>
       </c>
       <c r="AP139">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ139">
         <v>0.77</v>
@@ -30016,7 +30028,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30097,7 +30109,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ140">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR140">
         <v>1.76</v>
@@ -30222,7 +30234,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30428,7 +30440,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30634,7 +30646,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30840,7 +30852,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31046,7 +31058,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31252,7 +31264,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31458,7 +31470,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31536,7 +31548,7 @@
         <v>1.78</v>
       </c>
       <c r="AP147">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147">
         <v>2.15</v>
@@ -31951,7 +31963,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ149">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR149">
         <v>1.8</v>
@@ -32360,7 +32372,7 @@
         <v>0.8</v>
       </c>
       <c r="AP151">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ151">
         <v>0.77</v>
@@ -32566,10 +32578,10 @@
         <v>0.7</v>
       </c>
       <c r="AP152">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ152">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR152">
         <v>1.25</v>
@@ -32694,7 +32706,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -32900,7 +32912,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33312,7 +33324,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33390,7 +33402,7 @@
         <v>1.09</v>
       </c>
       <c r="AP156">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ156">
         <v>1.29</v>
@@ -33518,7 +33530,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33724,7 +33736,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33805,7 +33817,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ158">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR158">
         <v>1.2</v>
@@ -34136,7 +34148,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34423,7 +34435,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ161">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR161">
         <v>1.35</v>
@@ -34548,7 +34560,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34626,7 +34638,7 @@
         <v>0.27</v>
       </c>
       <c r="AP162">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ162">
         <v>0.38</v>
@@ -34754,7 +34766,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -35166,7 +35178,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35247,7 +35259,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ165">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR165">
         <v>1.27</v>
@@ -35372,7 +35384,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35450,7 +35462,7 @@
         <v>1.9</v>
       </c>
       <c r="AP166">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ166">
         <v>2.15</v>
@@ -35578,7 +35590,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -35865,7 +35877,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ168">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR168">
         <v>1.7</v>
@@ -35990,7 +36002,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36196,7 +36208,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36274,7 +36286,7 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ170">
         <v>0.54</v>
@@ -36402,7 +36414,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36483,7 +36495,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ171">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR171">
         <v>1.22</v>
@@ -36608,7 +36620,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36686,7 +36698,7 @@
         <v>1.17</v>
       </c>
       <c r="AP172">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ172">
         <v>1.08</v>
@@ -36814,7 +36826,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -36892,7 +36904,7 @@
         <v>2</v>
       </c>
       <c r="AP173">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ173">
         <v>2.08</v>
@@ -37020,7 +37032,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37101,7 +37113,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ174">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR174">
         <v>2.05</v>
@@ -37226,7 +37238,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37844,7 +37856,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -38050,7 +38062,7 @@
         <v>89</v>
       </c>
       <c r="P179" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q179">
         <v>6.5</v>
@@ -38256,7 +38268,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q180">
         <v>2.95</v>
@@ -38334,7 +38346,7 @@
         <v>0.33</v>
       </c>
       <c r="AP180">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ180">
         <v>0.38</v>
@@ -38462,7 +38474,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -38749,7 +38761,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ182">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR182">
         <v>1.96</v>
@@ -38874,7 +38886,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39080,7 +39092,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39286,7 +39298,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39492,7 +39504,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39649,6 +39661,830 @@
       </c>
       <c r="BP186">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7374000</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45367.5</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187" t="s">
+        <v>76</v>
+      </c>
+      <c r="H187" t="s">
+        <v>70</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>89</v>
+      </c>
+      <c r="P187" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q187">
+        <v>2.5</v>
+      </c>
+      <c r="R187">
+        <v>2.1</v>
+      </c>
+      <c r="S187">
+        <v>5</v>
+      </c>
+      <c r="T187">
+        <v>1.44</v>
+      </c>
+      <c r="U187">
+        <v>2.63</v>
+      </c>
+      <c r="V187">
+        <v>3</v>
+      </c>
+      <c r="W187">
+        <v>1.36</v>
+      </c>
+      <c r="X187">
+        <v>9</v>
+      </c>
+      <c r="Y187">
+        <v>1.07</v>
+      </c>
+      <c r="Z187">
+        <v>1.9</v>
+      </c>
+      <c r="AA187">
+        <v>3.15</v>
+      </c>
+      <c r="AB187">
+        <v>3.5</v>
+      </c>
+      <c r="AC187">
+        <v>1.07</v>
+      </c>
+      <c r="AD187">
+        <v>9</v>
+      </c>
+      <c r="AE187">
+        <v>1.4</v>
+      </c>
+      <c r="AF187">
+        <v>3</v>
+      </c>
+      <c r="AG187">
+        <v>1.95</v>
+      </c>
+      <c r="AH187">
+        <v>1.62</v>
+      </c>
+      <c r="AI187">
+        <v>1.95</v>
+      </c>
+      <c r="AJ187">
+        <v>1.8</v>
+      </c>
+      <c r="AK187">
+        <v>1.24</v>
+      </c>
+      <c r="AL187">
+        <v>1.26</v>
+      </c>
+      <c r="AM187">
+        <v>1.92</v>
+      </c>
+      <c r="AN187">
+        <v>1.38</v>
+      </c>
+      <c r="AO187">
+        <v>0.62</v>
+      </c>
+      <c r="AP187">
+        <v>1.29</v>
+      </c>
+      <c r="AQ187">
+        <v>0.79</v>
+      </c>
+      <c r="AR187">
+        <v>1.35</v>
+      </c>
+      <c r="AS187">
+        <v>0.92</v>
+      </c>
+      <c r="AT187">
+        <v>2.27</v>
+      </c>
+      <c r="AU187">
+        <v>4</v>
+      </c>
+      <c r="AV187">
+        <v>5</v>
+      </c>
+      <c r="AW187">
+        <v>4</v>
+      </c>
+      <c r="AX187">
+        <v>2</v>
+      </c>
+      <c r="AY187">
+        <v>8</v>
+      </c>
+      <c r="AZ187">
+        <v>7</v>
+      </c>
+      <c r="BA187">
+        <v>4</v>
+      </c>
+      <c r="BB187">
+        <v>5</v>
+      </c>
+      <c r="BC187">
+        <v>9</v>
+      </c>
+      <c r="BD187">
+        <v>1.81</v>
+      </c>
+      <c r="BE187">
+        <v>8.1</v>
+      </c>
+      <c r="BF187">
+        <v>2.44</v>
+      </c>
+      <c r="BG187">
+        <v>1.54</v>
+      </c>
+      <c r="BH187">
+        <v>2.32</v>
+      </c>
+      <c r="BI187">
+        <v>1.98</v>
+      </c>
+      <c r="BJ187">
+        <v>1.77</v>
+      </c>
+      <c r="BK187">
+        <v>2.62</v>
+      </c>
+      <c r="BL187">
+        <v>1.43</v>
+      </c>
+      <c r="BM187">
+        <v>3.65</v>
+      </c>
+      <c r="BN187">
+        <v>1.22</v>
+      </c>
+      <c r="BO187">
+        <v>5.1</v>
+      </c>
+      <c r="BP187">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7374002</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45367.52083333334</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188" t="s">
+        <v>80</v>
+      </c>
+      <c r="H188" t="s">
+        <v>72</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188" t="s">
+        <v>89</v>
+      </c>
+      <c r="P188" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q188">
+        <v>3.25</v>
+      </c>
+      <c r="R188">
+        <v>2.1</v>
+      </c>
+      <c r="S188">
+        <v>3.25</v>
+      </c>
+      <c r="T188">
+        <v>1.44</v>
+      </c>
+      <c r="U188">
+        <v>2.63</v>
+      </c>
+      <c r="V188">
+        <v>3</v>
+      </c>
+      <c r="W188">
+        <v>1.36</v>
+      </c>
+      <c r="X188">
+        <v>9</v>
+      </c>
+      <c r="Y188">
+        <v>1.07</v>
+      </c>
+      <c r="Z188">
+        <v>2.5</v>
+      </c>
+      <c r="AA188">
+        <v>3.1</v>
+      </c>
+      <c r="AB188">
+        <v>2.5</v>
+      </c>
+      <c r="AC188">
+        <v>1.05</v>
+      </c>
+      <c r="AD188">
+        <v>12</v>
+      </c>
+      <c r="AE188">
+        <v>1.3</v>
+      </c>
+      <c r="AF188">
+        <v>3.6</v>
+      </c>
+      <c r="AG188">
+        <v>1.85</v>
+      </c>
+      <c r="AH188">
+        <v>1.85</v>
+      </c>
+      <c r="AI188">
+        <v>1.8</v>
+      </c>
+      <c r="AJ188">
+        <v>1.95</v>
+      </c>
+      <c r="AK188">
+        <v>1.52</v>
+      </c>
+      <c r="AL188">
+        <v>1.26</v>
+      </c>
+      <c r="AM188">
+        <v>1.52</v>
+      </c>
+      <c r="AN188">
+        <v>0.92</v>
+      </c>
+      <c r="AO188">
+        <v>0.38</v>
+      </c>
+      <c r="AP188">
+        <v>0.93</v>
+      </c>
+      <c r="AQ188">
+        <v>0.43</v>
+      </c>
+      <c r="AR188">
+        <v>1.3</v>
+      </c>
+      <c r="AS188">
+        <v>1.23</v>
+      </c>
+      <c r="AT188">
+        <v>2.53</v>
+      </c>
+      <c r="AU188">
+        <v>5</v>
+      </c>
+      <c r="AV188">
+        <v>5</v>
+      </c>
+      <c r="AW188">
+        <v>5</v>
+      </c>
+      <c r="AX188">
+        <v>5</v>
+      </c>
+      <c r="AY188">
+        <v>10</v>
+      </c>
+      <c r="AZ188">
+        <v>10</v>
+      </c>
+      <c r="BA188">
+        <v>5</v>
+      </c>
+      <c r="BB188">
+        <v>8</v>
+      </c>
+      <c r="BC188">
+        <v>13</v>
+      </c>
+      <c r="BD188">
+        <v>1.49</v>
+      </c>
+      <c r="BE188">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF188">
+        <v>3.28</v>
+      </c>
+      <c r="BG188">
+        <v>1.39</v>
+      </c>
+      <c r="BH188">
+        <v>2.76</v>
+      </c>
+      <c r="BI188">
+        <v>1.72</v>
+      </c>
+      <c r="BJ188">
+        <v>2.05</v>
+      </c>
+      <c r="BK188">
+        <v>2.17</v>
+      </c>
+      <c r="BL188">
+        <v>1.61</v>
+      </c>
+      <c r="BM188">
+        <v>2.91</v>
+      </c>
+      <c r="BN188">
+        <v>1.33</v>
+      </c>
+      <c r="BO188">
+        <v>3.6</v>
+      </c>
+      <c r="BP188">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7374001</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45367.60416666666</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189" t="s">
+        <v>83</v>
+      </c>
+      <c r="H189" t="s">
+        <v>71</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>3</v>
+      </c>
+      <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>5</v>
+      </c>
+      <c r="O189" t="s">
+        <v>215</v>
+      </c>
+      <c r="P189" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q189">
+        <v>2.75</v>
+      </c>
+      <c r="R189">
+        <v>2.05</v>
+      </c>
+      <c r="S189">
+        <v>4.33</v>
+      </c>
+      <c r="T189">
+        <v>1.44</v>
+      </c>
+      <c r="U189">
+        <v>2.63</v>
+      </c>
+      <c r="V189">
+        <v>3.25</v>
+      </c>
+      <c r="W189">
+        <v>1.33</v>
+      </c>
+      <c r="X189">
+        <v>9</v>
+      </c>
+      <c r="Y189">
+        <v>1.07</v>
+      </c>
+      <c r="Z189">
+        <v>2</v>
+      </c>
+      <c r="AA189">
+        <v>3.25</v>
+      </c>
+      <c r="AB189">
+        <v>3.4</v>
+      </c>
+      <c r="AC189">
+        <v>1.07</v>
+      </c>
+      <c r="AD189">
+        <v>9</v>
+      </c>
+      <c r="AE189">
+        <v>1.38</v>
+      </c>
+      <c r="AF189">
+        <v>3.1</v>
+      </c>
+      <c r="AG189">
+        <v>2</v>
+      </c>
+      <c r="AH189">
+        <v>1.7</v>
+      </c>
+      <c r="AI189">
+        <v>1.95</v>
+      </c>
+      <c r="AJ189">
+        <v>1.8</v>
+      </c>
+      <c r="AK189">
+        <v>1.28</v>
+      </c>
+      <c r="AL189">
+        <v>1.28</v>
+      </c>
+      <c r="AM189">
+        <v>1.78</v>
+      </c>
+      <c r="AN189">
+        <v>1.38</v>
+      </c>
+      <c r="AO189">
+        <v>0.54</v>
+      </c>
+      <c r="AP189">
+        <v>1.5</v>
+      </c>
+      <c r="AQ189">
+        <v>0.5</v>
+      </c>
+      <c r="AR189">
+        <v>1.09</v>
+      </c>
+      <c r="AS189">
+        <v>1.01</v>
+      </c>
+      <c r="AT189">
+        <v>2.1</v>
+      </c>
+      <c r="AU189">
+        <v>3</v>
+      </c>
+      <c r="AV189">
+        <v>3</v>
+      </c>
+      <c r="AW189">
+        <v>1</v>
+      </c>
+      <c r="AX189">
+        <v>2</v>
+      </c>
+      <c r="AY189">
+        <v>4</v>
+      </c>
+      <c r="AZ189">
+        <v>5</v>
+      </c>
+      <c r="BA189">
+        <v>2</v>
+      </c>
+      <c r="BB189">
+        <v>6</v>
+      </c>
+      <c r="BC189">
+        <v>8</v>
+      </c>
+      <c r="BD189">
+        <v>1.95</v>
+      </c>
+      <c r="BE189">
+        <v>7.5</v>
+      </c>
+      <c r="BF189">
+        <v>2.1</v>
+      </c>
+      <c r="BG189">
+        <v>1.52</v>
+      </c>
+      <c r="BH189">
+        <v>2.4</v>
+      </c>
+      <c r="BI189">
+        <v>1.85</v>
+      </c>
+      <c r="BJ189">
+        <v>1.95</v>
+      </c>
+      <c r="BK189">
+        <v>2.45</v>
+      </c>
+      <c r="BL189">
+        <v>1.5</v>
+      </c>
+      <c r="BM189">
+        <v>3.2</v>
+      </c>
+      <c r="BN189">
+        <v>1.28</v>
+      </c>
+      <c r="BO189">
+        <v>3.8</v>
+      </c>
+      <c r="BP189">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7374003</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45367.625</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190" t="s">
+        <v>75</v>
+      </c>
+      <c r="H190" t="s">
+        <v>81</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+      <c r="L190">
+        <v>3</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>3</v>
+      </c>
+      <c r="O190" t="s">
+        <v>216</v>
+      </c>
+      <c r="P190" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q190">
+        <v>3</v>
+      </c>
+      <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
+        <v>4</v>
+      </c>
+      <c r="T190">
+        <v>1.5</v>
+      </c>
+      <c r="U190">
+        <v>2.5</v>
+      </c>
+      <c r="V190">
+        <v>3.4</v>
+      </c>
+      <c r="W190">
+        <v>1.3</v>
+      </c>
+      <c r="X190">
+        <v>10</v>
+      </c>
+      <c r="Y190">
+        <v>1.06</v>
+      </c>
+      <c r="Z190">
+        <v>2.03</v>
+      </c>
+      <c r="AA190">
+        <v>3.15</v>
+      </c>
+      <c r="AB190">
+        <v>3.7</v>
+      </c>
+      <c r="AC190">
+        <v>1.04</v>
+      </c>
+      <c r="AD190">
+        <v>7.3</v>
+      </c>
+      <c r="AE190">
+        <v>1.39</v>
+      </c>
+      <c r="AF190">
+        <v>2.68</v>
+      </c>
+      <c r="AG190">
+        <v>2.05</v>
+      </c>
+      <c r="AH190">
+        <v>1.56</v>
+      </c>
+      <c r="AI190">
+        <v>1.95</v>
+      </c>
+      <c r="AJ190">
+        <v>1.8</v>
+      </c>
+      <c r="AK190">
+        <v>1.35</v>
+      </c>
+      <c r="AL190">
+        <v>1.3</v>
+      </c>
+      <c r="AM190">
+        <v>1.68</v>
+      </c>
+      <c r="AN190">
+        <v>1.15</v>
+      </c>
+      <c r="AO190">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP190">
+        <v>1.29</v>
+      </c>
+      <c r="AQ190">
+        <v>0.64</v>
+      </c>
+      <c r="AR190">
+        <v>1.4</v>
+      </c>
+      <c r="AS190">
+        <v>1.03</v>
+      </c>
+      <c r="AT190">
+        <v>2.43</v>
+      </c>
+      <c r="AU190">
+        <v>10</v>
+      </c>
+      <c r="AV190">
+        <v>2</v>
+      </c>
+      <c r="AW190">
+        <v>3</v>
+      </c>
+      <c r="AX190">
+        <v>5</v>
+      </c>
+      <c r="AY190">
+        <v>13</v>
+      </c>
+      <c r="AZ190">
+        <v>7</v>
+      </c>
+      <c r="BA190">
+        <v>3</v>
+      </c>
+      <c r="BB190">
+        <v>4</v>
+      </c>
+      <c r="BC190">
+        <v>7</v>
+      </c>
+      <c r="BD190">
+        <v>1.95</v>
+      </c>
+      <c r="BE190">
+        <v>7.5</v>
+      </c>
+      <c r="BF190">
+        <v>2.1</v>
+      </c>
+      <c r="BG190">
+        <v>1.52</v>
+      </c>
+      <c r="BH190">
+        <v>2.4</v>
+      </c>
+      <c r="BI190">
+        <v>1.92</v>
+      </c>
+      <c r="BJ190">
+        <v>1.88</v>
+      </c>
+      <c r="BK190">
+        <v>2.45</v>
+      </c>
+      <c r="BL190">
+        <v>1.5</v>
+      </c>
+      <c r="BM190">
+        <v>3.42</v>
+      </c>
+      <c r="BN190">
+        <v>1.25</v>
+      </c>
+      <c r="BO190">
+        <v>4</v>
+      </c>
+      <c r="BP190">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -40215,22 +40215,22 @@
         <v>2.1</v>
       </c>
       <c r="AU189">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV189">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX189">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY189">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ189">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BA189">
         <v>2</v>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="324">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -665,6 +665,12 @@
   </si>
   <si>
     <t>['26', '34', '90+3']</t>
+  </si>
+  <si>
+    <t>['59', '74']</t>
+  </si>
+  <si>
+    <t>['3', '11', '45+2', '85']</t>
   </si>
   <si>
     <t>['55', '61']</t>
@@ -1341,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1600,7 +1606,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -1678,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ2">
         <v>1.08</v>
@@ -1887,7 +1893,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ3">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2012,7 +2018,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2299,7 +2305,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3660,7 +3666,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -3741,7 +3747,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ12">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>1.83</v>
@@ -4278,7 +4284,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4356,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>0.38</v>
@@ -4484,7 +4490,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -4565,7 +4571,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5102,7 +5108,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5180,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ19">
         <v>2.07</v>
@@ -5308,7 +5314,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5514,7 +5520,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5720,7 +5726,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -5926,7 +5932,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6132,7 +6138,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6956,7 +6962,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7240,7 +7246,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
         <v>1.08</v>
@@ -7449,7 +7455,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ30">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>2.36</v>
@@ -7780,7 +7786,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7858,10 +7864,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR32">
         <v>1.17</v>
@@ -7986,7 +7992,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8192,7 +8198,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8398,7 +8404,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8604,7 +8610,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9222,7 +9228,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9300,7 +9306,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>0.5</v>
@@ -9428,7 +9434,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -10046,7 +10052,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10127,7 +10133,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ43">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
         <v>1.76</v>
@@ -10252,7 +10258,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10458,7 +10464,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -10745,7 +10751,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR46">
         <v>1.33</v>
@@ -11488,7 +11494,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -12106,7 +12112,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12724,7 +12730,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12930,7 +12936,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13008,10 +13014,10 @@
         <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ57">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR57">
         <v>1.23</v>
@@ -13136,7 +13142,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -14166,7 +14172,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14372,7 +14378,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14784,7 +14790,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14865,7 +14871,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR66">
         <v>1.65</v>
@@ -14990,7 +14996,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15196,7 +15202,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15402,7 +15408,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15608,7 +15614,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15686,7 +15692,7 @@
         <v>0.75</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
         <v>0.43</v>
@@ -15814,7 +15820,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16020,7 +16026,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16226,7 +16232,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16304,7 +16310,7 @@
         <v>0.25</v>
       </c>
       <c r="AP73">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ73">
         <v>1.29</v>
@@ -16432,7 +16438,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16844,7 +16850,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17256,7 +17262,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17462,7 +17468,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -17874,7 +17880,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17955,7 +17961,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR81">
         <v>1.25</v>
@@ -18286,7 +18292,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -18776,7 +18782,7 @@
         <v>0.43</v>
       </c>
       <c r="AP85">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ85">
         <v>0.64</v>
@@ -18985,7 +18991,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ86">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR86">
         <v>1.67</v>
@@ -19316,7 +19322,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19394,7 +19400,7 @@
         <v>2.5</v>
       </c>
       <c r="AP88">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ88">
         <v>2.08</v>
@@ -19522,7 +19528,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -20346,7 +20352,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20758,7 +20764,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20964,7 +20970,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21170,7 +21176,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21376,7 +21382,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21582,7 +21588,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -21660,7 +21666,7 @@
         <v>2.2</v>
       </c>
       <c r="AP99">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
         <v>2.08</v>
@@ -21788,7 +21794,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -21994,7 +22000,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22072,7 +22078,7 @@
         <v>2.25</v>
       </c>
       <c r="AP101">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ101">
         <v>2.07</v>
@@ -22406,7 +22412,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22484,7 +22490,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ103">
         <v>2.07</v>
@@ -22612,7 +22618,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22693,7 +22699,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR104">
         <v>1.29</v>
@@ -22818,7 +22824,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -23230,7 +23236,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -24260,7 +24266,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24547,7 +24553,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR113">
         <v>1.09</v>
@@ -24672,7 +24678,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24750,7 +24756,7 @@
         <v>0.63</v>
       </c>
       <c r="AP114">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ114">
         <v>0.77</v>
@@ -24878,7 +24884,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24956,10 +24962,10 @@
         <v>0.14</v>
       </c>
       <c r="AP115">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ115">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -25084,7 +25090,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25371,7 +25377,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR117">
         <v>1.07</v>
@@ -25496,7 +25502,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25702,7 +25708,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25908,7 +25914,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26114,7 +26120,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26320,7 +26326,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26526,7 +26532,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26732,7 +26738,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -27144,7 +27150,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27556,7 +27562,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27637,7 +27643,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ128">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR128">
         <v>1.23</v>
@@ -27762,7 +27768,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28174,7 +28180,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28252,7 +28258,7 @@
         <v>1.63</v>
       </c>
       <c r="AP131">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ131">
         <v>2.15</v>
@@ -28380,7 +28386,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28667,7 +28673,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR133">
         <v>1.85</v>
@@ -28792,7 +28798,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28998,7 +29004,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29204,7 +29210,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29282,7 +29288,7 @@
         <v>0.67</v>
       </c>
       <c r="AP136">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ136">
         <v>0.79</v>
@@ -29410,7 +29416,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -30028,7 +30034,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30234,7 +30240,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30440,7 +30446,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30518,7 +30524,7 @@
         <v>0.2</v>
       </c>
       <c r="AP142">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ142">
         <v>0.38</v>
@@ -30646,7 +30652,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30724,7 +30730,7 @@
         <v>1.11</v>
       </c>
       <c r="AP143">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143">
         <v>1.29</v>
@@ -30852,7 +30858,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -30933,7 +30939,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ144">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR144">
         <v>1.36</v>
@@ -31058,7 +31064,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31264,7 +31270,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31345,7 +31351,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ146">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR146">
         <v>1.89</v>
@@ -31470,7 +31476,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -32706,7 +32712,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -32784,7 +32790,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ153">
         <v>2.07</v>
@@ -32912,7 +32918,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -32993,7 +32999,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ154">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR154">
         <v>1.27</v>
@@ -33324,7 +33330,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33530,7 +33536,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33736,7 +33742,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33814,7 +33820,7 @@
         <v>0.36</v>
       </c>
       <c r="AP158">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ158">
         <v>0.5</v>
@@ -34023,7 +34029,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ159">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR159">
         <v>1.94</v>
@@ -34148,7 +34154,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34560,7 +34566,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34766,7 +34772,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -35050,7 +35056,7 @@
         <v>0.73</v>
       </c>
       <c r="AP164">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ164">
         <v>0.77</v>
@@ -35178,7 +35184,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35384,7 +35390,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35590,7 +35596,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -35671,7 +35677,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ167">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR167">
         <v>1.85</v>
@@ -36002,7 +36008,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36083,7 +36089,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ169">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR169">
         <v>1.91</v>
@@ -36208,7 +36214,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36289,7 +36295,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ170">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR170">
         <v>1.28</v>
@@ -36414,7 +36420,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36492,7 +36498,7 @@
         <v>0.42</v>
       </c>
       <c r="AP171">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ171">
         <v>0.43</v>
@@ -36620,7 +36626,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36826,7 +36832,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -37032,7 +37038,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37238,7 +37244,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37316,7 +37322,7 @@
         <v>2</v>
       </c>
       <c r="AP175">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ175">
         <v>2.15</v>
@@ -37856,7 +37862,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -38062,7 +38068,7 @@
         <v>89</v>
       </c>
       <c r="P179" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q179">
         <v>6.5</v>
@@ -38268,7 +38274,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q180">
         <v>2.95</v>
@@ -38474,7 +38480,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -38886,7 +38892,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -38964,10 +38970,10 @@
         <v>1.08</v>
       </c>
       <c r="AP183">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ183">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR183">
         <v>1.25</v>
@@ -39092,7 +39098,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39298,7 +39304,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39504,7 +39510,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39710,7 +39716,7 @@
         <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -40122,7 +40128,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40485,6 +40491,418 @@
       </c>
       <c r="BP190">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7382758</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45381.41666666666</v>
+      </c>
+      <c r="F191">
+        <v>2</v>
+      </c>
+      <c r="G191" t="s">
+        <v>81</v>
+      </c>
+      <c r="H191" t="s">
+        <v>76</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>217</v>
+      </c>
+      <c r="P191" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q191">
+        <v>3</v>
+      </c>
+      <c r="R191">
+        <v>2.05</v>
+      </c>
+      <c r="S191">
+        <v>4</v>
+      </c>
+      <c r="T191">
+        <v>1.44</v>
+      </c>
+      <c r="U191">
+        <v>2.63</v>
+      </c>
+      <c r="V191">
+        <v>3.25</v>
+      </c>
+      <c r="W191">
+        <v>1.33</v>
+      </c>
+      <c r="X191">
+        <v>10</v>
+      </c>
+      <c r="Y191">
+        <v>1.06</v>
+      </c>
+      <c r="Z191">
+        <v>2.36</v>
+      </c>
+      <c r="AA191">
+        <v>3.35</v>
+      </c>
+      <c r="AB191">
+        <v>2.81</v>
+      </c>
+      <c r="AC191">
+        <v>1.03</v>
+      </c>
+      <c r="AD191">
+        <v>7.9</v>
+      </c>
+      <c r="AE191">
+        <v>1.34</v>
+      </c>
+      <c r="AF191">
+        <v>2.89</v>
+      </c>
+      <c r="AG191">
+        <v>2.12</v>
+      </c>
+      <c r="AH191">
+        <v>1.64</v>
+      </c>
+      <c r="AI191">
+        <v>1.91</v>
+      </c>
+      <c r="AJ191">
+        <v>1.91</v>
+      </c>
+      <c r="AK191">
+        <v>1.33</v>
+      </c>
+      <c r="AL191">
+        <v>1.3</v>
+      </c>
+      <c r="AM191">
+        <v>1.6</v>
+      </c>
+      <c r="AN191">
+        <v>1.38</v>
+      </c>
+      <c r="AO191">
+        <v>1</v>
+      </c>
+      <c r="AP191">
+        <v>1.5</v>
+      </c>
+      <c r="AQ191">
+        <v>0.93</v>
+      </c>
+      <c r="AR191">
+        <v>1.28</v>
+      </c>
+      <c r="AS191">
+        <v>1.13</v>
+      </c>
+      <c r="AT191">
+        <v>2.41</v>
+      </c>
+      <c r="AU191">
+        <v>7</v>
+      </c>
+      <c r="AV191">
+        <v>2</v>
+      </c>
+      <c r="AW191">
+        <v>4</v>
+      </c>
+      <c r="AX191">
+        <v>10</v>
+      </c>
+      <c r="AY191">
+        <v>11</v>
+      </c>
+      <c r="AZ191">
+        <v>12</v>
+      </c>
+      <c r="BA191">
+        <v>2</v>
+      </c>
+      <c r="BB191">
+        <v>3</v>
+      </c>
+      <c r="BC191">
+        <v>5</v>
+      </c>
+      <c r="BD191">
+        <v>1.7</v>
+      </c>
+      <c r="BE191">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF191">
+        <v>2.6</v>
+      </c>
+      <c r="BG191">
+        <v>1.51</v>
+      </c>
+      <c r="BH191">
+        <v>2.37</v>
+      </c>
+      <c r="BI191">
+        <v>2</v>
+      </c>
+      <c r="BJ191">
+        <v>1.8</v>
+      </c>
+      <c r="BK191">
+        <v>2.6</v>
+      </c>
+      <c r="BL191">
+        <v>1.44</v>
+      </c>
+      <c r="BM191">
+        <v>3.3</v>
+      </c>
+      <c r="BN191">
+        <v>1.29</v>
+      </c>
+      <c r="BO191">
+        <v>4.5</v>
+      </c>
+      <c r="BP191">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7382756</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45381.52083333334</v>
+      </c>
+      <c r="F192">
+        <v>2</v>
+      </c>
+      <c r="G192" t="s">
+        <v>70</v>
+      </c>
+      <c r="H192" t="s">
+        <v>80</v>
+      </c>
+      <c r="I192">
+        <v>3</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>4</v>
+      </c>
+      <c r="L192">
+        <v>4</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>5</v>
+      </c>
+      <c r="O192" t="s">
+        <v>218</v>
+      </c>
+      <c r="P192" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q192">
+        <v>2.88</v>
+      </c>
+      <c r="R192">
+        <v>2.1</v>
+      </c>
+      <c r="S192">
+        <v>4</v>
+      </c>
+      <c r="T192">
+        <v>1.44</v>
+      </c>
+      <c r="U192">
+        <v>2.63</v>
+      </c>
+      <c r="V192">
+        <v>3.25</v>
+      </c>
+      <c r="W192">
+        <v>1.33</v>
+      </c>
+      <c r="X192">
+        <v>9</v>
+      </c>
+      <c r="Y192">
+        <v>1.07</v>
+      </c>
+      <c r="Z192">
+        <v>1.98</v>
+      </c>
+      <c r="AA192">
+        <v>3.1</v>
+      </c>
+      <c r="AB192">
+        <v>3.3</v>
+      </c>
+      <c r="AC192">
+        <v>1.06</v>
+      </c>
+      <c r="AD192">
+        <v>10</v>
+      </c>
+      <c r="AE192">
+        <v>1.36</v>
+      </c>
+      <c r="AF192">
+        <v>3.2</v>
+      </c>
+      <c r="AG192">
+        <v>1.98</v>
+      </c>
+      <c r="AH192">
+        <v>1.6</v>
+      </c>
+      <c r="AI192">
+        <v>1.91</v>
+      </c>
+      <c r="AJ192">
+        <v>1.91</v>
+      </c>
+      <c r="AK192">
+        <v>1.32</v>
+      </c>
+      <c r="AL192">
+        <v>1.28</v>
+      </c>
+      <c r="AM192">
+        <v>1.75</v>
+      </c>
+      <c r="AN192">
+        <v>0.92</v>
+      </c>
+      <c r="AO192">
+        <v>0.54</v>
+      </c>
+      <c r="AP192">
+        <v>1.07</v>
+      </c>
+      <c r="AQ192">
+        <v>0.5</v>
+      </c>
+      <c r="AR192">
+        <v>1.2</v>
+      </c>
+      <c r="AS192">
+        <v>1.03</v>
+      </c>
+      <c r="AT192">
+        <v>2.23</v>
+      </c>
+      <c r="AU192">
+        <v>7</v>
+      </c>
+      <c r="AV192">
+        <v>8</v>
+      </c>
+      <c r="AW192">
+        <v>2</v>
+      </c>
+      <c r="AX192">
+        <v>2</v>
+      </c>
+      <c r="AY192">
+        <v>9</v>
+      </c>
+      <c r="AZ192">
+        <v>10</v>
+      </c>
+      <c r="BA192">
+        <v>7</v>
+      </c>
+      <c r="BB192">
+        <v>2</v>
+      </c>
+      <c r="BC192">
+        <v>9</v>
+      </c>
+      <c r="BD192">
+        <v>1.84</v>
+      </c>
+      <c r="BE192">
+        <v>8.5</v>
+      </c>
+      <c r="BF192">
+        <v>2.31</v>
+      </c>
+      <c r="BG192">
+        <v>1.42</v>
+      </c>
+      <c r="BH192">
+        <v>2.62</v>
+      </c>
+      <c r="BI192">
+        <v>1.71</v>
+      </c>
+      <c r="BJ192">
+        <v>2.09</v>
+      </c>
+      <c r="BK192">
+        <v>2.17</v>
+      </c>
+      <c r="BL192">
+        <v>1.66</v>
+      </c>
+      <c r="BM192">
+        <v>2.62</v>
+      </c>
+      <c r="BN192">
+        <v>1.42</v>
+      </c>
+      <c r="BO192">
+        <v>3.6</v>
+      </c>
+      <c r="BP192">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="328">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,6 +673,15 @@
     <t>['3', '11', '45+2', '85']</t>
   </si>
   <si>
+    <t>['29', '90+3']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['55', '56', '59']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -680,9 +689,6 @@
   </si>
   <si>
     <t>['75']</t>
-  </si>
-  <si>
-    <t>['90+1']</t>
   </si>
   <si>
     <t>['28', '85']</t>
@@ -986,6 +992,12 @@
   </si>
   <si>
     <t>['49', '85']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['2', '37', '89']</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP192"/>
+  <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1606,7 +1618,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -1687,7 +1699,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ2">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1890,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -2018,7 +2030,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2096,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1.29</v>
@@ -3126,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ9">
         <v>0.79</v>
@@ -3332,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ10">
         <v>0.64</v>
@@ -3666,7 +3678,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -3953,7 +3965,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ13">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR13">
         <v>2.47</v>
@@ -4159,7 +4171,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ14">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4284,7 +4296,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4365,7 +4377,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4490,7 +4502,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -4568,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ16">
         <v>0.93</v>
@@ -4777,7 +4789,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ17">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>2.51</v>
@@ -4980,10 +4992,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR18">
         <v>1.52</v>
@@ -5108,7 +5120,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5314,7 +5326,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5392,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ20">
         <v>2.07</v>
@@ -5520,7 +5532,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5726,7 +5738,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -5932,7 +5944,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6138,7 +6150,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6628,10 +6640,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ26">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR26">
         <v>3.13</v>
@@ -6962,7 +6974,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7040,10 +7052,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR28">
         <v>1.24</v>
@@ -7249,7 +7261,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.38</v>
@@ -7658,10 +7670,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ31">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR31">
         <v>1.44</v>
@@ -7786,7 +7798,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7992,7 +8004,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8070,10 +8082,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ33">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR33">
         <v>1.27</v>
@@ -8198,7 +8210,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8276,7 +8288,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ34">
         <v>2.07</v>
@@ -8404,7 +8416,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8610,7 +8622,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8691,7 +8703,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ36">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.6</v>
@@ -9228,7 +9240,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9434,7 +9446,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -9718,10 +9730,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ41">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR41">
         <v>2.13</v>
@@ -9927,7 +9939,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ42">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR42">
         <v>0.84</v>
@@ -10052,7 +10064,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10130,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ43">
         <v>0.5</v>
@@ -10258,7 +10270,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10336,10 +10348,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ44">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR44">
         <v>1.54</v>
@@ -10464,7 +10476,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -10542,10 +10554,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ45">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR45">
         <v>1.3</v>
@@ -10954,7 +10966,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>2.07</v>
@@ -11160,10 +11172,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ48">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR48">
         <v>2.17</v>
@@ -11366,10 +11378,10 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ49">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR49">
         <v>2.02</v>
@@ -11494,7 +11506,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11984,7 +11996,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ52">
         <v>0.64</v>
@@ -12112,7 +12124,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12605,7 +12617,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ55">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR55">
         <v>1.96</v>
@@ -12730,7 +12742,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12936,7 +12948,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13142,7 +13154,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13223,7 +13235,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR58">
         <v>0.99</v>
@@ -13429,7 +13441,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ59">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.24</v>
@@ -13632,7 +13644,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ60">
         <v>0.64</v>
@@ -13838,7 +13850,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ61">
         <v>0.5</v>
@@ -14044,10 +14056,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ62">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR62">
         <v>2.31</v>
@@ -14172,7 +14184,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14250,10 +14262,10 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR63">
         <v>1.33</v>
@@ -14378,7 +14390,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14790,7 +14802,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14996,7 +15008,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15074,7 +15086,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ67">
         <v>0.79</v>
@@ -15202,7 +15214,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15283,7 +15295,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ68">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR68">
         <v>1.91</v>
@@ -15408,7 +15420,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15486,10 +15498,10 @@
         <v>0.17</v>
       </c>
       <c r="AP69">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ69">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR69">
         <v>1.94</v>
@@ -15614,7 +15626,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15820,7 +15832,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15898,7 +15910,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>0.5</v>
@@ -16026,7 +16038,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16232,7 +16244,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16438,7 +16450,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16519,7 +16531,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ74">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR74">
         <v>1.97</v>
@@ -16722,10 +16734,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ75">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>2.12</v>
@@ -16850,7 +16862,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -16931,7 +16943,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ76">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR76">
         <v>1.28</v>
@@ -17262,7 +17274,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17340,7 +17352,7 @@
         <v>0.4</v>
       </c>
       <c r="AP78">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>0.79</v>
@@ -17468,7 +17480,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -17549,7 +17561,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ79">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR79">
         <v>1.9</v>
@@ -17880,7 +17892,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18164,7 +18176,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ82">
         <v>2.07</v>
@@ -18292,7 +18304,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -18373,7 +18385,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ83">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR83">
         <v>1.12</v>
@@ -18576,7 +18588,7 @@
         <v>3</v>
       </c>
       <c r="AP84">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ84">
         <v>2.07</v>
@@ -19322,7 +19334,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19403,7 +19415,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ88">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR88">
         <v>1.32</v>
@@ -19528,7 +19540,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19812,7 +19824,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ90">
         <v>0.43</v>
@@ -20021,7 +20033,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ91">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR91">
         <v>1.81</v>
@@ -20224,7 +20236,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ92">
         <v>1.29</v>
@@ -20352,7 +20364,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20636,7 +20648,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ94">
         <v>0.43</v>
@@ -20764,7 +20776,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20845,7 +20857,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ95">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -20970,7 +20982,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21176,7 +21188,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21382,7 +21394,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21588,7 +21600,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -21669,7 +21681,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR99">
         <v>1.43</v>
@@ -21794,7 +21806,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -21872,10 +21884,10 @@
         <v>0.71</v>
       </c>
       <c r="AP100">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ100">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.78</v>
@@ -22000,7 +22012,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22284,10 +22296,10 @@
         <v>0.14</v>
       </c>
       <c r="AP102">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ102">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR102">
         <v>1.05</v>
@@ -22412,7 +22424,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22618,7 +22630,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22696,7 +22708,7 @@
         <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104">
         <v>0.93</v>
@@ -22824,7 +22836,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -22905,7 +22917,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ105">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR105">
         <v>1.39</v>
@@ -23111,7 +23123,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR106">
         <v>1.18</v>
@@ -23236,7 +23248,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23523,7 +23535,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ108">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR108">
         <v>1.21</v>
@@ -23726,7 +23738,7 @@
         <v>0.86</v>
       </c>
       <c r="AP109">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ109">
         <v>0.79</v>
@@ -24138,7 +24150,7 @@
         <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ111">
         <v>0.5</v>
@@ -24266,7 +24278,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24678,7 +24690,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24759,7 +24771,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ114">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR114">
         <v>1.2</v>
@@ -24884,7 +24896,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -25090,7 +25102,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25168,10 +25180,10 @@
         <v>0.25</v>
       </c>
       <c r="AP116">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ116">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR116">
         <v>1.87</v>
@@ -25374,7 +25386,7 @@
         <v>1.86</v>
       </c>
       <c r="AP117">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ117">
         <v>0.93</v>
@@ -25502,7 +25514,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25580,10 +25592,10 @@
         <v>1.86</v>
       </c>
       <c r="AP118">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ118">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR118">
         <v>1.89</v>
@@ -25708,7 +25720,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25914,7 +25926,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25992,10 +26004,10 @@
         <v>0.75</v>
       </c>
       <c r="AP120">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.37</v>
@@ -26120,7 +26132,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26326,7 +26338,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26532,7 +26544,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26738,7 +26750,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -26819,7 +26831,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ124">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR124">
         <v>1.32</v>
@@ -27150,7 +27162,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27228,7 +27240,7 @@
         <v>2.33</v>
       </c>
       <c r="AP126">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ126">
         <v>2.07</v>
@@ -27562,7 +27574,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27768,7 +27780,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27846,7 +27858,7 @@
         <v>0.55</v>
       </c>
       <c r="AP129">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ129">
         <v>0.64</v>
@@ -28052,10 +28064,10 @@
         <v>0.22</v>
       </c>
       <c r="AP130">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ130">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR130">
         <v>1.43</v>
@@ -28180,7 +28192,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28261,7 +28273,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ131">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR131">
         <v>1.19</v>
@@ -28386,7 +28398,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28670,7 +28682,7 @@
         <v>1.63</v>
       </c>
       <c r="AP133">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ133">
         <v>0.93</v>
@@ -28798,7 +28810,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28876,10 +28888,10 @@
         <v>2</v>
       </c>
       <c r="AP134">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ134">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR134">
         <v>1.81</v>
@@ -29004,7 +29016,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29085,7 +29097,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ135">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.53</v>
@@ -29210,7 +29222,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29416,7 +29428,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29700,7 +29712,7 @@
         <v>0.44</v>
       </c>
       <c r="AP138">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ138">
         <v>0.43</v>
@@ -29909,7 +29921,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ139">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR139">
         <v>1.21</v>
@@ -30034,7 +30046,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30240,7 +30252,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30446,7 +30458,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30527,7 +30539,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ142">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR142">
         <v>1.18</v>
@@ -30652,7 +30664,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30858,7 +30870,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -30936,7 +30948,7 @@
         <v>0.22</v>
       </c>
       <c r="AP144">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ144">
         <v>0.5</v>
@@ -31064,7 +31076,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31142,10 +31154,10 @@
         <v>1</v>
       </c>
       <c r="AP145">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ145">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR145">
         <v>1.16</v>
@@ -31270,7 +31282,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31348,7 +31360,7 @@
         <v>1.44</v>
       </c>
       <c r="AP146">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ146">
         <v>0.93</v>
@@ -31476,7 +31488,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31557,7 +31569,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ147">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR147">
         <v>1.12</v>
@@ -31760,10 +31772,10 @@
         <v>2.1</v>
       </c>
       <c r="AP148">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ148">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR148">
         <v>1.85</v>
@@ -32172,7 +32184,7 @@
         <v>1.1</v>
       </c>
       <c r="AP150">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ150">
         <v>1.29</v>
@@ -32381,7 +32393,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ151">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR151">
         <v>1.52</v>
@@ -32712,7 +32724,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -32918,7 +32930,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33330,7 +33342,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33536,7 +33548,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33614,10 +33626,10 @@
         <v>1.18</v>
       </c>
       <c r="AP157">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ157">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR157">
         <v>1.83</v>
@@ -33742,7 +33754,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34026,7 +34038,7 @@
         <v>0.5</v>
       </c>
       <c r="AP159">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ159">
         <v>0.5</v>
@@ -34154,7 +34166,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34235,7 +34247,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ160">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR160">
         <v>1.87</v>
@@ -34438,7 +34450,7 @@
         <v>0.75</v>
       </c>
       <c r="AP161">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ161">
         <v>0.64</v>
@@ -34566,7 +34578,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34647,7 +34659,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ162">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR162">
         <v>1.22</v>
@@ -34772,7 +34784,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -35059,7 +35071,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ164">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR164">
         <v>1.29</v>
@@ -35184,7 +35196,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35262,7 +35274,7 @@
         <v>0.36</v>
       </c>
       <c r="AP165">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ165">
         <v>0.43</v>
@@ -35390,7 +35402,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35471,7 +35483,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ166">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR166">
         <v>1.5</v>
@@ -35596,7 +35608,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -35880,7 +35892,7 @@
         <v>0.73</v>
       </c>
       <c r="AP168">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ168">
         <v>0.79</v>
@@ -36008,7 +36020,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36086,7 +36098,7 @@
         <v>0.45</v>
       </c>
       <c r="AP169">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ169">
         <v>0.5</v>
@@ -36214,7 +36226,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36420,7 +36432,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36626,7 +36638,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36707,7 +36719,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ172">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR172">
         <v>1.06</v>
@@ -36832,7 +36844,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -36913,7 +36925,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ173">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR173">
         <v>1.46</v>
@@ -37038,7 +37050,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37116,7 +37128,7 @@
         <v>0.58</v>
       </c>
       <c r="AP174">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ174">
         <v>0.5</v>
@@ -37244,7 +37256,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37325,7 +37337,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ175">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR175">
         <v>1.28</v>
@@ -37528,7 +37540,7 @@
         <v>1.25</v>
       </c>
       <c r="AP176">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ176">
         <v>1.29</v>
@@ -37734,10 +37746,10 @@
         <v>0.75</v>
       </c>
       <c r="AP177">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ177">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR177">
         <v>1.26</v>
@@ -37862,7 +37874,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -37940,7 +37952,7 @@
         <v>2.08</v>
       </c>
       <c r="AP178">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ178">
         <v>2.07</v>
@@ -38068,7 +38080,7 @@
         <v>89</v>
       </c>
       <c r="P179" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q179">
         <v>6.5</v>
@@ -38149,7 +38161,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ179">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR179">
         <v>1.23</v>
@@ -38274,7 +38286,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q180">
         <v>2.95</v>
@@ -38355,7 +38367,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ180">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR180">
         <v>1.25</v>
@@ -38480,7 +38492,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -38558,7 +38570,7 @@
         <v>2.08</v>
       </c>
       <c r="AP181">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ181">
         <v>2.07</v>
@@ -38892,7 +38904,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39098,7 +39110,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39304,7 +39316,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39510,7 +39522,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39716,7 +39728,7 @@
         <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -40128,7 +40140,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40633,7 +40645,7 @@
         <v>2.41</v>
       </c>
       <c r="AU191">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV191">
         <v>2</v>
@@ -40642,13 +40654,13 @@
         <v>4</v>
       </c>
       <c r="AX191">
+        <v>8</v>
+      </c>
+      <c r="AY191">
+        <v>8</v>
+      </c>
+      <c r="AZ191">
         <v>10</v>
-      </c>
-      <c r="AY191">
-        <v>11</v>
-      </c>
-      <c r="AZ191">
-        <v>12</v>
       </c>
       <c r="BA191">
         <v>2</v>
@@ -40839,22 +40851,22 @@
         <v>2.23</v>
       </c>
       <c r="AU192">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV192">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW192">
         <v>2</v>
       </c>
       <c r="AX192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY192">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ192">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA192">
         <v>7</v>
@@ -40903,6 +40915,1036 @@
       </c>
       <c r="BP192">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7382759</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45381.60416666666</v>
+      </c>
+      <c r="F193">
+        <v>2</v>
+      </c>
+      <c r="G193" t="s">
+        <v>71</v>
+      </c>
+      <c r="H193" t="s">
+        <v>75</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>112</v>
+      </c>
+      <c r="P193" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q193">
+        <v>2.75</v>
+      </c>
+      <c r="R193">
+        <v>2.1</v>
+      </c>
+      <c r="S193">
+        <v>4.33</v>
+      </c>
+      <c r="T193">
+        <v>1.44</v>
+      </c>
+      <c r="U193">
+        <v>2.63</v>
+      </c>
+      <c r="V193">
+        <v>3.25</v>
+      </c>
+      <c r="W193">
+        <v>1.33</v>
+      </c>
+      <c r="X193">
+        <v>9</v>
+      </c>
+      <c r="Y193">
+        <v>1.07</v>
+      </c>
+      <c r="Z193">
+        <v>2.18</v>
+      </c>
+      <c r="AA193">
+        <v>2.98</v>
+      </c>
+      <c r="AB193">
+        <v>2.98</v>
+      </c>
+      <c r="AC193">
+        <v>1.06</v>
+      </c>
+      <c r="AD193">
+        <v>10</v>
+      </c>
+      <c r="AE193">
+        <v>1.36</v>
+      </c>
+      <c r="AF193">
+        <v>3.2</v>
+      </c>
+      <c r="AG193">
+        <v>2.07</v>
+      </c>
+      <c r="AH193">
+        <v>1.54</v>
+      </c>
+      <c r="AI193">
+        <v>1.91</v>
+      </c>
+      <c r="AJ193">
+        <v>1.91</v>
+      </c>
+      <c r="AK193">
+        <v>1.3</v>
+      </c>
+      <c r="AL193">
+        <v>1.28</v>
+      </c>
+      <c r="AM193">
+        <v>1.78</v>
+      </c>
+      <c r="AN193">
+        <v>0.85</v>
+      </c>
+      <c r="AO193">
+        <v>0.38</v>
+      </c>
+      <c r="AP193">
+        <v>0.86</v>
+      </c>
+      <c r="AQ193">
+        <v>0.43</v>
+      </c>
+      <c r="AR193">
+        <v>1.27</v>
+      </c>
+      <c r="AS193">
+        <v>1.15</v>
+      </c>
+      <c r="AT193">
+        <v>2.42</v>
+      </c>
+      <c r="AU193">
+        <v>4</v>
+      </c>
+      <c r="AV193">
+        <v>4</v>
+      </c>
+      <c r="AW193">
+        <v>7</v>
+      </c>
+      <c r="AX193">
+        <v>5</v>
+      </c>
+      <c r="AY193">
+        <v>11</v>
+      </c>
+      <c r="AZ193">
+        <v>9</v>
+      </c>
+      <c r="BA193">
+        <v>3</v>
+      </c>
+      <c r="BB193">
+        <v>2</v>
+      </c>
+      <c r="BC193">
+        <v>5</v>
+      </c>
+      <c r="BD193">
+        <v>1.65</v>
+      </c>
+      <c r="BE193">
+        <v>8.5</v>
+      </c>
+      <c r="BF193">
+        <v>2.7</v>
+      </c>
+      <c r="BG193">
+        <v>1.48</v>
+      </c>
+      <c r="BH193">
+        <v>2.55</v>
+      </c>
+      <c r="BI193">
+        <v>1.85</v>
+      </c>
+      <c r="BJ193">
+        <v>1.95</v>
+      </c>
+      <c r="BK193">
+        <v>2.35</v>
+      </c>
+      <c r="BL193">
+        <v>1.55</v>
+      </c>
+      <c r="BM193">
+        <v>3.1</v>
+      </c>
+      <c r="BN193">
+        <v>1.34</v>
+      </c>
+      <c r="BO193">
+        <v>4.4</v>
+      </c>
+      <c r="BP193">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7382757</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45381.625</v>
+      </c>
+      <c r="F194">
+        <v>2</v>
+      </c>
+      <c r="G194" t="s">
+        <v>72</v>
+      </c>
+      <c r="H194" t="s">
+        <v>83</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194" t="s">
+        <v>89</v>
+      </c>
+      <c r="P194" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q194">
+        <v>2.75</v>
+      </c>
+      <c r="R194">
+        <v>2.2</v>
+      </c>
+      <c r="S194">
+        <v>4</v>
+      </c>
+      <c r="T194">
+        <v>1.4</v>
+      </c>
+      <c r="U194">
+        <v>2.75</v>
+      </c>
+      <c r="V194">
+        <v>2.75</v>
+      </c>
+      <c r="W194">
+        <v>1.4</v>
+      </c>
+      <c r="X194">
+        <v>8</v>
+      </c>
+      <c r="Y194">
+        <v>1.08</v>
+      </c>
+      <c r="Z194">
+        <v>1.89</v>
+      </c>
+      <c r="AA194">
+        <v>3.15</v>
+      </c>
+      <c r="AB194">
+        <v>3.5</v>
+      </c>
+      <c r="AC194">
+        <v>1.05</v>
+      </c>
+      <c r="AD194">
+        <v>11</v>
+      </c>
+      <c r="AE194">
+        <v>1.27</v>
+      </c>
+      <c r="AF194">
+        <v>3.47</v>
+      </c>
+      <c r="AG194">
+        <v>1.86</v>
+      </c>
+      <c r="AH194">
+        <v>1.68</v>
+      </c>
+      <c r="AI194">
+        <v>1.75</v>
+      </c>
+      <c r="AJ194">
+        <v>2</v>
+      </c>
+      <c r="AK194">
+        <v>1.3</v>
+      </c>
+      <c r="AL194">
+        <v>1.25</v>
+      </c>
+      <c r="AM194">
+        <v>1.83</v>
+      </c>
+      <c r="AN194">
+        <v>1.54</v>
+      </c>
+      <c r="AO194">
+        <v>0.77</v>
+      </c>
+      <c r="AP194">
+        <v>1.5</v>
+      </c>
+      <c r="AQ194">
+        <v>0.79</v>
+      </c>
+      <c r="AR194">
+        <v>1.33</v>
+      </c>
+      <c r="AS194">
+        <v>1.14</v>
+      </c>
+      <c r="AT194">
+        <v>2.47</v>
+      </c>
+      <c r="AU194">
+        <v>5</v>
+      </c>
+      <c r="AV194">
+        <v>4</v>
+      </c>
+      <c r="AW194">
+        <v>9</v>
+      </c>
+      <c r="AX194">
+        <v>5</v>
+      </c>
+      <c r="AY194">
+        <v>14</v>
+      </c>
+      <c r="AZ194">
+        <v>9</v>
+      </c>
+      <c r="BA194">
+        <v>5</v>
+      </c>
+      <c r="BB194">
+        <v>3</v>
+      </c>
+      <c r="BC194">
+        <v>8</v>
+      </c>
+      <c r="BD194">
+        <v>1.68</v>
+      </c>
+      <c r="BE194">
+        <v>8.6</v>
+      </c>
+      <c r="BF194">
+        <v>2.62</v>
+      </c>
+      <c r="BG194">
+        <v>1.46</v>
+      </c>
+      <c r="BH194">
+        <v>2.6</v>
+      </c>
+      <c r="BI194">
+        <v>1.82</v>
+      </c>
+      <c r="BJ194">
+        <v>1.98</v>
+      </c>
+      <c r="BK194">
+        <v>2.3</v>
+      </c>
+      <c r="BL194">
+        <v>1.58</v>
+      </c>
+      <c r="BM194">
+        <v>3</v>
+      </c>
+      <c r="BN194">
+        <v>1.35</v>
+      </c>
+      <c r="BO194">
+        <v>4.2</v>
+      </c>
+      <c r="BP194">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7378761</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45382.5</v>
+      </c>
+      <c r="F195">
+        <v>2</v>
+      </c>
+      <c r="G195" t="s">
+        <v>77</v>
+      </c>
+      <c r="H195" t="s">
+        <v>73</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>2</v>
+      </c>
+      <c r="K195">
+        <v>3</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>3</v>
+      </c>
+      <c r="N195">
+        <v>5</v>
+      </c>
+      <c r="O195" t="s">
+        <v>219</v>
+      </c>
+      <c r="P195" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q195">
+        <v>2.75</v>
+      </c>
+      <c r="R195">
+        <v>2.1</v>
+      </c>
+      <c r="S195">
+        <v>4</v>
+      </c>
+      <c r="T195">
+        <v>1.4</v>
+      </c>
+      <c r="U195">
+        <v>2.75</v>
+      </c>
+      <c r="V195">
+        <v>3</v>
+      </c>
+      <c r="W195">
+        <v>1.36</v>
+      </c>
+      <c r="X195">
+        <v>9</v>
+      </c>
+      <c r="Y195">
+        <v>1.07</v>
+      </c>
+      <c r="Z195">
+        <v>2.08</v>
+      </c>
+      <c r="AA195">
+        <v>3.45</v>
+      </c>
+      <c r="AB195">
+        <v>3.25</v>
+      </c>
+      <c r="AC195">
+        <v>1.06</v>
+      </c>
+      <c r="AD195">
+        <v>10</v>
+      </c>
+      <c r="AE195">
+        <v>1.33</v>
+      </c>
+      <c r="AF195">
+        <v>3.3</v>
+      </c>
+      <c r="AG195">
+        <v>2.04</v>
+      </c>
+      <c r="AH195">
+        <v>1.82</v>
+      </c>
+      <c r="AI195">
+        <v>1.8</v>
+      </c>
+      <c r="AJ195">
+        <v>1.95</v>
+      </c>
+      <c r="AK195">
+        <v>1.3</v>
+      </c>
+      <c r="AL195">
+        <v>1.28</v>
+      </c>
+      <c r="AM195">
+        <v>1.78</v>
+      </c>
+      <c r="AN195">
+        <v>2.31</v>
+      </c>
+      <c r="AO195">
+        <v>2.15</v>
+      </c>
+      <c r="AP195">
+        <v>2.14</v>
+      </c>
+      <c r="AQ195">
+        <v>2.21</v>
+      </c>
+      <c r="AR195">
+        <v>1.87</v>
+      </c>
+      <c r="AS195">
+        <v>1.56</v>
+      </c>
+      <c r="AT195">
+        <v>3.43</v>
+      </c>
+      <c r="AU195">
+        <v>4</v>
+      </c>
+      <c r="AV195">
+        <v>4</v>
+      </c>
+      <c r="AW195">
+        <v>3</v>
+      </c>
+      <c r="AX195">
+        <v>0</v>
+      </c>
+      <c r="AY195">
+        <v>7</v>
+      </c>
+      <c r="AZ195">
+        <v>4</v>
+      </c>
+      <c r="BA195">
+        <v>3</v>
+      </c>
+      <c r="BB195">
+        <v>4</v>
+      </c>
+      <c r="BC195">
+        <v>7</v>
+      </c>
+      <c r="BD195">
+        <v>1.7</v>
+      </c>
+      <c r="BE195">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF195">
+        <v>2.56</v>
+      </c>
+      <c r="BG195">
+        <v>1.32</v>
+      </c>
+      <c r="BH195">
+        <v>3.1</v>
+      </c>
+      <c r="BI195">
+        <v>1.72</v>
+      </c>
+      <c r="BJ195">
+        <v>2.02</v>
+      </c>
+      <c r="BK195">
+        <v>2.2</v>
+      </c>
+      <c r="BL195">
+        <v>1.61</v>
+      </c>
+      <c r="BM195">
+        <v>3</v>
+      </c>
+      <c r="BN195">
+        <v>1.35</v>
+      </c>
+      <c r="BO195">
+        <v>3.6</v>
+      </c>
+      <c r="BP195">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7378762</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45382.60416666666</v>
+      </c>
+      <c r="F196">
+        <v>2</v>
+      </c>
+      <c r="G196" t="s">
+        <v>78</v>
+      </c>
+      <c r="H196" t="s">
+        <v>74</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>220</v>
+      </c>
+      <c r="P196" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q196">
+        <v>2.5</v>
+      </c>
+      <c r="R196">
+        <v>2.2</v>
+      </c>
+      <c r="S196">
+        <v>4.33</v>
+      </c>
+      <c r="T196">
+        <v>1.4</v>
+      </c>
+      <c r="U196">
+        <v>2.75</v>
+      </c>
+      <c r="V196">
+        <v>2.75</v>
+      </c>
+      <c r="W196">
+        <v>1.4</v>
+      </c>
+      <c r="X196">
+        <v>8</v>
+      </c>
+      <c r="Y196">
+        <v>1.08</v>
+      </c>
+      <c r="Z196">
+        <v>1.82</v>
+      </c>
+      <c r="AA196">
+        <v>3.7</v>
+      </c>
+      <c r="AB196">
+        <v>3.8</v>
+      </c>
+      <c r="AC196">
+        <v>1.05</v>
+      </c>
+      <c r="AD196">
+        <v>12</v>
+      </c>
+      <c r="AE196">
+        <v>1.3</v>
+      </c>
+      <c r="AF196">
+        <v>3.6</v>
+      </c>
+      <c r="AG196">
+        <v>1.9</v>
+      </c>
+      <c r="AH196">
+        <v>1.8</v>
+      </c>
+      <c r="AI196">
+        <v>1.75</v>
+      </c>
+      <c r="AJ196">
+        <v>2</v>
+      </c>
+      <c r="AK196">
+        <v>1.26</v>
+      </c>
+      <c r="AL196">
+        <v>1.25</v>
+      </c>
+      <c r="AM196">
+        <v>1.9</v>
+      </c>
+      <c r="AN196">
+        <v>2.54</v>
+      </c>
+      <c r="AO196">
+        <v>2.08</v>
+      </c>
+      <c r="AP196">
+        <v>2.57</v>
+      </c>
+      <c r="AQ196">
+        <v>1.93</v>
+      </c>
+      <c r="AR196">
+        <v>2.06</v>
+      </c>
+      <c r="AS196">
+        <v>1.55</v>
+      </c>
+      <c r="AT196">
+        <v>3.61</v>
+      </c>
+      <c r="AU196">
+        <v>3</v>
+      </c>
+      <c r="AV196">
+        <v>4</v>
+      </c>
+      <c r="AW196">
+        <v>2</v>
+      </c>
+      <c r="AX196">
+        <v>0</v>
+      </c>
+      <c r="AY196">
+        <v>5</v>
+      </c>
+      <c r="AZ196">
+        <v>4</v>
+      </c>
+      <c r="BA196">
+        <v>1</v>
+      </c>
+      <c r="BB196">
+        <v>3</v>
+      </c>
+      <c r="BC196">
+        <v>4</v>
+      </c>
+      <c r="BD196">
+        <v>1.55</v>
+      </c>
+      <c r="BE196">
+        <v>9</v>
+      </c>
+      <c r="BF196">
+        <v>2.97</v>
+      </c>
+      <c r="BG196">
+        <v>1.4</v>
+      </c>
+      <c r="BH196">
+        <v>2.75</v>
+      </c>
+      <c r="BI196">
+        <v>1.7</v>
+      </c>
+      <c r="BJ196">
+        <v>2.05</v>
+      </c>
+      <c r="BK196">
+        <v>2.1</v>
+      </c>
+      <c r="BL196">
+        <v>1.67</v>
+      </c>
+      <c r="BM196">
+        <v>2.8</v>
+      </c>
+      <c r="BN196">
+        <v>1.41</v>
+      </c>
+      <c r="BO196">
+        <v>3.9</v>
+      </c>
+      <c r="BP196">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7378763</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45382.60416666666</v>
+      </c>
+      <c r="F197">
+        <v>2</v>
+      </c>
+      <c r="G197" t="s">
+        <v>82</v>
+      </c>
+      <c r="H197" t="s">
+        <v>79</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>3</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>4</v>
+      </c>
+      <c r="O197" t="s">
+        <v>221</v>
+      </c>
+      <c r="P197" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q197">
+        <v>2.05</v>
+      </c>
+      <c r="R197">
+        <v>2.25</v>
+      </c>
+      <c r="S197">
+        <v>6.5</v>
+      </c>
+      <c r="T197">
+        <v>1.4</v>
+      </c>
+      <c r="U197">
+        <v>2.75</v>
+      </c>
+      <c r="V197">
+        <v>2.75</v>
+      </c>
+      <c r="W197">
+        <v>1.4</v>
+      </c>
+      <c r="X197">
+        <v>8</v>
+      </c>
+      <c r="Y197">
+        <v>1.08</v>
+      </c>
+      <c r="Z197">
+        <v>1.46</v>
+      </c>
+      <c r="AA197">
+        <v>4.25</v>
+      </c>
+      <c r="AB197">
+        <v>6.1</v>
+      </c>
+      <c r="AC197">
+        <v>1.05</v>
+      </c>
+      <c r="AD197">
+        <v>12</v>
+      </c>
+      <c r="AE197">
+        <v>1.3</v>
+      </c>
+      <c r="AF197">
+        <v>3.6</v>
+      </c>
+      <c r="AG197">
+        <v>1.91</v>
+      </c>
+      <c r="AH197">
+        <v>1.95</v>
+      </c>
+      <c r="AI197">
+        <v>2.05</v>
+      </c>
+      <c r="AJ197">
+        <v>1.7</v>
+      </c>
+      <c r="AK197">
+        <v>1.1</v>
+      </c>
+      <c r="AL197">
+        <v>1.19</v>
+      </c>
+      <c r="AM197">
+        <v>2.7</v>
+      </c>
+      <c r="AN197">
+        <v>2.08</v>
+      </c>
+      <c r="AO197">
+        <v>1.08</v>
+      </c>
+      <c r="AP197">
+        <v>2.14</v>
+      </c>
+      <c r="AQ197">
+        <v>1</v>
+      </c>
+      <c r="AR197">
+        <v>1.7</v>
+      </c>
+      <c r="AS197">
+        <v>1.1</v>
+      </c>
+      <c r="AT197">
+        <v>2.8</v>
+      </c>
+      <c r="AU197">
+        <v>6</v>
+      </c>
+      <c r="AV197">
+        <v>2</v>
+      </c>
+      <c r="AW197">
+        <v>3</v>
+      </c>
+      <c r="AX197">
+        <v>2</v>
+      </c>
+      <c r="AY197">
+        <v>9</v>
+      </c>
+      <c r="AZ197">
+        <v>4</v>
+      </c>
+      <c r="BA197">
+        <v>6</v>
+      </c>
+      <c r="BB197">
+        <v>4</v>
+      </c>
+      <c r="BC197">
+        <v>10</v>
+      </c>
+      <c r="BD197">
+        <v>1.27</v>
+      </c>
+      <c r="BE197">
+        <v>10.25</v>
+      </c>
+      <c r="BF197">
+        <v>4.8</v>
+      </c>
+      <c r="BG197">
+        <v>1.42</v>
+      </c>
+      <c r="BH197">
+        <v>2.7</v>
+      </c>
+      <c r="BI197">
+        <v>1.85</v>
+      </c>
+      <c r="BJ197">
+        <v>1.95</v>
+      </c>
+      <c r="BK197">
+        <v>2.2</v>
+      </c>
+      <c r="BL197">
+        <v>1.61</v>
+      </c>
+      <c r="BM197">
+        <v>3.1</v>
+      </c>
+      <c r="BN197">
+        <v>1.34</v>
+      </c>
+      <c r="BO197">
+        <v>4.3</v>
+      </c>
+      <c r="BP197">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -676,10 +676,10 @@
     <t>['29', '90+3']</t>
   </si>
   <si>
-    <t>['90+1']</t>
+    <t>['55', '56', '59']</t>
   </si>
   <si>
-    <t>['55', '56', '59']</t>
+    <t>['90+1']</t>
   </si>
   <si>
     <t>['55', '61']</t>
@@ -4296,7 +4296,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -41057,13 +41057,13 @@
         <v>2.42</v>
       </c>
       <c r="AU193">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV193">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW193">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX193">
         <v>5</v>
@@ -41072,7 +41072,7 @@
         <v>11</v>
       </c>
       <c r="AZ193">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA193">
         <v>3</v>
@@ -41269,16 +41269,16 @@
         <v>4</v>
       </c>
       <c r="AW194">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX194">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY194">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ194">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA194">
         <v>5</v>
@@ -41469,31 +41469,31 @@
         <v>3.43</v>
       </c>
       <c r="AU195">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV195">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AW195">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY195">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AZ195">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BA195">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB195">
         <v>4</v>
       </c>
       <c r="BC195">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD195">
         <v>1.7</v>
@@ -41540,7 +41540,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7378762</v>
+        <v>7378763</v>
       </c>
       <c r="C196" t="s">
         <v>68</v>
@@ -41555,10 +41555,10 @@
         <v>2</v>
       </c>
       <c r="G196" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H196" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -41570,28 +41570,28 @@
         <v>0</v>
       </c>
       <c r="L196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N196">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O196" t="s">
         <v>220</v>
       </c>
       <c r="P196" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="Q196">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="R196">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S196">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="T196">
         <v>1.4</v>
@@ -41612,13 +41612,13 @@
         <v>1.08</v>
       </c>
       <c r="Z196">
-        <v>1.82</v>
+        <v>1.46</v>
       </c>
       <c r="AA196">
-        <v>3.7</v>
+        <v>4.25</v>
       </c>
       <c r="AB196">
-        <v>3.8</v>
+        <v>6.1</v>
       </c>
       <c r="AC196">
         <v>1.05</v>
@@ -41633,112 +41633,112 @@
         <v>3.6</v>
       </c>
       <c r="AG196">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AH196">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AI196">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="AJ196">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AK196">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="AL196">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AM196">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="AN196">
-        <v>2.54</v>
+        <v>2.08</v>
       </c>
       <c r="AO196">
-        <v>2.08</v>
+        <v>1.08</v>
       </c>
       <c r="AP196">
-        <v>2.57</v>
+        <v>2.14</v>
       </c>
       <c r="AQ196">
-        <v>1.93</v>
+        <v>1</v>
       </c>
       <c r="AR196">
-        <v>2.06</v>
+        <v>1.7</v>
       </c>
       <c r="AS196">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="AT196">
-        <v>3.61</v>
+        <v>2.8</v>
       </c>
       <c r="AU196">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AV196">
+        <v>2</v>
+      </c>
+      <c r="AW196">
         <v>4</v>
       </c>
-      <c r="AW196">
-        <v>2</v>
-      </c>
       <c r="AX196">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY196">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AZ196">
+        <v>9</v>
+      </c>
+      <c r="BA196">
+        <v>13</v>
+      </c>
+      <c r="BB196">
         <v>4</v>
       </c>
-      <c r="BA196">
-        <v>1</v>
-      </c>
-      <c r="BB196">
-        <v>3</v>
-      </c>
       <c r="BC196">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="BD196">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="BE196">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="BF196">
-        <v>2.97</v>
+        <v>4.8</v>
       </c>
       <c r="BG196">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="BH196">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="BI196">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="BJ196">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BK196">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BL196">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="BM196">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="BN196">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="BO196">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="BP196">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="197" spans="1:68">
@@ -41746,7 +41746,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>7378763</v>
+        <v>7378762</v>
       </c>
       <c r="C197" t="s">
         <v>68</v>
@@ -41761,10 +41761,10 @@
         <v>2</v>
       </c>
       <c r="G197" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H197" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -41776,28 +41776,28 @@
         <v>0</v>
       </c>
       <c r="L197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O197" t="s">
         <v>221</v>
       </c>
       <c r="P197" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="Q197">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="R197">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S197">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="T197">
         <v>1.4</v>
@@ -41818,13 +41818,13 @@
         <v>1.08</v>
       </c>
       <c r="Z197">
-        <v>1.46</v>
+        <v>1.82</v>
       </c>
       <c r="AA197">
-        <v>4.25</v>
+        <v>3.7</v>
       </c>
       <c r="AB197">
-        <v>6.1</v>
+        <v>3.8</v>
       </c>
       <c r="AC197">
         <v>1.05</v>
@@ -41839,112 +41839,112 @@
         <v>3.6</v>
       </c>
       <c r="AG197">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AH197">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AI197">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="AJ197">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AK197">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="AL197">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AM197">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="AN197">
+        <v>2.54</v>
+      </c>
+      <c r="AO197">
         <v>2.08</v>
       </c>
-      <c r="AO197">
-        <v>1.08</v>
-      </c>
       <c r="AP197">
-        <v>2.14</v>
+        <v>2.57</v>
       </c>
       <c r="AQ197">
-        <v>1</v>
+        <v>1.93</v>
       </c>
       <c r="AR197">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
       <c r="AS197">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="AT197">
-        <v>2.8</v>
+        <v>3.61</v>
       </c>
       <c r="AU197">
         <v>6</v>
       </c>
       <c r="AV197">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX197">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY197">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ197">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BA197">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB197">
         <v>4</v>
       </c>
       <c r="BC197">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BD197">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="BE197">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="BF197">
-        <v>4.8</v>
+        <v>2.97</v>
       </c>
       <c r="BG197">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="BH197">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="BI197">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="BJ197">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BK197">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BL197">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="BM197">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="BN197">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="BO197">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="BP197">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="331">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -680,6 +680,15 @@
   </si>
   <si>
     <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['6', '60', '89']</t>
+  </si>
+  <si>
+    <t>['45+1', '70', '88']</t>
+  </si>
+  <si>
+    <t>['32', '34']</t>
   </si>
   <si>
     <t>['55', '61']</t>
@@ -1359,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP197"/>
+  <dimension ref="A1:BP200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1618,7 +1627,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -1699,7 +1708,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2030,7 +2039,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2111,7 +2120,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2314,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ5">
         <v>0.93</v>
@@ -2520,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ6">
         <v>0.64</v>
@@ -3138,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ9">
         <v>0.79</v>
@@ -3553,7 +3562,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ11">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3678,7 +3687,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -3756,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
         <v>0.5</v>
@@ -3962,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ13">
         <v>0.79</v>
@@ -4502,7 +4511,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -4786,10 +4795,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR17">
         <v>2.51</v>
@@ -5120,7 +5129,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5201,7 +5210,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ19">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR19">
         <v>1.21</v>
@@ -5326,7 +5335,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5532,7 +5541,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5738,7 +5747,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -5944,7 +5953,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6150,7 +6159,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6434,10 +6443,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -6974,7 +6983,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7261,7 +7270,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR29">
         <v>1.38</v>
@@ -7464,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ30">
         <v>0.5</v>
@@ -7798,7 +7807,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8004,7 +8013,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8210,7 +8219,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8288,10 +8297,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ34">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR34">
         <v>1.73</v>
@@ -8416,7 +8425,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8622,7 +8631,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8703,7 +8712,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR36">
         <v>1.6</v>
@@ -8906,10 +8915,10 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ37">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR37">
         <v>2.25</v>
@@ -9112,7 +9121,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ38">
         <v>0.79</v>
@@ -9240,7 +9249,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9446,7 +9455,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -10064,7 +10073,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10270,7 +10279,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10348,7 +10357,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ44">
         <v>2.21</v>
@@ -10476,7 +10485,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -10969,7 +10978,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR47">
         <v>1.42</v>
@@ -11378,7 +11387,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ49">
         <v>0.79</v>
@@ -11506,7 +11515,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -12124,7 +12133,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12205,7 +12214,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ53">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR53">
         <v>1.41</v>
@@ -12614,7 +12623,7 @@
         <v>0.2</v>
       </c>
       <c r="AP55">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ55">
         <v>0.79</v>
@@ -12742,7 +12751,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12820,7 +12829,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ56">
         <v>2.07</v>
@@ -12948,7 +12957,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13154,7 +13163,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13441,7 +13450,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR59">
         <v>1.24</v>
@@ -13644,7 +13653,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ60">
         <v>0.64</v>
@@ -14184,7 +14193,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14390,7 +14399,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14677,7 +14686,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ65">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR65">
         <v>1.58</v>
@@ -14802,7 +14811,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -15008,7 +15017,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15214,7 +15223,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15292,7 +15301,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ68">
         <v>2.21</v>
@@ -15420,7 +15429,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15626,7 +15635,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15832,7 +15841,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16038,7 +16047,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16244,7 +16253,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16325,7 +16334,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ73">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR73">
         <v>1.34</v>
@@ -16450,7 +16459,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16528,7 +16537,7 @@
         <v>0.2</v>
       </c>
       <c r="AP74">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ74">
         <v>0.43</v>
@@ -16737,7 +16746,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR75">
         <v>2.12</v>
@@ -16862,7 +16871,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17274,7 +17283,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17480,7 +17489,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -17558,7 +17567,7 @@
         <v>0.17</v>
       </c>
       <c r="AP79">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ79">
         <v>0.43</v>
@@ -17764,7 +17773,7 @@
         <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ80">
         <v>0.64</v>
@@ -17892,7 +17901,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18179,7 +18188,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ82">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR82">
         <v>1.08</v>
@@ -18304,7 +18313,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -19334,7 +19343,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19540,7 +19549,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19824,7 +19833,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ90">
         <v>0.43</v>
@@ -20030,10 +20039,10 @@
         <v>0.83</v>
       </c>
       <c r="AP91">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR91">
         <v>1.81</v>
@@ -20239,7 +20248,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ92">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR92">
         <v>2.03</v>
@@ -20364,7 +20373,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20776,7 +20785,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20982,7 +20991,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21188,7 +21197,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21394,7 +21403,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21475,7 +21484,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ98">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR98">
         <v>1.71</v>
@@ -21600,7 +21609,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -21806,7 +21815,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -21887,7 +21896,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR100">
         <v>1.78</v>
@@ -22012,7 +22021,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22424,7 +22433,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22505,7 +22514,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR103">
         <v>1.29</v>
@@ -22630,7 +22639,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22836,7 +22845,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -23248,7 +23257,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23329,7 +23338,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ107">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR107">
         <v>1.2</v>
@@ -23944,7 +23953,7 @@
         <v>0.43</v>
       </c>
       <c r="AP110">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ110">
         <v>0.43</v>
@@ -24150,7 +24159,7 @@
         <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ111">
         <v>0.5</v>
@@ -24278,7 +24287,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24690,7 +24699,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24896,7 +24905,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -25102,7 +25111,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25180,7 +25189,7 @@
         <v>0.25</v>
       </c>
       <c r="AP116">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ116">
         <v>0.43</v>
@@ -25514,7 +25523,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25720,7 +25729,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25798,10 +25807,10 @@
         <v>1.88</v>
       </c>
       <c r="AP119">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ119">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR119">
         <v>1.84</v>
@@ -25926,7 +25935,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26007,7 +26016,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR120">
         <v>1.37</v>
@@ -26132,7 +26141,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26338,7 +26347,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26544,7 +26553,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26625,7 +26634,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ123">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR123">
         <v>1.56</v>
@@ -26750,7 +26759,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -27162,7 +27171,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27446,7 +27455,7 @@
         <v>0.44</v>
       </c>
       <c r="AP127">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ127">
         <v>0.5</v>
@@ -27574,7 +27583,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27780,7 +27789,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28192,7 +28201,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28398,7 +28407,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28479,7 +28488,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ132">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR132">
         <v>1.13</v>
@@ -28682,7 +28691,7 @@
         <v>1.63</v>
       </c>
       <c r="AP133">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ133">
         <v>0.93</v>
@@ -28810,7 +28819,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29016,7 +29025,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29097,7 +29106,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR135">
         <v>1.53</v>
@@ -29222,7 +29231,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29428,7 +29437,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29509,7 +29518,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ137">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR137">
         <v>1.27</v>
@@ -30046,7 +30055,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30124,7 +30133,7 @@
         <v>0.4</v>
       </c>
       <c r="AP140">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ140">
         <v>0.5</v>
@@ -30252,7 +30261,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30330,7 +30339,7 @@
         <v>2.2</v>
       </c>
       <c r="AP141">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ141">
         <v>2.07</v>
@@ -30458,7 +30467,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30664,7 +30673,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30745,7 +30754,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ143">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR143">
         <v>1.23</v>
@@ -30870,7 +30879,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31076,7 +31085,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31157,7 +31166,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ145">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR145">
         <v>1.16</v>
@@ -31282,7 +31291,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31488,7 +31497,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31772,7 +31781,7 @@
         <v>2.1</v>
       </c>
       <c r="AP148">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ148">
         <v>1.93</v>
@@ -31978,7 +31987,7 @@
         <v>0.4</v>
       </c>
       <c r="AP149">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ149">
         <v>0.43</v>
@@ -32187,7 +32196,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ150">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR150">
         <v>1.29</v>
@@ -32724,7 +32733,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -32930,7 +32939,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33214,10 +33223,10 @@
         <v>2.1</v>
       </c>
       <c r="AP155">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ155">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR155">
         <v>1.9</v>
@@ -33342,7 +33351,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33423,7 +33432,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ156">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR156">
         <v>1.06</v>
@@ -33548,7 +33557,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33626,10 +33635,10 @@
         <v>1.18</v>
       </c>
       <c r="AP157">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ157">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR157">
         <v>1.83</v>
@@ -33754,7 +33763,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34166,7 +34175,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34244,7 +34253,7 @@
         <v>1.91</v>
       </c>
       <c r="AP160">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ160">
         <v>1.93</v>
@@ -34578,7 +34587,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34784,7 +34793,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -34865,7 +34874,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ163">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR163">
         <v>1.24</v>
@@ -35196,7 +35205,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35402,7 +35411,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35608,7 +35617,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -35686,7 +35695,7 @@
         <v>1.18</v>
       </c>
       <c r="AP167">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ167">
         <v>0.93</v>
@@ -36020,7 +36029,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36098,7 +36107,7 @@
         <v>0.45</v>
       </c>
       <c r="AP169">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ169">
         <v>0.5</v>
@@ -36226,7 +36235,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36432,7 +36441,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36638,7 +36647,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36719,7 +36728,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ172">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR172">
         <v>1.06</v>
@@ -36844,7 +36853,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -37050,7 +37059,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37256,7 +37265,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37540,10 +37549,10 @@
         <v>1.25</v>
       </c>
       <c r="AP176">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ176">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR176">
         <v>1.88</v>
@@ -37874,7 +37883,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -38080,7 +38089,7 @@
         <v>89</v>
       </c>
       <c r="P179" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q179">
         <v>6.5</v>
@@ -38286,7 +38295,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q180">
         <v>2.95</v>
@@ -38492,7 +38501,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -38573,7 +38582,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ181">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR181">
         <v>1.75</v>
@@ -38776,7 +38785,7 @@
         <v>0.67</v>
       </c>
       <c r="AP182">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ182">
         <v>0.79</v>
@@ -38904,7 +38913,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39110,7 +39119,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39191,7 +39200,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ184">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR184">
         <v>1.18</v>
@@ -39316,7 +39325,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39394,7 +39403,7 @@
         <v>2</v>
       </c>
       <c r="AP185">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ185">
         <v>2.07</v>
@@ -39522,7 +39531,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39600,10 +39609,10 @@
         <v>1.15</v>
       </c>
       <c r="AP186">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ186">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR186">
         <v>1.83</v>
@@ -39728,7 +39737,7 @@
         <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -40140,7 +40149,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40964,7 +40973,7 @@
         <v>112</v>
       </c>
       <c r="P193" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41376,7 +41385,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q195">
         <v>2.75</v>
@@ -41454,7 +41463,7 @@
         <v>2.15</v>
       </c>
       <c r="AP195">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ195">
         <v>2.21</v>
@@ -41663,7 +41672,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ196">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR196">
         <v>1.7</v>
@@ -41945,6 +41954,624 @@
       </c>
       <c r="BP197">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7378764</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45385.54166666666</v>
+      </c>
+      <c r="F198">
+        <v>3</v>
+      </c>
+      <c r="G198" t="s">
+        <v>74</v>
+      </c>
+      <c r="H198" t="s">
+        <v>82</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>3</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>3</v>
+      </c>
+      <c r="O198" t="s">
+        <v>222</v>
+      </c>
+      <c r="P198" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q198">
+        <v>1.91</v>
+      </c>
+      <c r="R198">
+        <v>2.38</v>
+      </c>
+      <c r="S198">
+        <v>7.5</v>
+      </c>
+      <c r="T198">
+        <v>1.36</v>
+      </c>
+      <c r="U198">
+        <v>3</v>
+      </c>
+      <c r="V198">
+        <v>2.75</v>
+      </c>
+      <c r="W198">
+        <v>1.4</v>
+      </c>
+      <c r="X198">
+        <v>8</v>
+      </c>
+      <c r="Y198">
+        <v>1.08</v>
+      </c>
+      <c r="Z198">
+        <v>1.4</v>
+      </c>
+      <c r="AA198">
+        <v>4.7</v>
+      </c>
+      <c r="AB198">
+        <v>7.5</v>
+      </c>
+      <c r="AC198">
+        <v>1.05</v>
+      </c>
+      <c r="AD198">
+        <v>12</v>
+      </c>
+      <c r="AE198">
+        <v>1.3</v>
+      </c>
+      <c r="AF198">
+        <v>3.6</v>
+      </c>
+      <c r="AG198">
+        <v>1.68</v>
+      </c>
+      <c r="AH198">
+        <v>2.05</v>
+      </c>
+      <c r="AI198">
+        <v>2.2</v>
+      </c>
+      <c r="AJ198">
+        <v>1.62</v>
+      </c>
+      <c r="AK198">
+        <v>1.06</v>
+      </c>
+      <c r="AL198">
+        <v>1.16</v>
+      </c>
+      <c r="AM198">
+        <v>3</v>
+      </c>
+      <c r="AN198">
+        <v>2.14</v>
+      </c>
+      <c r="AO198">
+        <v>1.29</v>
+      </c>
+      <c r="AP198">
+        <v>2.2</v>
+      </c>
+      <c r="AQ198">
+        <v>1.2</v>
+      </c>
+      <c r="AR198">
+        <v>2.03</v>
+      </c>
+      <c r="AS198">
+        <v>1.07</v>
+      </c>
+      <c r="AT198">
+        <v>3.1</v>
+      </c>
+      <c r="AU198">
+        <v>7</v>
+      </c>
+      <c r="AV198">
+        <v>0</v>
+      </c>
+      <c r="AW198">
+        <v>4</v>
+      </c>
+      <c r="AX198">
+        <v>6</v>
+      </c>
+      <c r="AY198">
+        <v>11</v>
+      </c>
+      <c r="AZ198">
+        <v>6</v>
+      </c>
+      <c r="BA198">
+        <v>9</v>
+      </c>
+      <c r="BB198">
+        <v>0</v>
+      </c>
+      <c r="BC198">
+        <v>9</v>
+      </c>
+      <c r="BD198">
+        <v>1.26</v>
+      </c>
+      <c r="BE198">
+        <v>9.5</v>
+      </c>
+      <c r="BF198">
+        <v>4.88</v>
+      </c>
+      <c r="BG198">
+        <v>1.49</v>
+      </c>
+      <c r="BH198">
+        <v>2.44</v>
+      </c>
+      <c r="BI198">
+        <v>1.92</v>
+      </c>
+      <c r="BJ198">
+        <v>1.88</v>
+      </c>
+      <c r="BK198">
+        <v>2.46</v>
+      </c>
+      <c r="BL198">
+        <v>1.48</v>
+      </c>
+      <c r="BM198">
+        <v>3.34</v>
+      </c>
+      <c r="BN198">
+        <v>1.26</v>
+      </c>
+      <c r="BO198">
+        <v>4.85</v>
+      </c>
+      <c r="BP198">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7378765</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45385.5625</v>
+      </c>
+      <c r="F199">
+        <v>3</v>
+      </c>
+      <c r="G199" t="s">
+        <v>73</v>
+      </c>
+      <c r="H199" t="s">
+        <v>79</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>2</v>
+      </c>
+      <c r="L199">
+        <v>3</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>4</v>
+      </c>
+      <c r="O199" t="s">
+        <v>223</v>
+      </c>
+      <c r="P199" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q199">
+        <v>1.62</v>
+      </c>
+      <c r="R199">
+        <v>2.75</v>
+      </c>
+      <c r="S199">
+        <v>11</v>
+      </c>
+      <c r="T199">
+        <v>1.29</v>
+      </c>
+      <c r="U199">
+        <v>3.5</v>
+      </c>
+      <c r="V199">
+        <v>2.38</v>
+      </c>
+      <c r="W199">
+        <v>1.53</v>
+      </c>
+      <c r="X199">
+        <v>5.5</v>
+      </c>
+      <c r="Y199">
+        <v>1.14</v>
+      </c>
+      <c r="Z199">
+        <v>1.2</v>
+      </c>
+      <c r="AA199">
+        <v>6.5</v>
+      </c>
+      <c r="AB199">
+        <v>15</v>
+      </c>
+      <c r="AC199">
+        <v>1.02</v>
+      </c>
+      <c r="AD199">
+        <v>19</v>
+      </c>
+      <c r="AE199">
+        <v>1.19</v>
+      </c>
+      <c r="AF199">
+        <v>4.75</v>
+      </c>
+      <c r="AG199">
+        <v>1.58</v>
+      </c>
+      <c r="AH199">
+        <v>2.25</v>
+      </c>
+      <c r="AI199">
+        <v>2.38</v>
+      </c>
+      <c r="AJ199">
+        <v>1.53</v>
+      </c>
+      <c r="AK199">
+        <v>1.02</v>
+      </c>
+      <c r="AL199">
+        <v>1.09</v>
+      </c>
+      <c r="AM199">
+        <v>4.33</v>
+      </c>
+      <c r="AN199">
+        <v>2.29</v>
+      </c>
+      <c r="AO199">
+        <v>1</v>
+      </c>
+      <c r="AP199">
+        <v>2.33</v>
+      </c>
+      <c r="AQ199">
+        <v>0.93</v>
+      </c>
+      <c r="AR199">
+        <v>1.8</v>
+      </c>
+      <c r="AS199">
+        <v>1.09</v>
+      </c>
+      <c r="AT199">
+        <v>2.89</v>
+      </c>
+      <c r="AU199">
+        <v>6</v>
+      </c>
+      <c r="AV199">
+        <v>0</v>
+      </c>
+      <c r="AW199">
+        <v>2</v>
+      </c>
+      <c r="AX199">
+        <v>5</v>
+      </c>
+      <c r="AY199">
+        <v>8</v>
+      </c>
+      <c r="AZ199">
+        <v>5</v>
+      </c>
+      <c r="BA199">
+        <v>13</v>
+      </c>
+      <c r="BB199">
+        <v>3</v>
+      </c>
+      <c r="BC199">
+        <v>16</v>
+      </c>
+      <c r="BD199">
+        <v>1.07</v>
+      </c>
+      <c r="BE199">
+        <v>13</v>
+      </c>
+      <c r="BF199">
+        <v>10.7</v>
+      </c>
+      <c r="BG199">
+        <v>1.46</v>
+      </c>
+      <c r="BH199">
+        <v>2.52</v>
+      </c>
+      <c r="BI199">
+        <v>1.85</v>
+      </c>
+      <c r="BJ199">
+        <v>1.95</v>
+      </c>
+      <c r="BK199">
+        <v>2.34</v>
+      </c>
+      <c r="BL199">
+        <v>1.53</v>
+      </c>
+      <c r="BM199">
+        <v>3.14</v>
+      </c>
+      <c r="BN199">
+        <v>1.29</v>
+      </c>
+      <c r="BO199">
+        <v>4.5</v>
+      </c>
+      <c r="BP199">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7378766</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45385.625</v>
+      </c>
+      <c r="F200">
+        <v>3</v>
+      </c>
+      <c r="G200" t="s">
+        <v>77</v>
+      </c>
+      <c r="H200" t="s">
+        <v>78</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>3</v>
+      </c>
+      <c r="L200">
+        <v>2</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>3</v>
+      </c>
+      <c r="O200" t="s">
+        <v>224</v>
+      </c>
+      <c r="P200" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q200">
+        <v>3.2</v>
+      </c>
+      <c r="R200">
+        <v>2.1</v>
+      </c>
+      <c r="S200">
+        <v>3.4</v>
+      </c>
+      <c r="T200">
+        <v>1.44</v>
+      </c>
+      <c r="U200">
+        <v>2.63</v>
+      </c>
+      <c r="V200">
+        <v>3</v>
+      </c>
+      <c r="W200">
+        <v>1.36</v>
+      </c>
+      <c r="X200">
+        <v>9</v>
+      </c>
+      <c r="Y200">
+        <v>1.07</v>
+      </c>
+      <c r="Z200">
+        <v>2.7</v>
+      </c>
+      <c r="AA200">
+        <v>3.25</v>
+      </c>
+      <c r="AB200">
+        <v>2.65</v>
+      </c>
+      <c r="AC200">
+        <v>1.07</v>
+      </c>
+      <c r="AD200">
+        <v>10</v>
+      </c>
+      <c r="AE200">
+        <v>1.33</v>
+      </c>
+      <c r="AF200">
+        <v>3.3</v>
+      </c>
+      <c r="AG200">
+        <v>1.98</v>
+      </c>
+      <c r="AH200">
+        <v>1.73</v>
+      </c>
+      <c r="AI200">
+        <v>1.8</v>
+      </c>
+      <c r="AJ200">
+        <v>1.95</v>
+      </c>
+      <c r="AK200">
+        <v>1.45</v>
+      </c>
+      <c r="AL200">
+        <v>1.3</v>
+      </c>
+      <c r="AM200">
+        <v>1.52</v>
+      </c>
+      <c r="AN200">
+        <v>2.14</v>
+      </c>
+      <c r="AO200">
+        <v>2.07</v>
+      </c>
+      <c r="AP200">
+        <v>2.2</v>
+      </c>
+      <c r="AQ200">
+        <v>1.93</v>
+      </c>
+      <c r="AR200">
+        <v>1.89</v>
+      </c>
+      <c r="AS200">
+        <v>1.81</v>
+      </c>
+      <c r="AT200">
+        <v>3.7</v>
+      </c>
+      <c r="AU200">
+        <v>6</v>
+      </c>
+      <c r="AV200">
+        <v>6</v>
+      </c>
+      <c r="AW200">
+        <v>4</v>
+      </c>
+      <c r="AX200">
+        <v>10</v>
+      </c>
+      <c r="AY200">
+        <v>10</v>
+      </c>
+      <c r="AZ200">
+        <v>16</v>
+      </c>
+      <c r="BA200">
+        <v>1</v>
+      </c>
+      <c r="BB200">
+        <v>11</v>
+      </c>
+      <c r="BC200">
+        <v>12</v>
+      </c>
+      <c r="BD200">
+        <v>2</v>
+      </c>
+      <c r="BE200">
+        <v>7.5</v>
+      </c>
+      <c r="BF200">
+        <v>2.1</v>
+      </c>
+      <c r="BG200">
+        <v>1.31</v>
+      </c>
+      <c r="BH200">
+        <v>3.04</v>
+      </c>
+      <c r="BI200">
+        <v>1.59</v>
+      </c>
+      <c r="BJ200">
+        <v>2.21</v>
+      </c>
+      <c r="BK200">
+        <v>2.02</v>
+      </c>
+      <c r="BL200">
+        <v>1.74</v>
+      </c>
+      <c r="BM200">
+        <v>2.65</v>
+      </c>
+      <c r="BN200">
+        <v>1.42</v>
+      </c>
+      <c r="BO200">
+        <v>3.64</v>
+      </c>
+      <c r="BP200">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -42096,19 +42096,19 @@
         <v>3.1</v>
       </c>
       <c r="AU198">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV198">
         <v>0</v>
       </c>
       <c r="AW198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX198">
         <v>6</v>
       </c>
       <c r="AY198">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ198">
         <v>6</v>
@@ -42302,22 +42302,22 @@
         <v>2.89</v>
       </c>
       <c r="AU199">
+        <v>8</v>
+      </c>
+      <c r="AV199">
+        <v>2</v>
+      </c>
+      <c r="AW199">
+        <v>4</v>
+      </c>
+      <c r="AX199">
+        <v>4</v>
+      </c>
+      <c r="AY199">
+        <v>12</v>
+      </c>
+      <c r="AZ199">
         <v>6</v>
-      </c>
-      <c r="AV199">
-        <v>0</v>
-      </c>
-      <c r="AW199">
-        <v>2</v>
-      </c>
-      <c r="AX199">
-        <v>5</v>
-      </c>
-      <c r="AY199">
-        <v>8</v>
-      </c>
-      <c r="AZ199">
-        <v>5</v>
       </c>
       <c r="BA199">
         <v>13</v>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -691,6 +691,12 @@
     <t>['32', '34']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['10', '45+4', '58', '86']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -865,9 +871,6 @@
     <t>['32', '38']</t>
   </si>
   <si>
-    <t>['3']</t>
-  </si>
-  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -1007,6 +1010,9 @@
   </si>
   <si>
     <t>['2', '37', '89']</t>
+  </si>
+  <si>
+    <t>['29']</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP200"/>
+  <dimension ref="A1:BP204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1627,7 +1633,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -1914,7 +1920,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2039,7 +2045,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2117,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ4">
         <v>1.2</v>
@@ -2532,7 +2538,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ6">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2735,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2941,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ8">
         <v>0.43</v>
@@ -3150,7 +3156,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ9">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3356,7 +3362,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ10">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3687,7 +3693,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -3768,7 +3774,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR12">
         <v>1.83</v>
@@ -4511,7 +4517,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -5001,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ18">
         <v>2.21</v>
@@ -5129,7 +5135,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5335,7 +5341,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5541,7 +5547,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5747,7 +5753,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -5825,7 +5831,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22">
         <v>2.07</v>
@@ -5953,7 +5959,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6031,10 +6037,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ23">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR23">
         <v>1.17</v>
@@ -6159,7 +6165,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6240,7 +6246,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ24">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>1.19</v>
@@ -6855,10 +6861,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ27">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6983,7 +6989,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7061,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28">
         <v>0.79</v>
@@ -7476,7 +7482,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>2.36</v>
@@ -7807,7 +7813,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8013,7 +8019,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8219,7 +8225,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8425,7 +8431,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8503,7 +8509,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ35">
         <v>0.43</v>
@@ -8631,7 +8637,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9124,7 +9130,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ38">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR38">
         <v>1.78</v>
@@ -9249,7 +9255,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9330,7 +9336,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9455,7 +9461,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -9533,7 +9539,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ40">
         <v>2.07</v>
@@ -10073,7 +10079,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10154,7 +10160,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR43">
         <v>1.76</v>
@@ -10279,7 +10285,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10485,7 +10491,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -10769,7 +10775,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ46">
         <v>0.93</v>
@@ -10975,7 +10981,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ47">
         <v>1.93</v>
@@ -11515,7 +11521,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11596,7 +11602,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ50">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR50">
         <v>0.91</v>
@@ -11799,10 +11805,10 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ51">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR51">
         <v>1.62</v>
@@ -12008,7 +12014,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ52">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR52">
         <v>1.76</v>
@@ -12133,7 +12139,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12211,7 +12217,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ53">
         <v>1.93</v>
@@ -12751,7 +12757,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12957,7 +12963,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13038,7 +13044,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ57">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR57">
         <v>1.23</v>
@@ -13163,7 +13169,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13241,7 +13247,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ58">
         <v>0.43</v>
@@ -13447,7 +13453,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ59">
         <v>0.93</v>
@@ -13656,7 +13662,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ60">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR60">
         <v>2.04</v>
@@ -13862,7 +13868,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR61">
         <v>1.92</v>
@@ -14193,7 +14199,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14271,7 +14277,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ63">
         <v>1.93</v>
@@ -14399,7 +14405,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14811,7 +14817,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14889,7 +14895,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ66">
         <v>0.93</v>
@@ -15017,7 +15023,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15098,7 +15104,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ67">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -15223,7 +15229,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15429,7 +15435,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15635,7 +15641,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15841,7 +15847,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15919,10 +15925,10 @@
         <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ71">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR71">
         <v>1.17</v>
@@ -16047,7 +16053,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16125,10 +16131,10 @@
         <v>0.4</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ72">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR72">
         <v>1.13</v>
@@ -16253,7 +16259,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16459,7 +16465,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16871,7 +16877,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -16949,7 +16955,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ76">
         <v>1.93</v>
@@ -17283,7 +17289,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17361,10 +17367,10 @@
         <v>0.4</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ78">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR78">
         <v>1.19</v>
@@ -17489,7 +17495,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -17776,7 +17782,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ80">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR80">
         <v>1.82</v>
@@ -17901,7 +17907,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18313,7 +18319,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -18806,7 +18812,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ85">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR85">
         <v>1.35</v>
@@ -19009,10 +19015,10 @@
         <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ86">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR86">
         <v>1.67</v>
@@ -19215,10 +19221,10 @@
         <v>0.38</v>
       </c>
       <c r="AP87">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ87">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR87">
         <v>1.2</v>
@@ -19343,7 +19349,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19549,7 +19555,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19627,10 +19633,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ89">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR89">
         <v>1.11</v>
@@ -20373,7 +20379,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20454,7 +20460,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ93">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR93">
         <v>1.35</v>
@@ -20785,7 +20791,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20863,7 +20869,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ95">
         <v>2.21</v>
@@ -20991,7 +20997,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21072,7 +21078,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ96">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR96">
         <v>1.2</v>
@@ -21197,7 +21203,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21275,7 +21281,7 @@
         <v>2.57</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ97">
         <v>2.07</v>
@@ -21403,7 +21409,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21481,7 +21487,7 @@
         <v>2.17</v>
       </c>
       <c r="AP98">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ98">
         <v>1.93</v>
@@ -21609,7 +21615,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -21815,7 +21821,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -22021,7 +22027,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22433,7 +22439,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22639,7 +22645,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22717,7 +22723,7 @@
         <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ104">
         <v>0.93</v>
@@ -22845,7 +22851,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -23129,7 +23135,7 @@
         <v>2.33</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ106">
         <v>1.93</v>
@@ -23257,7 +23263,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23335,7 +23341,7 @@
         <v>0.67</v>
       </c>
       <c r="AP107">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ107">
         <v>1.2</v>
@@ -23750,7 +23756,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ109">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR109">
         <v>1.99</v>
@@ -24162,7 +24168,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ111">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR111">
         <v>1.92</v>
@@ -24287,7 +24293,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24365,10 +24371,10 @@
         <v>0.33</v>
       </c>
       <c r="AP112">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ112">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR112">
         <v>1.56</v>
@@ -24571,10 +24577,10 @@
         <v>0.17</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ113">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR113">
         <v>1.09</v>
@@ -24699,7 +24705,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24905,7 +24911,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24986,7 +24992,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ115">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -25111,7 +25117,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25523,7 +25529,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25729,7 +25735,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25935,7 +25941,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26013,7 +26019,7 @@
         <v>0.75</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ120">
         <v>0.93</v>
@@ -26141,7 +26147,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26219,7 +26225,7 @@
         <v>0.38</v>
       </c>
       <c r="AP121">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ121">
         <v>0.43</v>
@@ -26347,7 +26353,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26428,7 +26434,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ122">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR122">
         <v>1.26</v>
@@ -26553,7 +26559,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26631,7 +26637,7 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ123">
         <v>1.2</v>
@@ -26759,7 +26765,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -27043,10 +27049,10 @@
         <v>0.75</v>
       </c>
       <c r="AP125">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ125">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR125">
         <v>1.21</v>
@@ -27171,7 +27177,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27458,7 +27464,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ127">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR127">
         <v>1.89</v>
@@ -27583,7 +27589,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27664,7 +27670,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ128">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR128">
         <v>1.23</v>
@@ -27789,7 +27795,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27870,7 +27876,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ129">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR129">
         <v>1.13</v>
@@ -28073,7 +28079,7 @@
         <v>0.22</v>
       </c>
       <c r="AP130">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ130">
         <v>0.43</v>
@@ -28201,7 +28207,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28407,7 +28413,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28485,7 +28491,7 @@
         <v>2</v>
       </c>
       <c r="AP132">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ132">
         <v>1.93</v>
@@ -28819,7 +28825,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29025,7 +29031,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29103,7 +29109,7 @@
         <v>0.78</v>
       </c>
       <c r="AP135">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ135">
         <v>0.93</v>
@@ -29231,7 +29237,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29312,7 +29318,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ136">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR136">
         <v>1.21</v>
@@ -29437,7 +29443,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29927,7 +29933,7 @@
         <v>0.89</v>
       </c>
       <c r="AP139">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ139">
         <v>0.79</v>
@@ -30055,7 +30061,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30136,7 +30142,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ140">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR140">
         <v>1.76</v>
@@ -30261,7 +30267,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30467,7 +30473,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30673,7 +30679,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30879,7 +30885,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -30957,10 +30963,10 @@
         <v>0.22</v>
       </c>
       <c r="AP144">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ144">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR144">
         <v>1.36</v>
@@ -31085,7 +31091,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31291,7 +31297,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31497,7 +31503,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31575,7 +31581,7 @@
         <v>1.78</v>
       </c>
       <c r="AP147">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ147">
         <v>2.21</v>
@@ -32399,7 +32405,7 @@
         <v>0.8</v>
       </c>
       <c r="AP151">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ151">
         <v>0.79</v>
@@ -32608,7 +32614,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ152">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR152">
         <v>1.25</v>
@@ -32733,7 +32739,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -32939,7 +32945,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33351,7 +33357,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33429,7 +33435,7 @@
         <v>1.09</v>
       </c>
       <c r="AP156">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ156">
         <v>1.2</v>
@@ -33557,7 +33563,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33763,7 +33769,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33844,7 +33850,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ158">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR158">
         <v>1.2</v>
@@ -34050,7 +34056,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ159">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR159">
         <v>1.94</v>
@@ -34175,7 +34181,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34459,10 +34465,10 @@
         <v>0.75</v>
       </c>
       <c r="AP161">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ161">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR161">
         <v>1.35</v>
@@ -34587,7 +34593,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34665,7 +34671,7 @@
         <v>0.27</v>
       </c>
       <c r="AP162">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ162">
         <v>0.43</v>
@@ -34793,7 +34799,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -35205,7 +35211,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35411,7 +35417,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35489,7 +35495,7 @@
         <v>1.9</v>
       </c>
       <c r="AP166">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ166">
         <v>2.21</v>
@@ -35617,7 +35623,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -35904,7 +35910,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ168">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR168">
         <v>1.7</v>
@@ -36029,7 +36035,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36110,7 +36116,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ169">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR169">
         <v>1.91</v>
@@ -36235,7 +36241,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36313,10 +36319,10 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ170">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR170">
         <v>1.28</v>
@@ -36441,7 +36447,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36647,7 +36653,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36725,7 +36731,7 @@
         <v>1.17</v>
       </c>
       <c r="AP172">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ172">
         <v>0.93</v>
@@ -36853,7 +36859,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -36931,7 +36937,7 @@
         <v>2</v>
       </c>
       <c r="AP173">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ173">
         <v>1.93</v>
@@ -37059,7 +37065,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37140,7 +37146,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ174">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR174">
         <v>2.05</v>
@@ -37265,7 +37271,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37883,7 +37889,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -37961,7 +37967,7 @@
         <v>2.08</v>
       </c>
       <c r="AP178">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ178">
         <v>2.07</v>
@@ -38089,7 +38095,7 @@
         <v>89</v>
       </c>
       <c r="P179" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q179">
         <v>6.5</v>
@@ -38295,7 +38301,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q180">
         <v>2.95</v>
@@ -38501,7 +38507,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -38788,7 +38794,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ182">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR182">
         <v>1.96</v>
@@ -38913,7 +38919,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39119,7 +39125,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39325,7 +39331,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39531,7 +39537,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39737,7 +39743,7 @@
         <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -39815,10 +39821,10 @@
         <v>0.62</v>
       </c>
       <c r="AP187">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ187">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR187">
         <v>1.35</v>
@@ -40149,7 +40155,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40227,10 +40233,10 @@
         <v>0.54</v>
       </c>
       <c r="AP189">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ189">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR189">
         <v>1.09</v>
@@ -40433,10 +40439,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP190">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ190">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR190">
         <v>1.4</v>
@@ -40848,7 +40854,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ192">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR192">
         <v>1.2</v>
@@ -40973,7 +40979,7 @@
         <v>112</v>
       </c>
       <c r="P193" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41257,7 +41263,7 @@
         <v>0.77</v>
       </c>
       <c r="AP194">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ194">
         <v>0.79</v>
@@ -41385,7 +41391,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q195">
         <v>2.75</v>
@@ -42572,6 +42578,830 @@
       </c>
       <c r="BP200">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7382761</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F201">
+        <v>3</v>
+      </c>
+      <c r="G201" t="s">
+        <v>83</v>
+      </c>
+      <c r="H201" t="s">
+        <v>81</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201" t="s">
+        <v>140</v>
+      </c>
+      <c r="P201" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q201">
+        <v>2.63</v>
+      </c>
+      <c r="R201">
+        <v>2.1</v>
+      </c>
+      <c r="S201">
+        <v>4.5</v>
+      </c>
+      <c r="T201">
+        <v>1.44</v>
+      </c>
+      <c r="U201">
+        <v>2.63</v>
+      </c>
+      <c r="V201">
+        <v>3.25</v>
+      </c>
+      <c r="W201">
+        <v>1.33</v>
+      </c>
+      <c r="X201">
+        <v>9</v>
+      </c>
+      <c r="Y201">
+        <v>1.07</v>
+      </c>
+      <c r="Z201">
+        <v>2.25</v>
+      </c>
+      <c r="AA201">
+        <v>3.1</v>
+      </c>
+      <c r="AB201">
+        <v>3.15</v>
+      </c>
+      <c r="AC201">
+        <v>1.04</v>
+      </c>
+      <c r="AD201">
+        <v>7.6</v>
+      </c>
+      <c r="AE201">
+        <v>1.32</v>
+      </c>
+      <c r="AF201">
+        <v>2.98</v>
+      </c>
+      <c r="AG201">
+        <v>2.25</v>
+      </c>
+      <c r="AH201">
+        <v>1.57</v>
+      </c>
+      <c r="AI201">
+        <v>1.91</v>
+      </c>
+      <c r="AJ201">
+        <v>1.91</v>
+      </c>
+      <c r="AK201">
+        <v>1.24</v>
+      </c>
+      <c r="AL201">
+        <v>1.33</v>
+      </c>
+      <c r="AM201">
+        <v>1.83</v>
+      </c>
+      <c r="AN201">
+        <v>1.5</v>
+      </c>
+      <c r="AO201">
+        <v>0.64</v>
+      </c>
+      <c r="AP201">
+        <v>1.47</v>
+      </c>
+      <c r="AQ201">
+        <v>0.67</v>
+      </c>
+      <c r="AR201">
+        <v>1.11</v>
+      </c>
+      <c r="AS201">
+        <v>1.01</v>
+      </c>
+      <c r="AT201">
+        <v>2.12</v>
+      </c>
+      <c r="AU201">
+        <v>2</v>
+      </c>
+      <c r="AV201">
+        <v>3</v>
+      </c>
+      <c r="AW201">
+        <v>4</v>
+      </c>
+      <c r="AX201">
+        <v>1</v>
+      </c>
+      <c r="AY201">
+        <v>6</v>
+      </c>
+      <c r="AZ201">
+        <v>4</v>
+      </c>
+      <c r="BA201">
+        <v>4</v>
+      </c>
+      <c r="BB201">
+        <v>1</v>
+      </c>
+      <c r="BC201">
+        <v>5</v>
+      </c>
+      <c r="BD201">
+        <v>1.84</v>
+      </c>
+      <c r="BE201">
+        <v>8.1</v>
+      </c>
+      <c r="BF201">
+        <v>2.39</v>
+      </c>
+      <c r="BG201">
+        <v>1.59</v>
+      </c>
+      <c r="BH201">
+        <v>2.32</v>
+      </c>
+      <c r="BI201">
+        <v>2</v>
+      </c>
+      <c r="BJ201">
+        <v>1.8</v>
+      </c>
+      <c r="BK201">
+        <v>2.6</v>
+      </c>
+      <c r="BL201">
+        <v>1.48</v>
+      </c>
+      <c r="BM201">
+        <v>3.64</v>
+      </c>
+      <c r="BN201">
+        <v>1.22</v>
+      </c>
+      <c r="BO201">
+        <v>6.58</v>
+      </c>
+      <c r="BP201">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7382760</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45388.5625</v>
+      </c>
+      <c r="F202">
+        <v>3</v>
+      </c>
+      <c r="G202" t="s">
+        <v>76</v>
+      </c>
+      <c r="H202" t="s">
+        <v>80</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>2</v>
+      </c>
+      <c r="N202">
+        <v>3</v>
+      </c>
+      <c r="O202" t="s">
+        <v>225</v>
+      </c>
+      <c r="P202" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q202">
+        <v>2.61</v>
+      </c>
+      <c r="R202">
+        <v>2.12</v>
+      </c>
+      <c r="S202">
+        <v>4.2</v>
+      </c>
+      <c r="T202">
+        <v>1.41</v>
+      </c>
+      <c r="U202">
+        <v>2.78</v>
+      </c>
+      <c r="V202">
+        <v>2.91</v>
+      </c>
+      <c r="W202">
+        <v>1.38</v>
+      </c>
+      <c r="X202">
+        <v>7.4</v>
+      </c>
+      <c r="Y202">
+        <v>1.07</v>
+      </c>
+      <c r="Z202">
+        <v>2.07</v>
+      </c>
+      <c r="AA202">
+        <v>3.35</v>
+      </c>
+      <c r="AB202">
+        <v>3.35</v>
+      </c>
+      <c r="AC202">
+        <v>1.02</v>
+      </c>
+      <c r="AD202">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE202">
+        <v>1.28</v>
+      </c>
+      <c r="AF202">
+        <v>3.18</v>
+      </c>
+      <c r="AG202">
+        <v>2</v>
+      </c>
+      <c r="AH202">
+        <v>1.73</v>
+      </c>
+      <c r="AI202">
+        <v>1.81</v>
+      </c>
+      <c r="AJ202">
+        <v>1.93</v>
+      </c>
+      <c r="AK202">
+        <v>1.29</v>
+      </c>
+      <c r="AL202">
+        <v>1.3</v>
+      </c>
+      <c r="AM202">
+        <v>1.79</v>
+      </c>
+      <c r="AN202">
+        <v>1.29</v>
+      </c>
+      <c r="AO202">
+        <v>0.5</v>
+      </c>
+      <c r="AP202">
+        <v>1.2</v>
+      </c>
+      <c r="AQ202">
+        <v>0.67</v>
+      </c>
+      <c r="AR202">
+        <v>1.33</v>
+      </c>
+      <c r="AS202">
+        <v>1.1</v>
+      </c>
+      <c r="AT202">
+        <v>2.43</v>
+      </c>
+      <c r="AU202">
+        <v>2</v>
+      </c>
+      <c r="AV202">
+        <v>2</v>
+      </c>
+      <c r="AW202">
+        <v>0</v>
+      </c>
+      <c r="AX202">
+        <v>1</v>
+      </c>
+      <c r="AY202">
+        <v>2</v>
+      </c>
+      <c r="AZ202">
+        <v>3</v>
+      </c>
+      <c r="BA202">
+        <v>2</v>
+      </c>
+      <c r="BB202">
+        <v>2</v>
+      </c>
+      <c r="BC202">
+        <v>4</v>
+      </c>
+      <c r="BD202">
+        <v>1.79</v>
+      </c>
+      <c r="BE202">
+        <v>8.4</v>
+      </c>
+      <c r="BF202">
+        <v>2.45</v>
+      </c>
+      <c r="BG202">
+        <v>1.42</v>
+      </c>
+      <c r="BH202">
+        <v>2.65</v>
+      </c>
+      <c r="BI202">
+        <v>1.78</v>
+      </c>
+      <c r="BJ202">
+        <v>1.97</v>
+      </c>
+      <c r="BK202">
+        <v>2.29</v>
+      </c>
+      <c r="BL202">
+        <v>1.55</v>
+      </c>
+      <c r="BM202">
+        <v>3.08</v>
+      </c>
+      <c r="BN202">
+        <v>1.3</v>
+      </c>
+      <c r="BO202">
+        <v>5.56</v>
+      </c>
+      <c r="BP202">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7382763</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45388.5625</v>
+      </c>
+      <c r="F203">
+        <v>3</v>
+      </c>
+      <c r="G203" t="s">
+        <v>75</v>
+      </c>
+      <c r="H203" t="s">
+        <v>70</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>1</v>
+      </c>
+      <c r="O203" t="s">
+        <v>89</v>
+      </c>
+      <c r="P203" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q203">
+        <v>2.88</v>
+      </c>
+      <c r="R203">
+        <v>2.05</v>
+      </c>
+      <c r="S203">
+        <v>4</v>
+      </c>
+      <c r="T203">
+        <v>1.5</v>
+      </c>
+      <c r="U203">
+        <v>2.5</v>
+      </c>
+      <c r="V203">
+        <v>3.4</v>
+      </c>
+      <c r="W203">
+        <v>1.3</v>
+      </c>
+      <c r="X203">
+        <v>10</v>
+      </c>
+      <c r="Y203">
+        <v>1.06</v>
+      </c>
+      <c r="Z203">
+        <v>2.17</v>
+      </c>
+      <c r="AA203">
+        <v>3.3</v>
+      </c>
+      <c r="AB203">
+        <v>3.15</v>
+      </c>
+      <c r="AC203">
+        <v>1.06</v>
+      </c>
+      <c r="AD203">
+        <v>6.75</v>
+      </c>
+      <c r="AE203">
+        <v>1.36</v>
+      </c>
+      <c r="AF203">
+        <v>2.8</v>
+      </c>
+      <c r="AG203">
+        <v>2.17</v>
+      </c>
+      <c r="AH203">
+        <v>1.61</v>
+      </c>
+      <c r="AI203">
+        <v>1.91</v>
+      </c>
+      <c r="AJ203">
+        <v>1.91</v>
+      </c>
+      <c r="AK203">
+        <v>1.28</v>
+      </c>
+      <c r="AL203">
+        <v>1.38</v>
+      </c>
+      <c r="AM203">
+        <v>1.67</v>
+      </c>
+      <c r="AN203">
+        <v>1.29</v>
+      </c>
+      <c r="AO203">
+        <v>0.79</v>
+      </c>
+      <c r="AP203">
+        <v>1.2</v>
+      </c>
+      <c r="AQ203">
+        <v>0.93</v>
+      </c>
+      <c r="AR203">
+        <v>1.43</v>
+      </c>
+      <c r="AS203">
+        <v>0.93</v>
+      </c>
+      <c r="AT203">
+        <v>2.36</v>
+      </c>
+      <c r="AU203">
+        <v>3</v>
+      </c>
+      <c r="AV203">
+        <v>2</v>
+      </c>
+      <c r="AW203">
+        <v>4</v>
+      </c>
+      <c r="AX203">
+        <v>3</v>
+      </c>
+      <c r="AY203">
+        <v>7</v>
+      </c>
+      <c r="AZ203">
+        <v>5</v>
+      </c>
+      <c r="BA203">
+        <v>4</v>
+      </c>
+      <c r="BB203">
+        <v>2</v>
+      </c>
+      <c r="BC203">
+        <v>6</v>
+      </c>
+      <c r="BD203">
+        <v>1.69</v>
+      </c>
+      <c r="BE203">
+        <v>7.5</v>
+      </c>
+      <c r="BF203">
+        <v>2.64</v>
+      </c>
+      <c r="BG203">
+        <v>1.59</v>
+      </c>
+      <c r="BH203">
+        <v>2.37</v>
+      </c>
+      <c r="BI203">
+        <v>1.85</v>
+      </c>
+      <c r="BJ203">
+        <v>1.95</v>
+      </c>
+      <c r="BK203">
+        <v>2.61</v>
+      </c>
+      <c r="BL203">
+        <v>1.49</v>
+      </c>
+      <c r="BM203">
+        <v>3.7</v>
+      </c>
+      <c r="BN203">
+        <v>1.28</v>
+      </c>
+      <c r="BO203">
+        <v>5.64</v>
+      </c>
+      <c r="BP203">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7382762</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45388.58333333334</v>
+      </c>
+      <c r="F204">
+        <v>3</v>
+      </c>
+      <c r="G204" t="s">
+        <v>72</v>
+      </c>
+      <c r="H204" t="s">
+        <v>71</v>
+      </c>
+      <c r="I204">
+        <v>2</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
+      </c>
+      <c r="L204">
+        <v>4</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>4</v>
+      </c>
+      <c r="O204" t="s">
+        <v>226</v>
+      </c>
+      <c r="P204" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q204">
+        <v>2.6</v>
+      </c>
+      <c r="R204">
+        <v>2.2</v>
+      </c>
+      <c r="S204">
+        <v>4.33</v>
+      </c>
+      <c r="T204">
+        <v>1.4</v>
+      </c>
+      <c r="U204">
+        <v>2.75</v>
+      </c>
+      <c r="V204">
+        <v>2.75</v>
+      </c>
+      <c r="W204">
+        <v>1.4</v>
+      </c>
+      <c r="X204">
+        <v>8</v>
+      </c>
+      <c r="Y204">
+        <v>1.08</v>
+      </c>
+      <c r="Z204">
+        <v>1.98</v>
+      </c>
+      <c r="AA204">
+        <v>3.5</v>
+      </c>
+      <c r="AB204">
+        <v>3.45</v>
+      </c>
+      <c r="AC204">
+        <v>1.03</v>
+      </c>
+      <c r="AD204">
+        <v>8</v>
+      </c>
+      <c r="AE204">
+        <v>1.27</v>
+      </c>
+      <c r="AF204">
+        <v>3.28</v>
+      </c>
+      <c r="AG204">
+        <v>1.97</v>
+      </c>
+      <c r="AH204">
+        <v>1.89</v>
+      </c>
+      <c r="AI204">
+        <v>1.75</v>
+      </c>
+      <c r="AJ204">
+        <v>2</v>
+      </c>
+      <c r="AK204">
+        <v>1.24</v>
+      </c>
+      <c r="AL204">
+        <v>1.33</v>
+      </c>
+      <c r="AM204">
+        <v>1.83</v>
+      </c>
+      <c r="AN204">
+        <v>1.5</v>
+      </c>
+      <c r="AO204">
+        <v>0.5</v>
+      </c>
+      <c r="AP204">
+        <v>1.6</v>
+      </c>
+      <c r="AQ204">
+        <v>0.47</v>
+      </c>
+      <c r="AR204">
+        <v>1.36</v>
+      </c>
+      <c r="AS204">
+        <v>1.06</v>
+      </c>
+      <c r="AT204">
+        <v>2.42</v>
+      </c>
+      <c r="AU204">
+        <v>3</v>
+      </c>
+      <c r="AV204">
+        <v>3</v>
+      </c>
+      <c r="AW204">
+        <v>6</v>
+      </c>
+      <c r="AX204">
+        <v>2</v>
+      </c>
+      <c r="AY204">
+        <v>9</v>
+      </c>
+      <c r="AZ204">
+        <v>5</v>
+      </c>
+      <c r="BA204">
+        <v>5</v>
+      </c>
+      <c r="BB204">
+        <v>1</v>
+      </c>
+      <c r="BC204">
+        <v>6</v>
+      </c>
+      <c r="BD204">
+        <v>1.66</v>
+      </c>
+      <c r="BE204">
+        <v>8.4</v>
+      </c>
+      <c r="BF204">
+        <v>2.74</v>
+      </c>
+      <c r="BG204">
+        <v>1.49</v>
+      </c>
+      <c r="BH204">
+        <v>2.44</v>
+      </c>
+      <c r="BI204">
+        <v>1.88</v>
+      </c>
+      <c r="BJ204">
+        <v>1.86</v>
+      </c>
+      <c r="BK204">
+        <v>2.46</v>
+      </c>
+      <c r="BL204">
+        <v>1.48</v>
+      </c>
+      <c r="BM204">
+        <v>3.34</v>
+      </c>
+      <c r="BN204">
+        <v>1.26</v>
+      </c>
+      <c r="BO204">
+        <v>6.09</v>
+      </c>
+      <c r="BP204">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="337">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,9 @@
     <t>['10', '45+4', '58', '86']</t>
   </si>
   <si>
+    <t>['30', '49']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -1013,6 +1016,15 @@
   </si>
   <si>
     <t>['29']</t>
+  </si>
+  <si>
+    <t>['22', '26', '45+1', '81', '85']</t>
+  </si>
+  <si>
+    <t>['62', '90+2']</t>
+  </si>
+  <si>
+    <t>['62', '89']</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP204"/>
+  <dimension ref="A1:BP207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1633,7 +1645,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -2045,7 +2057,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -3359,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AQ10">
         <v>0.67</v>
@@ -3565,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
         <v>1.2</v>
@@ -3693,7 +3705,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -4517,7 +4529,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -4595,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.93</v>
@@ -5010,7 +5022,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ18">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR18">
         <v>1.52</v>
@@ -5135,7 +5147,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5341,7 +5353,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5422,7 +5434,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ20">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR20">
         <v>1.39</v>
@@ -5547,7 +5559,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5625,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
         <v>0.43</v>
@@ -5753,7 +5765,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -5834,7 +5846,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ22">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR22">
         <v>1.75</v>
@@ -5959,7 +5971,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6165,7 +6177,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6655,10 +6667,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AQ26">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR26">
         <v>3.13</v>
@@ -6989,7 +7001,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7685,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>0.43</v>
@@ -7813,7 +7825,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8019,7 +8031,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8100,7 +8112,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ33">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR33">
         <v>1.27</v>
@@ -8225,7 +8237,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8431,7 +8443,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8637,7 +8649,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9255,7 +9267,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9461,7 +9473,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -9542,7 +9554,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ40">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR40">
         <v>1.53</v>
@@ -9745,7 +9757,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AQ41">
         <v>0.79</v>
@@ -9951,7 +9963,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
         <v>0.43</v>
@@ -10079,7 +10091,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10157,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>0.67</v>
@@ -10285,7 +10297,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10366,7 +10378,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ44">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR44">
         <v>1.54</v>
@@ -10491,7 +10503,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -10572,7 +10584,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ45">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.3</v>
@@ -11187,7 +11199,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AQ48">
         <v>0.43</v>
@@ -11521,7 +11533,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11599,7 +11611,7 @@
         <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
         <v>0.47</v>
@@ -12011,7 +12023,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -12139,7 +12151,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12757,7 +12769,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12838,7 +12850,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ56">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR56">
         <v>2.15</v>
@@ -12963,7 +12975,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13169,7 +13181,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13865,7 +13877,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>0.47</v>
@@ -14071,10 +14083,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AQ62">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR62">
         <v>2.31</v>
@@ -14199,7 +14211,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14280,7 +14292,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ63">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>1.33</v>
@@ -14405,7 +14417,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14483,10 +14495,10 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ64">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR64">
         <v>1.04</v>
@@ -14817,7 +14829,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -15023,7 +15035,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15229,7 +15241,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15310,7 +15322,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ68">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR68">
         <v>1.91</v>
@@ -15435,7 +15447,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15513,7 +15525,7 @@
         <v>0.17</v>
       </c>
       <c r="AP69">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.79</v>
@@ -15641,7 +15653,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15847,7 +15859,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16053,7 +16065,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16259,7 +16271,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16465,7 +16477,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16749,7 +16761,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AQ75">
         <v>0.93</v>
@@ -16877,7 +16889,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -16958,7 +16970,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ76">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>1.28</v>
@@ -17164,7 +17176,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ77">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR77">
         <v>1.42</v>
@@ -17289,7 +17301,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17495,7 +17507,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -17907,7 +17919,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18319,7 +18331,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -18397,7 +18409,7 @@
         <v>0.57</v>
       </c>
       <c r="AP83">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ83">
         <v>0.79</v>
@@ -18603,10 +18615,10 @@
         <v>3</v>
       </c>
       <c r="AP84">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR84">
         <v>1.9</v>
@@ -19349,7 +19361,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19430,7 +19442,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ88">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR88">
         <v>1.32</v>
@@ -19555,7 +19567,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -20251,7 +20263,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AQ92">
         <v>1.2</v>
@@ -20379,7 +20391,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20663,7 +20675,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
         <v>0.43</v>
@@ -20791,7 +20803,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20872,7 +20884,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ95">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -20997,7 +21009,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21075,7 +21087,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ96">
         <v>0.93</v>
@@ -21203,7 +21215,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21284,7 +21296,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ97">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21409,7 +21421,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21615,7 +21627,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -21696,7 +21708,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR99">
         <v>1.43</v>
@@ -21821,7 +21833,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -21899,7 +21911,7 @@
         <v>0.71</v>
       </c>
       <c r="AP100">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>0.93</v>
@@ -22027,7 +22039,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22108,7 +22120,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ101">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR101">
         <v>1.3</v>
@@ -22439,7 +22451,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22645,7 +22657,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22851,7 +22863,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -22932,7 +22944,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ105">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR105">
         <v>1.39</v>
@@ -23138,7 +23150,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ106">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR106">
         <v>1.18</v>
@@ -23263,7 +23275,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23547,10 +23559,10 @@
         <v>2.14</v>
       </c>
       <c r="AP108">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR108">
         <v>1.21</v>
@@ -23753,7 +23765,7 @@
         <v>0.86</v>
       </c>
       <c r="AP109">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AQ109">
         <v>0.93</v>
@@ -24293,7 +24305,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24705,7 +24717,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24911,7 +24923,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -25117,7 +25129,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25529,7 +25541,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25607,10 +25619,10 @@
         <v>1.86</v>
       </c>
       <c r="AP118">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR118">
         <v>1.89</v>
@@ -25735,7 +25747,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -26147,7 +26159,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26353,7 +26365,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26431,7 +26443,7 @@
         <v>0.3</v>
       </c>
       <c r="AP122">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122">
         <v>0.67</v>
@@ -26559,7 +26571,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26765,7 +26777,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -26846,7 +26858,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ124">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR124">
         <v>1.32</v>
@@ -27177,7 +27189,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27255,10 +27267,10 @@
         <v>2.33</v>
       </c>
       <c r="AP126">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AQ126">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR126">
         <v>1.94</v>
@@ -27589,7 +27601,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27667,7 +27679,7 @@
         <v>0.25</v>
       </c>
       <c r="AP128">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ128">
         <v>0.67</v>
@@ -27795,7 +27807,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28207,7 +28219,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28288,7 +28300,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ131">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR131">
         <v>1.19</v>
@@ -28413,7 +28425,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28825,7 +28837,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28903,10 +28915,10 @@
         <v>2</v>
       </c>
       <c r="AP134">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR134">
         <v>1.81</v>
@@ -29031,7 +29043,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29237,7 +29249,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29443,7 +29455,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29727,7 +29739,7 @@
         <v>0.44</v>
       </c>
       <c r="AP138">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AQ138">
         <v>0.43</v>
@@ -30061,7 +30073,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30267,7 +30279,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30348,7 +30360,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ141">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR141">
         <v>1.95</v>
@@ -30473,7 +30485,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30679,7 +30691,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30885,7 +30897,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31091,7 +31103,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31297,7 +31309,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31375,7 +31387,7 @@
         <v>1.44</v>
       </c>
       <c r="AP146">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AQ146">
         <v>0.93</v>
@@ -31503,7 +31515,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31584,7 +31596,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ147">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR147">
         <v>1.12</v>
@@ -31790,7 +31802,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ148">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR148">
         <v>1.85</v>
@@ -32739,7 +32751,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -32820,7 +32832,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ153">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR153">
         <v>1.31</v>
@@ -32945,7 +32957,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33023,7 +33035,7 @@
         <v>1.3</v>
       </c>
       <c r="AP154">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ154">
         <v>0.93</v>
@@ -33357,7 +33369,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33563,7 +33575,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33769,7 +33781,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34053,7 +34065,7 @@
         <v>0.5</v>
       </c>
       <c r="AP159">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AQ159">
         <v>0.67</v>
@@ -34181,7 +34193,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34262,7 +34274,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ160">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR160">
         <v>1.87</v>
@@ -34593,7 +34605,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34799,7 +34811,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -34877,7 +34889,7 @@
         <v>2</v>
       </c>
       <c r="AP163">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ163">
         <v>1.93</v>
@@ -35211,7 +35223,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35417,7 +35429,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35498,7 +35510,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ166">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR166">
         <v>1.5</v>
@@ -35623,7 +35635,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -35907,7 +35919,7 @@
         <v>0.73</v>
       </c>
       <c r="AP168">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ168">
         <v>0.93</v>
@@ -36035,7 +36047,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36241,7 +36253,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36447,7 +36459,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36653,7 +36665,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36859,7 +36871,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -36940,7 +36952,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ173">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR173">
         <v>1.46</v>
@@ -37065,7 +37077,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37143,7 +37155,7 @@
         <v>0.58</v>
       </c>
       <c r="AP174">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AQ174">
         <v>0.47</v>
@@ -37271,7 +37283,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37352,7 +37364,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ175">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR175">
         <v>1.28</v>
@@ -37889,7 +37901,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -37970,7 +37982,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ178">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR178">
         <v>1.36</v>
@@ -38095,7 +38107,7 @@
         <v>89</v>
       </c>
       <c r="P179" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q179">
         <v>6.5</v>
@@ -38173,10 +38185,10 @@
         <v>2.08</v>
       </c>
       <c r="AP179">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ179">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR179">
         <v>1.23</v>
@@ -38301,7 +38313,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q180">
         <v>2.95</v>
@@ -38507,7 +38519,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -38585,7 +38597,7 @@
         <v>2.08</v>
       </c>
       <c r="AP181">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ181">
         <v>1.93</v>
@@ -38919,7 +38931,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39125,7 +39137,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39203,7 +39215,7 @@
         <v>2</v>
       </c>
       <c r="AP184">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ184">
         <v>1.93</v>
@@ -39331,7 +39343,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39412,7 +39424,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ185">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR185">
         <v>2.06</v>
@@ -39537,7 +39549,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39743,7 +39755,7 @@
         <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -40155,7 +40167,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40979,7 +40991,7 @@
         <v>112</v>
       </c>
       <c r="P193" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41391,7 +41403,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q195">
         <v>2.75</v>
@@ -41472,7 +41484,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ195">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR195">
         <v>1.87</v>
@@ -41675,7 +41687,7 @@
         <v>1.08</v>
       </c>
       <c r="AP196">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ196">
         <v>0.93</v>
@@ -41881,10 +41893,10 @@
         <v>2.08</v>
       </c>
       <c r="AP197">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AQ197">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR197">
         <v>2.06</v>
@@ -42627,7 +42639,7 @@
         <v>140</v>
       </c>
       <c r="P201" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42720,31 +42732,31 @@
         <v>2.12</v>
       </c>
       <c r="AU201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV201">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW201">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY201">
+        <v>9</v>
+      </c>
+      <c r="AZ201">
+        <v>8</v>
+      </c>
+      <c r="BA201">
+        <v>5</v>
+      </c>
+      <c r="BB201">
+        <v>1</v>
+      </c>
+      <c r="BC201">
         <v>6</v>
-      </c>
-      <c r="AZ201">
-        <v>4</v>
-      </c>
-      <c r="BA201">
-        <v>4</v>
-      </c>
-      <c r="BB201">
-        <v>1</v>
-      </c>
-      <c r="BC201">
-        <v>5</v>
       </c>
       <c r="BD201">
         <v>1.84</v>
@@ -42926,31 +42938,31 @@
         <v>2.43</v>
       </c>
       <c r="AU202">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV202">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY202">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AZ202">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA202">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC202">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD202">
         <v>1.79</v>
@@ -43039,7 +43051,7 @@
         <v>89</v>
       </c>
       <c r="P203" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q203">
         <v>2.88</v>
@@ -43132,31 +43144,31 @@
         <v>2.36</v>
       </c>
       <c r="AU203">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV203">
         <v>2</v>
       </c>
       <c r="AW203">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX203">
         <v>3</v>
       </c>
       <c r="AY203">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ203">
         <v>5</v>
       </c>
       <c r="BA203">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC203">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD203">
         <v>1.69</v>
@@ -43338,31 +43350,31 @@
         <v>2.42</v>
       </c>
       <c r="AU204">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV204">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW204">
+        <v>8</v>
+      </c>
+      <c r="AX204">
+        <v>4</v>
+      </c>
+      <c r="AY204">
+        <v>13</v>
+      </c>
+      <c r="AZ204">
+        <v>9</v>
+      </c>
+      <c r="BA204">
         <v>6</v>
       </c>
-      <c r="AX204">
-        <v>2</v>
-      </c>
-      <c r="AY204">
-        <v>9</v>
-      </c>
-      <c r="AZ204">
-        <v>5</v>
-      </c>
-      <c r="BA204">
-        <v>5</v>
-      </c>
       <c r="BB204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC204">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD204">
         <v>1.66</v>
@@ -43402,6 +43414,624 @@
       </c>
       <c r="BP204">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7378767</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45389.45833333334</v>
+      </c>
+      <c r="F205">
+        <v>4</v>
+      </c>
+      <c r="G205" t="s">
+        <v>79</v>
+      </c>
+      <c r="H205" t="s">
+        <v>74</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>3</v>
+      </c>
+      <c r="K205">
+        <v>3</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>5</v>
+      </c>
+      <c r="N205">
+        <v>6</v>
+      </c>
+      <c r="O205" t="s">
+        <v>146</v>
+      </c>
+      <c r="P205" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q205">
+        <v>11</v>
+      </c>
+      <c r="R205">
+        <v>2.63</v>
+      </c>
+      <c r="S205">
+        <v>1.62</v>
+      </c>
+      <c r="T205">
+        <v>1.3</v>
+      </c>
+      <c r="U205">
+        <v>3.4</v>
+      </c>
+      <c r="V205">
+        <v>2.38</v>
+      </c>
+      <c r="W205">
+        <v>1.53</v>
+      </c>
+      <c r="X205">
+        <v>5.5</v>
+      </c>
+      <c r="Y205">
+        <v>1.14</v>
+      </c>
+      <c r="Z205">
+        <v>10</v>
+      </c>
+      <c r="AA205">
+        <v>5.5</v>
+      </c>
+      <c r="AB205">
+        <v>1.22</v>
+      </c>
+      <c r="AC205">
+        <v>1.03</v>
+      </c>
+      <c r="AD205">
+        <v>13.3</v>
+      </c>
+      <c r="AE205">
+        <v>1.17</v>
+      </c>
+      <c r="AF205">
+        <v>4.25</v>
+      </c>
+      <c r="AG205">
+        <v>1.62</v>
+      </c>
+      <c r="AH205">
+        <v>2.2</v>
+      </c>
+      <c r="AI205">
+        <v>2.38</v>
+      </c>
+      <c r="AJ205">
+        <v>1.53</v>
+      </c>
+      <c r="AK205">
+        <v>4.33</v>
+      </c>
+      <c r="AL205">
+        <v>1.09</v>
+      </c>
+      <c r="AM205">
+        <v>1.02</v>
+      </c>
+      <c r="AN205">
+        <v>1.43</v>
+      </c>
+      <c r="AO205">
+        <v>1.93</v>
+      </c>
+      <c r="AP205">
+        <v>1.33</v>
+      </c>
+      <c r="AQ205">
+        <v>2</v>
+      </c>
+      <c r="AR205">
+        <v>1.12</v>
+      </c>
+      <c r="AS205">
+        <v>1.55</v>
+      </c>
+      <c r="AT205">
+        <v>2.67</v>
+      </c>
+      <c r="AU205">
+        <v>3</v>
+      </c>
+      <c r="AV205">
+        <v>8</v>
+      </c>
+      <c r="AW205">
+        <v>4</v>
+      </c>
+      <c r="AX205">
+        <v>6</v>
+      </c>
+      <c r="AY205">
+        <v>7</v>
+      </c>
+      <c r="AZ205">
+        <v>14</v>
+      </c>
+      <c r="BA205">
+        <v>2</v>
+      </c>
+      <c r="BB205">
+        <v>4</v>
+      </c>
+      <c r="BC205">
+        <v>6</v>
+      </c>
+      <c r="BD205">
+        <v>7.7</v>
+      </c>
+      <c r="BE205">
+        <v>11</v>
+      </c>
+      <c r="BF205">
+        <v>1.12</v>
+      </c>
+      <c r="BG205">
+        <v>1.5</v>
+      </c>
+      <c r="BH205">
+        <v>2.41</v>
+      </c>
+      <c r="BI205">
+        <v>1.95</v>
+      </c>
+      <c r="BJ205">
+        <v>1.85</v>
+      </c>
+      <c r="BK205">
+        <v>2.49</v>
+      </c>
+      <c r="BL205">
+        <v>1.47</v>
+      </c>
+      <c r="BM205">
+        <v>3.42</v>
+      </c>
+      <c r="BN205">
+        <v>1.25</v>
+      </c>
+      <c r="BO205">
+        <v>4.95</v>
+      </c>
+      <c r="BP205">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7378768</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45389.5625</v>
+      </c>
+      <c r="F206">
+        <v>4</v>
+      </c>
+      <c r="G206" t="s">
+        <v>82</v>
+      </c>
+      <c r="H206" t="s">
+        <v>77</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>2</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206" t="s">
+        <v>89</v>
+      </c>
+      <c r="P206" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q206">
+        <v>4.5</v>
+      </c>
+      <c r="R206">
+        <v>2.05</v>
+      </c>
+      <c r="S206">
+        <v>2.75</v>
+      </c>
+      <c r="T206">
+        <v>1.44</v>
+      </c>
+      <c r="U206">
+        <v>2.63</v>
+      </c>
+      <c r="V206">
+        <v>3.25</v>
+      </c>
+      <c r="W206">
+        <v>1.33</v>
+      </c>
+      <c r="X206">
+        <v>10</v>
+      </c>
+      <c r="Y206">
+        <v>1.06</v>
+      </c>
+      <c r="Z206">
+        <v>3.8</v>
+      </c>
+      <c r="AA206">
+        <v>3.5</v>
+      </c>
+      <c r="AB206">
+        <v>1.95</v>
+      </c>
+      <c r="AC206">
+        <v>1.03</v>
+      </c>
+      <c r="AD206">
+        <v>8</v>
+      </c>
+      <c r="AE206">
+        <v>1.33</v>
+      </c>
+      <c r="AF206">
+        <v>2.93</v>
+      </c>
+      <c r="AG206">
+        <v>2.08</v>
+      </c>
+      <c r="AH206">
+        <v>1.67</v>
+      </c>
+      <c r="AI206">
+        <v>1.95</v>
+      </c>
+      <c r="AJ206">
+        <v>1.8</v>
+      </c>
+      <c r="AK206">
+        <v>1.8</v>
+      </c>
+      <c r="AL206">
+        <v>1.28</v>
+      </c>
+      <c r="AM206">
+        <v>1.28</v>
+      </c>
+      <c r="AN206">
+        <v>2.14</v>
+      </c>
+      <c r="AO206">
+        <v>2.07</v>
+      </c>
+      <c r="AP206">
+        <v>2</v>
+      </c>
+      <c r="AQ206">
+        <v>2.13</v>
+      </c>
+      <c r="AR206">
+        <v>1.73</v>
+      </c>
+      <c r="AS206">
+        <v>1.54</v>
+      </c>
+      <c r="AT206">
+        <v>3.27</v>
+      </c>
+      <c r="AU206">
+        <v>10</v>
+      </c>
+      <c r="AV206">
+        <v>2</v>
+      </c>
+      <c r="AW206">
+        <v>7</v>
+      </c>
+      <c r="AX206">
+        <v>5</v>
+      </c>
+      <c r="AY206">
+        <v>17</v>
+      </c>
+      <c r="AZ206">
+        <v>7</v>
+      </c>
+      <c r="BA206">
+        <v>8</v>
+      </c>
+      <c r="BB206">
+        <v>1</v>
+      </c>
+      <c r="BC206">
+        <v>9</v>
+      </c>
+      <c r="BD206">
+        <v>2.51</v>
+      </c>
+      <c r="BE206">
+        <v>8.4</v>
+      </c>
+      <c r="BF206">
+        <v>1.76</v>
+      </c>
+      <c r="BG206">
+        <v>1.44</v>
+      </c>
+      <c r="BH206">
+        <v>2.58</v>
+      </c>
+      <c r="BI206">
+        <v>1.81</v>
+      </c>
+      <c r="BJ206">
+        <v>1.94</v>
+      </c>
+      <c r="BK206">
+        <v>2.34</v>
+      </c>
+      <c r="BL206">
+        <v>1.53</v>
+      </c>
+      <c r="BM206">
+        <v>3.18</v>
+      </c>
+      <c r="BN206">
+        <v>1.28</v>
+      </c>
+      <c r="BO206">
+        <v>4.55</v>
+      </c>
+      <c r="BP206">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7378769</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45389.60416666666</v>
+      </c>
+      <c r="F207">
+        <v>4</v>
+      </c>
+      <c r="G207" t="s">
+        <v>78</v>
+      </c>
+      <c r="H207" t="s">
+        <v>73</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>2</v>
+      </c>
+      <c r="M207">
+        <v>2</v>
+      </c>
+      <c r="N207">
+        <v>4</v>
+      </c>
+      <c r="O207" t="s">
+        <v>227</v>
+      </c>
+      <c r="P207" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q207">
+        <v>2.6</v>
+      </c>
+      <c r="R207">
+        <v>2.1</v>
+      </c>
+      <c r="S207">
+        <v>4.5</v>
+      </c>
+      <c r="T207">
+        <v>1.4</v>
+      </c>
+      <c r="U207">
+        <v>2.75</v>
+      </c>
+      <c r="V207">
+        <v>3</v>
+      </c>
+      <c r="W207">
+        <v>1.36</v>
+      </c>
+      <c r="X207">
+        <v>8</v>
+      </c>
+      <c r="Y207">
+        <v>1.08</v>
+      </c>
+      <c r="Z207">
+        <v>1.75</v>
+      </c>
+      <c r="AA207">
+        <v>3.3</v>
+      </c>
+      <c r="AB207">
+        <v>4</v>
+      </c>
+      <c r="AC207">
+        <v>1.02</v>
+      </c>
+      <c r="AD207">
+        <v>9.1</v>
+      </c>
+      <c r="AE207">
+        <v>1.24</v>
+      </c>
+      <c r="AF207">
+        <v>3.5</v>
+      </c>
+      <c r="AG207">
+        <v>2.03</v>
+      </c>
+      <c r="AH207">
+        <v>1.85</v>
+      </c>
+      <c r="AI207">
+        <v>1.8</v>
+      </c>
+      <c r="AJ207">
+        <v>1.95</v>
+      </c>
+      <c r="AK207">
+        <v>1.25</v>
+      </c>
+      <c r="AL207">
+        <v>1.25</v>
+      </c>
+      <c r="AM207">
+        <v>1.92</v>
+      </c>
+      <c r="AN207">
+        <v>2.57</v>
+      </c>
+      <c r="AO207">
+        <v>2.21</v>
+      </c>
+      <c r="AP207">
+        <v>2.47</v>
+      </c>
+      <c r="AQ207">
+        <v>2.13</v>
+      </c>
+      <c r="AR207">
+        <v>2.02</v>
+      </c>
+      <c r="AS207">
+        <v>1.57</v>
+      </c>
+      <c r="AT207">
+        <v>3.59</v>
+      </c>
+      <c r="AU207">
+        <v>0</v>
+      </c>
+      <c r="AV207">
+        <v>2</v>
+      </c>
+      <c r="AW207">
+        <v>3</v>
+      </c>
+      <c r="AX207">
+        <v>1</v>
+      </c>
+      <c r="AY207">
+        <v>3</v>
+      </c>
+      <c r="AZ207">
+        <v>3</v>
+      </c>
+      <c r="BA207">
+        <v>1</v>
+      </c>
+      <c r="BB207">
+        <v>2</v>
+      </c>
+      <c r="BC207">
+        <v>3</v>
+      </c>
+      <c r="BD207">
+        <v>1.55</v>
+      </c>
+      <c r="BE207">
+        <v>9</v>
+      </c>
+      <c r="BF207">
+        <v>3.04</v>
+      </c>
+      <c r="BG207">
+        <v>1.33</v>
+      </c>
+      <c r="BH207">
+        <v>2.93</v>
+      </c>
+      <c r="BI207">
+        <v>1.62</v>
+      </c>
+      <c r="BJ207">
+        <v>2.16</v>
+      </c>
+      <c r="BK207">
+        <v>2.08</v>
+      </c>
+      <c r="BL207">
+        <v>1.7</v>
+      </c>
+      <c r="BM207">
+        <v>2.76</v>
+      </c>
+      <c r="BN207">
+        <v>1.39</v>
+      </c>
+      <c r="BO207">
+        <v>3.74</v>
+      </c>
+      <c r="BP207">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -42941,19 +42941,19 @@
         <v>5</v>
       </c>
       <c r="AV202">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY202">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ202">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA202">
         <v>4</v>
@@ -43144,19 +43144,19 @@
         <v>2.36</v>
       </c>
       <c r="AU203">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV203">
         <v>2</v>
       </c>
       <c r="AW203">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AX203">
         <v>3</v>
       </c>
       <c r="AY203">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ203">
         <v>5</v>
@@ -43350,22 +43350,22 @@
         <v>2.42</v>
       </c>
       <c r="AU204">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV204">
         <v>5</v>
       </c>
       <c r="AW204">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX204">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY204">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ204">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA204">
         <v>6</v>
@@ -43559,19 +43559,19 @@
         <v>3</v>
       </c>
       <c r="AV205">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AW205">
         <v>4</v>
       </c>
       <c r="AX205">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY205">
         <v>7</v>
       </c>
       <c r="AZ205">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA205">
         <v>2</v>
@@ -43762,22 +43762,22 @@
         <v>3.27</v>
       </c>
       <c r="AU206">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV206">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW206">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AX206">
         <v>5</v>
       </c>
       <c r="AY206">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ206">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA206">
         <v>8</v>
@@ -43968,31 +43968,31 @@
         <v>3.59</v>
       </c>
       <c r="AU207">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV207">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW207">
         <v>3</v>
       </c>
       <c r="AX207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY207">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AZ207">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BA207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB207">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC207">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BD207">
         <v>1.55</v>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,9 @@
     <t>['30', '49']</t>
   </si>
   <si>
+    <t>['22', '33']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -1025,6 +1028,9 @@
   </si>
   <si>
     <t>['62', '89']</t>
+  </si>
+  <si>
+    <t>['27', '75']</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP207"/>
+  <dimension ref="A1:BP208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1645,7 +1651,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -2057,7 +2063,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2962,7 +2968,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ8">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3705,7 +3711,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -4401,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ15">
         <v>0.43</v>
@@ -4529,7 +4535,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -5147,7 +5153,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5353,7 +5359,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5559,7 +5565,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5640,7 +5646,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AR21">
         <v>0.89</v>
@@ -5765,7 +5771,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -5971,7 +5977,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6177,7 +6183,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -7001,7 +7007,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7285,7 +7291,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ29">
         <v>0.93</v>
@@ -7825,7 +7831,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8031,7 +8037,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8237,7 +8243,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8443,7 +8449,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8524,7 +8530,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ35">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AR35">
         <v>1.45</v>
@@ -8649,7 +8655,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9267,7 +9273,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9345,7 +9351,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ39">
         <v>0.47</v>
@@ -9473,7 +9479,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -10091,7 +10097,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10297,7 +10303,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10503,7 +10509,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -11533,7 +11539,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -12151,7 +12157,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12438,7 +12444,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ54">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AR54">
         <v>1.73</v>
@@ -12769,7 +12775,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12975,7 +12981,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13181,7 +13187,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -14211,7 +14217,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14417,7 +14423,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14829,7 +14835,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -15035,7 +15041,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15241,7 +15247,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15447,7 +15453,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15653,7 +15659,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15731,10 +15737,10 @@
         <v>0.75</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ70">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AR70">
         <v>1.52</v>
@@ -15859,7 +15865,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16065,7 +16071,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16271,7 +16277,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16477,7 +16483,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16889,7 +16895,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17301,7 +17307,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17507,7 +17513,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -17919,7 +17925,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18331,7 +18337,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -19361,7 +19367,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19567,7 +19573,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19854,7 +19860,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ90">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AR90">
         <v>1.98</v>
@@ -20391,7 +20397,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20678,7 +20684,7 @@
         <v>2</v>
       </c>
       <c r="AQ94">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AR94">
         <v>1.8</v>
@@ -20803,7 +20809,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -21009,7 +21015,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21215,7 +21221,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21421,7 +21427,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21627,7 +21633,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -21705,7 +21711,7 @@
         <v>2.2</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ99">
         <v>2</v>
@@ -21833,7 +21839,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -22039,7 +22045,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22451,7 +22457,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22529,7 +22535,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ103">
         <v>1.93</v>
@@ -22657,7 +22663,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22863,7 +22869,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -23275,7 +23281,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23974,7 +23980,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ110">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AR110">
         <v>1.87</v>
@@ -24305,7 +24311,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24717,7 +24723,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24923,7 +24929,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -25001,7 +25007,7 @@
         <v>0.14</v>
       </c>
       <c r="AP115">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ115">
         <v>0.67</v>
@@ -25129,7 +25135,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25541,7 +25547,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25747,7 +25753,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -26159,7 +26165,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26240,7 +26246,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ121">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AR121">
         <v>1.15</v>
@@ -26365,7 +26371,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26571,7 +26577,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26777,7 +26783,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -27189,7 +27195,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27601,7 +27607,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27807,7 +27813,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28219,7 +28225,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28425,7 +28431,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28837,7 +28843,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29043,7 +29049,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29249,7 +29255,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29327,7 +29333,7 @@
         <v>0.67</v>
       </c>
       <c r="AP136">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ136">
         <v>0.93</v>
@@ -29455,7 +29461,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29742,7 +29748,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ138">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AR138">
         <v>1.9</v>
@@ -30073,7 +30079,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30279,7 +30285,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30485,7 +30491,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30691,7 +30697,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30769,7 +30775,7 @@
         <v>1.11</v>
       </c>
       <c r="AP143">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ143">
         <v>1.2</v>
@@ -30897,7 +30903,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31103,7 +31109,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31309,7 +31315,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31515,7 +31521,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -32008,7 +32014,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ149">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AR149">
         <v>1.8</v>
@@ -32751,7 +32757,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -32829,7 +32835,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ153">
         <v>2.13</v>
@@ -32957,7 +32963,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33369,7 +33375,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33575,7 +33581,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33781,7 +33787,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34193,7 +34199,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34605,7 +34611,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34811,7 +34817,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -35095,7 +35101,7 @@
         <v>0.73</v>
       </c>
       <c r="AP164">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ164">
         <v>0.79</v>
@@ -35223,7 +35229,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35304,7 +35310,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ165">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AR165">
         <v>1.27</v>
@@ -35429,7 +35435,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35635,7 +35641,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -36047,7 +36053,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36253,7 +36259,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36459,7 +36465,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36540,7 +36546,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ171">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AR171">
         <v>1.22</v>
@@ -36665,7 +36671,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36871,7 +36877,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -37077,7 +37083,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37283,7 +37289,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37361,7 +37367,7 @@
         <v>2</v>
       </c>
       <c r="AP175">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ175">
         <v>2.13</v>
@@ -37901,7 +37907,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -38107,7 +38113,7 @@
         <v>89</v>
       </c>
       <c r="P179" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q179">
         <v>6.5</v>
@@ -38313,7 +38319,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q180">
         <v>2.95</v>
@@ -38519,7 +38525,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -38931,7 +38937,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39009,7 +39015,7 @@
         <v>1.08</v>
       </c>
       <c r="AP183">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ183">
         <v>0.93</v>
@@ -39137,7 +39143,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39343,7 +39349,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39549,7 +39555,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39755,7 +39761,7 @@
         <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -40042,7 +40048,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ188">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AR188">
         <v>1.3</v>
@@ -40167,7 +40173,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40657,7 +40663,7 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ191">
         <v>0.93</v>
@@ -40991,7 +40997,7 @@
         <v>112</v>
       </c>
       <c r="P193" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41403,7 +41409,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q195">
         <v>2.75</v>
@@ -42639,7 +42645,7 @@
         <v>140</v>
       </c>
       <c r="P201" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -43051,7 +43057,7 @@
         <v>89</v>
       </c>
       <c r="P203" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q203">
         <v>2.88</v>
@@ -43463,7 +43469,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q205">
         <v>11</v>
@@ -43669,7 +43675,7 @@
         <v>89</v>
       </c>
       <c r="P206" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43875,7 +43881,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44032,6 +44038,212 @@
       </c>
       <c r="BP207">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7382766</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45395.375</v>
+      </c>
+      <c r="F208">
+        <v>4</v>
+      </c>
+      <c r="G208" t="s">
+        <v>81</v>
+      </c>
+      <c r="H208" t="s">
+        <v>72</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>3</v>
+      </c>
+      <c r="L208">
+        <v>2</v>
+      </c>
+      <c r="M208">
+        <v>2</v>
+      </c>
+      <c r="N208">
+        <v>4</v>
+      </c>
+      <c r="O208" t="s">
+        <v>228</v>
+      </c>
+      <c r="P208" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q208">
+        <v>2.88</v>
+      </c>
+      <c r="R208">
+        <v>2.1</v>
+      </c>
+      <c r="S208">
+        <v>3.75</v>
+      </c>
+      <c r="T208">
+        <v>1.4</v>
+      </c>
+      <c r="U208">
+        <v>2.75</v>
+      </c>
+      <c r="V208">
+        <v>3</v>
+      </c>
+      <c r="W208">
+        <v>1.36</v>
+      </c>
+      <c r="X208">
+        <v>9</v>
+      </c>
+      <c r="Y208">
+        <v>1.07</v>
+      </c>
+      <c r="Z208">
+        <v>2.08</v>
+      </c>
+      <c r="AA208">
+        <v>3.2</v>
+      </c>
+      <c r="AB208">
+        <v>3.3</v>
+      </c>
+      <c r="AC208">
+        <v>1.06</v>
+      </c>
+      <c r="AD208">
+        <v>10</v>
+      </c>
+      <c r="AE208">
+        <v>1.3</v>
+      </c>
+      <c r="AF208">
+        <v>3.25</v>
+      </c>
+      <c r="AG208">
+        <v>1.97</v>
+      </c>
+      <c r="AH208">
+        <v>1.74</v>
+      </c>
+      <c r="AI208">
+        <v>1.75</v>
+      </c>
+      <c r="AJ208">
+        <v>2</v>
+      </c>
+      <c r="AK208">
+        <v>1.33</v>
+      </c>
+      <c r="AL208">
+        <v>1.32</v>
+      </c>
+      <c r="AM208">
+        <v>1.68</v>
+      </c>
+      <c r="AN208">
+        <v>1.5</v>
+      </c>
+      <c r="AO208">
+        <v>0.43</v>
+      </c>
+      <c r="AP208">
+        <v>1.47</v>
+      </c>
+      <c r="AQ208">
+        <v>0.47</v>
+      </c>
+      <c r="AR208">
+        <v>1.26</v>
+      </c>
+      <c r="AS208">
+        <v>1.23</v>
+      </c>
+      <c r="AT208">
+        <v>2.49</v>
+      </c>
+      <c r="AU208">
+        <v>3</v>
+      </c>
+      <c r="AV208">
+        <v>4</v>
+      </c>
+      <c r="AW208">
+        <v>5</v>
+      </c>
+      <c r="AX208">
+        <v>3</v>
+      </c>
+      <c r="AY208">
+        <v>8</v>
+      </c>
+      <c r="AZ208">
+        <v>7</v>
+      </c>
+      <c r="BA208">
+        <v>1</v>
+      </c>
+      <c r="BB208">
+        <v>6</v>
+      </c>
+      <c r="BC208">
+        <v>7</v>
+      </c>
+      <c r="BD208">
+        <v>1.91</v>
+      </c>
+      <c r="BE208">
+        <v>7</v>
+      </c>
+      <c r="BF208">
+        <v>2.2</v>
+      </c>
+      <c r="BG208">
+        <v>1.78</v>
+      </c>
+      <c r="BH208">
+        <v>2.03</v>
+      </c>
+      <c r="BI208">
+        <v>2.28</v>
+      </c>
+      <c r="BJ208">
+        <v>1.61</v>
+      </c>
+      <c r="BK208">
+        <v>3.18</v>
+      </c>
+      <c r="BL208">
+        <v>1.28</v>
+      </c>
+      <c r="BM208">
+        <v>4.2</v>
+      </c>
+      <c r="BN208">
+        <v>1.2</v>
+      </c>
+      <c r="BO208">
+        <v>6.2</v>
+      </c>
+      <c r="BP208">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="344">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -703,6 +703,12 @@
     <t>['22', '33']</t>
   </si>
   <si>
+    <t>['18', '60', '87']</t>
+  </si>
+  <si>
+    <t>['9', '14']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -1031,6 +1037,15 @@
   </si>
   <si>
     <t>['27', '75']</t>
+  </si>
+  <si>
+    <t>['18', '70']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['14']</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP208"/>
+  <dimension ref="A1:BP213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1651,7 +1666,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -1732,7 +1747,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ2">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1935,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ3">
         <v>0.67</v>
@@ -2063,7 +2078,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2144,7 +2159,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ4">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2350,7 +2365,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ5">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3171,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ9">
         <v>0.93</v>
@@ -3377,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10">
         <v>0.67</v>
@@ -3586,7 +3601,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3711,7 +3726,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -3998,7 +4013,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ13">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
         <v>2.47</v>
@@ -4201,10 +4216,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ14">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4410,7 +4425,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ15">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4535,7 +4550,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -4616,7 +4631,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4822,7 +4837,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ17">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR17">
         <v>2.51</v>
@@ -5153,7 +5168,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5359,7 +5374,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5437,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ20">
         <v>2.13</v>
@@ -5565,7 +5580,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5771,7 +5786,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -5977,7 +5992,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6183,7 +6198,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6261,7 +6276,7 @@
         <v>0.5</v>
       </c>
       <c r="AP24">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ24">
         <v>0.67</v>
@@ -6470,7 +6485,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -6673,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
         <v>2</v>
@@ -7007,7 +7022,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7088,7 +7103,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
         <v>1.24</v>
@@ -7294,7 +7309,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ29">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR29">
         <v>1.38</v>
@@ -7706,7 +7721,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR31">
         <v>1.44</v>
@@ -7831,7 +7846,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7912,7 +7927,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ32">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR32">
         <v>1.17</v>
@@ -8037,7 +8052,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8115,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ33">
         <v>2.13</v>
@@ -8243,7 +8258,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8321,7 +8336,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ34">
         <v>1.93</v>
@@ -8449,7 +8464,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8655,7 +8670,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8733,10 +8748,10 @@
         <v>0.33</v>
       </c>
       <c r="AP36">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ36">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR36">
         <v>1.6</v>
@@ -8942,7 +8957,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ37">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR37">
         <v>2.25</v>
@@ -9273,7 +9288,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9479,7 +9494,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -9763,10 +9778,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ41">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR41">
         <v>2.13</v>
@@ -9972,7 +9987,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR42">
         <v>0.84</v>
@@ -10097,7 +10112,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10303,7 +10318,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10381,7 +10396,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ44">
         <v>2.13</v>
@@ -10509,7 +10524,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -10587,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10796,7 +10811,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ46">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR46">
         <v>1.33</v>
@@ -11205,10 +11220,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ48">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR48">
         <v>2.17</v>
@@ -11411,10 +11426,10 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ49">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR49">
         <v>2.02</v>
@@ -11539,7 +11554,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -12157,7 +12172,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12441,7 +12456,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ54">
         <v>0.47</v>
@@ -12650,7 +12665,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ55">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR55">
         <v>1.96</v>
@@ -12775,7 +12790,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12981,7 +12996,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13187,7 +13202,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13268,7 +13283,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ58">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR58">
         <v>0.99</v>
@@ -13474,7 +13489,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ59">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR59">
         <v>1.24</v>
@@ -13677,7 +13692,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ60">
         <v>0.67</v>
@@ -14089,7 +14104,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ62">
         <v>2.13</v>
@@ -14217,7 +14232,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14423,7 +14438,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14707,7 +14722,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ65">
         <v>1.93</v>
@@ -14835,7 +14850,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14916,7 +14931,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ66">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR66">
         <v>1.65</v>
@@ -15041,7 +15056,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15119,7 +15134,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ67">
         <v>0.93</v>
@@ -15247,7 +15262,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15453,7 +15468,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15534,7 +15549,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR69">
         <v>1.94</v>
@@ -15659,7 +15674,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15865,7 +15880,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16071,7 +16086,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16277,7 +16292,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16358,7 +16373,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ73">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR73">
         <v>1.34</v>
@@ -16483,7 +16498,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16564,7 +16579,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ74">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR74">
         <v>1.97</v>
@@ -16767,10 +16782,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ75">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR75">
         <v>2.12</v>
@@ -16895,7 +16910,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17179,7 +17194,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ77">
         <v>2.13</v>
@@ -17307,7 +17322,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17513,7 +17528,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -17594,7 +17609,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ79">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR79">
         <v>1.9</v>
@@ -17925,7 +17940,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18003,10 +18018,10 @@
         <v>1.4</v>
       </c>
       <c r="AP81">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ81">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR81">
         <v>1.25</v>
@@ -18209,7 +18224,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ82">
         <v>1.93</v>
@@ -18337,7 +18352,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -18418,7 +18433,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ83">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR83">
         <v>1.12</v>
@@ -19367,7 +19382,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19573,7 +19588,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19857,7 +19872,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ90">
         <v>0.47</v>
@@ -20066,7 +20081,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ91">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR91">
         <v>1.81</v>
@@ -20269,10 +20284,10 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ92">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR92">
         <v>2.03</v>
@@ -20397,7 +20412,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20475,7 +20490,7 @@
         <v>0.57</v>
       </c>
       <c r="AP93">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ93">
         <v>0.47</v>
@@ -20809,7 +20824,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -21015,7 +21030,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21221,7 +21236,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21427,7 +21442,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21633,7 +21648,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -21839,7 +21854,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -21920,7 +21935,7 @@
         <v>2</v>
       </c>
       <c r="AQ100">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR100">
         <v>1.78</v>
@@ -22045,7 +22060,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22329,10 +22344,10 @@
         <v>0.14</v>
       </c>
       <c r="AP102">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ102">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR102">
         <v>1.05</v>
@@ -22457,7 +22472,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22663,7 +22678,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22744,7 +22759,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ104">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR104">
         <v>1.29</v>
@@ -22869,7 +22884,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -22947,7 +22962,7 @@
         <v>1.67</v>
       </c>
       <c r="AP105">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ105">
         <v>2.13</v>
@@ -23281,7 +23296,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23362,7 +23377,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ107">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR107">
         <v>1.2</v>
@@ -23771,7 +23786,7 @@
         <v>0.86</v>
       </c>
       <c r="AP109">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ109">
         <v>0.93</v>
@@ -24183,7 +24198,7 @@
         <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ111">
         <v>0.47</v>
@@ -24311,7 +24326,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24723,7 +24738,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24804,7 +24819,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ114">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR114">
         <v>1.2</v>
@@ -24929,7 +24944,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -25135,7 +25150,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25213,10 +25228,10 @@
         <v>0.25</v>
       </c>
       <c r="AP116">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ116">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR116">
         <v>1.87</v>
@@ -25419,10 +25434,10 @@
         <v>1.86</v>
       </c>
       <c r="AP117">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ117">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR117">
         <v>1.07</v>
@@ -25547,7 +25562,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25753,7 +25768,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -26040,7 +26055,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ120">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR120">
         <v>1.37</v>
@@ -26165,7 +26180,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26371,7 +26386,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26577,7 +26592,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26658,7 +26673,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ123">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR123">
         <v>1.56</v>
@@ -26783,7 +26798,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -26861,7 +26876,7 @@
         <v>1.88</v>
       </c>
       <c r="AP124">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ124">
         <v>2</v>
@@ -27195,7 +27210,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27273,7 +27288,7 @@
         <v>2.33</v>
       </c>
       <c r="AP126">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ126">
         <v>2.13</v>
@@ -27607,7 +27622,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27813,7 +27828,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27891,7 +27906,7 @@
         <v>0.55</v>
       </c>
       <c r="AP129">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ129">
         <v>0.67</v>
@@ -28100,7 +28115,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ130">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR130">
         <v>1.43</v>
@@ -28225,7 +28240,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28431,7 +28446,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28715,10 +28730,10 @@
         <v>1.63</v>
       </c>
       <c r="AP133">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ133">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR133">
         <v>1.85</v>
@@ -28843,7 +28858,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29049,7 +29064,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29130,7 +29145,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ135">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR135">
         <v>1.53</v>
@@ -29255,7 +29270,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29461,7 +29476,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29539,10 +29554,10 @@
         <v>0.88</v>
       </c>
       <c r="AP137">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ137">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR137">
         <v>1.27</v>
@@ -29745,7 +29760,7 @@
         <v>0.44</v>
       </c>
       <c r="AP138">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ138">
         <v>0.47</v>
@@ -29954,7 +29969,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ139">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR139">
         <v>1.21</v>
@@ -30079,7 +30094,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30285,7 +30300,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30491,7 +30506,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30572,7 +30587,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ142">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR142">
         <v>1.18</v>
@@ -30697,7 +30712,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30778,7 +30793,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ143">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR143">
         <v>1.23</v>
@@ -30903,7 +30918,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31109,7 +31124,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31187,10 +31202,10 @@
         <v>1</v>
       </c>
       <c r="AP145">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ145">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR145">
         <v>1.16</v>
@@ -31315,7 +31330,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31393,10 +31408,10 @@
         <v>1.44</v>
       </c>
       <c r="AP146">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ146">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR146">
         <v>1.89</v>
@@ -31521,7 +31536,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31805,7 +31820,7 @@
         <v>2.1</v>
       </c>
       <c r="AP148">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ148">
         <v>2</v>
@@ -32217,10 +32232,10 @@
         <v>1.1</v>
       </c>
       <c r="AP150">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ150">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR150">
         <v>1.29</v>
@@ -32426,7 +32441,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ151">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR151">
         <v>1.52</v>
@@ -32629,7 +32644,7 @@
         <v>0.7</v>
       </c>
       <c r="AP152">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ152">
         <v>0.93</v>
@@ -32757,7 +32772,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -32963,7 +32978,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33044,7 +33059,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ154">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR154">
         <v>1.27</v>
@@ -33375,7 +33390,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33456,7 +33471,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ156">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR156">
         <v>1.06</v>
@@ -33581,7 +33596,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33659,10 +33674,10 @@
         <v>1.18</v>
       </c>
       <c r="AP157">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ157">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR157">
         <v>1.83</v>
@@ -33787,7 +33802,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34071,7 +34086,7 @@
         <v>0.5</v>
       </c>
       <c r="AP159">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ159">
         <v>0.67</v>
@@ -34199,7 +34214,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34611,7 +34626,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34692,7 +34707,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ162">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR162">
         <v>1.22</v>
@@ -34817,7 +34832,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -35104,7 +35119,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ164">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR164">
         <v>1.29</v>
@@ -35229,7 +35244,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35307,7 +35322,7 @@
         <v>0.36</v>
       </c>
       <c r="AP165">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ165">
         <v>0.47</v>
@@ -35435,7 +35450,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35641,7 +35656,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -35722,7 +35737,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ167">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR167">
         <v>1.85</v>
@@ -36053,7 +36068,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36131,7 +36146,7 @@
         <v>0.45</v>
       </c>
       <c r="AP169">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ169">
         <v>0.67</v>
@@ -36259,7 +36274,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36465,7 +36480,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36671,7 +36686,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36752,7 +36767,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ172">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR172">
         <v>1.06</v>
@@ -36877,7 +36892,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -37083,7 +37098,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37161,7 +37176,7 @@
         <v>0.58</v>
       </c>
       <c r="AP174">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ174">
         <v>0.47</v>
@@ -37289,7 +37304,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37573,10 +37588,10 @@
         <v>1.25</v>
       </c>
       <c r="AP176">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ176">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR176">
         <v>1.88</v>
@@ -37779,10 +37794,10 @@
         <v>0.75</v>
       </c>
       <c r="AP177">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ177">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR177">
         <v>1.26</v>
@@ -37907,7 +37922,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -38113,7 +38128,7 @@
         <v>89</v>
       </c>
       <c r="P179" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q179">
         <v>6.5</v>
@@ -38319,7 +38334,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q180">
         <v>2.95</v>
@@ -38397,10 +38412,10 @@
         <v>0.33</v>
       </c>
       <c r="AP180">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ180">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR180">
         <v>1.25</v>
@@ -38525,7 +38540,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -38937,7 +38952,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39018,7 +39033,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ183">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR183">
         <v>1.25</v>
@@ -39143,7 +39158,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39349,7 +39364,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39555,7 +39570,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39636,7 +39651,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ186">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR186">
         <v>1.83</v>
@@ -39761,7 +39776,7 @@
         <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -40045,7 +40060,7 @@
         <v>0.38</v>
       </c>
       <c r="AP188">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ188">
         <v>0.47</v>
@@ -40173,7 +40188,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40666,7 +40681,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ191">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR191">
         <v>1.28</v>
@@ -40997,7 +41012,7 @@
         <v>112</v>
       </c>
       <c r="P193" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41075,10 +41090,10 @@
         <v>0.38</v>
       </c>
       <c r="AP193">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ193">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR193">
         <v>1.27</v>
@@ -41284,7 +41299,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ194">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR194">
         <v>1.33</v>
@@ -41409,7 +41424,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q195">
         <v>2.75</v>
@@ -41487,7 +41502,7 @@
         <v>2.15</v>
       </c>
       <c r="AP195">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ195">
         <v>2.13</v>
@@ -41696,7 +41711,7 @@
         <v>2</v>
       </c>
       <c r="AQ196">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR196">
         <v>1.7</v>
@@ -41899,7 +41914,7 @@
         <v>2.08</v>
       </c>
       <c r="AP197">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ197">
         <v>2</v>
@@ -42108,7 +42123,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ198">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR198">
         <v>2.03</v>
@@ -42314,7 +42329,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ199">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR199">
         <v>1.8</v>
@@ -42517,7 +42532,7 @@
         <v>2.07</v>
       </c>
       <c r="AP200">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ200">
         <v>1.93</v>
@@ -42645,7 +42660,7 @@
         <v>140</v>
       </c>
       <c r="P201" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -43057,7 +43072,7 @@
         <v>89</v>
       </c>
       <c r="P203" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q203">
         <v>2.88</v>
@@ -43469,7 +43484,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q205">
         <v>11</v>
@@ -43675,7 +43690,7 @@
         <v>89</v>
       </c>
       <c r="P206" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43881,7 +43896,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -43959,7 +43974,7 @@
         <v>2.21</v>
       </c>
       <c r="AP207">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ207">
         <v>2.13</v>
@@ -44087,7 +44102,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q208">
         <v>2.88</v>
@@ -44180,22 +44195,22 @@
         <v>2.49</v>
       </c>
       <c r="AU208">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV208">
+        <v>8</v>
+      </c>
+      <c r="AW208">
         <v>4</v>
       </c>
-      <c r="AW208">
-        <v>5</v>
-      </c>
       <c r="AX208">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY208">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ208">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA208">
         <v>1</v>
@@ -44244,6 +44259,1036 @@
       </c>
       <c r="BP208">
         <v>1.1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7382764</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45395.47916666666</v>
+      </c>
+      <c r="F209">
+        <v>4</v>
+      </c>
+      <c r="G209" t="s">
+        <v>70</v>
+      </c>
+      <c r="H209" t="s">
+        <v>83</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>2</v>
+      </c>
+      <c r="L209">
+        <v>2</v>
+      </c>
+      <c r="M209">
+        <v>2</v>
+      </c>
+      <c r="N209">
+        <v>4</v>
+      </c>
+      <c r="O209" t="s">
+        <v>125</v>
+      </c>
+      <c r="P209" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q209">
+        <v>2.58</v>
+      </c>
+      <c r="R209">
+        <v>2.08</v>
+      </c>
+      <c r="S209">
+        <v>4.45</v>
+      </c>
+      <c r="T209">
+        <v>1.44</v>
+      </c>
+      <c r="U209">
+        <v>2.67</v>
+      </c>
+      <c r="V209">
+        <v>3.05</v>
+      </c>
+      <c r="W209">
+        <v>1.35</v>
+      </c>
+      <c r="X209">
+        <v>8</v>
+      </c>
+      <c r="Y209">
+        <v>1.06</v>
+      </c>
+      <c r="Z209">
+        <v>1.97</v>
+      </c>
+      <c r="AA209">
+        <v>3.1</v>
+      </c>
+      <c r="AB209">
+        <v>3.75</v>
+      </c>
+      <c r="AC209">
+        <v>1.03</v>
+      </c>
+      <c r="AD209">
+        <v>8</v>
+      </c>
+      <c r="AE209">
+        <v>1.33</v>
+      </c>
+      <c r="AF209">
+        <v>2.93</v>
+      </c>
+      <c r="AG209">
+        <v>2.05</v>
+      </c>
+      <c r="AH209">
+        <v>1.68</v>
+      </c>
+      <c r="AI209">
+        <v>1.89</v>
+      </c>
+      <c r="AJ209">
+        <v>1.85</v>
+      </c>
+      <c r="AK209">
+        <v>1.27</v>
+      </c>
+      <c r="AL209">
+        <v>1.31</v>
+      </c>
+      <c r="AM209">
+        <v>1.82</v>
+      </c>
+      <c r="AN209">
+        <v>1.07</v>
+      </c>
+      <c r="AO209">
+        <v>0.79</v>
+      </c>
+      <c r="AP209">
+        <v>1.07</v>
+      </c>
+      <c r="AQ209">
+        <v>0.8</v>
+      </c>
+      <c r="AR209">
+        <v>1.23</v>
+      </c>
+      <c r="AS209">
+        <v>1.15</v>
+      </c>
+      <c r="AT209">
+        <v>2.38</v>
+      </c>
+      <c r="AU209">
+        <v>9</v>
+      </c>
+      <c r="AV209">
+        <v>6</v>
+      </c>
+      <c r="AW209">
+        <v>2</v>
+      </c>
+      <c r="AX209">
+        <v>2</v>
+      </c>
+      <c r="AY209">
+        <v>11</v>
+      </c>
+      <c r="AZ209">
+        <v>8</v>
+      </c>
+      <c r="BA209">
+        <v>7</v>
+      </c>
+      <c r="BB209">
+        <v>2</v>
+      </c>
+      <c r="BC209">
+        <v>9</v>
+      </c>
+      <c r="BD209">
+        <v>1.75</v>
+      </c>
+      <c r="BE209">
+        <v>7.5</v>
+      </c>
+      <c r="BF209">
+        <v>2.45</v>
+      </c>
+      <c r="BG209">
+        <v>1.47</v>
+      </c>
+      <c r="BH209">
+        <v>2.6</v>
+      </c>
+      <c r="BI209">
+        <v>1.8</v>
+      </c>
+      <c r="BJ209">
+        <v>2</v>
+      </c>
+      <c r="BK209">
+        <v>2.3</v>
+      </c>
+      <c r="BL209">
+        <v>1.58</v>
+      </c>
+      <c r="BM209">
+        <v>3.14</v>
+      </c>
+      <c r="BN209">
+        <v>1.29</v>
+      </c>
+      <c r="BO209">
+        <v>3.8</v>
+      </c>
+      <c r="BP209">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7382767</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45395.5625</v>
+      </c>
+      <c r="F210">
+        <v>4</v>
+      </c>
+      <c r="G210" t="s">
+        <v>71</v>
+      </c>
+      <c r="H210" t="s">
+        <v>76</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>1</v>
+      </c>
+      <c r="O210" t="s">
+        <v>89</v>
+      </c>
+      <c r="P210" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q210">
+        <v>2.99</v>
+      </c>
+      <c r="R210">
+        <v>2.01</v>
+      </c>
+      <c r="S210">
+        <v>3.84</v>
+      </c>
+      <c r="T210">
+        <v>1.48</v>
+      </c>
+      <c r="U210">
+        <v>2.55</v>
+      </c>
+      <c r="V210">
+        <v>3.22</v>
+      </c>
+      <c r="W210">
+        <v>1.32</v>
+      </c>
+      <c r="X210">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y210">
+        <v>1.05</v>
+      </c>
+      <c r="Z210">
+        <v>2.42</v>
+      </c>
+      <c r="AA210">
+        <v>3.1</v>
+      </c>
+      <c r="AB210">
+        <v>2.9</v>
+      </c>
+      <c r="AC210">
+        <v>1.04</v>
+      </c>
+      <c r="AD210">
+        <v>7.4</v>
+      </c>
+      <c r="AE210">
+        <v>1.38</v>
+      </c>
+      <c r="AF210">
+        <v>2.72</v>
+      </c>
+      <c r="AG210">
+        <v>2.25</v>
+      </c>
+      <c r="AH210">
+        <v>1.6</v>
+      </c>
+      <c r="AI210">
+        <v>1.94</v>
+      </c>
+      <c r="AJ210">
+        <v>1.81</v>
+      </c>
+      <c r="AK210">
+        <v>1.36</v>
+      </c>
+      <c r="AL210">
+        <v>1.34</v>
+      </c>
+      <c r="AM210">
+        <v>1.6</v>
+      </c>
+      <c r="AN210">
+        <v>0.86</v>
+      </c>
+      <c r="AO210">
+        <v>0.93</v>
+      </c>
+      <c r="AP210">
+        <v>0.8</v>
+      </c>
+      <c r="AQ210">
+        <v>1.07</v>
+      </c>
+      <c r="AR210">
+        <v>1.28</v>
+      </c>
+      <c r="AS210">
+        <v>1.13</v>
+      </c>
+      <c r="AT210">
+        <v>2.41</v>
+      </c>
+      <c r="AU210">
+        <v>3</v>
+      </c>
+      <c r="AV210">
+        <v>4</v>
+      </c>
+      <c r="AW210">
+        <v>8</v>
+      </c>
+      <c r="AX210">
+        <v>2</v>
+      </c>
+      <c r="AY210">
+        <v>11</v>
+      </c>
+      <c r="AZ210">
+        <v>6</v>
+      </c>
+      <c r="BA210">
+        <v>10</v>
+      </c>
+      <c r="BB210">
+        <v>6</v>
+      </c>
+      <c r="BC210">
+        <v>16</v>
+      </c>
+      <c r="BD210">
+        <v>1.69</v>
+      </c>
+      <c r="BE210">
+        <v>7.5</v>
+      </c>
+      <c r="BF210">
+        <v>2.64</v>
+      </c>
+      <c r="BG210">
+        <v>1.5</v>
+      </c>
+      <c r="BH210">
+        <v>2.55</v>
+      </c>
+      <c r="BI210">
+        <v>1.85</v>
+      </c>
+      <c r="BJ210">
+        <v>1.95</v>
+      </c>
+      <c r="BK210">
+        <v>2.36</v>
+      </c>
+      <c r="BL210">
+        <v>1.56</v>
+      </c>
+      <c r="BM210">
+        <v>3.2</v>
+      </c>
+      <c r="BN210">
+        <v>1.28</v>
+      </c>
+      <c r="BO210">
+        <v>3.8</v>
+      </c>
+      <c r="BP210">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7382765</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45395.58333333334</v>
+      </c>
+      <c r="F211">
+        <v>4</v>
+      </c>
+      <c r="G211" t="s">
+        <v>80</v>
+      </c>
+      <c r="H211" t="s">
+        <v>75</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>1</v>
+      </c>
+      <c r="O211" t="s">
+        <v>89</v>
+      </c>
+      <c r="P211" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q211">
+        <v>2.88</v>
+      </c>
+      <c r="R211">
+        <v>2.1</v>
+      </c>
+      <c r="S211">
+        <v>4</v>
+      </c>
+      <c r="T211">
+        <v>1.44</v>
+      </c>
+      <c r="U211">
+        <v>2.63</v>
+      </c>
+      <c r="V211">
+        <v>3.25</v>
+      </c>
+      <c r="W211">
+        <v>1.33</v>
+      </c>
+      <c r="X211">
+        <v>9</v>
+      </c>
+      <c r="Y211">
+        <v>1.07</v>
+      </c>
+      <c r="Z211">
+        <v>2.26</v>
+      </c>
+      <c r="AA211">
+        <v>3.3</v>
+      </c>
+      <c r="AB211">
+        <v>3</v>
+      </c>
+      <c r="AC211">
+        <v>1.03</v>
+      </c>
+      <c r="AD211">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE211">
+        <v>1.32</v>
+      </c>
+      <c r="AF211">
+        <v>2.98</v>
+      </c>
+      <c r="AG211">
+        <v>2.1</v>
+      </c>
+      <c r="AH211">
+        <v>1.67</v>
+      </c>
+      <c r="AI211">
+        <v>1.8</v>
+      </c>
+      <c r="AJ211">
+        <v>1.95</v>
+      </c>
+      <c r="AK211">
+        <v>1.32</v>
+      </c>
+      <c r="AL211">
+        <v>1.32</v>
+      </c>
+      <c r="AM211">
+        <v>1.71</v>
+      </c>
+      <c r="AN211">
+        <v>0.93</v>
+      </c>
+      <c r="AO211">
+        <v>0.43</v>
+      </c>
+      <c r="AP211">
+        <v>0.87</v>
+      </c>
+      <c r="AQ211">
+        <v>0.6</v>
+      </c>
+      <c r="AR211">
+        <v>1.3</v>
+      </c>
+      <c r="AS211">
+        <v>1.16</v>
+      </c>
+      <c r="AT211">
+        <v>2.46</v>
+      </c>
+      <c r="AU211">
+        <v>6</v>
+      </c>
+      <c r="AV211">
+        <v>5</v>
+      </c>
+      <c r="AW211">
+        <v>7</v>
+      </c>
+      <c r="AX211">
+        <v>3</v>
+      </c>
+      <c r="AY211">
+        <v>13</v>
+      </c>
+      <c r="AZ211">
+        <v>8</v>
+      </c>
+      <c r="BA211">
+        <v>2</v>
+      </c>
+      <c r="BB211">
+        <v>6</v>
+      </c>
+      <c r="BC211">
+        <v>8</v>
+      </c>
+      <c r="BD211">
+        <v>1.64</v>
+      </c>
+      <c r="BE211">
+        <v>8</v>
+      </c>
+      <c r="BF211">
+        <v>2.77</v>
+      </c>
+      <c r="BG211">
+        <v>1.31</v>
+      </c>
+      <c r="BH211">
+        <v>3.04</v>
+      </c>
+      <c r="BI211">
+        <v>1.64</v>
+      </c>
+      <c r="BJ211">
+        <v>2.22</v>
+      </c>
+      <c r="BK211">
+        <v>2.06</v>
+      </c>
+      <c r="BL211">
+        <v>1.75</v>
+      </c>
+      <c r="BM211">
+        <v>2.65</v>
+      </c>
+      <c r="BN211">
+        <v>1.42</v>
+      </c>
+      <c r="BO211">
+        <v>3.64</v>
+      </c>
+      <c r="BP211">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7378770</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45396.45833333334</v>
+      </c>
+      <c r="F212">
+        <v>5</v>
+      </c>
+      <c r="G212" t="s">
+        <v>77</v>
+      </c>
+      <c r="H212" t="s">
+        <v>79</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212">
+        <v>3</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>4</v>
+      </c>
+      <c r="O212" t="s">
+        <v>229</v>
+      </c>
+      <c r="P212" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q212">
+        <v>1.53</v>
+      </c>
+      <c r="R212">
+        <v>3</v>
+      </c>
+      <c r="S212">
+        <v>12</v>
+      </c>
+      <c r="T212">
+        <v>1.25</v>
+      </c>
+      <c r="U212">
+        <v>3.75</v>
+      </c>
+      <c r="V212">
+        <v>2.1</v>
+      </c>
+      <c r="W212">
+        <v>1.67</v>
+      </c>
+      <c r="X212">
+        <v>5</v>
+      </c>
+      <c r="Y212">
+        <v>1.17</v>
+      </c>
+      <c r="Z212">
+        <v>1.15</v>
+      </c>
+      <c r="AA212">
+        <v>7</v>
+      </c>
+      <c r="AB212">
+        <v>16</v>
+      </c>
+      <c r="AC212">
+        <v>1.02</v>
+      </c>
+      <c r="AD212">
+        <v>13</v>
+      </c>
+      <c r="AE212">
+        <v>1.1</v>
+      </c>
+      <c r="AF212">
+        <v>5.7</v>
+      </c>
+      <c r="AG212">
+        <v>1.45</v>
+      </c>
+      <c r="AH212">
+        <v>2.55</v>
+      </c>
+      <c r="AI212">
+        <v>2.25</v>
+      </c>
+      <c r="AJ212">
+        <v>1.57</v>
+      </c>
+      <c r="AK212">
+        <v>1.01</v>
+      </c>
+      <c r="AL212">
+        <v>1.07</v>
+      </c>
+      <c r="AM212">
+        <v>5</v>
+      </c>
+      <c r="AN212">
+        <v>2.2</v>
+      </c>
+      <c r="AO212">
+        <v>0.93</v>
+      </c>
+      <c r="AP212">
+        <v>2.25</v>
+      </c>
+      <c r="AQ212">
+        <v>0.88</v>
+      </c>
+      <c r="AR212">
+        <v>1.85</v>
+      </c>
+      <c r="AS212">
+        <v>1.06</v>
+      </c>
+      <c r="AT212">
+        <v>2.91</v>
+      </c>
+      <c r="AU212">
+        <v>2</v>
+      </c>
+      <c r="AV212">
+        <v>0</v>
+      </c>
+      <c r="AW212">
+        <v>5</v>
+      </c>
+      <c r="AX212">
+        <v>3</v>
+      </c>
+      <c r="AY212">
+        <v>7</v>
+      </c>
+      <c r="AZ212">
+        <v>3</v>
+      </c>
+      <c r="BA212">
+        <v>3</v>
+      </c>
+      <c r="BB212">
+        <v>0</v>
+      </c>
+      <c r="BC212">
+        <v>3</v>
+      </c>
+      <c r="BD212">
+        <v>1.06</v>
+      </c>
+      <c r="BE212">
+        <v>13</v>
+      </c>
+      <c r="BF212">
+        <v>11.4</v>
+      </c>
+      <c r="BG212">
+        <v>1.39</v>
+      </c>
+      <c r="BH212">
+        <v>2.76</v>
+      </c>
+      <c r="BI212">
+        <v>1.74</v>
+      </c>
+      <c r="BJ212">
+        <v>2.06</v>
+      </c>
+      <c r="BK212">
+        <v>2.22</v>
+      </c>
+      <c r="BL212">
+        <v>1.63</v>
+      </c>
+      <c r="BM212">
+        <v>2.88</v>
+      </c>
+      <c r="BN212">
+        <v>1.34</v>
+      </c>
+      <c r="BO212">
+        <v>4.1</v>
+      </c>
+      <c r="BP212">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7378772</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45396.60416666666</v>
+      </c>
+      <c r="F213">
+        <v>5</v>
+      </c>
+      <c r="G213" t="s">
+        <v>78</v>
+      </c>
+      <c r="H213" t="s">
+        <v>82</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213" t="s">
+        <v>230</v>
+      </c>
+      <c r="P213" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q213">
+        <v>1.67</v>
+      </c>
+      <c r="R213">
+        <v>2.63</v>
+      </c>
+      <c r="S213">
+        <v>9.5</v>
+      </c>
+      <c r="T213">
+        <v>1.29</v>
+      </c>
+      <c r="U213">
+        <v>3.5</v>
+      </c>
+      <c r="V213">
+        <v>2.38</v>
+      </c>
+      <c r="W213">
+        <v>1.53</v>
+      </c>
+      <c r="X213">
+        <v>5.5</v>
+      </c>
+      <c r="Y213">
+        <v>1.14</v>
+      </c>
+      <c r="Z213">
+        <v>1.22</v>
+      </c>
+      <c r="AA213">
+        <v>5.64</v>
+      </c>
+      <c r="AB213">
+        <v>9.35</v>
+      </c>
+      <c r="AC213">
+        <v>1.03</v>
+      </c>
+      <c r="AD213">
+        <v>14.4</v>
+      </c>
+      <c r="AE213">
+        <v>1.16</v>
+      </c>
+      <c r="AF213">
+        <v>4.35</v>
+      </c>
+      <c r="AG213">
+        <v>1.62</v>
+      </c>
+      <c r="AH213">
+        <v>2.25</v>
+      </c>
+      <c r="AI213">
+        <v>2.1</v>
+      </c>
+      <c r="AJ213">
+        <v>1.67</v>
+      </c>
+      <c r="AK213">
+        <v>1.02</v>
+      </c>
+      <c r="AL213">
+        <v>1.12</v>
+      </c>
+      <c r="AM213">
+        <v>4</v>
+      </c>
+      <c r="AN213">
+        <v>2.47</v>
+      </c>
+      <c r="AO213">
+        <v>1.2</v>
+      </c>
+      <c r="AP213">
+        <v>2.5</v>
+      </c>
+      <c r="AQ213">
+        <v>1.13</v>
+      </c>
+      <c r="AR213">
+        <v>1.95</v>
+      </c>
+      <c r="AS213">
+        <v>1.03</v>
+      </c>
+      <c r="AT213">
+        <v>2.98</v>
+      </c>
+      <c r="AU213">
+        <v>6</v>
+      </c>
+      <c r="AV213">
+        <v>4</v>
+      </c>
+      <c r="AW213">
+        <v>7</v>
+      </c>
+      <c r="AX213">
+        <v>1</v>
+      </c>
+      <c r="AY213">
+        <v>13</v>
+      </c>
+      <c r="AZ213">
+        <v>5</v>
+      </c>
+      <c r="BA213">
+        <v>4</v>
+      </c>
+      <c r="BB213">
+        <v>2</v>
+      </c>
+      <c r="BC213">
+        <v>6</v>
+      </c>
+      <c r="BD213">
+        <v>1.07</v>
+      </c>
+      <c r="BE213">
+        <v>15.75</v>
+      </c>
+      <c r="BF213">
+        <v>10.75</v>
+      </c>
+      <c r="BG213">
+        <v>1.28</v>
+      </c>
+      <c r="BH213">
+        <v>3.2</v>
+      </c>
+      <c r="BI213">
+        <v>1.56</v>
+      </c>
+      <c r="BJ213">
+        <v>2.39</v>
+      </c>
+      <c r="BK213">
+        <v>1.95</v>
+      </c>
+      <c r="BL213">
+        <v>1.85</v>
+      </c>
+      <c r="BM213">
+        <v>2.53</v>
+      </c>
+      <c r="BN213">
+        <v>1.5</v>
+      </c>
+      <c r="BO213">
+        <v>3.34</v>
+      </c>
+      <c r="BP213">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -44607,22 +44607,22 @@
         <v>2.41</v>
       </c>
       <c r="AU210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV210">
         <v>4</v>
       </c>
       <c r="AW210">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX210">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY210">
         <v>11</v>
       </c>
       <c r="AZ210">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA210">
         <v>10</v>
@@ -44813,19 +44813,19 @@
         <v>2.46</v>
       </c>
       <c r="AU211">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV211">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW211">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX211">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY211">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ211">
         <v>8</v>
@@ -45019,31 +45019,31 @@
         <v>2.91</v>
       </c>
       <c r="AU212">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV212">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW212">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX212">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY212">
+        <v>18</v>
+      </c>
+      <c r="AZ212">
         <v>7</v>
       </c>
-      <c r="AZ212">
-        <v>3</v>
-      </c>
       <c r="BA212">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BB212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC212">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BD212">
         <v>1.06</v>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -45225,19 +45225,19 @@
         <v>2.98</v>
       </c>
       <c r="AU213">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV213">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW213">
         <v>7</v>
       </c>
       <c r="AX213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY213">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ213">
         <v>5</v>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="347">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,6 +709,12 @@
     <t>['9', '14']</t>
   </si>
   <si>
+    <t>['28', '49']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -800,9 +806,6 @@
   </si>
   <si>
     <t>['25', '55', '77']</t>
-  </si>
-  <si>
-    <t>['16']</t>
   </si>
   <si>
     <t>['40']</t>
@@ -1046,6 +1049,12 @@
   </si>
   <si>
     <t>['14']</t>
+  </si>
+  <si>
+    <t>['64', '67']</t>
+  </si>
+  <si>
+    <t>['31', '67']</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP213"/>
+  <dimension ref="A1:BP216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1666,7 +1675,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -1953,7 +1962,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2078,7 +2087,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2156,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ4">
         <v>1.13</v>
@@ -2980,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ8">
         <v>0.47</v>
@@ -3189,7 +3198,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ9">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3726,7 +3735,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -3807,7 +3816,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ12">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR12">
         <v>1.83</v>
@@ -4425,7 +4434,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ15">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4550,7 +4559,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -5040,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ18">
         <v>2.13</v>
@@ -5168,7 +5177,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5374,7 +5383,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5580,7 +5589,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5786,7 +5795,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -5992,7 +6001,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6070,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ23">
         <v>0.47</v>
@@ -6198,7 +6207,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6894,10 +6903,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -7022,7 +7031,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7100,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ28">
         <v>0.8</v>
@@ -7515,7 +7524,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR30">
         <v>2.36</v>
@@ -7721,7 +7730,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR31">
         <v>1.44</v>
@@ -7846,7 +7855,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8052,7 +8061,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8258,7 +8267,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8464,7 +8473,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8670,7 +8679,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9163,7 +9172,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ38">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR38">
         <v>1.78</v>
@@ -9288,7 +9297,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9494,7 +9503,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -9572,7 +9581,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ40">
         <v>2.13</v>
@@ -9987,7 +9996,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>0.84</v>
@@ -10112,7 +10121,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10193,7 +10202,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR43">
         <v>1.76</v>
@@ -10318,7 +10327,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10524,7 +10533,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -10808,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46">
         <v>1.07</v>
@@ -11014,7 +11023,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ47">
         <v>1.93</v>
@@ -11223,7 +11232,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ48">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR48">
         <v>2.17</v>
@@ -11554,7 +11563,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11841,7 +11850,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ51">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR51">
         <v>1.62</v>
@@ -12172,7 +12181,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12250,7 +12259,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ53">
         <v>1.93</v>
@@ -12790,7 +12799,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12996,7 +13005,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13077,7 +13086,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ57">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR57">
         <v>1.23</v>
@@ -13202,7 +13211,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13280,10 +13289,10 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR58">
         <v>0.99</v>
@@ -13486,7 +13495,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ59">
         <v>0.88</v>
@@ -14232,7 +14241,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14310,7 +14319,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ63">
         <v>2</v>
@@ -14438,7 +14447,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14850,7 +14859,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -15056,7 +15065,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15137,7 +15146,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ67">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -15262,7 +15271,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15468,7 +15477,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15674,7 +15683,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15880,7 +15889,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15958,7 +15967,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ71">
         <v>0.47</v>
@@ -16086,7 +16095,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16164,7 +16173,7 @@
         <v>0.4</v>
       </c>
       <c r="AP72">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ72">
         <v>0.67</v>
@@ -16292,7 +16301,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16498,7 +16507,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16579,7 +16588,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ74">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR74">
         <v>1.97</v>
@@ -16910,7 +16919,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -16988,7 +16997,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ76">
         <v>2</v>
@@ -17322,7 +17331,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17400,10 +17409,10 @@
         <v>0.4</v>
       </c>
       <c r="AP78">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ78">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR78">
         <v>1.19</v>
@@ -17528,7 +17537,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -17609,7 +17618,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ79">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR79">
         <v>1.9</v>
@@ -17940,7 +17949,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18352,7 +18361,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -19051,7 +19060,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ86">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR86">
         <v>1.67</v>
@@ -19254,7 +19263,7 @@
         <v>0.38</v>
       </c>
       <c r="AP87">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ87">
         <v>0.67</v>
@@ -19382,7 +19391,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19588,7 +19597,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19666,7 +19675,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89">
         <v>0.47</v>
@@ -20412,7 +20421,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20824,7 +20833,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20902,7 +20911,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ95">
         <v>2.13</v>
@@ -21030,7 +21039,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21111,7 +21120,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ96">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR96">
         <v>1.2</v>
@@ -21236,7 +21245,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21314,7 +21323,7 @@
         <v>2.57</v>
       </c>
       <c r="AP97">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ97">
         <v>2.13</v>
@@ -21442,7 +21451,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21648,7 +21657,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -21854,7 +21863,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -22060,7 +22069,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22347,7 +22356,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ102">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR102">
         <v>1.05</v>
@@ -22472,7 +22481,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22678,7 +22687,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22756,7 +22765,7 @@
         <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ104">
         <v>1.07</v>
@@ -22884,7 +22893,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -23168,7 +23177,7 @@
         <v>2.33</v>
       </c>
       <c r="AP106">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ106">
         <v>2</v>
@@ -23296,7 +23305,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23374,7 +23383,7 @@
         <v>0.67</v>
       </c>
       <c r="AP107">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ107">
         <v>1.13</v>
@@ -23789,7 +23798,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ109">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR109">
         <v>1.99</v>
@@ -24326,7 +24335,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24610,10 +24619,10 @@
         <v>0.17</v>
       </c>
       <c r="AP113">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ113">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR113">
         <v>1.09</v>
@@ -24738,7 +24747,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24944,7 +24953,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -25025,7 +25034,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ115">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -25150,7 +25159,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25231,7 +25240,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ116">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
         <v>1.87</v>
@@ -25562,7 +25571,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25768,7 +25777,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -26052,7 +26061,7 @@
         <v>0.75</v>
       </c>
       <c r="AP120">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ120">
         <v>0.88</v>
@@ -26180,7 +26189,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26258,7 +26267,7 @@
         <v>0.38</v>
       </c>
       <c r="AP121">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ121">
         <v>0.47</v>
@@ -26386,7 +26395,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26592,7 +26601,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26798,7 +26807,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -27082,10 +27091,10 @@
         <v>0.75</v>
       </c>
       <c r="AP125">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ125">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR125">
         <v>1.21</v>
@@ -27210,7 +27219,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27622,7 +27631,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27703,7 +27712,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ128">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR128">
         <v>1.23</v>
@@ -27828,7 +27837,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28112,10 +28121,10 @@
         <v>0.22</v>
       </c>
       <c r="AP130">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ130">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR130">
         <v>1.43</v>
@@ -28240,7 +28249,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28446,7 +28455,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28524,7 +28533,7 @@
         <v>2</v>
       </c>
       <c r="AP132">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ132">
         <v>1.93</v>
@@ -28858,7 +28867,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29064,7 +29073,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29270,7 +29279,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29351,7 +29360,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ136">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR136">
         <v>1.21</v>
@@ -29476,7 +29485,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29966,7 +29975,7 @@
         <v>0.89</v>
       </c>
       <c r="AP139">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ139">
         <v>0.8</v>
@@ -30094,7 +30103,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30300,7 +30309,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30506,7 +30515,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30587,7 +30596,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ142">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR142">
         <v>1.18</v>
@@ -30712,7 +30721,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30918,7 +30927,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -30996,10 +31005,10 @@
         <v>0.22</v>
       </c>
       <c r="AP144">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ144">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR144">
         <v>1.36</v>
@@ -31124,7 +31133,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31330,7 +31339,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31536,7 +31545,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31614,7 +31623,7 @@
         <v>1.78</v>
       </c>
       <c r="AP147">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ147">
         <v>2.13</v>
@@ -32647,7 +32656,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ152">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR152">
         <v>1.25</v>
@@ -32772,7 +32781,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -32978,7 +32987,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33390,7 +33399,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33468,7 +33477,7 @@
         <v>1.09</v>
       </c>
       <c r="AP156">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ156">
         <v>1.13</v>
@@ -33596,7 +33605,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33802,7 +33811,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34089,7 +34098,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ159">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR159">
         <v>1.94</v>
@@ -34214,7 +34223,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34498,7 +34507,7 @@
         <v>0.75</v>
       </c>
       <c r="AP161">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ161">
         <v>0.67</v>
@@ -34626,7 +34635,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34704,10 +34713,10 @@
         <v>0.27</v>
       </c>
       <c r="AP162">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ162">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR162">
         <v>1.22</v>
@@ -34832,7 +34841,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -35244,7 +35253,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35450,7 +35459,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35656,7 +35665,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -35943,7 +35952,7 @@
         <v>2</v>
       </c>
       <c r="AQ168">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR168">
         <v>1.7</v>
@@ -36068,7 +36077,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36149,7 +36158,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ169">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR169">
         <v>1.91</v>
@@ -36274,7 +36283,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36352,10 +36361,10 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ170">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR170">
         <v>1.28</v>
@@ -36480,7 +36489,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36686,7 +36695,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36764,7 +36773,7 @@
         <v>1.17</v>
       </c>
       <c r="AP172">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ172">
         <v>0.88</v>
@@ -36892,7 +36901,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -37098,7 +37107,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37304,7 +37313,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37922,7 +37931,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -38000,7 +38009,7 @@
         <v>2.08</v>
       </c>
       <c r="AP178">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ178">
         <v>2.13</v>
@@ -38128,7 +38137,7 @@
         <v>89</v>
       </c>
       <c r="P179" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q179">
         <v>6.5</v>
@@ -38334,7 +38343,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q180">
         <v>2.95</v>
@@ -38415,7 +38424,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ180">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR180">
         <v>1.25</v>
@@ -38540,7 +38549,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -38827,7 +38836,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ182">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR182">
         <v>1.96</v>
@@ -38952,7 +38961,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39158,7 +39167,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39364,7 +39373,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39570,7 +39579,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39776,7 +39785,7 @@
         <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -39854,10 +39863,10 @@
         <v>0.62</v>
       </c>
       <c r="AP187">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ187">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR187">
         <v>1.35</v>
@@ -40188,7 +40197,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40266,7 +40275,7 @@
         <v>0.54</v>
       </c>
       <c r="AP189">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ189">
         <v>0.47</v>
@@ -40887,7 +40896,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ192">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR192">
         <v>1.2</v>
@@ -41012,7 +41021,7 @@
         <v>112</v>
       </c>
       <c r="P193" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41093,7 +41102,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ193">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR193">
         <v>1.27</v>
@@ -41296,7 +41305,7 @@
         <v>0.77</v>
       </c>
       <c r="AP194">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ194">
         <v>0.8</v>
@@ -41424,7 +41433,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q195">
         <v>2.75</v>
@@ -42660,7 +42669,7 @@
         <v>140</v>
       </c>
       <c r="P201" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42738,7 +42747,7 @@
         <v>0.64</v>
       </c>
       <c r="AP201">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ201">
         <v>0.67</v>
@@ -42944,10 +42953,10 @@
         <v>0.5</v>
       </c>
       <c r="AP202">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ202">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR202">
         <v>1.33</v>
@@ -43072,7 +43081,7 @@
         <v>89</v>
       </c>
       <c r="P203" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q203">
         <v>2.88</v>
@@ -43153,7 +43162,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ203">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR203">
         <v>1.43</v>
@@ -43356,7 +43365,7 @@
         <v>0.5</v>
       </c>
       <c r="AP204">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ204">
         <v>0.47</v>
@@ -43484,7 +43493,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q205">
         <v>11</v>
@@ -43690,7 +43699,7 @@
         <v>89</v>
       </c>
       <c r="P206" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43896,7 +43905,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44102,7 +44111,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q208">
         <v>2.88</v>
@@ -44308,7 +44317,7 @@
         <v>125</v>
       </c>
       <c r="P209" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q209">
         <v>2.58</v>
@@ -44514,7 +44523,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q210">
         <v>2.99</v>
@@ -44720,7 +44729,7 @@
         <v>89</v>
       </c>
       <c r="P211" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q211">
         <v>2.88</v>
@@ -44801,7 +44810,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ211">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR211">
         <v>1.3</v>
@@ -44926,7 +44935,7 @@
         <v>229</v>
       </c>
       <c r="P212" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q212">
         <v>1.53</v>
@@ -45289,6 +45298,624 @@
       </c>
       <c r="BP213">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7382770</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45402.52083333334</v>
+      </c>
+      <c r="F214">
+        <v>5</v>
+      </c>
+      <c r="G214" t="s">
+        <v>72</v>
+      </c>
+      <c r="H214" t="s">
+        <v>70</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>3</v>
+      </c>
+      <c r="O214" t="s">
+        <v>231</v>
+      </c>
+      <c r="P214" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q214">
+        <v>2.67</v>
+      </c>
+      <c r="R214">
+        <v>2.17</v>
+      </c>
+      <c r="S214">
+        <v>4.3</v>
+      </c>
+      <c r="T214">
+        <v>1.45</v>
+      </c>
+      <c r="U214">
+        <v>2.6</v>
+      </c>
+      <c r="V214">
+        <v>2.95</v>
+      </c>
+      <c r="W214">
+        <v>1.35</v>
+      </c>
+      <c r="X214">
+        <v>8.5</v>
+      </c>
+      <c r="Y214">
+        <v>1.07</v>
+      </c>
+      <c r="Z214">
+        <v>2.08</v>
+      </c>
+      <c r="AA214">
+        <v>3.02</v>
+      </c>
+      <c r="AB214">
+        <v>4.15</v>
+      </c>
+      <c r="AC214">
+        <v>1.06</v>
+      </c>
+      <c r="AD214">
+        <v>9.75</v>
+      </c>
+      <c r="AE214">
+        <v>1.32</v>
+      </c>
+      <c r="AF214">
+        <v>3.05</v>
+      </c>
+      <c r="AG214">
+        <v>1.95</v>
+      </c>
+      <c r="AH214">
+        <v>1.75</v>
+      </c>
+      <c r="AI214">
+        <v>1.89</v>
+      </c>
+      <c r="AJ214">
+        <v>1.87</v>
+      </c>
+      <c r="AK214">
+        <v>1.25</v>
+      </c>
+      <c r="AL214">
+        <v>1.3</v>
+      </c>
+      <c r="AM214">
+        <v>1.87</v>
+      </c>
+      <c r="AN214">
+        <v>1.6</v>
+      </c>
+      <c r="AO214">
+        <v>0.93</v>
+      </c>
+      <c r="AP214">
+        <v>1.69</v>
+      </c>
+      <c r="AQ214">
+        <v>0.88</v>
+      </c>
+      <c r="AR214">
+        <v>1.41</v>
+      </c>
+      <c r="AS214">
+        <v>0.9</v>
+      </c>
+      <c r="AT214">
+        <v>2.31</v>
+      </c>
+      <c r="AU214">
+        <v>9</v>
+      </c>
+      <c r="AV214">
+        <v>5</v>
+      </c>
+      <c r="AW214">
+        <v>3</v>
+      </c>
+      <c r="AX214">
+        <v>3</v>
+      </c>
+      <c r="AY214">
+        <v>12</v>
+      </c>
+      <c r="AZ214">
+        <v>8</v>
+      </c>
+      <c r="BA214">
+        <v>3</v>
+      </c>
+      <c r="BB214">
+        <v>3</v>
+      </c>
+      <c r="BC214">
+        <v>6</v>
+      </c>
+      <c r="BD214">
+        <v>1.49</v>
+      </c>
+      <c r="BE214">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF214">
+        <v>3.24</v>
+      </c>
+      <c r="BG214">
+        <v>1.53</v>
+      </c>
+      <c r="BH214">
+        <v>2.34</v>
+      </c>
+      <c r="BI214">
+        <v>2</v>
+      </c>
+      <c r="BJ214">
+        <v>1.8</v>
+      </c>
+      <c r="BK214">
+        <v>2.58</v>
+      </c>
+      <c r="BL214">
+        <v>1.44</v>
+      </c>
+      <c r="BM214">
+        <v>3.56</v>
+      </c>
+      <c r="BN214">
+        <v>1.23</v>
+      </c>
+      <c r="BO214">
+        <v>4.5</v>
+      </c>
+      <c r="BP214">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7382769</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45402.5625</v>
+      </c>
+      <c r="F215">
+        <v>5</v>
+      </c>
+      <c r="G215" t="s">
+        <v>83</v>
+      </c>
+      <c r="H215" t="s">
+        <v>80</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+      <c r="N215">
+        <v>3</v>
+      </c>
+      <c r="O215" t="s">
+        <v>232</v>
+      </c>
+      <c r="P215" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q215">
+        <v>3.08</v>
+      </c>
+      <c r="R215">
+        <v>2.24</v>
+      </c>
+      <c r="S215">
+        <v>3.38</v>
+      </c>
+      <c r="T215">
+        <v>1.36</v>
+      </c>
+      <c r="U215">
+        <v>3.08</v>
+      </c>
+      <c r="V215">
+        <v>2.8</v>
+      </c>
+      <c r="W215">
+        <v>1.42</v>
+      </c>
+      <c r="X215">
+        <v>6.85</v>
+      </c>
+      <c r="Y215">
+        <v>1.08</v>
+      </c>
+      <c r="Z215">
+        <v>2.35</v>
+      </c>
+      <c r="AA215">
+        <v>3.4</v>
+      </c>
+      <c r="AB215">
+        <v>2.75</v>
+      </c>
+      <c r="AC215">
+        <v>1.02</v>
+      </c>
+      <c r="AD215">
+        <v>10</v>
+      </c>
+      <c r="AE215">
+        <v>1.29</v>
+      </c>
+      <c r="AF215">
+        <v>3.4</v>
+      </c>
+      <c r="AG215">
+        <v>1.85</v>
+      </c>
+      <c r="AH215">
+        <v>1.85</v>
+      </c>
+      <c r="AI215">
+        <v>1.69</v>
+      </c>
+      <c r="AJ215">
+        <v>2.11</v>
+      </c>
+      <c r="AK215">
+        <v>1.46</v>
+      </c>
+      <c r="AL215">
+        <v>1.31</v>
+      </c>
+      <c r="AM215">
+        <v>1.53</v>
+      </c>
+      <c r="AN215">
+        <v>1.47</v>
+      </c>
+      <c r="AO215">
+        <v>0.67</v>
+      </c>
+      <c r="AP215">
+        <v>1.38</v>
+      </c>
+      <c r="AQ215">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR215">
+        <v>1.11</v>
+      </c>
+      <c r="AS215">
+        <v>1.1</v>
+      </c>
+      <c r="AT215">
+        <v>2.21</v>
+      </c>
+      <c r="AU215">
+        <v>4</v>
+      </c>
+      <c r="AV215">
+        <v>9</v>
+      </c>
+      <c r="AW215">
+        <v>8</v>
+      </c>
+      <c r="AX215">
+        <v>3</v>
+      </c>
+      <c r="AY215">
+        <v>12</v>
+      </c>
+      <c r="AZ215">
+        <v>12</v>
+      </c>
+      <c r="BA215">
+        <v>3</v>
+      </c>
+      <c r="BB215">
+        <v>5</v>
+      </c>
+      <c r="BC215">
+        <v>8</v>
+      </c>
+      <c r="BD215">
+        <v>2.07</v>
+      </c>
+      <c r="BE215">
+        <v>8.9</v>
+      </c>
+      <c r="BF215">
+        <v>2.01</v>
+      </c>
+      <c r="BG215">
+        <v>1.25</v>
+      </c>
+      <c r="BH215">
+        <v>3.42</v>
+      </c>
+      <c r="BI215">
+        <v>1.48</v>
+      </c>
+      <c r="BJ215">
+        <v>2.47</v>
+      </c>
+      <c r="BK215">
+        <v>1.82</v>
+      </c>
+      <c r="BL215">
+        <v>1.98</v>
+      </c>
+      <c r="BM215">
+        <v>2.36</v>
+      </c>
+      <c r="BN215">
+        <v>1.52</v>
+      </c>
+      <c r="BO215">
+        <v>3.18</v>
+      </c>
+      <c r="BP215">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7382768</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45402.5625</v>
+      </c>
+      <c r="F216">
+        <v>5</v>
+      </c>
+      <c r="G216" t="s">
+        <v>76</v>
+      </c>
+      <c r="H216" t="s">
+        <v>75</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" t="s">
+        <v>89</v>
+      </c>
+      <c r="P216" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q216">
+        <v>3.15</v>
+      </c>
+      <c r="R216">
+        <v>2.13</v>
+      </c>
+      <c r="S216">
+        <v>3.58</v>
+      </c>
+      <c r="T216">
+        <v>1.42</v>
+      </c>
+      <c r="U216">
+        <v>2.78</v>
+      </c>
+      <c r="V216">
+        <v>3.15</v>
+      </c>
+      <c r="W216">
+        <v>1.34</v>
+      </c>
+      <c r="X216">
+        <v>7.5</v>
+      </c>
+      <c r="Y216">
+        <v>1.06</v>
+      </c>
+      <c r="Z216">
+        <v>2.16</v>
+      </c>
+      <c r="AA216">
+        <v>3.1</v>
+      </c>
+      <c r="AB216">
+        <v>3.2</v>
+      </c>
+      <c r="AC216">
+        <v>1.04</v>
+      </c>
+      <c r="AD216">
+        <v>8.5</v>
+      </c>
+      <c r="AE216">
+        <v>1.33</v>
+      </c>
+      <c r="AF216">
+        <v>3</v>
+      </c>
+      <c r="AG216">
+        <v>2.08</v>
+      </c>
+      <c r="AH216">
+        <v>1.67</v>
+      </c>
+      <c r="AI216">
+        <v>1.8</v>
+      </c>
+      <c r="AJ216">
+        <v>1.91</v>
+      </c>
+      <c r="AK216">
+        <v>1.4</v>
+      </c>
+      <c r="AL216">
+        <v>1.33</v>
+      </c>
+      <c r="AM216">
+        <v>1.57</v>
+      </c>
+      <c r="AN216">
+        <v>1.2</v>
+      </c>
+      <c r="AO216">
+        <v>0.6</v>
+      </c>
+      <c r="AP216">
+        <v>1.13</v>
+      </c>
+      <c r="AQ216">
+        <v>0.75</v>
+      </c>
+      <c r="AR216">
+        <v>1.32</v>
+      </c>
+      <c r="AS216">
+        <v>1.16</v>
+      </c>
+      <c r="AT216">
+        <v>2.48</v>
+      </c>
+      <c r="AU216">
+        <v>3</v>
+      </c>
+      <c r="AV216">
+        <v>8</v>
+      </c>
+      <c r="AW216">
+        <v>4</v>
+      </c>
+      <c r="AX216">
+        <v>6</v>
+      </c>
+      <c r="AY216">
+        <v>7</v>
+      </c>
+      <c r="AZ216">
+        <v>14</v>
+      </c>
+      <c r="BA216">
+        <v>10</v>
+      </c>
+      <c r="BB216">
+        <v>6</v>
+      </c>
+      <c r="BC216">
+        <v>16</v>
+      </c>
+      <c r="BD216">
+        <v>1.85</v>
+      </c>
+      <c r="BE216">
+        <v>8</v>
+      </c>
+      <c r="BF216">
+        <v>2.34</v>
+      </c>
+      <c r="BG216">
+        <v>1.64</v>
+      </c>
+      <c r="BH216">
+        <v>2.12</v>
+      </c>
+      <c r="BI216">
+        <v>2.14</v>
+      </c>
+      <c r="BJ216">
+        <v>1.66</v>
+      </c>
+      <c r="BK216">
+        <v>2.89</v>
+      </c>
+      <c r="BL216">
+        <v>1.36</v>
+      </c>
+      <c r="BM216">
+        <v>4.15</v>
+      </c>
+      <c r="BN216">
+        <v>1.17</v>
+      </c>
+      <c r="BO216">
+        <v>5</v>
+      </c>
+      <c r="BP216">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="351">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,12 @@
     <t>['16']</t>
   </si>
   <si>
+    <t>['29', '45+4']</t>
+  </si>
+  <si>
+    <t>['27', '61']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -1055,6 +1061,12 @@
   </si>
   <si>
     <t>['31', '67']</t>
+  </si>
+  <si>
+    <t>['23', '45', '54', '57', '61']</t>
+  </si>
+  <si>
+    <t>['49', '84']</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP216"/>
+  <dimension ref="A1:BP220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1675,7 +1687,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -2087,7 +2099,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2577,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ6">
         <v>0.67</v>
@@ -2786,7 +2798,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3607,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ11">
         <v>1.13</v>
@@ -3735,7 +3747,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -4019,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ13">
         <v>0.8</v>
@@ -4431,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ15">
         <v>0.75</v>
@@ -4559,7 +4571,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -4637,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ16">
         <v>1.07</v>
@@ -4843,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17">
         <v>0.88</v>
@@ -5052,7 +5064,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ18">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.52</v>
@@ -5177,7 +5189,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5258,7 +5270,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ19">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>1.21</v>
@@ -5383,7 +5395,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5464,7 +5476,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ20">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR20">
         <v>1.39</v>
@@ -5589,7 +5601,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5667,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21">
         <v>0.47</v>
@@ -5795,7 +5807,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -5876,7 +5888,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ22">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR22">
         <v>1.75</v>
@@ -6001,7 +6013,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6082,7 +6094,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ23">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR23">
         <v>1.17</v>
@@ -6207,7 +6219,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -7031,7 +7043,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7315,7 +7327,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ29">
         <v>0.88</v>
@@ -7521,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ30">
         <v>0.8100000000000001</v>
@@ -7727,7 +7739,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -7855,7 +7867,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8061,7 +8073,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8142,7 +8154,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ33">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.27</v>
@@ -8267,7 +8279,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8348,7 +8360,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ34">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.73</v>
@@ -8473,7 +8485,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8679,7 +8691,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8963,7 +8975,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ37">
         <v>1.13</v>
@@ -9297,7 +9309,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9375,10 +9387,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ39">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9503,7 +9515,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -9584,7 +9596,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ40">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR40">
         <v>1.53</v>
@@ -9993,7 +10005,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -10121,7 +10133,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10199,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ43">
         <v>0.8100000000000001</v>
@@ -10327,7 +10339,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10408,7 +10420,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ44">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.54</v>
@@ -10533,7 +10545,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -11026,7 +11038,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ47">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR47">
         <v>1.42</v>
@@ -11563,7 +11575,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11641,10 +11653,10 @@
         <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR50">
         <v>0.91</v>
@@ -12053,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -12181,7 +12193,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12262,7 +12274,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ53">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR53">
         <v>1.41</v>
@@ -12799,7 +12811,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12877,10 +12889,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ56">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR56">
         <v>2.15</v>
@@ -13005,7 +13017,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13211,7 +13223,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13907,10 +13919,10 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ61">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR61">
         <v>1.92</v>
@@ -14116,7 +14128,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ62">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR62">
         <v>2.31</v>
@@ -14241,7 +14253,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14447,7 +14459,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14525,10 +14537,10 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ64">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR64">
         <v>1.04</v>
@@ -14734,7 +14746,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ65">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR65">
         <v>1.58</v>
@@ -14859,7 +14871,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -15065,7 +15077,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15271,7 +15283,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15349,10 +15361,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ68">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR68">
         <v>1.91</v>
@@ -15477,7 +15489,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15555,7 +15567,7 @@
         <v>0.17</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ69">
         <v>0.8</v>
@@ -15761,7 +15773,7 @@
         <v>0.75</v>
       </c>
       <c r="AP70">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70">
         <v>0.47</v>
@@ -15889,7 +15901,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15970,7 +15982,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ71">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR71">
         <v>1.17</v>
@@ -16095,7 +16107,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16301,7 +16313,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16507,7 +16519,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16919,7 +16931,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17206,7 +17218,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ77">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR77">
         <v>1.42</v>
@@ -17331,7 +17343,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17537,7 +17549,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -17615,7 +17627,7 @@
         <v>0.17</v>
       </c>
       <c r="AP79">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ79">
         <v>0.75</v>
@@ -17949,7 +17961,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18236,7 +18248,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ82">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR82">
         <v>1.08</v>
@@ -18361,7 +18373,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -18439,7 +18451,7 @@
         <v>0.57</v>
       </c>
       <c r="AP83">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
         <v>0.8</v>
@@ -18645,10 +18657,10 @@
         <v>3</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ84">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR84">
         <v>1.9</v>
@@ -19391,7 +19403,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19597,7 +19609,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19678,7 +19690,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR89">
         <v>1.11</v>
@@ -20421,7 +20433,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20502,7 +20514,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ93">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR93">
         <v>1.35</v>
@@ -20705,7 +20717,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ94">
         <v>0.47</v>
@@ -20833,7 +20845,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20914,7 +20926,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ95">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -21039,7 +21051,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21117,7 +21129,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ96">
         <v>0.88</v>
@@ -21245,7 +21257,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21326,7 +21338,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ97">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21451,7 +21463,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21532,7 +21544,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ98">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR98">
         <v>1.71</v>
@@ -21657,7 +21669,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -21735,7 +21747,7 @@
         <v>2.2</v>
       </c>
       <c r="AP99">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ99">
         <v>2</v>
@@ -21863,7 +21875,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -21941,7 +21953,7 @@
         <v>0.71</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ100">
         <v>0.88</v>
@@ -22069,7 +22081,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22150,7 +22162,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ101">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR101">
         <v>1.3</v>
@@ -22481,7 +22493,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22559,10 +22571,10 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ103">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR103">
         <v>1.29</v>
@@ -22687,7 +22699,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22893,7 +22905,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -22974,7 +22986,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ105">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR105">
         <v>1.39</v>
@@ -23305,7 +23317,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23589,7 +23601,7 @@
         <v>2.14</v>
       </c>
       <c r="AP108">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ108">
         <v>2</v>
@@ -24210,7 +24222,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ111">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR111">
         <v>1.92</v>
@@ -24335,7 +24347,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24747,7 +24759,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24953,7 +24965,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -25031,7 +25043,7 @@
         <v>0.14</v>
       </c>
       <c r="AP115">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ115">
         <v>0.8100000000000001</v>
@@ -25159,7 +25171,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25571,7 +25583,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25649,10 +25661,10 @@
         <v>1.86</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ118">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR118">
         <v>1.89</v>
@@ -25777,7 +25789,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25855,10 +25867,10 @@
         <v>1.88</v>
       </c>
       <c r="AP119">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ119">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR119">
         <v>1.84</v>
@@ -26189,7 +26201,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26395,7 +26407,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26473,7 +26485,7 @@
         <v>0.3</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ122">
         <v>0.67</v>
@@ -26601,7 +26613,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26807,7 +26819,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -27219,7 +27231,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27300,7 +27312,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ126">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR126">
         <v>1.94</v>
@@ -27506,7 +27518,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ127">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR127">
         <v>1.89</v>
@@ -27631,7 +27643,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27709,7 +27721,7 @@
         <v>0.25</v>
       </c>
       <c r="AP128">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ128">
         <v>0.8100000000000001</v>
@@ -27837,7 +27849,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28249,7 +28261,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28330,7 +28342,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ131">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR131">
         <v>1.19</v>
@@ -28455,7 +28467,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28536,7 +28548,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ132">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR132">
         <v>1.13</v>
@@ -28867,7 +28879,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28945,7 +28957,7 @@
         <v>2</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134">
         <v>2</v>
@@ -29073,7 +29085,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29279,7 +29291,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29357,7 +29369,7 @@
         <v>0.67</v>
       </c>
       <c r="AP136">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ136">
         <v>0.88</v>
@@ -30103,7 +30115,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30181,10 +30193,10 @@
         <v>0.4</v>
       </c>
       <c r="AP140">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ140">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR140">
         <v>1.76</v>
@@ -30309,7 +30321,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30390,7 +30402,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ141">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR141">
         <v>1.95</v>
@@ -30515,7 +30527,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30721,7 +30733,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30799,7 +30811,7 @@
         <v>1.11</v>
       </c>
       <c r="AP143">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ143">
         <v>1.13</v>
@@ -30927,7 +30939,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31133,7 +31145,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31339,7 +31351,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31545,7 +31557,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31626,7 +31638,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ147">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR147">
         <v>1.12</v>
@@ -32035,7 +32047,7 @@
         <v>0.4</v>
       </c>
       <c r="AP149">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ149">
         <v>0.47</v>
@@ -32781,7 +32793,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -32859,10 +32871,10 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ153">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR153">
         <v>1.31</v>
@@ -32987,7 +32999,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33065,7 +33077,7 @@
         <v>1.3</v>
       </c>
       <c r="AP154">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ154">
         <v>1.07</v>
@@ -33274,7 +33286,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ155">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR155">
         <v>1.9</v>
@@ -33399,7 +33411,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33605,7 +33617,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33811,7 +33823,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33892,7 +33904,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ158">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR158">
         <v>1.2</v>
@@ -34223,7 +34235,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34635,7 +34647,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34841,7 +34853,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -34919,10 +34931,10 @@
         <v>2</v>
       </c>
       <c r="AP163">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ163">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR163">
         <v>1.24</v>
@@ -35125,7 +35137,7 @@
         <v>0.73</v>
       </c>
       <c r="AP164">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ164">
         <v>0.8</v>
@@ -35253,7 +35265,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35459,7 +35471,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35540,7 +35552,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ166">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR166">
         <v>1.5</v>
@@ -35665,7 +35677,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -35743,7 +35755,7 @@
         <v>1.18</v>
       </c>
       <c r="AP167">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ167">
         <v>1.07</v>
@@ -35949,7 +35961,7 @@
         <v>0.73</v>
       </c>
       <c r="AP168">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ168">
         <v>0.88</v>
@@ -36077,7 +36089,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36283,7 +36295,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36489,7 +36501,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36695,7 +36707,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36901,7 +36913,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -37107,7 +37119,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37188,7 +37200,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ174">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR174">
         <v>2.05</v>
@@ -37313,7 +37325,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37391,10 +37403,10 @@
         <v>2</v>
       </c>
       <c r="AP175">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ175">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR175">
         <v>1.28</v>
@@ -37931,7 +37943,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -38012,7 +38024,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ178">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR178">
         <v>1.36</v>
@@ -38137,7 +38149,7 @@
         <v>89</v>
       </c>
       <c r="P179" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q179">
         <v>6.5</v>
@@ -38215,10 +38227,10 @@
         <v>2.08</v>
       </c>
       <c r="AP179">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ179">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR179">
         <v>1.23</v>
@@ -38343,7 +38355,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q180">
         <v>2.95</v>
@@ -38549,7 +38561,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -38627,10 +38639,10 @@
         <v>2.08</v>
       </c>
       <c r="AP181">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ181">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR181">
         <v>1.75</v>
@@ -38833,7 +38845,7 @@
         <v>0.67</v>
       </c>
       <c r="AP182">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ182">
         <v>0.88</v>
@@ -38961,7 +38973,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39039,7 +39051,7 @@
         <v>1.08</v>
       </c>
       <c r="AP183">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ183">
         <v>1.07</v>
@@ -39167,7 +39179,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39245,10 +39257,10 @@
         <v>2</v>
       </c>
       <c r="AP184">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ184">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR184">
         <v>1.18</v>
@@ -39373,7 +39385,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39451,10 +39463,10 @@
         <v>2</v>
       </c>
       <c r="AP185">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ185">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR185">
         <v>2.06</v>
@@ -39579,7 +39591,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39785,7 +39797,7 @@
         <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -40197,7 +40209,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40278,7 +40290,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ189">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR189">
         <v>1.09</v>
@@ -40687,7 +40699,7 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ191">
         <v>1.07</v>
@@ -41021,7 +41033,7 @@
         <v>112</v>
       </c>
       <c r="P193" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41433,7 +41445,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q195">
         <v>2.75</v>
@@ -41514,7 +41526,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ195">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR195">
         <v>1.87</v>
@@ -41717,7 +41729,7 @@
         <v>1.08</v>
       </c>
       <c r="AP196">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ196">
         <v>0.88</v>
@@ -42129,7 +42141,7 @@
         <v>1.29</v>
       </c>
       <c r="AP198">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ198">
         <v>1.13</v>
@@ -42544,7 +42556,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ200">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR200">
         <v>1.89</v>
@@ -42669,7 +42681,7 @@
         <v>140</v>
       </c>
       <c r="P201" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -43081,7 +43093,7 @@
         <v>89</v>
       </c>
       <c r="P203" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q203">
         <v>2.88</v>
@@ -43368,7 +43380,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ204">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR204">
         <v>1.36</v>
@@ -43493,7 +43505,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q205">
         <v>11</v>
@@ -43571,7 +43583,7 @@
         <v>1.93</v>
       </c>
       <c r="AP205">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ205">
         <v>2</v>
@@ -43699,7 +43711,7 @@
         <v>89</v>
       </c>
       <c r="P206" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43777,10 +43789,10 @@
         <v>2.07</v>
       </c>
       <c r="AP206">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ206">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR206">
         <v>1.73</v>
@@ -43905,7 +43917,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -43986,7 +43998,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ207">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR207">
         <v>2.02</v>
@@ -44111,7 +44123,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q208">
         <v>2.88</v>
@@ -44189,7 +44201,7 @@
         <v>0.43</v>
       </c>
       <c r="AP208">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ208">
         <v>0.47</v>
@@ -44317,7 +44329,7 @@
         <v>125</v>
       </c>
       <c r="P209" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q209">
         <v>2.58</v>
@@ -44523,7 +44535,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q210">
         <v>2.99</v>
@@ -44729,7 +44741,7 @@
         <v>89</v>
       </c>
       <c r="P211" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q211">
         <v>2.88</v>
@@ -44935,7 +44947,7 @@
         <v>229</v>
       </c>
       <c r="P212" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q212">
         <v>1.53</v>
@@ -45553,7 +45565,7 @@
         <v>232</v>
       </c>
       <c r="P215" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q215">
         <v>3.08</v>
@@ -45759,7 +45771,7 @@
         <v>89</v>
       </c>
       <c r="P216" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q216">
         <v>3.15</v>
@@ -45916,6 +45928,830 @@
       </c>
       <c r="BP216">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7382771</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45403.375</v>
+      </c>
+      <c r="F217">
+        <v>5</v>
+      </c>
+      <c r="G217" t="s">
+        <v>81</v>
+      </c>
+      <c r="H217" t="s">
+        <v>71</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="L217">
+        <v>2</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>3</v>
+      </c>
+      <c r="O217" t="s">
+        <v>233</v>
+      </c>
+      <c r="P217" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q217">
+        <v>2.63</v>
+      </c>
+      <c r="R217">
+        <v>2.05</v>
+      </c>
+      <c r="S217">
+        <v>4.5</v>
+      </c>
+      <c r="T217">
+        <v>1.44</v>
+      </c>
+      <c r="U217">
+        <v>2.63</v>
+      </c>
+      <c r="V217">
+        <v>3.25</v>
+      </c>
+      <c r="W217">
+        <v>1.33</v>
+      </c>
+      <c r="X217">
+        <v>10</v>
+      </c>
+      <c r="Y217">
+        <v>1.06</v>
+      </c>
+      <c r="Z217">
+        <v>2.05</v>
+      </c>
+      <c r="AA217">
+        <v>3.4</v>
+      </c>
+      <c r="AB217">
+        <v>3.5</v>
+      </c>
+      <c r="AC217">
+        <v>1.03</v>
+      </c>
+      <c r="AD217">
+        <v>7.9</v>
+      </c>
+      <c r="AE217">
+        <v>1.34</v>
+      </c>
+      <c r="AF217">
+        <v>2.89</v>
+      </c>
+      <c r="AG217">
+        <v>2.1</v>
+      </c>
+      <c r="AH217">
+        <v>1.65</v>
+      </c>
+      <c r="AI217">
+        <v>1.95</v>
+      </c>
+      <c r="AJ217">
+        <v>1.8</v>
+      </c>
+      <c r="AK217">
+        <v>1.26</v>
+      </c>
+      <c r="AL217">
+        <v>1.31</v>
+      </c>
+      <c r="AM217">
+        <v>1.83</v>
+      </c>
+      <c r="AN217">
+        <v>1.47</v>
+      </c>
+      <c r="AO217">
+        <v>0.47</v>
+      </c>
+      <c r="AP217">
+        <v>1.56</v>
+      </c>
+      <c r="AQ217">
+        <v>0.44</v>
+      </c>
+      <c r="AR217">
+        <v>1.25</v>
+      </c>
+      <c r="AS217">
+        <v>1.09</v>
+      </c>
+      <c r="AT217">
+        <v>2.34</v>
+      </c>
+      <c r="AU217">
+        <v>4</v>
+      </c>
+      <c r="AV217">
+        <v>3</v>
+      </c>
+      <c r="AW217">
+        <v>5</v>
+      </c>
+      <c r="AX217">
+        <v>2</v>
+      </c>
+      <c r="AY217">
+        <v>9</v>
+      </c>
+      <c r="AZ217">
+        <v>5</v>
+      </c>
+      <c r="BA217">
+        <v>6</v>
+      </c>
+      <c r="BB217">
+        <v>4</v>
+      </c>
+      <c r="BC217">
+        <v>10</v>
+      </c>
+      <c r="BD217">
+        <v>1.77</v>
+      </c>
+      <c r="BE217">
+        <v>8.1</v>
+      </c>
+      <c r="BF217">
+        <v>2.47</v>
+      </c>
+      <c r="BG217">
+        <v>1.6</v>
+      </c>
+      <c r="BH217">
+        <v>2.19</v>
+      </c>
+      <c r="BI217">
+        <v>2.08</v>
+      </c>
+      <c r="BJ217">
+        <v>1.7</v>
+      </c>
+      <c r="BK217">
+        <v>2.8</v>
+      </c>
+      <c r="BL217">
+        <v>1.38</v>
+      </c>
+      <c r="BM217">
+        <v>3.95</v>
+      </c>
+      <c r="BN217">
+        <v>1.19</v>
+      </c>
+      <c r="BO217">
+        <v>4.75</v>
+      </c>
+      <c r="BP217">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7378773</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45403.45833333334</v>
+      </c>
+      <c r="F218">
+        <v>6</v>
+      </c>
+      <c r="G218" t="s">
+        <v>79</v>
+      </c>
+      <c r="H218" t="s">
+        <v>77</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>2</v>
+      </c>
+      <c r="K218">
+        <v>2</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>5</v>
+      </c>
+      <c r="N218">
+        <v>5</v>
+      </c>
+      <c r="O218" t="s">
+        <v>89</v>
+      </c>
+      <c r="P218" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q218">
+        <v>10</v>
+      </c>
+      <c r="R218">
+        <v>2.6</v>
+      </c>
+      <c r="S218">
+        <v>1.67</v>
+      </c>
+      <c r="T218">
+        <v>1.33</v>
+      </c>
+      <c r="U218">
+        <v>3.25</v>
+      </c>
+      <c r="V218">
+        <v>2.5</v>
+      </c>
+      <c r="W218">
+        <v>1.5</v>
+      </c>
+      <c r="X218">
+        <v>6</v>
+      </c>
+      <c r="Y218">
+        <v>1.13</v>
+      </c>
+      <c r="Z218">
+        <v>10.5</v>
+      </c>
+      <c r="AA218">
+        <v>5.5</v>
+      </c>
+      <c r="AB218">
+        <v>1.27</v>
+      </c>
+      <c r="AC218">
+        <v>1.01</v>
+      </c>
+      <c r="AD218">
+        <v>11</v>
+      </c>
+      <c r="AE218">
+        <v>1.22</v>
+      </c>
+      <c r="AF218">
+        <v>3.8</v>
+      </c>
+      <c r="AG218">
+        <v>1.75</v>
+      </c>
+      <c r="AH218">
+        <v>1.95</v>
+      </c>
+      <c r="AI218">
+        <v>2.38</v>
+      </c>
+      <c r="AJ218">
+        <v>1.53</v>
+      </c>
+      <c r="AK218">
+        <v>4.2</v>
+      </c>
+      <c r="AL218">
+        <v>1.12</v>
+      </c>
+      <c r="AM218">
+        <v>1.03</v>
+      </c>
+      <c r="AN218">
+        <v>1.33</v>
+      </c>
+      <c r="AO218">
+        <v>2.13</v>
+      </c>
+      <c r="AP218">
+        <v>1.25</v>
+      </c>
+      <c r="AQ218">
+        <v>2.19</v>
+      </c>
+      <c r="AR218">
+        <v>1.11</v>
+      </c>
+      <c r="AS218">
+        <v>1.51</v>
+      </c>
+      <c r="AT218">
+        <v>2.62</v>
+      </c>
+      <c r="AU218">
+        <v>6</v>
+      </c>
+      <c r="AV218">
+        <v>9</v>
+      </c>
+      <c r="AW218">
+        <v>4</v>
+      </c>
+      <c r="AX218">
+        <v>5</v>
+      </c>
+      <c r="AY218">
+        <v>10</v>
+      </c>
+      <c r="AZ218">
+        <v>14</v>
+      </c>
+      <c r="BA218">
+        <v>2</v>
+      </c>
+      <c r="BB218">
+        <v>4</v>
+      </c>
+      <c r="BC218">
+        <v>6</v>
+      </c>
+      <c r="BD218">
+        <v>6.47</v>
+      </c>
+      <c r="BE218">
+        <v>12.2</v>
+      </c>
+      <c r="BF218">
+        <v>1.18</v>
+      </c>
+      <c r="BG218">
+        <v>1.38</v>
+      </c>
+      <c r="BH218">
+        <v>2.8</v>
+      </c>
+      <c r="BI218">
+        <v>1.88</v>
+      </c>
+      <c r="BJ218">
+        <v>1.92</v>
+      </c>
+      <c r="BK218">
+        <v>2.16</v>
+      </c>
+      <c r="BL218">
+        <v>1.62</v>
+      </c>
+      <c r="BM218">
+        <v>2.84</v>
+      </c>
+      <c r="BN218">
+        <v>1.35</v>
+      </c>
+      <c r="BO218">
+        <v>4.05</v>
+      </c>
+      <c r="BP218">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7378774</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45403.5625</v>
+      </c>
+      <c r="F219">
+        <v>6</v>
+      </c>
+      <c r="G219" t="s">
+        <v>82</v>
+      </c>
+      <c r="H219" t="s">
+        <v>78</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>2</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219" t="s">
+        <v>106</v>
+      </c>
+      <c r="P219" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q219">
+        <v>6</v>
+      </c>
+      <c r="R219">
+        <v>2.3</v>
+      </c>
+      <c r="S219">
+        <v>2.05</v>
+      </c>
+      <c r="T219">
+        <v>1.36</v>
+      </c>
+      <c r="U219">
+        <v>3</v>
+      </c>
+      <c r="V219">
+        <v>2.63</v>
+      </c>
+      <c r="W219">
+        <v>1.44</v>
+      </c>
+      <c r="X219">
+        <v>7</v>
+      </c>
+      <c r="Y219">
+        <v>1.1</v>
+      </c>
+      <c r="Z219">
+        <v>5.8</v>
+      </c>
+      <c r="AA219">
+        <v>4.2</v>
+      </c>
+      <c r="AB219">
+        <v>1.44</v>
+      </c>
+      <c r="AC219">
+        <v>1.03</v>
+      </c>
+      <c r="AD219">
+        <v>13</v>
+      </c>
+      <c r="AE219">
+        <v>1.26</v>
+      </c>
+      <c r="AF219">
+        <v>4</v>
+      </c>
+      <c r="AG219">
+        <v>1.71</v>
+      </c>
+      <c r="AH219">
+        <v>1.83</v>
+      </c>
+      <c r="AI219">
+        <v>2</v>
+      </c>
+      <c r="AJ219">
+        <v>1.75</v>
+      </c>
+      <c r="AK219">
+        <v>2.85</v>
+      </c>
+      <c r="AL219">
+        <v>1.16</v>
+      </c>
+      <c r="AM219">
+        <v>1.09</v>
+      </c>
+      <c r="AN219">
+        <v>2</v>
+      </c>
+      <c r="AO219">
+        <v>1.93</v>
+      </c>
+      <c r="AP219">
+        <v>1.88</v>
+      </c>
+      <c r="AQ219">
+        <v>2</v>
+      </c>
+      <c r="AR219">
+        <v>1.74</v>
+      </c>
+      <c r="AS219">
+        <v>1.81</v>
+      </c>
+      <c r="AT219">
+        <v>3.55</v>
+      </c>
+      <c r="AU219">
+        <v>6</v>
+      </c>
+      <c r="AV219">
+        <v>13</v>
+      </c>
+      <c r="AW219">
+        <v>3</v>
+      </c>
+      <c r="AX219">
+        <v>13</v>
+      </c>
+      <c r="AY219">
+        <v>9</v>
+      </c>
+      <c r="AZ219">
+        <v>26</v>
+      </c>
+      <c r="BA219">
+        <v>2</v>
+      </c>
+      <c r="BB219">
+        <v>9</v>
+      </c>
+      <c r="BC219">
+        <v>11</v>
+      </c>
+      <c r="BD219">
+        <v>3.98</v>
+      </c>
+      <c r="BE219">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF219">
+        <v>1.35</v>
+      </c>
+      <c r="BG219">
+        <v>1.38</v>
+      </c>
+      <c r="BH219">
+        <v>2.8</v>
+      </c>
+      <c r="BI219">
+        <v>1.7</v>
+      </c>
+      <c r="BJ219">
+        <v>2.08</v>
+      </c>
+      <c r="BK219">
+        <v>2.16</v>
+      </c>
+      <c r="BL219">
+        <v>1.62</v>
+      </c>
+      <c r="BM219">
+        <v>2.84</v>
+      </c>
+      <c r="BN219">
+        <v>1.35</v>
+      </c>
+      <c r="BO219">
+        <v>4.05</v>
+      </c>
+      <c r="BP219">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7378775</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45403.60416666666</v>
+      </c>
+      <c r="F220">
+        <v>6</v>
+      </c>
+      <c r="G220" t="s">
+        <v>74</v>
+      </c>
+      <c r="H220" t="s">
+        <v>73</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>2</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220">
+        <v>3</v>
+      </c>
+      <c r="O220" t="s">
+        <v>234</v>
+      </c>
+      <c r="P220" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q220">
+        <v>2.4</v>
+      </c>
+      <c r="R220">
+        <v>2.3</v>
+      </c>
+      <c r="S220">
+        <v>4.33</v>
+      </c>
+      <c r="T220">
+        <v>1.33</v>
+      </c>
+      <c r="U220">
+        <v>3.25</v>
+      </c>
+      <c r="V220">
+        <v>2.5</v>
+      </c>
+      <c r="W220">
+        <v>1.5</v>
+      </c>
+      <c r="X220">
+        <v>6.5</v>
+      </c>
+      <c r="Y220">
+        <v>1.11</v>
+      </c>
+      <c r="Z220">
+        <v>1.85</v>
+      </c>
+      <c r="AA220">
+        <v>3.6</v>
+      </c>
+      <c r="AB220">
+        <v>3.5</v>
+      </c>
+      <c r="AC220">
+        <v>1.03</v>
+      </c>
+      <c r="AD220">
+        <v>15</v>
+      </c>
+      <c r="AE220">
+        <v>1.24</v>
+      </c>
+      <c r="AF220">
+        <v>4.2</v>
+      </c>
+      <c r="AG220">
+        <v>2.03</v>
+      </c>
+      <c r="AH220">
+        <v>1.57</v>
+      </c>
+      <c r="AI220">
+        <v>1.67</v>
+      </c>
+      <c r="AJ220">
+        <v>2.1</v>
+      </c>
+      <c r="AK220">
+        <v>1.26</v>
+      </c>
+      <c r="AL220">
+        <v>1.22</v>
+      </c>
+      <c r="AM220">
+        <v>1.98</v>
+      </c>
+      <c r="AN220">
+        <v>2.2</v>
+      </c>
+      <c r="AO220">
+        <v>2.13</v>
+      </c>
+      <c r="AP220">
+        <v>2.25</v>
+      </c>
+      <c r="AQ220">
+        <v>2</v>
+      </c>
+      <c r="AR220">
+        <v>2.02</v>
+      </c>
+      <c r="AS220">
+        <v>1.55</v>
+      </c>
+      <c r="AT220">
+        <v>3.57</v>
+      </c>
+      <c r="AU220">
+        <v>5</v>
+      </c>
+      <c r="AV220">
+        <v>2</v>
+      </c>
+      <c r="AW220">
+        <v>5</v>
+      </c>
+      <c r="AX220">
+        <v>4</v>
+      </c>
+      <c r="AY220">
+        <v>10</v>
+      </c>
+      <c r="AZ220">
+        <v>6</v>
+      </c>
+      <c r="BA220">
+        <v>2</v>
+      </c>
+      <c r="BB220">
+        <v>3</v>
+      </c>
+      <c r="BC220">
+        <v>5</v>
+      </c>
+      <c r="BD220">
+        <v>1.62</v>
+      </c>
+      <c r="BE220">
+        <v>8.6</v>
+      </c>
+      <c r="BF220">
+        <v>2.78</v>
+      </c>
+      <c r="BG220">
+        <v>1.46</v>
+      </c>
+      <c r="BH220">
+        <v>2.52</v>
+      </c>
+      <c r="BI220">
+        <v>1.85</v>
+      </c>
+      <c r="BJ220">
+        <v>1.89</v>
+      </c>
+      <c r="BK220">
+        <v>2.39</v>
+      </c>
+      <c r="BL220">
+        <v>1.51</v>
+      </c>
+      <c r="BM220">
+        <v>3.28</v>
+      </c>
+      <c r="BN220">
+        <v>1.27</v>
+      </c>
+      <c r="BO220">
+        <v>4.7</v>
+      </c>
+      <c r="BP220">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -46070,10 +46070,10 @@
         <v>2.34</v>
       </c>
       <c r="AU217">
+        <v>6</v>
+      </c>
+      <c r="AV217">
         <v>4</v>
-      </c>
-      <c r="AV217">
-        <v>3</v>
       </c>
       <c r="AW217">
         <v>5</v>
@@ -46082,10 +46082,10 @@
         <v>2</v>
       </c>
       <c r="AY217">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ217">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA217">
         <v>6</v>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="353">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -721,6 +721,9 @@
     <t>['27', '61']</t>
   </si>
   <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -1067,6 +1070,9 @@
   </si>
   <si>
     <t>['49', '84']</t>
+  </si>
+  <si>
+    <t>['90+10']</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1687,7 +1693,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -2099,7 +2105,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -3619,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ11">
         <v>1.13</v>
@@ -3747,7 +3753,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -4571,7 +4577,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -5064,7 +5070,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR18">
         <v>1.52</v>
@@ -5189,7 +5195,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5395,7 +5401,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5601,7 +5607,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5679,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ21">
         <v>0.47</v>
@@ -5807,7 +5813,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -6013,7 +6019,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6219,7 +6225,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -7043,7 +7049,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7867,7 +7873,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8073,7 +8079,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8154,7 +8160,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR33">
         <v>1.27</v>
@@ -8279,7 +8285,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8485,7 +8491,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8691,7 +8697,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9309,7 +9315,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9515,7 +9521,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -10005,7 +10011,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -10133,7 +10139,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10339,7 +10345,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10420,7 +10426,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR44">
         <v>1.54</v>
@@ -10545,7 +10551,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -11575,7 +11581,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11653,7 +11659,7 @@
         <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ50">
         <v>0.44</v>
@@ -12193,7 +12199,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12811,7 +12817,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13017,7 +13023,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13223,7 +13229,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -14128,7 +14134,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR62">
         <v>2.31</v>
@@ -14253,7 +14259,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14459,7 +14465,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14537,7 +14543,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ64">
         <v>2.19</v>
@@ -14871,7 +14877,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -15077,7 +15083,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15283,7 +15289,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15364,7 +15370,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR68">
         <v>1.91</v>
@@ -15489,7 +15495,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15901,7 +15907,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16107,7 +16113,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16313,7 +16319,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16519,7 +16525,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16931,7 +16937,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17343,7 +17349,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17549,7 +17555,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -17961,7 +17967,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18373,7 +18379,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -18451,7 +18457,7 @@
         <v>0.57</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ83">
         <v>0.8</v>
@@ -19403,7 +19409,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19609,7 +19615,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -20433,7 +20439,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20845,7 +20851,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20926,7 +20932,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ95">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -21051,7 +21057,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21129,7 +21135,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ96">
         <v>0.88</v>
@@ -21257,7 +21263,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21463,7 +21469,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21669,7 +21675,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -21875,7 +21881,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -22081,7 +22087,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22493,7 +22499,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22699,7 +22705,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22905,7 +22911,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -22986,7 +22992,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ105">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR105">
         <v>1.39</v>
@@ -23317,7 +23323,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23601,7 +23607,7 @@
         <v>2.14</v>
       </c>
       <c r="AP108">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ108">
         <v>2</v>
@@ -24347,7 +24353,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24759,7 +24765,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24965,7 +24971,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -25171,7 +25177,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25583,7 +25589,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25664,7 +25670,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ118">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR118">
         <v>1.89</v>
@@ -25789,7 +25795,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -26201,7 +26207,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26407,7 +26413,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26485,7 +26491,7 @@
         <v>0.3</v>
       </c>
       <c r="AP122">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ122">
         <v>0.67</v>
@@ -26613,7 +26619,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26819,7 +26825,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -27231,7 +27237,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27643,7 +27649,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27721,7 +27727,7 @@
         <v>0.25</v>
       </c>
       <c r="AP128">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ128">
         <v>0.8100000000000001</v>
@@ -27849,7 +27855,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28261,7 +28267,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28342,7 +28348,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ131">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR131">
         <v>1.19</v>
@@ -28467,7 +28473,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28879,7 +28885,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29085,7 +29091,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29291,7 +29297,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -30115,7 +30121,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30321,7 +30327,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30527,7 +30533,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30733,7 +30739,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30939,7 +30945,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31145,7 +31151,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31351,7 +31357,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31557,7 +31563,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31638,7 +31644,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ147">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR147">
         <v>1.12</v>
@@ -32793,7 +32799,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -32999,7 +33005,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33077,7 +33083,7 @@
         <v>1.3</v>
       </c>
       <c r="AP154">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ154">
         <v>1.07</v>
@@ -33411,7 +33417,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33617,7 +33623,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33823,7 +33829,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34235,7 +34241,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34647,7 +34653,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34853,7 +34859,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -34931,7 +34937,7 @@
         <v>2</v>
       </c>
       <c r="AP163">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ163">
         <v>2</v>
@@ -35265,7 +35271,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35471,7 +35477,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35552,7 +35558,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ166">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR166">
         <v>1.5</v>
@@ -35677,7 +35683,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -36089,7 +36095,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36295,7 +36301,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36501,7 +36507,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36707,7 +36713,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36913,7 +36919,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -37119,7 +37125,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37325,7 +37331,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37406,7 +37412,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ175">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR175">
         <v>1.28</v>
@@ -37943,7 +37949,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -38149,7 +38155,7 @@
         <v>89</v>
       </c>
       <c r="P179" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q179">
         <v>6.5</v>
@@ -38227,10 +38233,10 @@
         <v>2.08</v>
       </c>
       <c r="AP179">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ179">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR179">
         <v>1.23</v>
@@ -38355,7 +38361,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q180">
         <v>2.95</v>
@@ -38561,7 +38567,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -38973,7 +38979,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39179,7 +39185,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39257,7 +39263,7 @@
         <v>2</v>
       </c>
       <c r="AP184">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ184">
         <v>2</v>
@@ -39385,7 +39391,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39591,7 +39597,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39797,7 +39803,7 @@
         <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -40209,7 +40215,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -41033,7 +41039,7 @@
         <v>112</v>
       </c>
       <c r="P193" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41445,7 +41451,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q195">
         <v>2.75</v>
@@ -41526,7 +41532,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ195">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR195">
         <v>1.87</v>
@@ -42681,7 +42687,7 @@
         <v>140</v>
       </c>
       <c r="P201" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -43093,7 +43099,7 @@
         <v>89</v>
       </c>
       <c r="P203" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q203">
         <v>2.88</v>
@@ -43505,7 +43511,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q205">
         <v>11</v>
@@ -43583,7 +43589,7 @@
         <v>1.93</v>
       </c>
       <c r="AP205">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ205">
         <v>2</v>
@@ -43711,7 +43717,7 @@
         <v>89</v>
       </c>
       <c r="P206" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43917,7 +43923,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -43998,7 +44004,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ207">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR207">
         <v>2.02</v>
@@ -44123,7 +44129,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q208">
         <v>2.88</v>
@@ -44329,7 +44335,7 @@
         <v>125</v>
       </c>
       <c r="P209" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q209">
         <v>2.58</v>
@@ -44535,7 +44541,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q210">
         <v>2.99</v>
@@ -44741,7 +44747,7 @@
         <v>89</v>
       </c>
       <c r="P211" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q211">
         <v>2.88</v>
@@ -44947,7 +44953,7 @@
         <v>229</v>
       </c>
       <c r="P212" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q212">
         <v>1.53</v>
@@ -45565,7 +45571,7 @@
         <v>232</v>
       </c>
       <c r="P215" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q215">
         <v>3.08</v>
@@ -45771,7 +45777,7 @@
         <v>89</v>
       </c>
       <c r="P216" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q216">
         <v>3.15</v>
@@ -45977,7 +45983,7 @@
         <v>233</v>
       </c>
       <c r="P217" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46183,7 +46189,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -46261,7 +46267,7 @@
         <v>2.13</v>
       </c>
       <c r="AP218">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ218">
         <v>2.19</v>
@@ -46389,7 +46395,7 @@
         <v>106</v>
       </c>
       <c r="P219" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46595,7 +46601,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q220">
         <v>2.4</v>
@@ -46676,7 +46682,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ220">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR220">
         <v>2.02</v>
@@ -46751,6 +46757,212 @@
         <v>4.7</v>
       </c>
       <c r="BP220">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7378776</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45406.45833333334</v>
+      </c>
+      <c r="F221">
+        <v>7</v>
+      </c>
+      <c r="G221" t="s">
+        <v>79</v>
+      </c>
+      <c r="H221" t="s">
+        <v>73</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>2</v>
+      </c>
+      <c r="O221" t="s">
+        <v>235</v>
+      </c>
+      <c r="P221" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q221">
+        <v>11</v>
+      </c>
+      <c r="R221">
+        <v>2.75</v>
+      </c>
+      <c r="S221">
+        <v>1.62</v>
+      </c>
+      <c r="T221">
+        <v>1.29</v>
+      </c>
+      <c r="U221">
+        <v>3.5</v>
+      </c>
+      <c r="V221">
+        <v>2.38</v>
+      </c>
+      <c r="W221">
+        <v>1.53</v>
+      </c>
+      <c r="X221">
+        <v>5.5</v>
+      </c>
+      <c r="Y221">
+        <v>1.14</v>
+      </c>
+      <c r="Z221">
+        <v>12</v>
+      </c>
+      <c r="AA221">
+        <v>6</v>
+      </c>
+      <c r="AB221">
+        <v>1.18</v>
+      </c>
+      <c r="AC221">
+        <v>1.02</v>
+      </c>
+      <c r="AD221">
+        <v>17</v>
+      </c>
+      <c r="AE221">
+        <v>1.19</v>
+      </c>
+      <c r="AF221">
+        <v>4.75</v>
+      </c>
+      <c r="AG221">
+        <v>1.57</v>
+      </c>
+      <c r="AH221">
+        <v>2.25</v>
+      </c>
+      <c r="AI221">
+        <v>2.25</v>
+      </c>
+      <c r="AJ221">
+        <v>1.57</v>
+      </c>
+      <c r="AK221">
+        <v>4.5</v>
+      </c>
+      <c r="AL221">
+        <v>1.09</v>
+      </c>
+      <c r="AM221">
+        <v>1.02</v>
+      </c>
+      <c r="AN221">
+        <v>1.25</v>
+      </c>
+      <c r="AO221">
+        <v>2</v>
+      </c>
+      <c r="AP221">
+        <v>1.24</v>
+      </c>
+      <c r="AQ221">
+        <v>1.94</v>
+      </c>
+      <c r="AR221">
+        <v>1.12</v>
+      </c>
+      <c r="AS221">
+        <v>1.5</v>
+      </c>
+      <c r="AT221">
+        <v>2.62</v>
+      </c>
+      <c r="AU221">
+        <v>2</v>
+      </c>
+      <c r="AV221">
+        <v>6</v>
+      </c>
+      <c r="AW221">
+        <v>5</v>
+      </c>
+      <c r="AX221">
+        <v>5</v>
+      </c>
+      <c r="AY221">
+        <v>7</v>
+      </c>
+      <c r="AZ221">
+        <v>11</v>
+      </c>
+      <c r="BA221">
+        <v>2</v>
+      </c>
+      <c r="BB221">
+        <v>8</v>
+      </c>
+      <c r="BC221">
+        <v>10</v>
+      </c>
+      <c r="BD221">
+        <v>8.5</v>
+      </c>
+      <c r="BE221">
+        <v>13.75</v>
+      </c>
+      <c r="BF221">
+        <v>1.11</v>
+      </c>
+      <c r="BG221">
+        <v>1.47</v>
+      </c>
+      <c r="BH221">
+        <v>2.49</v>
+      </c>
+      <c r="BI221">
+        <v>1.88</v>
+      </c>
+      <c r="BJ221">
+        <v>1.92</v>
+      </c>
+      <c r="BK221">
+        <v>2.39</v>
+      </c>
+      <c r="BL221">
+        <v>1.51</v>
+      </c>
+      <c r="BM221">
+        <v>3.2</v>
+      </c>
+      <c r="BN221">
+        <v>1.28</v>
+      </c>
+      <c r="BO221">
+        <v>4.65</v>
+      </c>
+      <c r="BP221">
         <v>1.14</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="359">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,9 @@
     <t>['3', '52']</t>
   </si>
   <si>
+    <t>['45+4', '76']</t>
+  </si>
+  <si>
     <t>['21', '81']</t>
   </si>
   <si>
@@ -656,9 +659,6 @@
   </si>
   <si>
     <t>['27', '45+6', '87']</t>
-  </si>
-  <si>
-    <t>['45+4', '76']</t>
   </si>
   <si>
     <t>['37', '61', '90+5']</t>
@@ -676,10 +676,10 @@
     <t>['29', '90+3']</t>
   </si>
   <si>
-    <t>['55', '56', '59']</t>
+    <t>['90+1']</t>
   </si>
   <si>
-    <t>['90+1']</t>
+    <t>['55', '56', '59']</t>
   </si>
   <si>
     <t>['6', '60', '89']</t>
@@ -722,6 +722,24 @@
   </si>
   <si>
     <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['7', '38', '69']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['26', '81']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['12']</t>
   </si>
   <si>
     <t>['55', '61']</t>
@@ -910,9 +928,6 @@
     <t>['31', '66']</t>
   </si>
   <si>
-    <t>['12']</t>
-  </si>
-  <si>
     <t>['11', '16']</t>
   </si>
   <si>
@@ -1000,6 +1015,9 @@
     <t>['45+2', '90']</t>
   </si>
   <si>
+    <t>['45+6']</t>
+  </si>
+  <si>
     <t>['35', '83']</t>
   </si>
   <si>
@@ -1010,9 +1028,6 @@
   </si>
   <si>
     <t>['15', '54', '67']</t>
-  </si>
-  <si>
-    <t>['45+6']</t>
   </si>
   <si>
     <t>['45+2', '68', '88', '90+3']</t>
@@ -1060,10 +1075,10 @@
     <t>['14']</t>
   </si>
   <si>
-    <t>['64', '67']</t>
+    <t>['31', '67']</t>
   </si>
   <si>
-    <t>['31', '67']</t>
+    <t>['64', '67']</t>
   </si>
   <si>
     <t>['23', '45', '54', '57', '61']</t>
@@ -1073,6 +1088,9 @@
   </si>
   <si>
     <t>['90+10']</t>
+  </si>
+  <si>
+    <t>['36', '74', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP221"/>
+  <dimension ref="A1:BP227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1693,7 +1711,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -1771,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ2">
         <v>0.88</v>
@@ -2105,7 +2123,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2598,7 +2616,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2801,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ7">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3007,10 +3025,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ8">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3419,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ10">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3753,7 +3771,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -4040,7 +4058,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ13">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
         <v>2.47</v>
@@ -4243,10 +4261,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ14">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4371,7 +4389,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4577,7 +4595,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -4655,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ16">
         <v>1.07</v>
@@ -5195,7 +5213,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5273,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ19">
         <v>2</v>
@@ -5401,7 +5419,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5482,7 +5500,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ20">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR20">
         <v>1.39</v>
@@ -5607,7 +5625,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5688,7 +5706,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ21">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>0.89</v>
@@ -5813,7 +5831,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -5891,10 +5909,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ22">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR22">
         <v>1.75</v>
@@ -6019,7 +6037,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6097,10 +6115,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ23">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR23">
         <v>1.17</v>
@@ -6225,7 +6243,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6303,10 +6321,10 @@
         <v>0.5</v>
       </c>
       <c r="AP24">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR24">
         <v>1.19</v>
@@ -6715,10 +6733,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR26">
         <v>3.13</v>
@@ -7049,7 +7067,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7130,7 +7148,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ28">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>1.24</v>
@@ -7745,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -7873,7 +7891,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7951,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ32">
         <v>1.07</v>
@@ -8079,7 +8097,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8285,7 +8303,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8491,7 +8509,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8569,10 +8587,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ35">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR35">
         <v>1.45</v>
@@ -8697,7 +8715,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8775,7 +8793,7 @@
         <v>0.33</v>
       </c>
       <c r="AP36">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ36">
         <v>0.88</v>
@@ -9315,7 +9333,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9396,7 +9414,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ39">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9521,7 +9539,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -9599,10 +9617,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ40">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR40">
         <v>1.53</v>
@@ -9805,10 +9823,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ41">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR41">
         <v>2.13</v>
@@ -10139,7 +10157,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10217,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ43">
         <v>0.8100000000000001</v>
@@ -10345,7 +10363,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10551,7 +10569,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -10632,7 +10650,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR45">
         <v>1.3</v>
@@ -11247,7 +11265,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ48">
         <v>0.75</v>
@@ -11456,7 +11474,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ49">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR49">
         <v>2.02</v>
@@ -11581,7 +11599,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11662,7 +11680,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ50">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR50">
         <v>0.91</v>
@@ -11865,7 +11883,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ51">
         <v>0.88</v>
@@ -12071,10 +12089,10 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ52">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR52">
         <v>1.76</v>
@@ -12199,7 +12217,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12277,7 +12295,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ53">
         <v>2</v>
@@ -12483,10 +12501,10 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ54">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>1.73</v>
@@ -12692,7 +12710,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ55">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR55">
         <v>1.96</v>
@@ -12817,7 +12835,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12898,7 +12916,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ56">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR56">
         <v>2.15</v>
@@ -13023,7 +13041,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13101,7 +13119,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ57">
         <v>0.8100000000000001</v>
@@ -13229,7 +13247,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13513,7 +13531,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ59">
         <v>0.88</v>
@@ -13722,7 +13740,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ60">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR60">
         <v>2.04</v>
@@ -13925,10 +13943,10 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ61">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR61">
         <v>1.92</v>
@@ -14131,7 +14149,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ62">
         <v>1.94</v>
@@ -14259,7 +14277,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14340,7 +14358,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR63">
         <v>1.33</v>
@@ -14465,7 +14483,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14546,7 +14564,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ64">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR64">
         <v>1.04</v>
@@ -14749,7 +14767,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ65">
         <v>2</v>
@@ -14877,7 +14895,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14955,7 +14973,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ66">
         <v>1.07</v>
@@ -15083,7 +15101,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15289,7 +15307,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15495,7 +15513,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15573,10 +15591,10 @@
         <v>0.17</v>
       </c>
       <c r="AP69">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ69">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR69">
         <v>1.94</v>
@@ -15782,7 +15800,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ70">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR70">
         <v>1.52</v>
@@ -15907,7 +15925,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15988,7 +16006,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ71">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR71">
         <v>1.17</v>
@@ -16113,7 +16131,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16194,7 +16212,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ72">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR72">
         <v>1.13</v>
@@ -16319,7 +16337,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16397,7 +16415,7 @@
         <v>0.25</v>
       </c>
       <c r="AP73">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ73">
         <v>1.13</v>
@@ -16525,7 +16543,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16809,7 +16827,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ75">
         <v>0.88</v>
@@ -16937,7 +16955,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17015,10 +17033,10 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR76">
         <v>1.28</v>
@@ -17221,10 +17239,10 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ77">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR77">
         <v>1.42</v>
@@ -17349,7 +17367,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17555,7 +17573,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -17842,7 +17860,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ80">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR80">
         <v>1.82</v>
@@ -17967,7 +17985,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18045,7 +18063,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ81">
         <v>1.07</v>
@@ -18379,7 +18397,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -18460,7 +18478,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ83">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR83">
         <v>1.12</v>
@@ -18663,10 +18681,10 @@
         <v>3</v>
       </c>
       <c r="AP84">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ84">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR84">
         <v>1.9</v>
@@ -18869,10 +18887,10 @@
         <v>0.43</v>
       </c>
       <c r="AP85">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ85">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR85">
         <v>1.35</v>
@@ -19075,7 +19093,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ86">
         <v>0.8100000000000001</v>
@@ -19281,10 +19299,10 @@
         <v>0.38</v>
       </c>
       <c r="AP87">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ87">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR87">
         <v>1.2</v>
@@ -19409,7 +19427,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19487,10 +19505,10 @@
         <v>2.5</v>
       </c>
       <c r="AP88">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR88">
         <v>1.32</v>
@@ -19615,7 +19633,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19696,7 +19714,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR89">
         <v>1.11</v>
@@ -19902,7 +19920,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ90">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR90">
         <v>1.98</v>
@@ -20311,7 +20329,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ92">
         <v>1.13</v>
@@ -20439,7 +20457,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20517,10 +20535,10 @@
         <v>0.57</v>
       </c>
       <c r="AP93">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ93">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR93">
         <v>1.35</v>
@@ -20723,10 +20741,10 @@
         <v>0.5</v>
       </c>
       <c r="AP94">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ94">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR94">
         <v>1.8</v>
@@ -20851,7 +20869,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20929,7 +20947,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ95">
         <v>1.94</v>
@@ -21057,7 +21075,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21263,7 +21281,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21344,7 +21362,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ97">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21469,7 +21487,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21547,7 +21565,7 @@
         <v>2.17</v>
       </c>
       <c r="AP98">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ98">
         <v>2</v>
@@ -21675,7 +21693,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -21756,7 +21774,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ99">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR99">
         <v>1.43</v>
@@ -21881,7 +21899,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -21959,7 +21977,7 @@
         <v>0.71</v>
       </c>
       <c r="AP100">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ100">
         <v>0.88</v>
@@ -22087,7 +22105,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22165,10 +22183,10 @@
         <v>2.25</v>
       </c>
       <c r="AP101">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ101">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR101">
         <v>1.3</v>
@@ -22499,7 +22517,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22705,7 +22723,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22911,7 +22929,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -22989,7 +23007,7 @@
         <v>1.67</v>
       </c>
       <c r="AP105">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ105">
         <v>1.94</v>
@@ -23198,7 +23216,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ106">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR106">
         <v>1.18</v>
@@ -23323,7 +23341,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23401,7 +23419,7 @@
         <v>0.67</v>
       </c>
       <c r="AP107">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ107">
         <v>1.13</v>
@@ -23610,7 +23628,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ108">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR108">
         <v>1.21</v>
@@ -23813,7 +23831,7 @@
         <v>0.86</v>
       </c>
       <c r="AP109">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ109">
         <v>0.88</v>
@@ -24022,7 +24040,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ110">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR110">
         <v>1.87</v>
@@ -24228,7 +24246,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ111">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR111">
         <v>1.92</v>
@@ -24353,7 +24371,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24431,10 +24449,10 @@
         <v>0.33</v>
       </c>
       <c r="AP112">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ112">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR112">
         <v>1.56</v>
@@ -24765,7 +24783,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24843,10 +24861,10 @@
         <v>0.63</v>
       </c>
       <c r="AP114">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ114">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR114">
         <v>1.2</v>
@@ -24971,7 +24989,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -25177,7 +25195,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25589,7 +25607,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25667,7 +25685,7 @@
         <v>1.86</v>
       </c>
       <c r="AP118">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ118">
         <v>1.94</v>
@@ -25795,7 +25813,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -26207,7 +26225,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26288,7 +26306,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ121">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR121">
         <v>1.15</v>
@@ -26413,7 +26431,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26494,7 +26512,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ122">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR122">
         <v>1.26</v>
@@ -26619,7 +26637,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26697,7 +26715,7 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ123">
         <v>1.13</v>
@@ -26825,7 +26843,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -26903,10 +26921,10 @@
         <v>1.88</v>
       </c>
       <c r="AP124">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ124">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR124">
         <v>1.32</v>
@@ -27109,7 +27127,7 @@
         <v>0.75</v>
       </c>
       <c r="AP125">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ125">
         <v>0.88</v>
@@ -27237,7 +27255,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27315,10 +27333,10 @@
         <v>2.33</v>
       </c>
       <c r="AP126">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ126">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR126">
         <v>1.94</v>
@@ -27524,7 +27542,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ127">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR127">
         <v>1.89</v>
@@ -27649,7 +27667,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27855,7 +27873,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27936,7 +27954,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ129">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR129">
         <v>1.13</v>
@@ -28267,7 +28285,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28345,7 +28363,7 @@
         <v>1.63</v>
       </c>
       <c r="AP131">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ131">
         <v>1.94</v>
@@ -28473,7 +28491,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28885,7 +28903,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28963,10 +28981,10 @@
         <v>2</v>
       </c>
       <c r="AP134">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ134">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR134">
         <v>1.81</v>
@@ -29091,7 +29109,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29169,7 +29187,7 @@
         <v>0.78</v>
       </c>
       <c r="AP135">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ135">
         <v>0.88</v>
@@ -29297,7 +29315,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29581,7 +29599,7 @@
         <v>0.88</v>
       </c>
       <c r="AP137">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ137">
         <v>1.13</v>
@@ -29787,10 +29805,10 @@
         <v>0.44</v>
       </c>
       <c r="AP138">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ138">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR138">
         <v>1.9</v>
@@ -29993,10 +30011,10 @@
         <v>0.89</v>
       </c>
       <c r="AP139">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ139">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR139">
         <v>1.21</v>
@@ -30121,7 +30139,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30202,7 +30220,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ140">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR140">
         <v>1.76</v>
@@ -30327,7 +30345,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30408,7 +30426,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ141">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR141">
         <v>1.95</v>
@@ -30533,7 +30551,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30611,7 +30629,7 @@
         <v>0.2</v>
       </c>
       <c r="AP142">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ142">
         <v>0.75</v>
@@ -30739,7 +30757,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30945,7 +30963,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31151,7 +31169,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31357,7 +31375,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31435,7 +31453,7 @@
         <v>1.44</v>
       </c>
       <c r="AP146">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ146">
         <v>1.07</v>
@@ -31563,7 +31581,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31850,7 +31868,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ148">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR148">
         <v>1.85</v>
@@ -32056,7 +32074,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ149">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR149">
         <v>1.8</v>
@@ -32465,10 +32483,10 @@
         <v>0.8</v>
       </c>
       <c r="AP151">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ151">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR151">
         <v>1.52</v>
@@ -32671,7 +32689,7 @@
         <v>0.7</v>
       </c>
       <c r="AP152">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ152">
         <v>0.88</v>
@@ -32799,7 +32817,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -32880,7 +32898,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ153">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR153">
         <v>1.31</v>
@@ -33005,7 +33023,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33417,7 +33435,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33623,7 +33641,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33829,7 +33847,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33907,10 +33925,10 @@
         <v>0.36</v>
       </c>
       <c r="AP158">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ158">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR158">
         <v>1.2</v>
@@ -34113,7 +34131,7 @@
         <v>0.5</v>
       </c>
       <c r="AP159">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ159">
         <v>0.8100000000000001</v>
@@ -34241,7 +34259,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34322,7 +34340,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ160">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR160">
         <v>1.87</v>
@@ -34528,7 +34546,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ161">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR161">
         <v>1.35</v>
@@ -34653,7 +34671,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34731,7 +34749,7 @@
         <v>0.27</v>
       </c>
       <c r="AP162">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ162">
         <v>0.75</v>
@@ -34859,7 +34877,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -35146,7 +35164,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ164">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR164">
         <v>1.29</v>
@@ -35271,7 +35289,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35352,7 +35370,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ165">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR165">
         <v>1.27</v>
@@ -35477,7 +35495,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35555,7 +35573,7 @@
         <v>1.9</v>
       </c>
       <c r="AP166">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ166">
         <v>1.94</v>
@@ -35683,7 +35701,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -35967,7 +35985,7 @@
         <v>0.73</v>
       </c>
       <c r="AP168">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ168">
         <v>0.88</v>
@@ -36095,7 +36113,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36301,7 +36319,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36379,7 +36397,7 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ170">
         <v>0.8100000000000001</v>
@@ -36507,7 +36525,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36585,10 +36603,10 @@
         <v>0.42</v>
       </c>
       <c r="AP171">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ171">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR171">
         <v>1.22</v>
@@ -36713,7 +36731,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36919,7 +36937,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -36997,10 +37015,10 @@
         <v>2</v>
       </c>
       <c r="AP173">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ173">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR173">
         <v>1.46</v>
@@ -37125,7 +37143,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37203,10 +37221,10 @@
         <v>0.58</v>
       </c>
       <c r="AP174">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ174">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR174">
         <v>2.05</v>
@@ -37331,7 +37349,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37701,7 +37719,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>6937176</v>
+        <v>6937175</v>
       </c>
       <c r="C177" t="s">
         <v>68</v>
@@ -37716,43 +37734,43 @@
         <v>26</v>
       </c>
       <c r="G177" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H177" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M177">
         <v>1</v>
       </c>
       <c r="N177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O177" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P177" t="s">
-        <v>179</v>
+        <v>333</v>
       </c>
       <c r="Q177">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S177">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T177">
         <v>1.5</v>
@@ -37773,19 +37791,19 @@
         <v>1.06</v>
       </c>
       <c r="Z177">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AA177">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AB177">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="AC177">
         <v>1.08</v>
       </c>
       <c r="AD177">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE177">
         <v>1.4</v>
@@ -37806,100 +37824,100 @@
         <v>1.8</v>
       </c>
       <c r="AK177">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AL177">
         <v>1.3</v>
       </c>
       <c r="AM177">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AN177">
-        <v>0.83</v>
+        <v>1.25</v>
       </c>
       <c r="AO177">
-        <v>0.75</v>
+        <v>1.08</v>
       </c>
       <c r="AP177">
-        <v>0.8</v>
+        <v>1.56</v>
       </c>
       <c r="AQ177">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="AR177">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AS177">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="AT177">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="AU177">
+        <v>7</v>
+      </c>
+      <c r="AV177">
+        <v>3</v>
+      </c>
+      <c r="AW177">
+        <v>5</v>
+      </c>
+      <c r="AX177">
         <v>4</v>
       </c>
-      <c r="AV177">
-        <v>4</v>
-      </c>
-      <c r="AW177">
-        <v>10</v>
-      </c>
-      <c r="AX177">
-        <v>3</v>
-      </c>
       <c r="AY177">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ177">
         <v>7</v>
       </c>
       <c r="BA177">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BB177">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC177">
         <v>10</v>
       </c>
       <c r="BD177">
+        <v>1.82</v>
+      </c>
+      <c r="BE177">
+        <v>8.1</v>
+      </c>
+      <c r="BF177">
+        <v>2.38</v>
+      </c>
+      <c r="BG177">
         <v>1.61</v>
       </c>
-      <c r="BE177">
-        <v>8.9</v>
-      </c>
-      <c r="BF177">
-        <v>2.78</v>
-      </c>
-      <c r="BG177">
-        <v>1.33</v>
-      </c>
       <c r="BH177">
-        <v>2.93</v>
+        <v>2.17</v>
       </c>
       <c r="BI177">
-        <v>1.63</v>
+        <v>2.08</v>
       </c>
       <c r="BJ177">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
       <c r="BK177">
-        <v>2.09</v>
+        <v>2.8</v>
       </c>
       <c r="BL177">
-        <v>1.69</v>
+        <v>1.38</v>
       </c>
       <c r="BM177">
-        <v>2.76</v>
+        <v>3.96</v>
       </c>
       <c r="BN177">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="BO177">
-        <v>3.74</v>
+        <v>5.4</v>
       </c>
       <c r="BP177">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="178" spans="1:68">
@@ -37907,7 +37925,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>6937174</v>
+        <v>6937176</v>
       </c>
       <c r="C178" t="s">
         <v>68</v>
@@ -37922,88 +37940,88 @@
         <v>26</v>
       </c>
       <c r="G178" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H178" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O178" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="Q178">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="R178">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="T178">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="U178">
+        <v>2.5</v>
+      </c>
+      <c r="V178">
+        <v>3.4</v>
+      </c>
+      <c r="W178">
+        <v>1.3</v>
+      </c>
+      <c r="X178">
+        <v>10</v>
+      </c>
+      <c r="Y178">
+        <v>1.06</v>
+      </c>
+      <c r="Z178">
+        <v>2.05</v>
+      </c>
+      <c r="AA178">
         <v>3.25</v>
       </c>
-      <c r="V178">
-        <v>2.63</v>
-      </c>
-      <c r="W178">
-        <v>1.44</v>
-      </c>
-      <c r="X178">
-        <v>6.5</v>
-      </c>
-      <c r="Y178">
-        <v>1.11</v>
-      </c>
-      <c r="Z178">
-        <v>6</v>
-      </c>
-      <c r="AA178">
-        <v>4.6</v>
-      </c>
       <c r="AB178">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="AC178">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="AD178">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AE178">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="AF178">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="AG178">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AH178">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AI178">
         <v>1.95</v>
@@ -38012,100 +38030,100 @@
         <v>1.8</v>
       </c>
       <c r="AK178">
-        <v>2.75</v>
+        <v>1.36</v>
       </c>
       <c r="AL178">
+        <v>1.3</v>
+      </c>
+      <c r="AM178">
+        <v>1.6</v>
+      </c>
+      <c r="AN178">
+        <v>0.83</v>
+      </c>
+      <c r="AO178">
+        <v>0.75</v>
+      </c>
+      <c r="AP178">
+        <v>0.8</v>
+      </c>
+      <c r="AQ178">
+        <v>0.75</v>
+      </c>
+      <c r="AR178">
+        <v>1.26</v>
+      </c>
+      <c r="AS178">
         <v>1.16</v>
       </c>
-      <c r="AM178">
-        <v>1.1</v>
-      </c>
-      <c r="AN178">
-        <v>1.58</v>
-      </c>
-      <c r="AO178">
-        <v>2.08</v>
-      </c>
-      <c r="AP178">
+      <c r="AT178">
+        <v>2.42</v>
+      </c>
+      <c r="AU178">
+        <v>4</v>
+      </c>
+      <c r="AV178">
+        <v>4</v>
+      </c>
+      <c r="AW178">
+        <v>10</v>
+      </c>
+      <c r="AX178">
+        <v>3</v>
+      </c>
+      <c r="AY178">
+        <v>14</v>
+      </c>
+      <c r="AZ178">
+        <v>7</v>
+      </c>
+      <c r="BA178">
+        <v>8</v>
+      </c>
+      <c r="BB178">
+        <v>2</v>
+      </c>
+      <c r="BC178">
+        <v>10</v>
+      </c>
+      <c r="BD178">
+        <v>1.61</v>
+      </c>
+      <c r="BE178">
+        <v>8.9</v>
+      </c>
+      <c r="BF178">
+        <v>2.78</v>
+      </c>
+      <c r="BG178">
+        <v>1.33</v>
+      </c>
+      <c r="BH178">
+        <v>2.93</v>
+      </c>
+      <c r="BI178">
+        <v>1.63</v>
+      </c>
+      <c r="BJ178">
+        <v>2.14</v>
+      </c>
+      <c r="BK178">
+        <v>2.09</v>
+      </c>
+      <c r="BL178">
         <v>1.69</v>
       </c>
-      <c r="AQ178">
-        <v>2.19</v>
-      </c>
-      <c r="AR178">
-        <v>1.36</v>
-      </c>
-      <c r="AS178">
-        <v>1.54</v>
-      </c>
-      <c r="AT178">
-        <v>2.9</v>
-      </c>
-      <c r="AU178">
-        <v>5</v>
-      </c>
-      <c r="AV178">
-        <v>6</v>
-      </c>
-      <c r="AW178">
-        <v>4</v>
-      </c>
-      <c r="AX178">
-        <v>5</v>
-      </c>
-      <c r="AY178">
-        <v>9</v>
-      </c>
-      <c r="AZ178">
-        <v>11</v>
-      </c>
-      <c r="BA178">
-        <v>1</v>
-      </c>
-      <c r="BB178">
-        <v>4</v>
-      </c>
-      <c r="BC178">
-        <v>5</v>
-      </c>
-      <c r="BD178">
-        <v>3.64</v>
-      </c>
-      <c r="BE178">
-        <v>9.1</v>
-      </c>
-      <c r="BF178">
-        <v>1.41</v>
-      </c>
-      <c r="BG178">
-        <v>1.49</v>
-      </c>
-      <c r="BH178">
-        <v>2.44</v>
-      </c>
-      <c r="BI178">
-        <v>1.92</v>
-      </c>
-      <c r="BJ178">
-        <v>1.88</v>
-      </c>
-      <c r="BK178">
-        <v>2.46</v>
-      </c>
-      <c r="BL178">
-        <v>1.48</v>
-      </c>
       <c r="BM178">
-        <v>3.34</v>
+        <v>2.76</v>
       </c>
       <c r="BN178">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="BO178">
-        <v>4.6</v>
+        <v>3.74</v>
       </c>
       <c r="BP178">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="179" spans="1:68">
@@ -38113,7 +38131,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>6937177</v>
+        <v>6937174</v>
       </c>
       <c r="C179" t="s">
         <v>68</v>
@@ -38128,70 +38146,70 @@
         <v>26</v>
       </c>
       <c r="G179" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H179" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M179">
         <v>2</v>
       </c>
       <c r="N179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O179" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q179">
+        <v>6</v>
+      </c>
+      <c r="R179">
+        <v>2.4</v>
+      </c>
+      <c r="S179">
+        <v>2</v>
+      </c>
+      <c r="T179">
+        <v>1.33</v>
+      </c>
+      <c r="U179">
+        <v>3.25</v>
+      </c>
+      <c r="V179">
+        <v>2.63</v>
+      </c>
+      <c r="W179">
+        <v>1.44</v>
+      </c>
+      <c r="X179">
         <v>6.5</v>
       </c>
-      <c r="R179">
-        <v>2.5</v>
-      </c>
-      <c r="S179">
-        <v>1.91</v>
-      </c>
-      <c r="T179">
-        <v>1.29</v>
-      </c>
-      <c r="U179">
-        <v>3.5</v>
-      </c>
-      <c r="V179">
-        <v>2.25</v>
-      </c>
-      <c r="W179">
-        <v>1.57</v>
-      </c>
-      <c r="X179">
-        <v>5.5</v>
-      </c>
       <c r="Y179">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z179">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AA179">
         <v>4.6</v>
       </c>
       <c r="AB179">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC179">
         <v>1.03</v>
@@ -38200,88 +38218,88 @@
         <v>15</v>
       </c>
       <c r="AE179">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AF179">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="AG179">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="AH179">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="AI179">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ179">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK179">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="AL179">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AM179">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AN179">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AO179">
         <v>2.08</v>
       </c>
       <c r="AP179">
-        <v>1.24</v>
+        <v>1.69</v>
       </c>
       <c r="AQ179">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="AR179">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AS179">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="AT179">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="AU179">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV179">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX179">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY179">
+        <v>9</v>
+      </c>
+      <c r="AZ179">
+        <v>11</v>
+      </c>
+      <c r="BA179">
+        <v>1</v>
+      </c>
+      <c r="BB179">
         <v>4</v>
       </c>
-      <c r="AZ179">
-        <v>16</v>
-      </c>
-      <c r="BA179">
-        <v>1</v>
-      </c>
-      <c r="BB179">
-        <v>8</v>
-      </c>
       <c r="BC179">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BD179">
-        <v>5.2</v>
+        <v>3.64</v>
       </c>
       <c r="BE179">
-        <v>10.5</v>
+        <v>9.1</v>
       </c>
       <c r="BF179">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="BG179">
         <v>1.49</v>
@@ -38308,10 +38326,10 @@
         <v>1.26</v>
       </c>
       <c r="BO179">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="BP179">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="180" spans="1:68">
@@ -38319,7 +38337,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>6937172</v>
+        <v>6937177</v>
       </c>
       <c r="C180" t="s">
         <v>68</v>
@@ -38334,190 +38352,190 @@
         <v>26</v>
       </c>
       <c r="G180" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H180" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180">
         <v>0</v>
       </c>
       <c r="K180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M180">
         <v>2</v>
       </c>
       <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>89</v>
+      </c>
+      <c r="P180" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q180">
+        <v>6.5</v>
+      </c>
+      <c r="R180">
+        <v>2.5</v>
+      </c>
+      <c r="S180">
+        <v>1.91</v>
+      </c>
+      <c r="T180">
+        <v>1.29</v>
+      </c>
+      <c r="U180">
+        <v>3.5</v>
+      </c>
+      <c r="V180">
+        <v>2.25</v>
+      </c>
+      <c r="W180">
+        <v>1.57</v>
+      </c>
+      <c r="X180">
+        <v>5.5</v>
+      </c>
+      <c r="Y180">
+        <v>1.14</v>
+      </c>
+      <c r="Z180">
+        <v>8.5</v>
+      </c>
+      <c r="AA180">
+        <v>4.6</v>
+      </c>
+      <c r="AB180">
+        <v>1.4</v>
+      </c>
+      <c r="AC180">
+        <v>1.03</v>
+      </c>
+      <c r="AD180">
+        <v>15</v>
+      </c>
+      <c r="AE180">
+        <v>1.19</v>
+      </c>
+      <c r="AF180">
+        <v>4.75</v>
+      </c>
+      <c r="AG180">
+        <v>1.62</v>
+      </c>
+      <c r="AH180">
+        <v>2.15</v>
+      </c>
+      <c r="AI180">
+        <v>1.75</v>
+      </c>
+      <c r="AJ180">
+        <v>2</v>
+      </c>
+      <c r="AK180">
+        <v>2.9</v>
+      </c>
+      <c r="AL180">
+        <v>1.17</v>
+      </c>
+      <c r="AM180">
+        <v>1.07</v>
+      </c>
+      <c r="AN180">
+        <v>1.67</v>
+      </c>
+      <c r="AO180">
+        <v>2.08</v>
+      </c>
+      <c r="AP180">
+        <v>1.24</v>
+      </c>
+      <c r="AQ180">
+        <v>1.94</v>
+      </c>
+      <c r="AR180">
+        <v>1.23</v>
+      </c>
+      <c r="AS180">
+        <v>1.49</v>
+      </c>
+      <c r="AT180">
+        <v>2.72</v>
+      </c>
+      <c r="AU180">
+        <v>3</v>
+      </c>
+      <c r="AV180">
+        <v>8</v>
+      </c>
+      <c r="AW180">
+        <v>1</v>
+      </c>
+      <c r="AX180">
+        <v>8</v>
+      </c>
+      <c r="AY180">
         <v>4</v>
       </c>
-      <c r="O180" t="s">
-        <v>211</v>
-      </c>
-      <c r="P180" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q180">
-        <v>2.95</v>
-      </c>
-      <c r="R180">
-        <v>2.1</v>
-      </c>
-      <c r="S180">
-        <v>3.75</v>
-      </c>
-      <c r="T180">
-        <v>1.42</v>
-      </c>
-      <c r="U180">
-        <v>2.71</v>
-      </c>
-      <c r="V180">
-        <v>2.94</v>
-      </c>
-      <c r="W180">
-        <v>1.36</v>
-      </c>
-      <c r="X180">
-        <v>7.25</v>
-      </c>
-      <c r="Y180">
-        <v>1.07</v>
-      </c>
-      <c r="Z180">
-        <v>2.3</v>
-      </c>
-      <c r="AA180">
-        <v>3.25</v>
-      </c>
-      <c r="AB180">
-        <v>3.2</v>
-      </c>
-      <c r="AC180">
-        <v>1.07</v>
-      </c>
-      <c r="AD180">
-        <v>9.5</v>
-      </c>
-      <c r="AE180">
-        <v>1.33</v>
-      </c>
-      <c r="AF180">
-        <v>3.3</v>
-      </c>
-      <c r="AG180">
-        <v>2.09</v>
-      </c>
-      <c r="AH180">
-        <v>1.73</v>
-      </c>
-      <c r="AI180">
-        <v>1.8</v>
-      </c>
-      <c r="AJ180">
-        <v>2</v>
-      </c>
-      <c r="AK180">
-        <v>1.33</v>
-      </c>
-      <c r="AL180">
-        <v>1.3</v>
-      </c>
-      <c r="AM180">
-        <v>1.68</v>
-      </c>
-      <c r="AN180">
-        <v>0.92</v>
-      </c>
-      <c r="AO180">
-        <v>0.33</v>
-      </c>
-      <c r="AP180">
-        <v>0.87</v>
-      </c>
-      <c r="AQ180">
-        <v>0.75</v>
-      </c>
-      <c r="AR180">
-        <v>1.25</v>
-      </c>
-      <c r="AS180">
-        <v>1.13</v>
-      </c>
-      <c r="AT180">
-        <v>2.38</v>
-      </c>
-      <c r="AU180">
-        <v>9</v>
-      </c>
-      <c r="AV180">
-        <v>6</v>
-      </c>
-      <c r="AW180">
-        <v>4</v>
-      </c>
-      <c r="AX180">
-        <v>5</v>
-      </c>
-      <c r="AY180">
-        <v>13</v>
-      </c>
       <c r="AZ180">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA180">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB180">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC180">
         <v>9</v>
       </c>
       <c r="BD180">
-        <v>1.77</v>
+        <v>5.2</v>
       </c>
       <c r="BE180">
-        <v>8.300000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="BF180">
-        <v>2.45</v>
+        <v>1.24</v>
       </c>
       <c r="BG180">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="BH180">
-        <v>2.49</v>
+        <v>2.44</v>
       </c>
       <c r="BI180">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="BJ180">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="BK180">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="BL180">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BM180">
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
       <c r="BN180">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="BO180">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="BP180">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="181" spans="1:68">
@@ -38525,7 +38543,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>6937171</v>
+        <v>6937172</v>
       </c>
       <c r="C181" t="s">
         <v>68</v>
@@ -38540,190 +38558,190 @@
         <v>26</v>
       </c>
       <c r="G181" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H181" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
       <c r="J181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N181">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O181" t="s">
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q181">
+        <v>2.95</v>
+      </c>
+      <c r="R181">
+        <v>2.1</v>
+      </c>
+      <c r="S181">
+        <v>3.75</v>
+      </c>
+      <c r="T181">
+        <v>1.42</v>
+      </c>
+      <c r="U181">
+        <v>2.71</v>
+      </c>
+      <c r="V181">
+        <v>2.94</v>
+      </c>
+      <c r="W181">
+        <v>1.36</v>
+      </c>
+      <c r="X181">
+        <v>7.25</v>
+      </c>
+      <c r="Y181">
+        <v>1.07</v>
+      </c>
+      <c r="Z181">
+        <v>2.3</v>
+      </c>
+      <c r="AA181">
+        <v>3.25</v>
+      </c>
+      <c r="AB181">
+        <v>3.2</v>
+      </c>
+      <c r="AC181">
+        <v>1.07</v>
+      </c>
+      <c r="AD181">
+        <v>9.5</v>
+      </c>
+      <c r="AE181">
+        <v>1.33</v>
+      </c>
+      <c r="AF181">
+        <v>3.3</v>
+      </c>
+      <c r="AG181">
+        <v>2.09</v>
+      </c>
+      <c r="AH181">
+        <v>1.73</v>
+      </c>
+      <c r="AI181">
+        <v>1.8</v>
+      </c>
+      <c r="AJ181">
+        <v>2</v>
+      </c>
+      <c r="AK181">
+        <v>1.33</v>
+      </c>
+      <c r="AL181">
+        <v>1.3</v>
+      </c>
+      <c r="AM181">
+        <v>1.68</v>
+      </c>
+      <c r="AN181">
+        <v>0.92</v>
+      </c>
+      <c r="AO181">
+        <v>0.33</v>
+      </c>
+      <c r="AP181">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ181">
+        <v>0.75</v>
+      </c>
+      <c r="AR181">
+        <v>1.25</v>
+      </c>
+      <c r="AS181">
+        <v>1.13</v>
+      </c>
+      <c r="AT181">
+        <v>2.38</v>
+      </c>
+      <c r="AU181">
+        <v>9</v>
+      </c>
+      <c r="AV181">
         <v>6</v>
       </c>
-      <c r="R181">
-        <v>2.2</v>
-      </c>
-      <c r="S181">
-        <v>2.2</v>
-      </c>
-      <c r="T181">
-        <v>1.4</v>
-      </c>
-      <c r="U181">
-        <v>2.75</v>
-      </c>
-      <c r="V181">
-        <v>2.75</v>
-      </c>
-      <c r="W181">
-        <v>1.4</v>
-      </c>
-      <c r="X181">
-        <v>8</v>
-      </c>
-      <c r="Y181">
-        <v>1.08</v>
-      </c>
-      <c r="Z181">
-        <v>7.5</v>
-      </c>
-      <c r="AA181">
-        <v>4.1</v>
-      </c>
-      <c r="AB181">
-        <v>1.47</v>
-      </c>
-      <c r="AC181">
-        <v>1.06</v>
-      </c>
-      <c r="AD181">
-        <v>10</v>
-      </c>
-      <c r="AE181">
-        <v>1.3</v>
-      </c>
-      <c r="AF181">
-        <v>3.5</v>
-      </c>
-      <c r="AG181">
-        <v>1.95</v>
-      </c>
-      <c r="AH181">
-        <v>1.75</v>
-      </c>
-      <c r="AI181">
-        <v>1.95</v>
-      </c>
-      <c r="AJ181">
-        <v>1.8</v>
-      </c>
-      <c r="AK181">
-        <v>2.35</v>
-      </c>
-      <c r="AL181">
-        <v>1.22</v>
-      </c>
-      <c r="AM181">
-        <v>1.13</v>
-      </c>
-      <c r="AN181">
-        <v>2.17</v>
-      </c>
-      <c r="AO181">
-        <v>2.08</v>
-      </c>
-      <c r="AP181">
-        <v>1.88</v>
-      </c>
-      <c r="AQ181">
-        <v>2</v>
-      </c>
-      <c r="AR181">
-        <v>1.75</v>
-      </c>
-      <c r="AS181">
-        <v>1.77</v>
-      </c>
-      <c r="AT181">
-        <v>3.52</v>
-      </c>
-      <c r="AU181">
-        <v>6</v>
-      </c>
-      <c r="AV181">
-        <v>10</v>
-      </c>
       <c r="AW181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX181">
         <v>5</v>
       </c>
       <c r="AY181">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ181">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA181">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB181">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC181">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD181">
-        <v>4.2</v>
+        <v>1.77</v>
       </c>
       <c r="BE181">
-        <v>10.25</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF181">
-        <v>1.32</v>
+        <v>2.45</v>
       </c>
       <c r="BG181">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="BH181">
-        <v>3.18</v>
+        <v>2.49</v>
       </c>
       <c r="BI181">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="BJ181">
-        <v>2.29</v>
+        <v>1.9</v>
       </c>
       <c r="BK181">
-        <v>1.95</v>
+        <v>2.41</v>
       </c>
       <c r="BL181">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="BM181">
-        <v>2.52</v>
+        <v>3.28</v>
       </c>
       <c r="BN181">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="BO181">
-        <v>3.42</v>
+        <v>4.5</v>
       </c>
       <c r="BP181">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="182" spans="1:68">
@@ -38731,7 +38749,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>6937173</v>
+        <v>6937171</v>
       </c>
       <c r="C182" t="s">
         <v>68</v>
@@ -38746,16 +38764,16 @@
         <v>26</v>
       </c>
       <c r="G182" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H182" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182">
         <v>2</v>
@@ -38764,172 +38782,172 @@
         <v>3</v>
       </c>
       <c r="M182">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N182">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O182" t="s">
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>89</v>
+        <v>337</v>
       </c>
       <c r="Q182">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="R182">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="S182">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="T182">
+        <v>1.4</v>
+      </c>
+      <c r="U182">
+        <v>2.75</v>
+      </c>
+      <c r="V182">
+        <v>2.75</v>
+      </c>
+      <c r="W182">
+        <v>1.4</v>
+      </c>
+      <c r="X182">
+        <v>8</v>
+      </c>
+      <c r="Y182">
+        <v>1.08</v>
+      </c>
+      <c r="Z182">
+        <v>7.5</v>
+      </c>
+      <c r="AA182">
+        <v>4.1</v>
+      </c>
+      <c r="AB182">
+        <v>1.47</v>
+      </c>
+      <c r="AC182">
+        <v>1.06</v>
+      </c>
+      <c r="AD182">
+        <v>10</v>
+      </c>
+      <c r="AE182">
+        <v>1.3</v>
+      </c>
+      <c r="AF182">
+        <v>3.5</v>
+      </c>
+      <c r="AG182">
+        <v>1.95</v>
+      </c>
+      <c r="AH182">
+        <v>1.75</v>
+      </c>
+      <c r="AI182">
+        <v>1.95</v>
+      </c>
+      <c r="AJ182">
+        <v>1.8</v>
+      </c>
+      <c r="AK182">
+        <v>2.35</v>
+      </c>
+      <c r="AL182">
         <v>1.22</v>
       </c>
-      <c r="U182">
-        <v>4</v>
-      </c>
-      <c r="V182">
-        <v>2.1</v>
-      </c>
-      <c r="W182">
-        <v>1.67</v>
-      </c>
-      <c r="X182">
-        <v>4.5</v>
-      </c>
-      <c r="Y182">
-        <v>1.18</v>
-      </c>
-      <c r="Z182">
-        <v>1.1</v>
-      </c>
-      <c r="AA182">
-        <v>9</v>
-      </c>
-      <c r="AB182">
-        <v>23</v>
-      </c>
-      <c r="AC182">
-        <v>1.01</v>
-      </c>
-      <c r="AD182">
-        <v>26</v>
-      </c>
-      <c r="AE182">
+      <c r="AM182">
         <v>1.13</v>
       </c>
-      <c r="AF182">
+      <c r="AN182">
+        <v>2.17</v>
+      </c>
+      <c r="AO182">
+        <v>2.08</v>
+      </c>
+      <c r="AP182">
+        <v>1.82</v>
+      </c>
+      <c r="AQ182">
+        <v>2</v>
+      </c>
+      <c r="AR182">
+        <v>1.75</v>
+      </c>
+      <c r="AS182">
+        <v>1.77</v>
+      </c>
+      <c r="AT182">
+        <v>3.52</v>
+      </c>
+      <c r="AU182">
         <v>6</v>
       </c>
-      <c r="AG182">
-        <v>1.5</v>
-      </c>
-      <c r="AH182">
-        <v>2.4</v>
-      </c>
-      <c r="AI182">
-        <v>2.38</v>
-      </c>
-      <c r="AJ182">
-        <v>1.53</v>
-      </c>
-      <c r="AK182">
-        <v>1.02</v>
-      </c>
-      <c r="AL182">
-        <v>1.04</v>
-      </c>
-      <c r="AM182">
+      <c r="AV182">
+        <v>10</v>
+      </c>
+      <c r="AW182">
+        <v>2</v>
+      </c>
+      <c r="AX182">
         <v>5</v>
       </c>
-      <c r="AN182">
-        <v>2.25</v>
-      </c>
-      <c r="AO182">
-        <v>0.67</v>
-      </c>
-      <c r="AP182">
-        <v>2.25</v>
-      </c>
-      <c r="AQ182">
-        <v>0.88</v>
-      </c>
-      <c r="AR182">
-        <v>1.96</v>
-      </c>
-      <c r="AS182">
-        <v>0.97</v>
-      </c>
-      <c r="AT182">
-        <v>2.93</v>
-      </c>
-      <c r="AU182">
-        <v>16</v>
-      </c>
-      <c r="AV182">
-        <v>0</v>
-      </c>
-      <c r="AW182">
-        <v>11</v>
-      </c>
-      <c r="AX182">
-        <v>4</v>
-      </c>
       <c r="AY182">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="AZ182">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BA182">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BB182">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BC182">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD182">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BE182">
-        <v>21</v>
+        <v>10.25</v>
       </c>
       <c r="BF182">
-        <v>16.5</v>
+        <v>1.32</v>
       </c>
       <c r="BG182">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BH182">
-        <v>3.34</v>
+        <v>3.18</v>
       </c>
       <c r="BI182">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="BJ182">
-        <v>1.88</v>
+        <v>2.29</v>
       </c>
       <c r="BK182">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="BL182">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BM182">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="BN182">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="BO182">
-        <v>3.18</v>
+        <v>3.42</v>
       </c>
       <c r="BP182">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -38937,7 +38955,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>6937175</v>
+        <v>6937173</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
@@ -38952,25 +38970,25 @@
         <v>26</v>
       </c>
       <c r="G183" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H183" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K183">
         <v>2</v>
       </c>
       <c r="L183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N183">
         <v>3</v>
@@ -38979,163 +38997,163 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>332</v>
+        <v>89</v>
       </c>
       <c r="Q183">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="R183">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="S183">
+        <v>13</v>
+      </c>
+      <c r="T183">
+        <v>1.22</v>
+      </c>
+      <c r="U183">
         <v>4</v>
       </c>
-      <c r="T183">
+      <c r="V183">
+        <v>2.1</v>
+      </c>
+      <c r="W183">
+        <v>1.67</v>
+      </c>
+      <c r="X183">
+        <v>4.5</v>
+      </c>
+      <c r="Y183">
+        <v>1.18</v>
+      </c>
+      <c r="Z183">
+        <v>1.1</v>
+      </c>
+      <c r="AA183">
+        <v>9</v>
+      </c>
+      <c r="AB183">
+        <v>23</v>
+      </c>
+      <c r="AC183">
+        <v>1.01</v>
+      </c>
+      <c r="AD183">
+        <v>26</v>
+      </c>
+      <c r="AE183">
+        <v>1.13</v>
+      </c>
+      <c r="AF183">
+        <v>6</v>
+      </c>
+      <c r="AG183">
         <v>1.5</v>
       </c>
-      <c r="U183">
-        <v>2.5</v>
-      </c>
-      <c r="V183">
-        <v>3.4</v>
-      </c>
-      <c r="W183">
-        <v>1.3</v>
-      </c>
-      <c r="X183">
-        <v>10</v>
-      </c>
-      <c r="Y183">
-        <v>1.06</v>
-      </c>
-      <c r="Z183">
-        <v>2.2</v>
-      </c>
-      <c r="AA183">
-        <v>3.3</v>
-      </c>
-      <c r="AB183">
-        <v>3.3</v>
-      </c>
-      <c r="AC183">
-        <v>1.08</v>
-      </c>
-      <c r="AD183">
-        <v>9</v>
-      </c>
-      <c r="AE183">
-        <v>1.4</v>
-      </c>
-      <c r="AF183">
-        <v>3</v>
-      </c>
-      <c r="AG183">
-        <v>2.1</v>
-      </c>
       <c r="AH183">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="AI183">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="AJ183">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AK183">
-        <v>1.32</v>
+        <v>1.02</v>
       </c>
       <c r="AL183">
-        <v>1.3</v>
+        <v>1.04</v>
       </c>
       <c r="AM183">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="AN183">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="AO183">
-        <v>1.08</v>
+        <v>0.67</v>
       </c>
       <c r="AP183">
-        <v>1.56</v>
+        <v>2.25</v>
       </c>
       <c r="AQ183">
-        <v>1.07</v>
+        <v>0.88</v>
       </c>
       <c r="AR183">
-        <v>1.25</v>
+        <v>1.96</v>
       </c>
       <c r="AS183">
-        <v>1.14</v>
+        <v>0.97</v>
       </c>
       <c r="AT183">
-        <v>2.39</v>
+        <v>2.93</v>
       </c>
       <c r="AU183">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AV183">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW183">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AX183">
         <v>4</v>
       </c>
       <c r="AY183">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AZ183">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BA183">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB183">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC183">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD183">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="BE183">
-        <v>8.1</v>
+        <v>21</v>
       </c>
       <c r="BF183">
-        <v>2.38</v>
+        <v>16.5</v>
       </c>
       <c r="BG183">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
       <c r="BH183">
-        <v>2.17</v>
+        <v>3.34</v>
       </c>
       <c r="BI183">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="BJ183">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="BK183">
-        <v>2.8</v>
+        <v>1.86</v>
       </c>
       <c r="BL183">
-        <v>1.38</v>
+        <v>1.88</v>
       </c>
       <c r="BM183">
-        <v>3.96</v>
+        <v>2.36</v>
       </c>
       <c r="BN183">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="BO183">
-        <v>5.4</v>
+        <v>3.18</v>
       </c>
       <c r="BP183">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="184" spans="1:68">
@@ -39185,7 +39203,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39391,7 +39409,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39472,7 +39490,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ185">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR185">
         <v>2.06</v>
@@ -39597,7 +39615,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39803,7 +39821,7 @@
         <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -39881,7 +39899,7 @@
         <v>0.62</v>
       </c>
       <c r="AP187">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ187">
         <v>0.88</v>
@@ -40087,10 +40105,10 @@
         <v>0.38</v>
       </c>
       <c r="AP188">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ188">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR188">
         <v>1.3</v>
@@ -40215,7 +40233,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40296,7 +40314,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ189">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR189">
         <v>1.09</v>
@@ -40499,10 +40517,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP190">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ190">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR190">
         <v>1.4</v>
@@ -40911,7 +40929,7 @@
         <v>0.54</v>
       </c>
       <c r="AP192">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ192">
         <v>0.8100000000000001</v>
@@ -41039,7 +41057,7 @@
         <v>112</v>
       </c>
       <c r="P193" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41326,7 +41344,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ194">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR194">
         <v>1.33</v>
@@ -41451,7 +41469,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q195">
         <v>2.75</v>
@@ -41615,7 +41633,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7378763</v>
+        <v>7378762</v>
       </c>
       <c r="C196" t="s">
         <v>68</v>
@@ -41630,10 +41648,10 @@
         <v>2</v>
       </c>
       <c r="G196" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H196" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -41645,28 +41663,28 @@
         <v>0</v>
       </c>
       <c r="L196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N196">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O196" t="s">
         <v>220</v>
       </c>
       <c r="P196" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="Q196">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="R196">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S196">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="T196">
         <v>1.4</v>
@@ -41687,13 +41705,13 @@
         <v>1.08</v>
       </c>
       <c r="Z196">
-        <v>1.46</v>
+        <v>1.82</v>
       </c>
       <c r="AA196">
-        <v>4.25</v>
+        <v>3.7</v>
       </c>
       <c r="AB196">
-        <v>6.1</v>
+        <v>3.8</v>
       </c>
       <c r="AC196">
         <v>1.05</v>
@@ -41708,112 +41726,112 @@
         <v>3.6</v>
       </c>
       <c r="AG196">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AH196">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AI196">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="AJ196">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AK196">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="AL196">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AM196">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="AN196">
+        <v>2.54</v>
+      </c>
+      <c r="AO196">
         <v>2.08</v>
       </c>
-      <c r="AO196">
-        <v>1.08</v>
-      </c>
       <c r="AP196">
-        <v>1.88</v>
+        <v>2.53</v>
       </c>
       <c r="AQ196">
-        <v>0.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR196">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
       <c r="AS196">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="AT196">
-        <v>2.8</v>
+        <v>3.61</v>
       </c>
       <c r="AU196">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV196">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW196">
         <v>4</v>
       </c>
       <c r="AX196">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY196">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ196">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA196">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BB196">
         <v>4</v>
       </c>
       <c r="BC196">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="BD196">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="BE196">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="BF196">
-        <v>4.8</v>
+        <v>2.97</v>
       </c>
       <c r="BG196">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="BH196">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="BI196">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="BJ196">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BK196">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BL196">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="BM196">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="BN196">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="BO196">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="BP196">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="197" spans="1:68">
@@ -41821,7 +41839,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>7378762</v>
+        <v>7378763</v>
       </c>
       <c r="C197" t="s">
         <v>68</v>
@@ -41836,10 +41854,10 @@
         <v>2</v>
       </c>
       <c r="G197" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H197" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -41851,28 +41869,28 @@
         <v>0</v>
       </c>
       <c r="L197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N197">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O197" t="s">
         <v>221</v>
       </c>
       <c r="P197" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="Q197">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="R197">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S197">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="T197">
         <v>1.4</v>
@@ -41893,13 +41911,13 @@
         <v>1.08</v>
       </c>
       <c r="Z197">
-        <v>1.82</v>
+        <v>1.46</v>
       </c>
       <c r="AA197">
-        <v>3.7</v>
+        <v>4.25</v>
       </c>
       <c r="AB197">
-        <v>3.8</v>
+        <v>6.1</v>
       </c>
       <c r="AC197">
         <v>1.05</v>
@@ -41914,112 +41932,112 @@
         <v>3.6</v>
       </c>
       <c r="AG197">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AH197">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AI197">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="AJ197">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AK197">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="AL197">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AM197">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="AN197">
-        <v>2.54</v>
+        <v>2.08</v>
       </c>
       <c r="AO197">
-        <v>2.08</v>
+        <v>1.08</v>
       </c>
       <c r="AP197">
-        <v>2.5</v>
+        <v>1.82</v>
       </c>
       <c r="AQ197">
-        <v>2</v>
+        <v>0.88</v>
       </c>
       <c r="AR197">
-        <v>2.06</v>
+        <v>1.7</v>
       </c>
       <c r="AS197">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="AT197">
-        <v>3.61</v>
+        <v>2.8</v>
       </c>
       <c r="AU197">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV197">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW197">
         <v>4</v>
       </c>
       <c r="AX197">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY197">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ197">
+        <v>9</v>
+      </c>
+      <c r="BA197">
         <v>13</v>
-      </c>
-      <c r="BA197">
-        <v>2</v>
       </c>
       <c r="BB197">
         <v>4</v>
       </c>
       <c r="BC197">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="BD197">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="BE197">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="BF197">
-        <v>2.97</v>
+        <v>4.8</v>
       </c>
       <c r="BG197">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="BH197">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="BI197">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="BJ197">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BK197">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BL197">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="BM197">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="BN197">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="BO197">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="BP197">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="198" spans="1:68">
@@ -42687,7 +42705,7 @@
         <v>140</v>
       </c>
       <c r="P201" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42768,7 +42786,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ201">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR201">
         <v>1.11</v>
@@ -42851,7 +42869,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>7382760</v>
+        <v>7382763</v>
       </c>
       <c r="C202" t="s">
         <v>68</v>
@@ -42866,190 +42884,190 @@
         <v>3</v>
       </c>
       <c r="G202" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H202" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K202">
         <v>1</v>
       </c>
       <c r="L202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O202" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="P202" t="s">
-        <v>108</v>
+        <v>345</v>
       </c>
       <c r="Q202">
-        <v>2.61</v>
+        <v>2.88</v>
       </c>
       <c r="R202">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S202">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T202">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="U202">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="V202">
-        <v>2.91</v>
+        <v>3.4</v>
       </c>
       <c r="W202">
+        <v>1.3</v>
+      </c>
+      <c r="X202">
+        <v>10</v>
+      </c>
+      <c r="Y202">
+        <v>1.06</v>
+      </c>
+      <c r="Z202">
+        <v>2.17</v>
+      </c>
+      <c r="AA202">
+        <v>3.3</v>
+      </c>
+      <c r="AB202">
+        <v>3.15</v>
+      </c>
+      <c r="AC202">
+        <v>1.06</v>
+      </c>
+      <c r="AD202">
+        <v>6.75</v>
+      </c>
+      <c r="AE202">
+        <v>1.36</v>
+      </c>
+      <c r="AF202">
+        <v>2.8</v>
+      </c>
+      <c r="AG202">
+        <v>2.17</v>
+      </c>
+      <c r="AH202">
+        <v>1.61</v>
+      </c>
+      <c r="AI202">
+        <v>1.91</v>
+      </c>
+      <c r="AJ202">
+        <v>1.91</v>
+      </c>
+      <c r="AK202">
+        <v>1.28</v>
+      </c>
+      <c r="AL202">
         <v>1.38</v>
       </c>
-      <c r="X202">
-        <v>7.4</v>
-      </c>
-      <c r="Y202">
-        <v>1.07</v>
-      </c>
-      <c r="Z202">
-        <v>2.07</v>
-      </c>
-      <c r="AA202">
-        <v>3.35</v>
-      </c>
-      <c r="AB202">
-        <v>3.35</v>
-      </c>
-      <c r="AC202">
-        <v>1.02</v>
-      </c>
-      <c r="AD202">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AE202">
-        <v>1.28</v>
-      </c>
-      <c r="AF202">
-        <v>3.18</v>
-      </c>
-      <c r="AG202">
-        <v>2</v>
-      </c>
-      <c r="AH202">
-        <v>1.73</v>
-      </c>
-      <c r="AI202">
-        <v>1.81</v>
-      </c>
-      <c r="AJ202">
-        <v>1.93</v>
-      </c>
-      <c r="AK202">
-        <v>1.29</v>
-      </c>
-      <c r="AL202">
-        <v>1.3</v>
-      </c>
       <c r="AM202">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AN202">
         <v>1.29</v>
       </c>
       <c r="AO202">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
       <c r="AP202">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AQ202">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="AR202">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AS202">
-        <v>1.1</v>
+        <v>0.93</v>
       </c>
       <c r="AT202">
-        <v>2.43</v>
+        <v>2.36</v>
       </c>
       <c r="AU202">
+        <v>3</v>
+      </c>
+      <c r="AV202">
+        <v>2</v>
+      </c>
+      <c r="AW202">
+        <v>11</v>
+      </c>
+      <c r="AX202">
+        <v>3</v>
+      </c>
+      <c r="AY202">
+        <v>14</v>
+      </c>
+      <c r="AZ202">
         <v>5</v>
       </c>
-      <c r="AV202">
-        <v>5</v>
-      </c>
-      <c r="AW202">
-        <v>3</v>
-      </c>
-      <c r="AX202">
-        <v>3</v>
-      </c>
-      <c r="AY202">
-        <v>8</v>
-      </c>
-      <c r="AZ202">
-        <v>8</v>
-      </c>
       <c r="BA202">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB202">
         <v>3</v>
       </c>
       <c r="BC202">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD202">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="BE202">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="BF202">
-        <v>2.45</v>
+        <v>2.64</v>
       </c>
       <c r="BG202">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="BH202">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="BI202">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="BJ202">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="BK202">
-        <v>2.29</v>
+        <v>2.61</v>
       </c>
       <c r="BL202">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="BM202">
-        <v>3.08</v>
+        <v>3.7</v>
       </c>
       <c r="BN202">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BO202">
-        <v>5.56</v>
+        <v>5.64</v>
       </c>
       <c r="BP202">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="203" spans="1:68">
@@ -43057,7 +43075,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>7382763</v>
+        <v>7382760</v>
       </c>
       <c r="C203" t="s">
         <v>68</v>
@@ -43072,190 +43090,190 @@
         <v>3</v>
       </c>
       <c r="G203" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H203" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K203">
         <v>1</v>
       </c>
       <c r="L203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N203">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O203" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="P203" t="s">
-        <v>340</v>
+        <v>108</v>
       </c>
       <c r="Q203">
-        <v>2.88</v>
+        <v>2.61</v>
       </c>
       <c r="R203">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="S203">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T203">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="U203">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="V203">
-        <v>3.4</v>
+        <v>2.91</v>
       </c>
       <c r="W203">
+        <v>1.38</v>
+      </c>
+      <c r="X203">
+        <v>7.4</v>
+      </c>
+      <c r="Y203">
+        <v>1.07</v>
+      </c>
+      <c r="Z203">
+        <v>2.07</v>
+      </c>
+      <c r="AA203">
+        <v>3.35</v>
+      </c>
+      <c r="AB203">
+        <v>3.35</v>
+      </c>
+      <c r="AC203">
+        <v>1.02</v>
+      </c>
+      <c r="AD203">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE203">
+        <v>1.28</v>
+      </c>
+      <c r="AF203">
+        <v>3.18</v>
+      </c>
+      <c r="AG203">
+        <v>2</v>
+      </c>
+      <c r="AH203">
+        <v>1.73</v>
+      </c>
+      <c r="AI203">
+        <v>1.81</v>
+      </c>
+      <c r="AJ203">
+        <v>1.93</v>
+      </c>
+      <c r="AK203">
+        <v>1.29</v>
+      </c>
+      <c r="AL203">
         <v>1.3</v>
       </c>
-      <c r="X203">
-        <v>10</v>
-      </c>
-      <c r="Y203">
-        <v>1.06</v>
-      </c>
-      <c r="Z203">
-        <v>2.17</v>
-      </c>
-      <c r="AA203">
-        <v>3.3</v>
-      </c>
-      <c r="AB203">
-        <v>3.15</v>
-      </c>
-      <c r="AC203">
-        <v>1.06</v>
-      </c>
-      <c r="AD203">
-        <v>6.75</v>
-      </c>
-      <c r="AE203">
-        <v>1.36</v>
-      </c>
-      <c r="AF203">
-        <v>2.8</v>
-      </c>
-      <c r="AG203">
-        <v>2.17</v>
-      </c>
-      <c r="AH203">
-        <v>1.61</v>
-      </c>
-      <c r="AI203">
-        <v>1.91</v>
-      </c>
-      <c r="AJ203">
-        <v>1.91</v>
-      </c>
-      <c r="AK203">
-        <v>1.28</v>
-      </c>
-      <c r="AL203">
-        <v>1.38</v>
-      </c>
       <c r="AM203">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="AN203">
         <v>1.29</v>
       </c>
       <c r="AO203">
-        <v>0.79</v>
+        <v>0.5</v>
       </c>
       <c r="AP203">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AQ203">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR203">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AS203">
-        <v>0.93</v>
+        <v>1.1</v>
       </c>
       <c r="AT203">
-        <v>2.36</v>
+        <v>2.43</v>
       </c>
       <c r="AU203">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV203">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW203">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AX203">
         <v>3</v>
       </c>
       <c r="AY203">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AZ203">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA203">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB203">
         <v>3</v>
       </c>
       <c r="BC203">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD203">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="BE203">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="BF203">
-        <v>2.64</v>
+        <v>2.45</v>
       </c>
       <c r="BG203">
-        <v>1.59</v>
+        <v>1.42</v>
       </c>
       <c r="BH203">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="BI203">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="BJ203">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="BK203">
-        <v>2.61</v>
+        <v>2.29</v>
       </c>
       <c r="BL203">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="BM203">
-        <v>3.7</v>
+        <v>3.08</v>
       </c>
       <c r="BN203">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BO203">
-        <v>5.64</v>
+        <v>5.56</v>
       </c>
       <c r="BP203">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="204" spans="1:68">
@@ -43386,7 +43404,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ204">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR204">
         <v>1.36</v>
@@ -43511,7 +43529,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q205">
         <v>11</v>
@@ -43592,7 +43610,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ205">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR205">
         <v>1.12</v>
@@ -43717,7 +43735,7 @@
         <v>89</v>
       </c>
       <c r="P206" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43795,10 +43813,10 @@
         <v>2.07</v>
       </c>
       <c r="AP206">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ206">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR206">
         <v>1.73</v>
@@ -43923,7 +43941,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44001,7 +44019,7 @@
         <v>2.21</v>
       </c>
       <c r="AP207">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ207">
         <v>1.94</v>
@@ -44129,7 +44147,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q208">
         <v>2.88</v>
@@ -44210,7 +44228,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ208">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR208">
         <v>1.26</v>
@@ -44335,7 +44353,7 @@
         <v>125</v>
       </c>
       <c r="P209" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q209">
         <v>2.58</v>
@@ -44413,10 +44431,10 @@
         <v>0.79</v>
       </c>
       <c r="AP209">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ209">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR209">
         <v>1.23</v>
@@ -44541,7 +44559,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q210">
         <v>2.99</v>
@@ -44747,7 +44765,7 @@
         <v>89</v>
       </c>
       <c r="P211" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q211">
         <v>2.88</v>
@@ -44825,7 +44843,7 @@
         <v>0.43</v>
       </c>
       <c r="AP211">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ211">
         <v>0.75</v>
@@ -44953,7 +44971,7 @@
         <v>229</v>
       </c>
       <c r="P212" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q212">
         <v>1.53</v>
@@ -45237,7 +45255,7 @@
         <v>1.2</v>
       </c>
       <c r="AP213">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ213">
         <v>1.13</v>
@@ -45365,7 +45383,7 @@
         <v>231</v>
       </c>
       <c r="P214" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q214">
         <v>2.67</v>
@@ -45529,7 +45547,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>7382769</v>
+        <v>7382768</v>
       </c>
       <c r="C215" t="s">
         <v>68</v>
@@ -45544,190 +45562,190 @@
         <v>5</v>
       </c>
       <c r="G215" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H215" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K215">
         <v>1</v>
       </c>
       <c r="L215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M215">
         <v>2</v>
       </c>
       <c r="N215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O215" t="s">
-        <v>232</v>
+        <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q215">
-        <v>3.08</v>
+        <v>3.15</v>
       </c>
       <c r="R215">
-        <v>2.24</v>
+        <v>2.13</v>
       </c>
       <c r="S215">
-        <v>3.38</v>
+        <v>3.58</v>
       </c>
       <c r="T215">
+        <v>1.42</v>
+      </c>
+      <c r="U215">
+        <v>2.78</v>
+      </c>
+      <c r="V215">
+        <v>3.15</v>
+      </c>
+      <c r="W215">
+        <v>1.34</v>
+      </c>
+      <c r="X215">
+        <v>7.5</v>
+      </c>
+      <c r="Y215">
+        <v>1.06</v>
+      </c>
+      <c r="Z215">
+        <v>2.16</v>
+      </c>
+      <c r="AA215">
+        <v>3.1</v>
+      </c>
+      <c r="AB215">
+        <v>3.2</v>
+      </c>
+      <c r="AC215">
+        <v>1.04</v>
+      </c>
+      <c r="AD215">
+        <v>8.5</v>
+      </c>
+      <c r="AE215">
+        <v>1.33</v>
+      </c>
+      <c r="AF215">
+        <v>3</v>
+      </c>
+      <c r="AG215">
+        <v>2.08</v>
+      </c>
+      <c r="AH215">
+        <v>1.67</v>
+      </c>
+      <c r="AI215">
+        <v>1.8</v>
+      </c>
+      <c r="AJ215">
+        <v>1.91</v>
+      </c>
+      <c r="AK215">
+        <v>1.4</v>
+      </c>
+      <c r="AL215">
+        <v>1.33</v>
+      </c>
+      <c r="AM215">
+        <v>1.57</v>
+      </c>
+      <c r="AN215">
+        <v>1.2</v>
+      </c>
+      <c r="AO215">
+        <v>0.6</v>
+      </c>
+      <c r="AP215">
+        <v>1.12</v>
+      </c>
+      <c r="AQ215">
+        <v>0.75</v>
+      </c>
+      <c r="AR215">
+        <v>1.32</v>
+      </c>
+      <c r="AS215">
+        <v>1.16</v>
+      </c>
+      <c r="AT215">
+        <v>2.48</v>
+      </c>
+      <c r="AU215">
+        <v>3</v>
+      </c>
+      <c r="AV215">
+        <v>8</v>
+      </c>
+      <c r="AW215">
+        <v>4</v>
+      </c>
+      <c r="AX215">
+        <v>6</v>
+      </c>
+      <c r="AY215">
+        <v>7</v>
+      </c>
+      <c r="AZ215">
+        <v>14</v>
+      </c>
+      <c r="BA215">
+        <v>10</v>
+      </c>
+      <c r="BB215">
+        <v>6</v>
+      </c>
+      <c r="BC215">
+        <v>16</v>
+      </c>
+      <c r="BD215">
+        <v>1.85</v>
+      </c>
+      <c r="BE215">
+        <v>8</v>
+      </c>
+      <c r="BF215">
+        <v>2.34</v>
+      </c>
+      <c r="BG215">
+        <v>1.64</v>
+      </c>
+      <c r="BH215">
+        <v>2.12</v>
+      </c>
+      <c r="BI215">
+        <v>2.14</v>
+      </c>
+      <c r="BJ215">
+        <v>1.66</v>
+      </c>
+      <c r="BK215">
+        <v>2.89</v>
+      </c>
+      <c r="BL215">
         <v>1.36</v>
       </c>
-      <c r="U215">
-        <v>3.08</v>
-      </c>
-      <c r="V215">
-        <v>2.8</v>
-      </c>
-      <c r="W215">
-        <v>1.42</v>
-      </c>
-      <c r="X215">
-        <v>6.85</v>
-      </c>
-      <c r="Y215">
-        <v>1.08</v>
-      </c>
-      <c r="Z215">
-        <v>2.35</v>
-      </c>
-      <c r="AA215">
-        <v>3.4</v>
-      </c>
-      <c r="AB215">
-        <v>2.75</v>
-      </c>
-      <c r="AC215">
-        <v>1.02</v>
-      </c>
-      <c r="AD215">
-        <v>10</v>
-      </c>
-      <c r="AE215">
-        <v>1.29</v>
-      </c>
-      <c r="AF215">
-        <v>3.4</v>
-      </c>
-      <c r="AG215">
-        <v>1.85</v>
-      </c>
-      <c r="AH215">
-        <v>1.85</v>
-      </c>
-      <c r="AI215">
-        <v>1.69</v>
-      </c>
-      <c r="AJ215">
-        <v>2.11</v>
-      </c>
-      <c r="AK215">
-        <v>1.46</v>
-      </c>
-      <c r="AL215">
-        <v>1.31</v>
-      </c>
-      <c r="AM215">
-        <v>1.53</v>
-      </c>
-      <c r="AN215">
-        <v>1.47</v>
-      </c>
-      <c r="AO215">
-        <v>0.67</v>
-      </c>
-      <c r="AP215">
-        <v>1.38</v>
-      </c>
-      <c r="AQ215">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AR215">
-        <v>1.11</v>
-      </c>
-      <c r="AS215">
-        <v>1.1</v>
-      </c>
-      <c r="AT215">
-        <v>2.21</v>
-      </c>
-      <c r="AU215">
-        <v>4</v>
-      </c>
-      <c r="AV215">
-        <v>9</v>
-      </c>
-      <c r="AW215">
-        <v>8</v>
-      </c>
-      <c r="AX215">
-        <v>3</v>
-      </c>
-      <c r="AY215">
-        <v>12</v>
-      </c>
-      <c r="AZ215">
-        <v>12</v>
-      </c>
-      <c r="BA215">
-        <v>3</v>
-      </c>
-      <c r="BB215">
+      <c r="BM215">
+        <v>4.15</v>
+      </c>
+      <c r="BN215">
+        <v>1.17</v>
+      </c>
+      <c r="BO215">
         <v>5</v>
       </c>
-      <c r="BC215">
-        <v>8</v>
-      </c>
-      <c r="BD215">
-        <v>2.07</v>
-      </c>
-      <c r="BE215">
-        <v>8.9</v>
-      </c>
-      <c r="BF215">
-        <v>2.01</v>
-      </c>
-      <c r="BG215">
-        <v>1.25</v>
-      </c>
-      <c r="BH215">
-        <v>3.42</v>
-      </c>
-      <c r="BI215">
-        <v>1.48</v>
-      </c>
-      <c r="BJ215">
-        <v>2.47</v>
-      </c>
-      <c r="BK215">
-        <v>1.82</v>
-      </c>
-      <c r="BL215">
-        <v>1.98</v>
-      </c>
-      <c r="BM215">
-        <v>2.36</v>
-      </c>
-      <c r="BN215">
-        <v>1.52</v>
-      </c>
-      <c r="BO215">
-        <v>3.18</v>
-      </c>
       <c r="BP215">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="216" spans="1:68">
@@ -45735,7 +45753,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>7382768</v>
+        <v>7382769</v>
       </c>
       <c r="C216" t="s">
         <v>68</v>
@@ -45750,190 +45768,190 @@
         <v>5</v>
       </c>
       <c r="G216" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H216" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K216">
         <v>1</v>
       </c>
       <c r="L216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M216">
         <v>2</v>
       </c>
       <c r="N216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O216" t="s">
-        <v>89</v>
+        <v>232</v>
       </c>
       <c r="P216" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q216">
-        <v>3.15</v>
+        <v>3.08</v>
       </c>
       <c r="R216">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="S216">
-        <v>3.58</v>
+        <v>3.38</v>
       </c>
       <c r="T216">
+        <v>1.36</v>
+      </c>
+      <c r="U216">
+        <v>3.08</v>
+      </c>
+      <c r="V216">
+        <v>2.8</v>
+      </c>
+      <c r="W216">
         <v>1.42</v>
       </c>
-      <c r="U216">
-        <v>2.78</v>
-      </c>
-      <c r="V216">
-        <v>3.15</v>
-      </c>
-      <c r="W216">
-        <v>1.34</v>
-      </c>
       <c r="X216">
-        <v>7.5</v>
+        <v>6.85</v>
       </c>
       <c r="Y216">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z216">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="AA216">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB216">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="AC216">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD216">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE216">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AF216">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AG216">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AH216">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AI216">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AJ216">
-        <v>1.91</v>
+        <v>2.11</v>
       </c>
       <c r="AK216">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="AL216">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AM216">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AN216">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AO216">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AP216">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ216">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR216">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="AS216">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AT216">
-        <v>2.48</v>
+        <v>2.21</v>
       </c>
       <c r="AU216">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV216">
+        <v>9</v>
+      </c>
+      <c r="AW216">
         <v>8</v>
       </c>
-      <c r="AW216">
-        <v>4</v>
-      </c>
       <c r="AX216">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY216">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ216">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA216">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BB216">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC216">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BD216">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="BE216">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="BF216">
-        <v>2.34</v>
+        <v>2.01</v>
       </c>
       <c r="BG216">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="BH216">
-        <v>2.12</v>
+        <v>3.42</v>
       </c>
       <c r="BI216">
-        <v>2.14</v>
+        <v>1.48</v>
       </c>
       <c r="BJ216">
-        <v>1.66</v>
+        <v>2.47</v>
       </c>
       <c r="BK216">
-        <v>2.89</v>
+        <v>1.82</v>
       </c>
       <c r="BL216">
-        <v>1.36</v>
+        <v>1.98</v>
       </c>
       <c r="BM216">
-        <v>4.15</v>
+        <v>2.36</v>
       </c>
       <c r="BN216">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="BO216">
-        <v>5</v>
+        <v>3.18</v>
       </c>
       <c r="BP216">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="217" spans="1:68">
@@ -45983,7 +46001,7 @@
         <v>233</v>
       </c>
       <c r="P217" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46064,7 +46082,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ217">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR217">
         <v>1.25</v>
@@ -46189,7 +46207,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -46270,7 +46288,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ218">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR218">
         <v>1.11</v>
@@ -46395,7 +46413,7 @@
         <v>106</v>
       </c>
       <c r="P219" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46473,7 +46491,7 @@
         <v>1.93</v>
       </c>
       <c r="AP219">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ219">
         <v>2</v>
@@ -46601,7 +46619,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q220">
         <v>2.4</v>
@@ -46807,7 +46825,7 @@
         <v>235</v>
       </c>
       <c r="P221" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -46900,22 +46918,22 @@
         <v>2.62</v>
       </c>
       <c r="AU221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV221">
+        <v>5</v>
+      </c>
+      <c r="AW221">
         <v>6</v>
       </c>
-      <c r="AW221">
-        <v>5</v>
-      </c>
       <c r="AX221">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY221">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ221">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA221">
         <v>2</v>
@@ -46964,6 +46982,1242 @@
       </c>
       <c r="BP221">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7378777</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45406.5625</v>
+      </c>
+      <c r="F222">
+        <v>7</v>
+      </c>
+      <c r="G222" t="s">
+        <v>82</v>
+      </c>
+      <c r="H222" t="s">
+        <v>74</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="O222" t="s">
+        <v>236</v>
+      </c>
+      <c r="P222" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q222">
+        <v>5.5</v>
+      </c>
+      <c r="R222">
+        <v>2.2</v>
+      </c>
+      <c r="S222">
+        <v>2.3</v>
+      </c>
+      <c r="T222">
+        <v>1.4</v>
+      </c>
+      <c r="U222">
+        <v>2.75</v>
+      </c>
+      <c r="V222">
+        <v>2.75</v>
+      </c>
+      <c r="W222">
+        <v>1.4</v>
+      </c>
+      <c r="X222">
+        <v>8</v>
+      </c>
+      <c r="Y222">
+        <v>1.08</v>
+      </c>
+      <c r="Z222">
+        <v>4.2</v>
+      </c>
+      <c r="AA222">
+        <v>3.5</v>
+      </c>
+      <c r="AB222">
+        <v>1.7</v>
+      </c>
+      <c r="AC222">
+        <v>1.01</v>
+      </c>
+      <c r="AD222">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE222">
+        <v>1.26</v>
+      </c>
+      <c r="AF222">
+        <v>3.34</v>
+      </c>
+      <c r="AG222">
+        <v>1.83</v>
+      </c>
+      <c r="AH222">
+        <v>1.8</v>
+      </c>
+      <c r="AI222">
+        <v>1.91</v>
+      </c>
+      <c r="AJ222">
+        <v>1.91</v>
+      </c>
+      <c r="AK222">
+        <v>2.15</v>
+      </c>
+      <c r="AL222">
+        <v>1.22</v>
+      </c>
+      <c r="AM222">
+        <v>1.18</v>
+      </c>
+      <c r="AN222">
+        <v>1.88</v>
+      </c>
+      <c r="AO222">
+        <v>2</v>
+      </c>
+      <c r="AP222">
+        <v>1.82</v>
+      </c>
+      <c r="AQ222">
+        <v>1.94</v>
+      </c>
+      <c r="AR222">
+        <v>1.69</v>
+      </c>
+      <c r="AS222">
+        <v>1.59</v>
+      </c>
+      <c r="AT222">
+        <v>3.28</v>
+      </c>
+      <c r="AU222">
+        <v>6</v>
+      </c>
+      <c r="AV222">
+        <v>10</v>
+      </c>
+      <c r="AW222">
+        <v>5</v>
+      </c>
+      <c r="AX222">
+        <v>8</v>
+      </c>
+      <c r="AY222">
+        <v>11</v>
+      </c>
+      <c r="AZ222">
+        <v>18</v>
+      </c>
+      <c r="BA222">
+        <v>3</v>
+      </c>
+      <c r="BB222">
+        <v>11</v>
+      </c>
+      <c r="BC222">
+        <v>14</v>
+      </c>
+      <c r="BD222">
+        <v>3.38</v>
+      </c>
+      <c r="BE222">
+        <v>8.9</v>
+      </c>
+      <c r="BF222">
+        <v>1.46</v>
+      </c>
+      <c r="BG222">
+        <v>1.47</v>
+      </c>
+      <c r="BH222">
+        <v>2.49</v>
+      </c>
+      <c r="BI222">
+        <v>1.92</v>
+      </c>
+      <c r="BJ222">
+        <v>1.88</v>
+      </c>
+      <c r="BK222">
+        <v>2.41</v>
+      </c>
+      <c r="BL222">
+        <v>1.5</v>
+      </c>
+      <c r="BM222">
+        <v>3.28</v>
+      </c>
+      <c r="BN222">
+        <v>1.27</v>
+      </c>
+      <c r="BO222">
+        <v>4.75</v>
+      </c>
+      <c r="BP222">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7378778</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45406.60416666666</v>
+      </c>
+      <c r="F223">
+        <v>7</v>
+      </c>
+      <c r="G223" t="s">
+        <v>78</v>
+      </c>
+      <c r="H223" t="s">
+        <v>77</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>2</v>
+      </c>
+      <c r="L223">
+        <v>3</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>3</v>
+      </c>
+      <c r="O223" t="s">
+        <v>237</v>
+      </c>
+      <c r="P223" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q223">
+        <v>2.5</v>
+      </c>
+      <c r="R223">
+        <v>2.1</v>
+      </c>
+      <c r="S223">
+        <v>4.5</v>
+      </c>
+      <c r="T223">
+        <v>1.4</v>
+      </c>
+      <c r="U223">
+        <v>2.75</v>
+      </c>
+      <c r="V223">
+        <v>2.75</v>
+      </c>
+      <c r="W223">
+        <v>1.4</v>
+      </c>
+      <c r="X223">
+        <v>8</v>
+      </c>
+      <c r="Y223">
+        <v>1.08</v>
+      </c>
+      <c r="Z223">
+        <v>1.8</v>
+      </c>
+      <c r="AA223">
+        <v>3.3</v>
+      </c>
+      <c r="AB223">
+        <v>3.8</v>
+      </c>
+      <c r="AC223">
+        <v>1.02</v>
+      </c>
+      <c r="AD223">
+        <v>8.9</v>
+      </c>
+      <c r="AE223">
+        <v>1.28</v>
+      </c>
+      <c r="AF223">
+        <v>3.22</v>
+      </c>
+      <c r="AG223">
+        <v>1.85</v>
+      </c>
+      <c r="AH223">
+        <v>1.75</v>
+      </c>
+      <c r="AI223">
+        <v>1.8</v>
+      </c>
+      <c r="AJ223">
+        <v>1.95</v>
+      </c>
+      <c r="AK223">
+        <v>1.24</v>
+      </c>
+      <c r="AL223">
+        <v>1.25</v>
+      </c>
+      <c r="AM223">
+        <v>1.92</v>
+      </c>
+      <c r="AN223">
+        <v>2.5</v>
+      </c>
+      <c r="AO223">
+        <v>2.19</v>
+      </c>
+      <c r="AP223">
+        <v>2.53</v>
+      </c>
+      <c r="AQ223">
+        <v>2.06</v>
+      </c>
+      <c r="AR223">
+        <v>1.96</v>
+      </c>
+      <c r="AS223">
+        <v>1.54</v>
+      </c>
+      <c r="AT223">
+        <v>3.5</v>
+      </c>
+      <c r="AU223">
+        <v>9</v>
+      </c>
+      <c r="AV223">
+        <v>3</v>
+      </c>
+      <c r="AW223">
+        <v>3</v>
+      </c>
+      <c r="AX223">
+        <v>4</v>
+      </c>
+      <c r="AY223">
+        <v>12</v>
+      </c>
+      <c r="AZ223">
+        <v>7</v>
+      </c>
+      <c r="BA223">
+        <v>4</v>
+      </c>
+      <c r="BB223">
+        <v>2</v>
+      </c>
+      <c r="BC223">
+        <v>6</v>
+      </c>
+      <c r="BD223">
+        <v>1.54</v>
+      </c>
+      <c r="BE223">
+        <v>9.1</v>
+      </c>
+      <c r="BF223">
+        <v>2.99</v>
+      </c>
+      <c r="BG223">
+        <v>1.32</v>
+      </c>
+      <c r="BH223">
+        <v>2.98</v>
+      </c>
+      <c r="BI223">
+        <v>1.61</v>
+      </c>
+      <c r="BJ223">
+        <v>2.17</v>
+      </c>
+      <c r="BK223">
+        <v>2.06</v>
+      </c>
+      <c r="BL223">
+        <v>1.71</v>
+      </c>
+      <c r="BM223">
+        <v>2.72</v>
+      </c>
+      <c r="BN223">
+        <v>1.4</v>
+      </c>
+      <c r="BO223">
+        <v>3.65</v>
+      </c>
+      <c r="BP223">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7382773</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45409.58333333334</v>
+      </c>
+      <c r="F224">
+        <v>6</v>
+      </c>
+      <c r="G224" t="s">
+        <v>70</v>
+      </c>
+      <c r="H224" t="s">
+        <v>81</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224" t="s">
+        <v>238</v>
+      </c>
+      <c r="P224" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q224">
+        <v>1.75</v>
+      </c>
+      <c r="R224">
+        <v>2.62</v>
+      </c>
+      <c r="S224">
+        <v>6.7</v>
+      </c>
+      <c r="T224">
+        <v>1.32</v>
+      </c>
+      <c r="U224">
+        <v>3.1</v>
+      </c>
+      <c r="V224">
+        <v>2.44</v>
+      </c>
+      <c r="W224">
+        <v>1.48</v>
+      </c>
+      <c r="X224">
+        <v>6.5</v>
+      </c>
+      <c r="Y224">
+        <v>1.11</v>
+      </c>
+      <c r="Z224">
+        <v>1.5</v>
+      </c>
+      <c r="AA224">
+        <v>3.9</v>
+      </c>
+      <c r="AB224">
+        <v>5.25</v>
+      </c>
+      <c r="AC224">
+        <v>1.03</v>
+      </c>
+      <c r="AD224">
+        <v>14</v>
+      </c>
+      <c r="AE224">
+        <v>1.23</v>
+      </c>
+      <c r="AF224">
+        <v>3.75</v>
+      </c>
+      <c r="AG224">
+        <v>1.85</v>
+      </c>
+      <c r="AH224">
+        <v>1.85</v>
+      </c>
+      <c r="AI224">
+        <v>1.88</v>
+      </c>
+      <c r="AJ224">
+        <v>1.85</v>
+      </c>
+      <c r="AK224">
+        <v>1.12</v>
+      </c>
+      <c r="AL224">
+        <v>1.18</v>
+      </c>
+      <c r="AM224">
+        <v>2.5</v>
+      </c>
+      <c r="AN224">
+        <v>1.07</v>
+      </c>
+      <c r="AO224">
+        <v>0.67</v>
+      </c>
+      <c r="AP224">
+        <v>1.19</v>
+      </c>
+      <c r="AQ224">
+        <v>0.63</v>
+      </c>
+      <c r="AR224">
+        <v>1.26</v>
+      </c>
+      <c r="AS224">
+        <v>1.01</v>
+      </c>
+      <c r="AT224">
+        <v>2.27</v>
+      </c>
+      <c r="AU224">
+        <v>6</v>
+      </c>
+      <c r="AV224">
+        <v>4</v>
+      </c>
+      <c r="AW224">
+        <v>8</v>
+      </c>
+      <c r="AX224">
+        <v>7</v>
+      </c>
+      <c r="AY224">
+        <v>14</v>
+      </c>
+      <c r="AZ224">
+        <v>11</v>
+      </c>
+      <c r="BA224">
+        <v>5</v>
+      </c>
+      <c r="BB224">
+        <v>4</v>
+      </c>
+      <c r="BC224">
+        <v>9</v>
+      </c>
+      <c r="BD224">
+        <v>1.6</v>
+      </c>
+      <c r="BE224">
+        <v>8.6</v>
+      </c>
+      <c r="BF224">
+        <v>2.91</v>
+      </c>
+      <c r="BG224">
+        <v>1.52</v>
+      </c>
+      <c r="BH224">
+        <v>2.36</v>
+      </c>
+      <c r="BI224">
+        <v>1.93</v>
+      </c>
+      <c r="BJ224">
+        <v>1.81</v>
+      </c>
+      <c r="BK224">
+        <v>2.57</v>
+      </c>
+      <c r="BL224">
+        <v>1.44</v>
+      </c>
+      <c r="BM224">
+        <v>3.48</v>
+      </c>
+      <c r="BN224">
+        <v>1.24</v>
+      </c>
+      <c r="BO224">
+        <v>4.33</v>
+      </c>
+      <c r="BP224">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7382774</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45409.58333333334</v>
+      </c>
+      <c r="F225">
+        <v>6</v>
+      </c>
+      <c r="G225" t="s">
+        <v>80</v>
+      </c>
+      <c r="H225" t="s">
+        <v>71</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>2</v>
+      </c>
+      <c r="L225">
+        <v>2</v>
+      </c>
+      <c r="M225">
+        <v>3</v>
+      </c>
+      <c r="N225">
+        <v>5</v>
+      </c>
+      <c r="O225" t="s">
+        <v>239</v>
+      </c>
+      <c r="P225" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q225">
+        <v>1.79</v>
+      </c>
+      <c r="R225">
+        <v>2.56</v>
+      </c>
+      <c r="S225">
+        <v>6.59</v>
+      </c>
+      <c r="T225">
+        <v>1.31</v>
+      </c>
+      <c r="U225">
+        <v>3.12</v>
+      </c>
+      <c r="V225">
+        <v>2.54</v>
+      </c>
+      <c r="W225">
+        <v>1.45</v>
+      </c>
+      <c r="X225">
+        <v>6.5</v>
+      </c>
+      <c r="Y225">
+        <v>1.1</v>
+      </c>
+      <c r="Z225">
+        <v>1.44</v>
+      </c>
+      <c r="AA225">
+        <v>4</v>
+      </c>
+      <c r="AB225">
+        <v>5.75</v>
+      </c>
+      <c r="AC225">
+        <v>1.03</v>
+      </c>
+      <c r="AD225">
+        <v>14</v>
+      </c>
+      <c r="AE225">
+        <v>1.23</v>
+      </c>
+      <c r="AF225">
+        <v>3.7</v>
+      </c>
+      <c r="AG225">
+        <v>1.75</v>
+      </c>
+      <c r="AH225">
+        <v>1.95</v>
+      </c>
+      <c r="AI225">
+        <v>1.9</v>
+      </c>
+      <c r="AJ225">
+        <v>1.8</v>
+      </c>
+      <c r="AK225">
+        <v>1.11</v>
+      </c>
+      <c r="AL225">
+        <v>1.18</v>
+      </c>
+      <c r="AM225">
+        <v>2.55</v>
+      </c>
+      <c r="AN225">
+        <v>0.87</v>
+      </c>
+      <c r="AO225">
+        <v>0.44</v>
+      </c>
+      <c r="AP225">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ225">
+        <v>0.59</v>
+      </c>
+      <c r="AR225">
+        <v>1.29</v>
+      </c>
+      <c r="AS225">
+        <v>1.08</v>
+      </c>
+      <c r="AT225">
+        <v>2.37</v>
+      </c>
+      <c r="AU225">
+        <v>7</v>
+      </c>
+      <c r="AV225">
+        <v>6</v>
+      </c>
+      <c r="AW225">
+        <v>6</v>
+      </c>
+      <c r="AX225">
+        <v>4</v>
+      </c>
+      <c r="AY225">
+        <v>13</v>
+      </c>
+      <c r="AZ225">
+        <v>10</v>
+      </c>
+      <c r="BA225">
+        <v>8</v>
+      </c>
+      <c r="BB225">
+        <v>4</v>
+      </c>
+      <c r="BC225">
+        <v>12</v>
+      </c>
+      <c r="BD225">
+        <v>1.47</v>
+      </c>
+      <c r="BE225">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF225">
+        <v>3.38</v>
+      </c>
+      <c r="BG225">
+        <v>1.39</v>
+      </c>
+      <c r="BH225">
+        <v>2.76</v>
+      </c>
+      <c r="BI225">
+        <v>1.72</v>
+      </c>
+      <c r="BJ225">
+        <v>2.05</v>
+      </c>
+      <c r="BK225">
+        <v>2.19</v>
+      </c>
+      <c r="BL225">
+        <v>1.6</v>
+      </c>
+      <c r="BM225">
+        <v>2.93</v>
+      </c>
+      <c r="BN225">
+        <v>1.33</v>
+      </c>
+      <c r="BO225">
+        <v>3.6</v>
+      </c>
+      <c r="BP225">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7382775</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45409.58333333334</v>
+      </c>
+      <c r="F226">
+        <v>6</v>
+      </c>
+      <c r="G226" t="s">
+        <v>75</v>
+      </c>
+      <c r="H226" t="s">
+        <v>83</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>1</v>
+      </c>
+      <c r="O226" t="s">
+        <v>240</v>
+      </c>
+      <c r="P226" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q226">
+        <v>2.35</v>
+      </c>
+      <c r="R226">
+        <v>2.2</v>
+      </c>
+      <c r="S226">
+        <v>5</v>
+      </c>
+      <c r="T226">
+        <v>1.37</v>
+      </c>
+      <c r="U226">
+        <v>2.9</v>
+      </c>
+      <c r="V226">
+        <v>2.76</v>
+      </c>
+      <c r="W226">
+        <v>1.4</v>
+      </c>
+      <c r="X226">
+        <v>6.79</v>
+      </c>
+      <c r="Y226">
+        <v>1.08</v>
+      </c>
+      <c r="Z226">
+        <v>1.67</v>
+      </c>
+      <c r="AA226">
+        <v>3.5</v>
+      </c>
+      <c r="AB226">
+        <v>4.33</v>
+      </c>
+      <c r="AC226">
+        <v>1.05</v>
+      </c>
+      <c r="AD226">
+        <v>12</v>
+      </c>
+      <c r="AE226">
+        <v>1.3</v>
+      </c>
+      <c r="AF226">
+        <v>3.6</v>
+      </c>
+      <c r="AG226">
+        <v>1.85</v>
+      </c>
+      <c r="AH226">
+        <v>1.85</v>
+      </c>
+      <c r="AI226">
+        <v>1.85</v>
+      </c>
+      <c r="AJ226">
+        <v>1.96</v>
+      </c>
+      <c r="AK226">
+        <v>1.18</v>
+      </c>
+      <c r="AL226">
+        <v>1.22</v>
+      </c>
+      <c r="AM226">
+        <v>2.15</v>
+      </c>
+      <c r="AN226">
+        <v>1.2</v>
+      </c>
+      <c r="AO226">
+        <v>0.8</v>
+      </c>
+      <c r="AP226">
+        <v>1.31</v>
+      </c>
+      <c r="AQ226">
+        <v>0.75</v>
+      </c>
+      <c r="AR226">
+        <v>1.45</v>
+      </c>
+      <c r="AS226">
+        <v>1.15</v>
+      </c>
+      <c r="AT226">
+        <v>2.6</v>
+      </c>
+      <c r="AU226">
+        <v>5</v>
+      </c>
+      <c r="AV226">
+        <v>7</v>
+      </c>
+      <c r="AW226">
+        <v>4</v>
+      </c>
+      <c r="AX226">
+        <v>5</v>
+      </c>
+      <c r="AY226">
+        <v>9</v>
+      </c>
+      <c r="AZ226">
+        <v>12</v>
+      </c>
+      <c r="BA226">
+        <v>3</v>
+      </c>
+      <c r="BB226">
+        <v>6</v>
+      </c>
+      <c r="BC226">
+        <v>9</v>
+      </c>
+      <c r="BD226">
+        <v>1.5</v>
+      </c>
+      <c r="BE226">
+        <v>9.1</v>
+      </c>
+      <c r="BF226">
+        <v>3.24</v>
+      </c>
+      <c r="BG226">
+        <v>1.37</v>
+      </c>
+      <c r="BH226">
+        <v>2.84</v>
+      </c>
+      <c r="BI226">
+        <v>1.69</v>
+      </c>
+      <c r="BJ226">
+        <v>2.09</v>
+      </c>
+      <c r="BK226">
+        <v>2.14</v>
+      </c>
+      <c r="BL226">
+        <v>1.63</v>
+      </c>
+      <c r="BM226">
+        <v>2.84</v>
+      </c>
+      <c r="BN226">
+        <v>1.35</v>
+      </c>
+      <c r="BO226">
+        <v>3.6</v>
+      </c>
+      <c r="BP226">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7382772</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45409.58333333334</v>
+      </c>
+      <c r="F227">
+        <v>6</v>
+      </c>
+      <c r="G227" t="s">
+        <v>76</v>
+      </c>
+      <c r="H227" t="s">
+        <v>72</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" t="s">
+        <v>241</v>
+      </c>
+      <c r="P227" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q227">
+        <v>3.37</v>
+      </c>
+      <c r="R227">
+        <v>2.09</v>
+      </c>
+      <c r="S227">
+        <v>3.42</v>
+      </c>
+      <c r="T227">
+        <v>1.43</v>
+      </c>
+      <c r="U227">
+        <v>2.75</v>
+      </c>
+      <c r="V227">
+        <v>3.1</v>
+      </c>
+      <c r="W227">
+        <v>1.35</v>
+      </c>
+      <c r="X227">
+        <v>7.5</v>
+      </c>
+      <c r="Y227">
+        <v>1.07</v>
+      </c>
+      <c r="Z227">
+        <v>5.33</v>
+      </c>
+      <c r="AA227">
+        <v>1.26</v>
+      </c>
+      <c r="AB227">
+        <v>7.77</v>
+      </c>
+      <c r="AC227">
+        <v>1.06</v>
+      </c>
+      <c r="AD227">
+        <v>9.25</v>
+      </c>
+      <c r="AE227">
+        <v>1.3</v>
+      </c>
+      <c r="AF227">
+        <v>3.2</v>
+      </c>
+      <c r="AG227">
+        <v>1.95</v>
+      </c>
+      <c r="AH227">
+        <v>1.75</v>
+      </c>
+      <c r="AI227">
+        <v>1.72</v>
+      </c>
+      <c r="AJ227">
+        <v>2.07</v>
+      </c>
+      <c r="AK227">
+        <v>1.38</v>
+      </c>
+      <c r="AL227">
+        <v>1.5</v>
+      </c>
+      <c r="AM227">
+        <v>1.42</v>
+      </c>
+      <c r="AN227">
+        <v>1.13</v>
+      </c>
+      <c r="AO227">
+        <v>0.47</v>
+      </c>
+      <c r="AP227">
+        <v>1.12</v>
+      </c>
+      <c r="AQ227">
+        <v>0.5</v>
+      </c>
+      <c r="AR227">
+        <v>1.31</v>
+      </c>
+      <c r="AS227">
+        <v>1.26</v>
+      </c>
+      <c r="AT227">
+        <v>2.57</v>
+      </c>
+      <c r="AU227">
+        <v>5</v>
+      </c>
+      <c r="AV227">
+        <v>3</v>
+      </c>
+      <c r="AW227">
+        <v>3</v>
+      </c>
+      <c r="AX227">
+        <v>8</v>
+      </c>
+      <c r="AY227">
+        <v>8</v>
+      </c>
+      <c r="AZ227">
+        <v>11</v>
+      </c>
+      <c r="BA227">
+        <v>4</v>
+      </c>
+      <c r="BB227">
+        <v>2</v>
+      </c>
+      <c r="BC227">
+        <v>6</v>
+      </c>
+      <c r="BD227">
+        <v>1.93</v>
+      </c>
+      <c r="BE227">
+        <v>8.9</v>
+      </c>
+      <c r="BF227">
+        <v>2.21</v>
+      </c>
+      <c r="BG227">
+        <v>1.48</v>
+      </c>
+      <c r="BH227">
+        <v>2.47</v>
+      </c>
+      <c r="BI227">
+        <v>1.87</v>
+      </c>
+      <c r="BJ227">
+        <v>1.87</v>
+      </c>
+      <c r="BK227">
+        <v>2.44</v>
+      </c>
+      <c r="BL227">
+        <v>1.49</v>
+      </c>
+      <c r="BM227">
+        <v>3.34</v>
+      </c>
+      <c r="BN227">
+        <v>1.26</v>
+      </c>
+      <c r="BO227">
+        <v>4.6</v>
+      </c>
+      <c r="BP227">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,13 +733,19 @@
     <t>['56']</t>
   </si>
   <si>
-    <t>['26', '81']</t>
+    <t>['26', '82']</t>
   </si>
   <si>
     <t>['53']</t>
   </si>
   <si>
     <t>['12']</t>
+  </si>
+  <si>
+    <t>['24', '27', '52', '90+3']</t>
+  </si>
+  <si>
+    <t>['3', '81', '90']</t>
   </si>
   <si>
     <t>['55', '61']</t>
@@ -1091,6 +1097,12 @@
   </si>
   <si>
     <t>['36', '74', '90+3']</t>
+  </si>
+  <si>
+    <t>['9', '75']</t>
+  </si>
+  <si>
+    <t>['2']</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP227"/>
+  <dimension ref="A1:BP230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1711,7 +1723,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -1792,7 +1804,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ2">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2123,7 +2135,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2204,7 +2216,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ4">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2407,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ5">
         <v>1.07</v>
@@ -2613,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ6">
         <v>0.63</v>
@@ -3231,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ9">
         <v>0.88</v>
@@ -3646,7 +3658,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ11">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3771,7 +3783,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -3849,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ12">
         <v>0.8100000000000001</v>
@@ -4055,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ13">
         <v>0.75</v>
@@ -4595,7 +4607,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -4879,10 +4891,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ17">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR17">
         <v>2.51</v>
@@ -5213,7 +5225,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5294,7 +5306,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR19">
         <v>1.21</v>
@@ -5419,7 +5431,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5625,7 +5637,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5831,7 +5843,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -6037,7 +6049,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6243,7 +6255,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6527,10 +6539,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ25">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -7067,7 +7079,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7354,7 +7366,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ29">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR29">
         <v>1.38</v>
@@ -7557,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ30">
         <v>0.8100000000000001</v>
@@ -7891,7 +7903,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8097,7 +8109,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8303,7 +8315,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8381,10 +8393,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR34">
         <v>1.73</v>
@@ -8509,7 +8521,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8715,7 +8727,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8796,7 +8808,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ36">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR36">
         <v>1.6</v>
@@ -8999,10 +9011,10 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ37">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR37">
         <v>2.25</v>
@@ -9205,7 +9217,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ38">
         <v>0.88</v>
@@ -9333,7 +9345,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9539,7 +9551,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -10157,7 +10169,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10363,7 +10375,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10441,7 +10453,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ44">
         <v>1.94</v>
@@ -10569,7 +10581,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -11062,7 +11074,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR47">
         <v>1.42</v>
@@ -11471,7 +11483,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ49">
         <v>0.75</v>
@@ -11599,7 +11611,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -12217,7 +12229,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12298,7 +12310,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR53">
         <v>1.41</v>
@@ -12707,7 +12719,7 @@
         <v>0.2</v>
       </c>
       <c r="AP55">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ55">
         <v>0.75</v>
@@ -12835,7 +12847,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12913,7 +12925,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ56">
         <v>2.06</v>
@@ -13041,7 +13053,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13247,7 +13259,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13534,7 +13546,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ59">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR59">
         <v>1.24</v>
@@ -13737,7 +13749,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ60">
         <v>0.63</v>
@@ -14277,7 +14289,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14483,7 +14495,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14770,7 +14782,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR65">
         <v>1.58</v>
@@ -14895,7 +14907,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -15101,7 +15113,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15307,7 +15319,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15385,7 +15397,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ68">
         <v>1.94</v>
@@ -15513,7 +15525,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15925,7 +15937,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16131,7 +16143,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16337,7 +16349,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16418,7 +16430,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ73">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR73">
         <v>1.34</v>
@@ -16543,7 +16555,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16621,7 +16633,7 @@
         <v>0.2</v>
       </c>
       <c r="AP74">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ74">
         <v>0.75</v>
@@ -16830,7 +16842,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ75">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR75">
         <v>2.12</v>
@@ -16955,7 +16967,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17367,7 +17379,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17573,7 +17585,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -17651,7 +17663,7 @@
         <v>0.17</v>
       </c>
       <c r="AP79">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ79">
         <v>0.75</v>
@@ -17857,7 +17869,7 @@
         <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ80">
         <v>0.63</v>
@@ -17985,7 +17997,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18272,7 +18284,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR82">
         <v>1.08</v>
@@ -18397,7 +18409,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -19427,7 +19439,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19633,7 +19645,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19917,7 +19929,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ90">
         <v>0.5</v>
@@ -20123,10 +20135,10 @@
         <v>0.83</v>
       </c>
       <c r="AP91">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ91">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR91">
         <v>1.81</v>
@@ -20332,7 +20344,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ92">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR92">
         <v>2.03</v>
@@ -20457,7 +20469,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20869,7 +20881,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -21075,7 +21087,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21281,7 +21293,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21487,7 +21499,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21568,7 +21580,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ98">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR98">
         <v>1.71</v>
@@ -21693,7 +21705,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -21899,7 +21911,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -21980,7 +21992,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ100">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR100">
         <v>1.78</v>
@@ -22105,7 +22117,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22517,7 +22529,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22598,7 +22610,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ103">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR103">
         <v>1.29</v>
@@ -22723,7 +22735,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22929,7 +22941,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -23341,7 +23353,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23422,7 +23434,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ107">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR107">
         <v>1.2</v>
@@ -24037,7 +24049,7 @@
         <v>0.43</v>
       </c>
       <c r="AP110">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ110">
         <v>0.5</v>
@@ -24243,7 +24255,7 @@
         <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ111">
         <v>0.59</v>
@@ -24371,7 +24383,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24783,7 +24795,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24989,7 +25001,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -25195,7 +25207,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25273,7 +25285,7 @@
         <v>0.25</v>
       </c>
       <c r="AP116">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ116">
         <v>0.75</v>
@@ -25607,7 +25619,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25813,7 +25825,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25891,10 +25903,10 @@
         <v>1.88</v>
       </c>
       <c r="AP119">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ119">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR119">
         <v>1.84</v>
@@ -26100,7 +26112,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ120">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR120">
         <v>1.37</v>
@@ -26225,7 +26237,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26431,7 +26443,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26637,7 +26649,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26718,7 +26730,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ123">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR123">
         <v>1.56</v>
@@ -26843,7 +26855,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -27255,7 +27267,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27539,7 +27551,7 @@
         <v>0.44</v>
       </c>
       <c r="AP127">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ127">
         <v>0.59</v>
@@ -27873,7 +27885,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28285,7 +28297,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28491,7 +28503,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28572,7 +28584,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ132">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR132">
         <v>1.13</v>
@@ -28775,7 +28787,7 @@
         <v>1.63</v>
       </c>
       <c r="AP133">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ133">
         <v>1.07</v>
@@ -28903,7 +28915,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29109,7 +29121,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29190,7 +29202,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ135">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR135">
         <v>1.53</v>
@@ -29315,7 +29327,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29602,7 +29614,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ137">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR137">
         <v>1.27</v>
@@ -30139,7 +30151,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30217,7 +30229,7 @@
         <v>0.4</v>
       </c>
       <c r="AP140">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ140">
         <v>0.59</v>
@@ -30345,7 +30357,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30423,7 +30435,7 @@
         <v>2.2</v>
       </c>
       <c r="AP141">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ141">
         <v>2.06</v>
@@ -30551,7 +30563,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30757,7 +30769,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30838,7 +30850,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ143">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR143">
         <v>1.23</v>
@@ -30963,7 +30975,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31169,7 +31181,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31250,7 +31262,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ145">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR145">
         <v>1.16</v>
@@ -31375,7 +31387,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31581,7 +31593,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31865,7 +31877,7 @@
         <v>2.1</v>
       </c>
       <c r="AP148">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ148">
         <v>1.94</v>
@@ -32071,7 +32083,7 @@
         <v>0.4</v>
       </c>
       <c r="AP149">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ149">
         <v>0.5</v>
@@ -32280,7 +32292,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ150">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR150">
         <v>1.29</v>
@@ -32817,7 +32829,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -33023,7 +33035,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33307,10 +33319,10 @@
         <v>2.1</v>
       </c>
       <c r="AP155">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ155">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR155">
         <v>1.9</v>
@@ -33435,7 +33447,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33516,7 +33528,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ156">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR156">
         <v>1.06</v>
@@ -33641,7 +33653,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33719,10 +33731,10 @@
         <v>1.18</v>
       </c>
       <c r="AP157">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ157">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR157">
         <v>1.83</v>
@@ -33847,7 +33859,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34259,7 +34271,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34337,7 +34349,7 @@
         <v>1.91</v>
       </c>
       <c r="AP160">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ160">
         <v>1.94</v>
@@ -34671,7 +34683,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34877,7 +34889,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -34958,7 +34970,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ163">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR163">
         <v>1.24</v>
@@ -35289,7 +35301,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35495,7 +35507,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35701,7 +35713,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -35779,7 +35791,7 @@
         <v>1.18</v>
       </c>
       <c r="AP167">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ167">
         <v>1.07</v>
@@ -36113,7 +36125,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36191,7 +36203,7 @@
         <v>0.45</v>
       </c>
       <c r="AP169">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ169">
         <v>0.8100000000000001</v>
@@ -36319,7 +36331,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36525,7 +36537,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36731,7 +36743,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36812,7 +36824,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ172">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR172">
         <v>1.06</v>
@@ -36937,7 +36949,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -37143,7 +37155,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37349,7 +37361,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37633,10 +37645,10 @@
         <v>1.25</v>
       </c>
       <c r="AP176">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ176">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR176">
         <v>1.88</v>
@@ -37761,7 +37773,7 @@
         <v>210</v>
       </c>
       <c r="P177" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -38173,7 +38185,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -38379,7 +38391,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q180">
         <v>6.5</v>
@@ -38585,7 +38597,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q181">
         <v>2.95</v>
@@ -38791,7 +38803,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -38872,7 +38884,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ182">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR182">
         <v>1.75</v>
@@ -39075,7 +39087,7 @@
         <v>0.67</v>
       </c>
       <c r="AP183">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ183">
         <v>0.88</v>
@@ -39203,7 +39215,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39284,7 +39296,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ184">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR184">
         <v>1.18</v>
@@ -39409,7 +39421,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39487,7 +39499,7 @@
         <v>2</v>
       </c>
       <c r="AP185">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ185">
         <v>2.06</v>
@@ -39615,7 +39627,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39693,10 +39705,10 @@
         <v>1.15</v>
       </c>
       <c r="AP186">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ186">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR186">
         <v>1.83</v>
@@ -39821,7 +39833,7 @@
         <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -40233,7 +40245,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -41057,7 +41069,7 @@
         <v>112</v>
       </c>
       <c r="P193" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41469,7 +41481,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q195">
         <v>2.75</v>
@@ -41547,7 +41559,7 @@
         <v>2.15</v>
       </c>
       <c r="AP195">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ195">
         <v>1.94</v>
@@ -41962,7 +41974,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ197">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR197">
         <v>1.7</v>
@@ -42165,10 +42177,10 @@
         <v>1.29</v>
       </c>
       <c r="AP198">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ198">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR198">
         <v>2.03</v>
@@ -42371,10 +42383,10 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ199">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR199">
         <v>1.8</v>
@@ -42577,10 +42589,10 @@
         <v>2.07</v>
       </c>
       <c r="AP200">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ200">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR200">
         <v>1.89</v>
@@ -42705,7 +42717,7 @@
         <v>140</v>
       </c>
       <c r="P201" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42911,7 +42923,7 @@
         <v>89</v>
       </c>
       <c r="P202" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q202">
         <v>2.88</v>
@@ -43529,7 +43541,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q205">
         <v>11</v>
@@ -43735,7 +43747,7 @@
         <v>89</v>
       </c>
       <c r="P206" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43941,7 +43953,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44147,7 +44159,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q208">
         <v>2.88</v>
@@ -44353,7 +44365,7 @@
         <v>125</v>
       </c>
       <c r="P209" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q209">
         <v>2.58</v>
@@ -44559,7 +44571,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q210">
         <v>2.99</v>
@@ -44765,7 +44777,7 @@
         <v>89</v>
       </c>
       <c r="P211" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q211">
         <v>2.88</v>
@@ -44971,7 +44983,7 @@
         <v>229</v>
       </c>
       <c r="P212" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q212">
         <v>1.53</v>
@@ -45049,10 +45061,10 @@
         <v>0.93</v>
       </c>
       <c r="AP212">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ212">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR212">
         <v>1.85</v>
@@ -45258,7 +45270,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ213">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR213">
         <v>1.95</v>
@@ -45589,7 +45601,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q215">
         <v>3.15</v>
@@ -45795,7 +45807,7 @@
         <v>232</v>
       </c>
       <c r="P216" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q216">
         <v>3.08</v>
@@ -46001,7 +46013,7 @@
         <v>233</v>
       </c>
       <c r="P217" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46207,7 +46219,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -46413,7 +46425,7 @@
         <v>106</v>
       </c>
       <c r="P219" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46494,7 +46506,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ219">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR219">
         <v>1.74</v>
@@ -46619,7 +46631,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q220">
         <v>2.4</v>
@@ -46697,7 +46709,7 @@
         <v>2.13</v>
       </c>
       <c r="AP220">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ220">
         <v>1.94</v>
@@ -46825,7 +46837,7 @@
         <v>235</v>
       </c>
       <c r="P221" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -47649,7 +47661,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q225">
         <v>1.79</v>
@@ -48218,6 +48230,624 @@
       </c>
       <c r="BP227">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7378779</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45410.45833333334</v>
+      </c>
+      <c r="F228">
+        <v>8</v>
+      </c>
+      <c r="G228" t="s">
+        <v>74</v>
+      </c>
+      <c r="H228" t="s">
+        <v>79</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>2</v>
+      </c>
+      <c r="L228">
+        <v>4</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
+        <v>5</v>
+      </c>
+      <c r="O228" t="s">
+        <v>242</v>
+      </c>
+      <c r="P228" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q228">
+        <v>1.45</v>
+      </c>
+      <c r="R228">
+        <v>3.05</v>
+      </c>
+      <c r="S228">
+        <v>13</v>
+      </c>
+      <c r="T228">
+        <v>1.22</v>
+      </c>
+      <c r="U228">
+        <v>4</v>
+      </c>
+      <c r="V228">
+        <v>2</v>
+      </c>
+      <c r="W228">
+        <v>1.73</v>
+      </c>
+      <c r="X228">
+        <v>4.33</v>
+      </c>
+      <c r="Y228">
+        <v>1.2</v>
+      </c>
+      <c r="Z228">
+        <v>1.11</v>
+      </c>
+      <c r="AA228">
+        <v>6.67</v>
+      </c>
+      <c r="AB228">
+        <v>18.28</v>
+      </c>
+      <c r="AC228">
+        <v>1.01</v>
+      </c>
+      <c r="AD228">
+        <v>26</v>
+      </c>
+      <c r="AE228">
+        <v>1.11</v>
+      </c>
+      <c r="AF228">
+        <v>5.5</v>
+      </c>
+      <c r="AG228">
+        <v>1.33</v>
+      </c>
+      <c r="AH228">
+        <v>2.65</v>
+      </c>
+      <c r="AI228">
+        <v>2.38</v>
+      </c>
+      <c r="AJ228">
+        <v>1.53</v>
+      </c>
+      <c r="AK228">
+        <v>1.02</v>
+      </c>
+      <c r="AL228">
+        <v>1.05</v>
+      </c>
+      <c r="AM228">
+        <v>6</v>
+      </c>
+      <c r="AN228">
+        <v>2.25</v>
+      </c>
+      <c r="AO228">
+        <v>0.88</v>
+      </c>
+      <c r="AP228">
+        <v>2.29</v>
+      </c>
+      <c r="AQ228">
+        <v>0.82</v>
+      </c>
+      <c r="AR228">
+        <v>1.97</v>
+      </c>
+      <c r="AS228">
+        <v>1.05</v>
+      </c>
+      <c r="AT228">
+        <v>3.02</v>
+      </c>
+      <c r="AU228">
+        <v>11</v>
+      </c>
+      <c r="AV228">
+        <v>5</v>
+      </c>
+      <c r="AW228">
+        <v>6</v>
+      </c>
+      <c r="AX228">
+        <v>3</v>
+      </c>
+      <c r="AY228">
+        <v>17</v>
+      </c>
+      <c r="AZ228">
+        <v>8</v>
+      </c>
+      <c r="BA228">
+        <v>6</v>
+      </c>
+      <c r="BB228">
+        <v>3</v>
+      </c>
+      <c r="BC228">
+        <v>9</v>
+      </c>
+      <c r="BD228">
+        <v>1.05</v>
+      </c>
+      <c r="BE228">
+        <v>15</v>
+      </c>
+      <c r="BF228">
+        <v>12.4</v>
+      </c>
+      <c r="BG228">
+        <v>1.44</v>
+      </c>
+      <c r="BH228">
+        <v>2.58</v>
+      </c>
+      <c r="BI228">
+        <v>1.88</v>
+      </c>
+      <c r="BJ228">
+        <v>1.92</v>
+      </c>
+      <c r="BK228">
+        <v>2.32</v>
+      </c>
+      <c r="BL228">
+        <v>1.54</v>
+      </c>
+      <c r="BM228">
+        <v>3.08</v>
+      </c>
+      <c r="BN228">
+        <v>1.3</v>
+      </c>
+      <c r="BO228">
+        <v>4.45</v>
+      </c>
+      <c r="BP228">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7378780</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45410.5625</v>
+      </c>
+      <c r="F229">
+        <v>8</v>
+      </c>
+      <c r="G229" t="s">
+        <v>73</v>
+      </c>
+      <c r="H229" t="s">
+        <v>78</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>2</v>
+      </c>
+      <c r="L229">
+        <v>3</v>
+      </c>
+      <c r="M229">
+        <v>2</v>
+      </c>
+      <c r="N229">
+        <v>5</v>
+      </c>
+      <c r="O229" t="s">
+        <v>243</v>
+      </c>
+      <c r="P229" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q229">
+        <v>3.15</v>
+      </c>
+      <c r="R229">
+        <v>2</v>
+      </c>
+      <c r="S229">
+        <v>3.4</v>
+      </c>
+      <c r="T229">
+        <v>1.45</v>
+      </c>
+      <c r="U229">
+        <v>2.55</v>
+      </c>
+      <c r="V229">
+        <v>3</v>
+      </c>
+      <c r="W229">
+        <v>1.35</v>
+      </c>
+      <c r="X229">
+        <v>8.75</v>
+      </c>
+      <c r="Y229">
+        <v>1.07</v>
+      </c>
+      <c r="Z229">
+        <v>2.62</v>
+      </c>
+      <c r="AA229">
+        <v>3.2</v>
+      </c>
+      <c r="AB229">
+        <v>2.55</v>
+      </c>
+      <c r="AC229">
+        <v>1.06</v>
+      </c>
+      <c r="AD229">
+        <v>9.75</v>
+      </c>
+      <c r="AE229">
+        <v>1.35</v>
+      </c>
+      <c r="AF229">
+        <v>3</v>
+      </c>
+      <c r="AG229">
+        <v>2.05</v>
+      </c>
+      <c r="AH229">
+        <v>1.7</v>
+      </c>
+      <c r="AI229">
+        <v>1.7</v>
+      </c>
+      <c r="AJ229">
+        <v>2.05</v>
+      </c>
+      <c r="AK229">
+        <v>1.42</v>
+      </c>
+      <c r="AL229">
+        <v>1.3</v>
+      </c>
+      <c r="AM229">
+        <v>1.5</v>
+      </c>
+      <c r="AN229">
+        <v>2.33</v>
+      </c>
+      <c r="AO229">
+        <v>2</v>
+      </c>
+      <c r="AP229">
+        <v>2.38</v>
+      </c>
+      <c r="AQ229">
+        <v>1.88</v>
+      </c>
+      <c r="AR229">
+        <v>1.81</v>
+      </c>
+      <c r="AS229">
+        <v>1.9</v>
+      </c>
+      <c r="AT229">
+        <v>3.71</v>
+      </c>
+      <c r="AU229">
+        <v>6</v>
+      </c>
+      <c r="AV229">
+        <v>6</v>
+      </c>
+      <c r="AW229">
+        <v>2</v>
+      </c>
+      <c r="AX229">
+        <v>5</v>
+      </c>
+      <c r="AY229">
+        <v>8</v>
+      </c>
+      <c r="AZ229">
+        <v>11</v>
+      </c>
+      <c r="BA229">
+        <v>13</v>
+      </c>
+      <c r="BB229">
+        <v>4</v>
+      </c>
+      <c r="BC229">
+        <v>17</v>
+      </c>
+      <c r="BD229">
+        <v>2.1</v>
+      </c>
+      <c r="BE229">
+        <v>8.4</v>
+      </c>
+      <c r="BF229">
+        <v>2.01</v>
+      </c>
+      <c r="BG229">
+        <v>1.38</v>
+      </c>
+      <c r="BH229">
+        <v>2.8</v>
+      </c>
+      <c r="BI229">
+        <v>1.7</v>
+      </c>
+      <c r="BJ229">
+        <v>2.08</v>
+      </c>
+      <c r="BK229">
+        <v>2.16</v>
+      </c>
+      <c r="BL229">
+        <v>1.62</v>
+      </c>
+      <c r="BM229">
+        <v>2.88</v>
+      </c>
+      <c r="BN229">
+        <v>1.34</v>
+      </c>
+      <c r="BO229">
+        <v>4.05</v>
+      </c>
+      <c r="BP229">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7378781</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45410.60416666666</v>
+      </c>
+      <c r="F230">
+        <v>8</v>
+      </c>
+      <c r="G230" t="s">
+        <v>77</v>
+      </c>
+      <c r="H230" t="s">
+        <v>82</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>1</v>
+      </c>
+      <c r="N230">
+        <v>1</v>
+      </c>
+      <c r="O230" t="s">
+        <v>89</v>
+      </c>
+      <c r="P230" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q230">
+        <v>1.75</v>
+      </c>
+      <c r="R230">
+        <v>2.45</v>
+      </c>
+      <c r="S230">
+        <v>8</v>
+      </c>
+      <c r="T230">
+        <v>1.32</v>
+      </c>
+      <c r="U230">
+        <v>3.15</v>
+      </c>
+      <c r="V230">
+        <v>2.45</v>
+      </c>
+      <c r="W230">
+        <v>1.48</v>
+      </c>
+      <c r="X230">
+        <v>6.25</v>
+      </c>
+      <c r="Y230">
+        <v>1.11</v>
+      </c>
+      <c r="Z230">
+        <v>1.3</v>
+      </c>
+      <c r="AA230">
+        <v>5</v>
+      </c>
+      <c r="AB230">
+        <v>8</v>
+      </c>
+      <c r="AC230">
+        <v>1.03</v>
+      </c>
+      <c r="AD230">
+        <v>15</v>
+      </c>
+      <c r="AE230">
+        <v>1.22</v>
+      </c>
+      <c r="AF230">
+        <v>3.9</v>
+      </c>
+      <c r="AG230">
+        <v>1.7</v>
+      </c>
+      <c r="AH230">
+        <v>2</v>
+      </c>
+      <c r="AI230">
+        <v>2.05</v>
+      </c>
+      <c r="AJ230">
+        <v>1.7</v>
+      </c>
+      <c r="AK230">
+        <v>1.06</v>
+      </c>
+      <c r="AL230">
+        <v>1.13</v>
+      </c>
+      <c r="AM230">
+        <v>3.4</v>
+      </c>
+      <c r="AN230">
+        <v>2.25</v>
+      </c>
+      <c r="AO230">
+        <v>1.13</v>
+      </c>
+      <c r="AP230">
+        <v>2.12</v>
+      </c>
+      <c r="AQ230">
+        <v>1.24</v>
+      </c>
+      <c r="AR230">
+        <v>1.87</v>
+      </c>
+      <c r="AS230">
+        <v>1.01</v>
+      </c>
+      <c r="AT230">
+        <v>2.88</v>
+      </c>
+      <c r="AU230">
+        <v>7</v>
+      </c>
+      <c r="AV230">
+        <v>3</v>
+      </c>
+      <c r="AW230">
+        <v>10</v>
+      </c>
+      <c r="AX230">
+        <v>3</v>
+      </c>
+      <c r="AY230">
+        <v>17</v>
+      </c>
+      <c r="AZ230">
+        <v>6</v>
+      </c>
+      <c r="BA230">
+        <v>9</v>
+      </c>
+      <c r="BB230">
+        <v>1</v>
+      </c>
+      <c r="BC230">
+        <v>10</v>
+      </c>
+      <c r="BD230">
+        <v>1.15</v>
+      </c>
+      <c r="BE230">
+        <v>12.2</v>
+      </c>
+      <c r="BF230">
+        <v>7.5</v>
+      </c>
+      <c r="BG230">
+        <v>1.43</v>
+      </c>
+      <c r="BH230">
+        <v>2.62</v>
+      </c>
+      <c r="BI230">
+        <v>1.78</v>
+      </c>
+      <c r="BJ230">
+        <v>1.97</v>
+      </c>
+      <c r="BK230">
+        <v>2.27</v>
+      </c>
+      <c r="BL230">
+        <v>1.56</v>
+      </c>
+      <c r="BM230">
+        <v>3.08</v>
+      </c>
+      <c r="BN230">
+        <v>1.3</v>
+      </c>
+      <c r="BO230">
+        <v>4.4</v>
+      </c>
+      <c r="BP230">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>
